--- a/AMR KAP+ Farmer 2.0.xlsx
+++ b/AMR KAP+ Farmer 2.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681A841-C9D5-49CB-A217-CD4C957ACA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C42D1A-EC7A-487B-B970-AE0339777BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18460" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -3790,7 +3790,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3939,6 +3939,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4229,18 +4260,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4257,6 +4276,108 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4314,21 +4435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4336,90 +4442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4496,10 +4518,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4535,44 +4563,13 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4593,7 +4590,7 @@
     <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4616,219 +4613,6 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5219,6 +5003,219 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -7034,7 +7031,7 @@
     <tableColumn id="1" xr3:uid="{E6D93489-4442-4348-879A-50760BDEF337}" name="no"/>
     <tableColumn id="2" xr3:uid="{855C031B-C709-4679-8A6A-CA76F4274F27}" name="question"/>
     <tableColumn id="3" xr3:uid="{43FCC125-7E7E-4779-AF95-FCFF5103D6CC}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{664E9235-B01C-4390-83B0-346B9EDCFE95}" name="% of correct answers" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{664E9235-B01C-4390-83B0-346B9EDCFE95}" name="% of correct answers" dataDxfId="56" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{F26483FE-01CB-4F85-B4BE-9B9790861847}" name="Index">
       <calculatedColumnFormula>IF(X4="very low", 1, IF(X4="low", 2, IF(X4="moderate", 3, IF(X4="high", 4, 5))))</calculatedColumnFormula>
     </tableColumn>
@@ -7047,10 +7044,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{769A8450-CC3E-4B4C-8178-F68B6623C421}" name="Table4" displayName="Table4" ref="A26:M27" totalsRowShown="0">
-  <autoFilter ref="A26:M27" xr:uid="{DC51DB93-E186-401C-BFDE-86D3770E1402}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{769A8450-CC3E-4B4C-8178-F68B6623C421}" name="Table4" displayName="Table4" ref="A29:M30" totalsRowShown="0">
+  <autoFilter ref="A29:M30" xr:uid="{DC51DB93-E186-401C-BFDE-86D3770E1402}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{DEDE42EA-9948-4E36-9660-189B00C2A580}" name="Array" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DEDE42EA-9948-4E36-9660-189B00C2A580}" name="Array" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{583D6C21-D3C6-4C40-A135-3FD0A9C41157}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{051A9C02-D40E-418C-9EC4-9CB2C77527A6}" name="Min">
       <calculatedColumnFormula>MIN(processed_data!BN:BN)</calculatedColumnFormula>
@@ -7070,17 +7067,17 @@
     <tableColumn id="8" xr3:uid="{FC77EA13-4BC1-4D59-8FD0-59210FE28772}" name="Total Score">
       <calculatedColumnFormula>SUM(processed_data!BN:BN)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5D2FEF77-FF7A-42C6-95E8-DDFA8B5560DF}" name="(%) of correct" dataDxfId="4" dataCellStyle="Percent">
-      <calculatedColumnFormula>H27/COUNT(processed_data!A:A)/3</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{5D2FEF77-FF7A-42C6-95E8-DDFA8B5560DF}" name="(%) of correct" dataDxfId="43" dataCellStyle="Percent">
+      <calculatedColumnFormula>H30/COUNT(processed_data!A:A)/3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{7731E94D-8D4D-48A8-BDB8-BC0015A52542}" name="quartile index">
-      <calculatedColumnFormula>IF(I27&lt;=20%, "very low", IF(I27&lt;=40%, "low", IF(I27&lt;=60%, "moderate", IF(I27&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(I30&lt;=20%, "very low", IF(I30&lt;=40%, "low", IF(I30&lt;=60%, "moderate", IF(I30&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{F7D1F862-011A-49E3-B25D-40A4B7679FAC}" name="index">
-      <calculatedColumnFormula>IF(J27="very high", 5, IF(J27="high", 4, IF(J27="moderate", 3, IF(J27="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J30="very high", 5, IF(J30="high", 4, IF(J30="moderate", 3, IF(J30="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{59158F77-C214-4AFC-AC99-E45154774598}" name="range">
-      <calculatedColumnFormula>D27-C27</calculatedColumnFormula>
+      <calculatedColumnFormula>D30-C30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{33F30FCC-5315-489F-8495-B4C8C4B14C0D}" name="std. deviation">
       <calculatedColumnFormula>_xlfn.STDEV.S(processed_data!BN:BN)</calculatedColumnFormula>
@@ -7091,10 +7088,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEDEEB94-EA6D-47D0-A8C6-3579904F6580}" name="Table5" displayName="Table5" ref="A29:M33" totalsRowShown="0">
-  <autoFilter ref="A29:M33" xr:uid="{2C770B99-7B41-4FE2-85F6-330D5B3CEDF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEDEEB94-EA6D-47D0-A8C6-3579904F6580}" name="Table5" displayName="Table5" ref="A33:M37" totalsRowShown="0">
+  <autoFilter ref="A33:M37" xr:uid="{2C770B99-7B41-4FE2-85F6-330D5B3CEDF5}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AA97BE23-90D2-4E96-AF43-8DA8E313A3A9}" name="Array" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AA97BE23-90D2-4E96-AF43-8DA8E313A3A9}" name="Array" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{E61D341D-05DB-4C89-9F07-BD51C46C8C02}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{236F06B3-3F37-407E-9C43-9B88A9BAE499}" name="Min"/>
     <tableColumn id="4" xr3:uid="{2E45A061-5996-49D2-B154-A4C99BA38ACA}" name="Max"/>
@@ -7102,15 +7099,15 @@
     <tableColumn id="6" xr3:uid="{2C81B938-0AD4-43F9-84FC-9445AAF60A5D}" name="Median"/>
     <tableColumn id="7" xr3:uid="{FA80CAF6-20C7-467D-B2DB-1B950826B01C}" name="Mode"/>
     <tableColumn id="8" xr3:uid="{A4EB740B-DC29-448F-852D-3D2B736C7159}" name="Total Score"/>
-    <tableColumn id="9" xr3:uid="{46D98D35-1B70-44CB-8DC8-D3A3C5A22829}" name="(%) of correct" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{46D98D35-1B70-44CB-8DC8-D3A3C5A22829}" name="(%) of correct" dataDxfId="41" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{74F02060-94EC-400D-A5F6-CBC144B3F410}" name="quartile index">
-      <calculatedColumnFormula>IF(I30&lt;=20%, "very low", IF(I30&lt;=40%, "low", IF(I30&lt;=60%, "moderate", IF(I30&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(I34&lt;=20%, "very low", IF(I34&lt;=40%, "low", IF(I34&lt;=60%, "moderate", IF(I34&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{69514121-0CA9-4D24-B3DF-0CB75EA97A7E}" name="index">
-      <calculatedColumnFormula>IF(J30="very high", 5, IF(J30="high", 4, IF(J30="moderate", 3, IF(J30="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J34="very high", 5, IF(J34="high", 4, IF(J34="moderate", 3, IF(J34="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{1E683287-59A9-4524-A523-5182C7AEE951}" name="range">
-      <calculatedColumnFormula>D30-C30</calculatedColumnFormula>
+      <calculatedColumnFormula>D34-C34</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{6E0F47A0-9F6C-46E2-8B76-7F5B2CA320C2}" name="std. deviation"/>
   </tableColumns>
@@ -7130,7 +7127,7 @@
     <tableColumn id="6" xr3:uid="{2F494902-D616-4E40-8584-AA999D77D8F5}" name="4"/>
     <tableColumn id="7" xr3:uid="{B3C5EFCA-05EE-4713-B370-4A2C65D3BE1C}" name="5"/>
     <tableColumn id="8" xr3:uid="{066E8D39-E455-450F-952F-E74B72F25E01}" name="sample score"/>
-    <tableColumn id="9" xr3:uid="{AE6D69DE-67DC-42D2-ACCE-1ADC81B1FCD6}" name="% of agreement" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{AE6D69DE-67DC-42D2-ACCE-1ADC81B1FCD6}" name="% of agreement" dataDxfId="55" dataCellStyle="Percent">
       <calculatedColumnFormula>AG4/COUNT(coded_data!DD:DD)/5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{22910CD3-5A2F-4DCE-886B-9664C031ABF9}" name="index ">
@@ -7156,7 +7153,7 @@
     <tableColumn id="6" xr3:uid="{FC9ED884-5066-4CCA-81AE-0E1C09F04CB7}" name="4"/>
     <tableColumn id="7" xr3:uid="{19DD3578-2187-4F5A-9887-55CE6D37B40B}" name="5"/>
     <tableColumn id="8" xr3:uid="{C704E611-211A-4731-9041-365792178B80}" name="sample score"/>
-    <tableColumn id="9" xr3:uid="{FF298BFD-5B8C-4BEF-A350-748C02525222}" name="% of agreement" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{FF298BFD-5B8C-4BEF-A350-748C02525222}" name="% of agreement" dataDxfId="54" dataCellStyle="Percent">
       <calculatedColumnFormula>AS4/COUNT(coded_data!DP:DP)/5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4C5371AA-1F62-44AD-9343-D17853756528}" name="index ">
@@ -7177,7 +7174,7 @@
     <tableColumn id="1" xr3:uid="{E7492A8A-F2BD-4E88-B6B8-FEFB9695D2D8}" name="no"/>
     <tableColumn id="2" xr3:uid="{7A943FDC-7745-4905-AFCB-08247818A4E0}" name="question"/>
     <tableColumn id="3" xr3:uid="{4630BDDF-9AFF-4210-A4B4-E6AFE4E37866}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{06DACDD2-CCAB-4B27-BF01-CD473D256CCF}" name="% of correct answers" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{06DACDD2-CCAB-4B27-BF01-CD473D256CCF}" name="% of correct answers" dataDxfId="53" dataCellStyle="Percent">
       <calculatedColumnFormula>AZ4/COUNT(coded_data!A:A)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{15893549-531C-4130-9A07-2EF77D5F996F}" name="Index">
@@ -7198,7 +7195,7 @@
     <tableColumn id="1" xr3:uid="{D2685B19-401A-413D-A49F-92A9189A1D07}" name="no"/>
     <tableColumn id="2" xr3:uid="{76F8A2E1-D560-4857-BB4A-528EA4AF4FB3}" name="question"/>
     <tableColumn id="3" xr3:uid="{8D1B853C-1F23-44BC-80FF-C129E902DCB6}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{D79A976A-56C6-4B92-BCAB-182B521CD767}" name="% of correct answers" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{D79A976A-56C6-4B92-BCAB-182B521CD767}" name="% of correct answers" dataDxfId="52" dataCellStyle="Percent">
       <calculatedColumnFormula>AZ31/COUNT(coded_data!A:A)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{28CCB468-6E25-43B5-8E3F-06672B03669A}" name="Index">
@@ -7219,7 +7216,7 @@
     <tableColumn id="1" xr3:uid="{2D88E344-04EB-4C67-A3E3-383030C4A78A}" name="no"/>
     <tableColumn id="2" xr3:uid="{AB7352E1-5370-4F4E-969C-C3FE89066B81}" name="question"/>
     <tableColumn id="3" xr3:uid="{B762410F-F9C3-4A60-BB01-3C1F51E608C7}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{569D930D-A619-461A-82B3-7813BEC1E0FA}" name="% of correct answers" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{569D930D-A619-461A-82B3-7813BEC1E0FA}" name="% of correct answers" dataDxfId="51" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{96E34F71-64F4-4D03-BAE4-D422A72053C4}" name="Index">
       <calculatedColumnFormula>IF(BJ4="very low", 1, IF(BJ4="low", 2, IF(BJ4="moderate", 3, IF(BJ4="high", 4, 5))))</calculatedColumnFormula>
     </tableColumn>
@@ -7235,7 +7232,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30EEFC61-E5BD-4A55-A4E8-766F379312DE}" name="Table1" displayName="Table1" ref="A4:M10" totalsRowShown="0">
   <autoFilter ref="A4:M10" xr:uid="{FC6D8DDA-36F2-4909-9061-F95B705A6339}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{95421FD6-5EC1-4DE6-87C7-98A001A7FEAC}" name="Array" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{95421FD6-5EC1-4DE6-87C7-98A001A7FEAC}" name="Array" dataDxfId="50"/>
     <tableColumn id="2" xr3:uid="{B0569132-B2DA-4DED-B96A-4A05BB524ECF}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{83917A1C-B7A6-4C56-B58D-D0396D4F1D15}" name="Min"/>
     <tableColumn id="4" xr3:uid="{41EEC2FE-4922-4909-B747-2E27C1C92F1C}" name="Max"/>
@@ -7243,7 +7240,7 @@
     <tableColumn id="6" xr3:uid="{383B1966-AB99-4D7C-B4A3-3DD3E7111E06}" name="Median"/>
     <tableColumn id="7" xr3:uid="{8F8F0F3C-C71D-4242-8429-6F867CCF0E34}" name="Mode"/>
     <tableColumn id="8" xr3:uid="{44642D5F-D527-439B-8B10-688E5EF76A7D}" name="Total Score"/>
-    <tableColumn id="9" xr3:uid="{9B04DEE8-4A5E-4334-A0D0-86722C97BE2C}" name="(%) of correct" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9B04DEE8-4A5E-4334-A0D0-86722C97BE2C}" name="(%) of correct" dataDxfId="49" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{EE5D78B4-E066-489E-9149-C51D711DC002}" name="quartile index">
       <calculatedColumnFormula>IF(I5&lt;=20%, "very low", IF(I5&lt;=40%, "low", IF(I5&lt;=60%, "moderate", IF(I5&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -7260,10 +7257,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0935A2B7-9AAD-497D-949C-7FF347C0E912}" name="Table2" displayName="Table2" ref="A12:M14" totalsRowShown="0">
-  <autoFilter ref="A12:M14" xr:uid="{04BFEA51-1F22-4F60-A22D-D8727EDAD7CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0935A2B7-9AAD-497D-949C-7FF347C0E912}" name="Table2" displayName="Table2" ref="A13:M15" totalsRowShown="0">
+  <autoFilter ref="A13:M15" xr:uid="{04BFEA51-1F22-4F60-A22D-D8727EDAD7CD}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{730E3A46-A887-49D0-9C26-EEC8E0959119}" name="Array" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{730E3A46-A887-49D0-9C26-EEC8E0959119}" name="Array" dataDxfId="48"/>
     <tableColumn id="2" xr3:uid="{053F4AC0-47ED-4E5B-A940-4A02123F8229}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{1B0CC510-F8F0-4AEE-89BF-60375A3C05E2}" name="Min">
       <calculatedColumnFormula>MIN(processed_data!AD:AD)</calculatedColumnFormula>
@@ -7283,17 +7280,17 @@
     <tableColumn id="8" xr3:uid="{B6226717-AD5C-4882-BD8A-8493BDB2167C}" name="Total Score">
       <calculatedColumnFormula>SUM(processed_data!AD:AD)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C2B96F7A-15F4-4D2A-945D-73739FFF8F0A}" name="(%) of agreement" dataDxfId="8" dataCellStyle="Percent">
-      <calculatedColumnFormula>H13/COUNT(processed_data!A:A)/40</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{C2B96F7A-15F4-4D2A-945D-73739FFF8F0A}" name="(%) of agreement" dataDxfId="47" dataCellStyle="Percent">
+      <calculatedColumnFormula>H14/COUNT(processed_data!A:A)/40</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{110BDF92-BFF1-41AE-88A8-FFE0CF5238F7}" name="quartile index">
-      <calculatedColumnFormula>IF(I13&lt;=20%, "very low", IF(I13&lt;=40%, "low", IF(I13&lt;=60%, "moderate", IF(I13&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(I14&lt;=20%, "very low", IF(I14&lt;=40%, "low", IF(I14&lt;=60%, "moderate", IF(I14&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{7AD209FF-1B5B-41B6-8585-D2BAB1A5B04A}" name="index">
-      <calculatedColumnFormula>IF(J13="very high", 5, IF(J13="high", 4, IF(J13="moderate", 3, IF(J13="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J14="very high", 5, IF(J14="high", 4, IF(J14="moderate", 3, IF(J14="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{A383D281-48C3-44C8-B02D-9836D2A94B51}" name="range">
-      <calculatedColumnFormula>D13-C13</calculatedColumnFormula>
+      <calculatedColumnFormula>D14-C14</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{AF87C7B3-307F-41C0-86B2-0853D80077F8}" name="std. deviation">
       <calculatedColumnFormula>_xlfn.STDEV.S(processed_data!AD:AD)</calculatedColumnFormula>
@@ -7304,10 +7301,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7543DD5D-3FE7-4A33-BBF7-A08410B9B279}" name="Table3" displayName="Table3" ref="A16:M24" totalsRowShown="0">
-  <autoFilter ref="A16:M24" xr:uid="{C5FC9BBE-D7C8-4E24-AF4E-FCE1FCC47FA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7543DD5D-3FE7-4A33-BBF7-A08410B9B279}" name="Table3" displayName="Table3" ref="A18:M26" totalsRowShown="0">
+  <autoFilter ref="A18:M26" xr:uid="{C5FC9BBE-D7C8-4E24-AF4E-FCE1FCC47FA4}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C7171BCA-EC5A-43DF-A7B0-81379CB6F1DD}" name="Array" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C7171BCA-EC5A-43DF-A7B0-81379CB6F1DD}" name="Array" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{8401A35A-1F80-42D8-8D00-2F3BB11B669B}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{4107C2F0-3BA2-4D7E-A8D9-6258DABFEB97}" name="Min"/>
     <tableColumn id="4" xr3:uid="{C276A446-2660-4E9C-88DD-D0593C7578D1}" name="Max"/>
@@ -7315,15 +7312,15 @@
     <tableColumn id="6" xr3:uid="{489E89DE-E70D-4DEC-8F82-7D94B95678E3}" name="Median"/>
     <tableColumn id="7" xr3:uid="{F1E806DA-2B09-435E-BDB6-5F19C923BDD0}" name="Mode"/>
     <tableColumn id="8" xr3:uid="{95197FD5-7756-41EF-82E3-6F5F93449782}" name="Total Score"/>
-    <tableColumn id="9" xr3:uid="{C8C8F26D-287B-4AC6-A6E2-8E8A89E59A82}" name="(%) of correct" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{C8C8F26D-287B-4AC6-A6E2-8E8A89E59A82}" name="(%) of correct" dataDxfId="45" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{1D49422A-6353-45F4-8FE4-98CE694C5193}" name="quartile index">
-      <calculatedColumnFormula>IF(I17&lt;=20%, "very low", IF(I17&lt;=40%, "low", IF(I17&lt;=60%, "moderate", IF(I17&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(I19&lt;=20%, "very low", IF(I19&lt;=40%, "low", IF(I19&lt;=60%, "moderate", IF(I19&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{2681B3DD-F385-43BB-8A3B-D11CC9110515}" name="index">
-      <calculatedColumnFormula>IF(J17="very high", 5, IF(J17="high", 4, IF(J17="moderate", 3, IF(J17="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J19="very high", 5, IF(J19="high", 4, IF(J19="moderate", 3, IF(J19="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{2376277E-5A3F-4219-B509-302F462CFEAC}" name="range">
-      <calculatedColumnFormula>D17-C17</calculatedColumnFormula>
+      <calculatedColumnFormula>D19-C19</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{953CFF32-9DF1-4C4F-BBCD-EC59CA571371}" name="std. deviation"/>
   </tableColumns>
@@ -7654,9 +7651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7679,14 +7674,14 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="131" t="s">
+      <c r="L1" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="133"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="164"/>
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7722,11 +7717,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="96"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="127"/>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -7742,11 +7737,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="96"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="127"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7761,84 +7756,84 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="125"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="121" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="125"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="105" t="s">
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
       <c r="G8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="144"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -7866,12 +7861,12 @@
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -7884,22 +7879,22 @@
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="134" t="s">
+      <c r="H10" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="167"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -7912,22 +7907,22 @@
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="137" t="s">
+      <c r="H11" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -7937,23 +7932,23 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="144" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
+      <c r="A12" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
       <c r="G12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -7963,25 +7958,25 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -7991,25 +7986,25 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="116" t="s">
+      <c r="H14" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -8022,16 +8017,16 @@
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
+      <c r="B15" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="26"/>
@@ -8091,10 +8086,10 @@
     </row>
     <row r="22" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G22" s="6"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
     </row>
     <row r="23" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G23" s="7"/>
@@ -8156,9 +8151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD94FD4-D79C-4AF9-B31A-592CA19CF188}">
   <dimension ref="A1:JJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="IS1" workbookViewId="0">
-      <selection activeCell="JB3" sqref="JB3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8178,610 +8171,610 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="198" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="168"/>
-      <c r="AU1" s="168"/>
-      <c r="AV1" s="168"/>
-      <c r="AW1" s="168"/>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="168"/>
-      <c r="BB1" s="168"/>
-      <c r="BC1" s="168"/>
-      <c r="BD1" s="168"/>
-      <c r="BE1" s="168"/>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="168"/>
-      <c r="BI1" s="168"/>
-      <c r="BJ1" s="168"/>
-      <c r="BK1" s="168"/>
-      <c r="BL1" s="168"/>
-      <c r="BM1" s="168"/>
-      <c r="BN1" s="168"/>
-      <c r="BO1" s="168"/>
-      <c r="BP1" s="168"/>
-      <c r="BQ1" s="168"/>
-      <c r="BR1" s="168"/>
-      <c r="BS1" s="168"/>
-      <c r="BT1" s="168"/>
-      <c r="BU1" s="168"/>
-      <c r="BV1" s="168"/>
-      <c r="BW1" s="168"/>
-      <c r="BX1" s="168"/>
-      <c r="BY1" s="168"/>
-      <c r="BZ1" s="168"/>
-      <c r="CA1" s="168"/>
-      <c r="CB1" s="168"/>
-      <c r="CC1" s="168"/>
-      <c r="CD1" s="168"/>
-      <c r="CE1" s="168"/>
-      <c r="CF1" s="168"/>
-      <c r="CG1" s="168"/>
-      <c r="CH1" s="168"/>
-      <c r="CI1" s="168"/>
-      <c r="CJ1" s="168"/>
-      <c r="CK1" s="168"/>
-      <c r="CL1" s="168"/>
-      <c r="CM1" s="168"/>
-      <c r="CN1" s="168"/>
-      <c r="CO1" s="168"/>
-      <c r="CP1" s="168"/>
-      <c r="CQ1" s="169"/>
-      <c r="CR1" s="170" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
+      <c r="AJ1" s="199"/>
+      <c r="AK1" s="199"/>
+      <c r="AL1" s="199"/>
+      <c r="AM1" s="199"/>
+      <c r="AN1" s="199"/>
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="199"/>
+      <c r="AQ1" s="199"/>
+      <c r="AR1" s="199"/>
+      <c r="AS1" s="199"/>
+      <c r="AT1" s="199"/>
+      <c r="AU1" s="199"/>
+      <c r="AV1" s="199"/>
+      <c r="AW1" s="199"/>
+      <c r="AX1" s="199"/>
+      <c r="AY1" s="199"/>
+      <c r="AZ1" s="199"/>
+      <c r="BA1" s="199"/>
+      <c r="BB1" s="199"/>
+      <c r="BC1" s="199"/>
+      <c r="BD1" s="199"/>
+      <c r="BE1" s="199"/>
+      <c r="BF1" s="199"/>
+      <c r="BG1" s="199"/>
+      <c r="BH1" s="199"/>
+      <c r="BI1" s="199"/>
+      <c r="BJ1" s="199"/>
+      <c r="BK1" s="199"/>
+      <c r="BL1" s="199"/>
+      <c r="BM1" s="199"/>
+      <c r="BN1" s="199"/>
+      <c r="BO1" s="199"/>
+      <c r="BP1" s="199"/>
+      <c r="BQ1" s="199"/>
+      <c r="BR1" s="199"/>
+      <c r="BS1" s="199"/>
+      <c r="BT1" s="199"/>
+      <c r="BU1" s="199"/>
+      <c r="BV1" s="199"/>
+      <c r="BW1" s="199"/>
+      <c r="BX1" s="199"/>
+      <c r="BY1" s="199"/>
+      <c r="BZ1" s="199"/>
+      <c r="CA1" s="199"/>
+      <c r="CB1" s="199"/>
+      <c r="CC1" s="199"/>
+      <c r="CD1" s="199"/>
+      <c r="CE1" s="199"/>
+      <c r="CF1" s="199"/>
+      <c r="CG1" s="199"/>
+      <c r="CH1" s="199"/>
+      <c r="CI1" s="199"/>
+      <c r="CJ1" s="199"/>
+      <c r="CK1" s="199"/>
+      <c r="CL1" s="199"/>
+      <c r="CM1" s="199"/>
+      <c r="CN1" s="199"/>
+      <c r="CO1" s="199"/>
+      <c r="CP1" s="199"/>
+      <c r="CQ1" s="200"/>
+      <c r="CR1" s="201" t="s">
         <v>480</v>
       </c>
-      <c r="CS1" s="171"/>
-      <c r="CT1" s="171"/>
-      <c r="CU1" s="171"/>
-      <c r="CV1" s="171"/>
-      <c r="CW1" s="171"/>
-      <c r="CX1" s="171"/>
-      <c r="CY1" s="171"/>
-      <c r="CZ1" s="171"/>
-      <c r="DA1" s="171"/>
-      <c r="DB1" s="171"/>
-      <c r="DC1" s="171"/>
-      <c r="DD1" s="171"/>
-      <c r="DE1" s="171"/>
-      <c r="DF1" s="171"/>
-      <c r="DG1" s="171"/>
-      <c r="DH1" s="171"/>
-      <c r="DI1" s="171"/>
-      <c r="DJ1" s="171"/>
-      <c r="DK1" s="171"/>
-      <c r="DL1" s="171"/>
-      <c r="DM1" s="171"/>
-      <c r="DN1" s="171"/>
-      <c r="DO1" s="171"/>
-      <c r="DP1" s="171"/>
-      <c r="DQ1" s="171"/>
-      <c r="DR1" s="171"/>
-      <c r="DS1" s="171"/>
-      <c r="DT1" s="171"/>
-      <c r="DU1" s="171"/>
-      <c r="DV1" s="171"/>
-      <c r="DW1" s="171"/>
-      <c r="DX1" s="171"/>
-      <c r="DY1" s="171"/>
-      <c r="DZ1" s="171"/>
-      <c r="EA1" s="171"/>
-      <c r="EB1" s="171"/>
-      <c r="EC1" s="171"/>
-      <c r="ED1" s="171"/>
-      <c r="EE1" s="172"/>
-      <c r="EF1" s="173" t="s">
+      <c r="CS1" s="202"/>
+      <c r="CT1" s="202"/>
+      <c r="CU1" s="202"/>
+      <c r="CV1" s="202"/>
+      <c r="CW1" s="202"/>
+      <c r="CX1" s="202"/>
+      <c r="CY1" s="202"/>
+      <c r="CZ1" s="202"/>
+      <c r="DA1" s="202"/>
+      <c r="DB1" s="202"/>
+      <c r="DC1" s="202"/>
+      <c r="DD1" s="202"/>
+      <c r="DE1" s="202"/>
+      <c r="DF1" s="202"/>
+      <c r="DG1" s="202"/>
+      <c r="DH1" s="202"/>
+      <c r="DI1" s="202"/>
+      <c r="DJ1" s="202"/>
+      <c r="DK1" s="202"/>
+      <c r="DL1" s="202"/>
+      <c r="DM1" s="202"/>
+      <c r="DN1" s="202"/>
+      <c r="DO1" s="202"/>
+      <c r="DP1" s="202"/>
+      <c r="DQ1" s="202"/>
+      <c r="DR1" s="202"/>
+      <c r="DS1" s="202"/>
+      <c r="DT1" s="202"/>
+      <c r="DU1" s="202"/>
+      <c r="DV1" s="202"/>
+      <c r="DW1" s="202"/>
+      <c r="DX1" s="202"/>
+      <c r="DY1" s="202"/>
+      <c r="DZ1" s="202"/>
+      <c r="EA1" s="202"/>
+      <c r="EB1" s="202"/>
+      <c r="EC1" s="202"/>
+      <c r="ED1" s="202"/>
+      <c r="EE1" s="203"/>
+      <c r="EF1" s="204" t="s">
         <v>481</v>
       </c>
-      <c r="EG1" s="174"/>
-      <c r="EH1" s="174"/>
-      <c r="EI1" s="174"/>
-      <c r="EJ1" s="174"/>
-      <c r="EK1" s="174"/>
-      <c r="EL1" s="174"/>
-      <c r="EM1" s="174"/>
-      <c r="EN1" s="174"/>
-      <c r="EO1" s="175"/>
-      <c r="EP1" s="176" t="s">
+      <c r="EG1" s="205"/>
+      <c r="EH1" s="205"/>
+      <c r="EI1" s="205"/>
+      <c r="EJ1" s="205"/>
+      <c r="EK1" s="205"/>
+      <c r="EL1" s="205"/>
+      <c r="EM1" s="205"/>
+      <c r="EN1" s="205"/>
+      <c r="EO1" s="206"/>
+      <c r="EP1" s="207" t="s">
         <v>482</v>
       </c>
-      <c r="EQ1" s="177"/>
-      <c r="ER1" s="177"/>
-      <c r="ES1" s="177"/>
-      <c r="ET1" s="177"/>
-      <c r="EU1" s="177"/>
-      <c r="EV1" s="177"/>
-      <c r="EW1" s="177"/>
-      <c r="EX1" s="177"/>
-      <c r="EY1" s="177"/>
-      <c r="EZ1" s="177"/>
-      <c r="FA1" s="177"/>
-      <c r="FB1" s="177"/>
-      <c r="FC1" s="177"/>
-      <c r="FD1" s="177"/>
-      <c r="FE1" s="177"/>
-      <c r="FF1" s="177"/>
-      <c r="FG1" s="177"/>
-      <c r="FH1" s="177"/>
-      <c r="FI1" s="177"/>
-      <c r="FJ1" s="177"/>
-      <c r="FK1" s="177"/>
-      <c r="FL1" s="177"/>
-      <c r="FM1" s="177"/>
-      <c r="FN1" s="177"/>
-      <c r="FO1" s="177"/>
-      <c r="FP1" s="177"/>
-      <c r="FQ1" s="177"/>
-      <c r="FR1" s="177"/>
-      <c r="FS1" s="177"/>
-      <c r="FT1" s="177"/>
-      <c r="FU1" s="177"/>
-      <c r="FV1" s="177"/>
-      <c r="FW1" s="177"/>
-      <c r="FX1" s="177"/>
-      <c r="FY1" s="177"/>
-      <c r="FZ1" s="177"/>
-      <c r="GA1" s="177"/>
-      <c r="GB1" s="177"/>
-      <c r="GC1" s="177"/>
-      <c r="GD1" s="177"/>
-      <c r="GE1" s="177"/>
-      <c r="GF1" s="177"/>
-      <c r="GG1" s="177"/>
-      <c r="GH1" s="177"/>
-      <c r="GI1" s="177"/>
-      <c r="GJ1" s="177"/>
-      <c r="GK1" s="177"/>
-      <c r="GL1" s="177"/>
-      <c r="GM1" s="177"/>
-      <c r="GN1" s="177"/>
-      <c r="GO1" s="177"/>
-      <c r="GP1" s="177"/>
-      <c r="GQ1" s="177"/>
-      <c r="GR1" s="177"/>
-      <c r="GS1" s="177"/>
-      <c r="GT1" s="177"/>
-      <c r="GU1" s="177"/>
-      <c r="GV1" s="177"/>
-      <c r="GW1" s="177"/>
-      <c r="GX1" s="177"/>
-      <c r="GY1" s="177"/>
-      <c r="GZ1" s="177"/>
-      <c r="HA1" s="177"/>
-      <c r="HB1" s="177"/>
-      <c r="HC1" s="177"/>
-      <c r="HD1" s="177"/>
-      <c r="HE1" s="155" t="s">
+      <c r="EQ1" s="208"/>
+      <c r="ER1" s="208"/>
+      <c r="ES1" s="208"/>
+      <c r="ET1" s="208"/>
+      <c r="EU1" s="208"/>
+      <c r="EV1" s="208"/>
+      <c r="EW1" s="208"/>
+      <c r="EX1" s="208"/>
+      <c r="EY1" s="208"/>
+      <c r="EZ1" s="208"/>
+      <c r="FA1" s="208"/>
+      <c r="FB1" s="208"/>
+      <c r="FC1" s="208"/>
+      <c r="FD1" s="208"/>
+      <c r="FE1" s="208"/>
+      <c r="FF1" s="208"/>
+      <c r="FG1" s="208"/>
+      <c r="FH1" s="208"/>
+      <c r="FI1" s="208"/>
+      <c r="FJ1" s="208"/>
+      <c r="FK1" s="208"/>
+      <c r="FL1" s="208"/>
+      <c r="FM1" s="208"/>
+      <c r="FN1" s="208"/>
+      <c r="FO1" s="208"/>
+      <c r="FP1" s="208"/>
+      <c r="FQ1" s="208"/>
+      <c r="FR1" s="208"/>
+      <c r="FS1" s="208"/>
+      <c r="FT1" s="208"/>
+      <c r="FU1" s="208"/>
+      <c r="FV1" s="208"/>
+      <c r="FW1" s="208"/>
+      <c r="FX1" s="208"/>
+      <c r="FY1" s="208"/>
+      <c r="FZ1" s="208"/>
+      <c r="GA1" s="208"/>
+      <c r="GB1" s="208"/>
+      <c r="GC1" s="208"/>
+      <c r="GD1" s="208"/>
+      <c r="GE1" s="208"/>
+      <c r="GF1" s="208"/>
+      <c r="GG1" s="208"/>
+      <c r="GH1" s="208"/>
+      <c r="GI1" s="208"/>
+      <c r="GJ1" s="208"/>
+      <c r="GK1" s="208"/>
+      <c r="GL1" s="208"/>
+      <c r="GM1" s="208"/>
+      <c r="GN1" s="208"/>
+      <c r="GO1" s="208"/>
+      <c r="GP1" s="208"/>
+      <c r="GQ1" s="208"/>
+      <c r="GR1" s="208"/>
+      <c r="GS1" s="208"/>
+      <c r="GT1" s="208"/>
+      <c r="GU1" s="208"/>
+      <c r="GV1" s="208"/>
+      <c r="GW1" s="208"/>
+      <c r="GX1" s="208"/>
+      <c r="GY1" s="208"/>
+      <c r="GZ1" s="208"/>
+      <c r="HA1" s="208"/>
+      <c r="HB1" s="208"/>
+      <c r="HC1" s="208"/>
+      <c r="HD1" s="208"/>
+      <c r="HE1" s="186" t="s">
         <v>485</v>
       </c>
-      <c r="HF1" s="156"/>
-      <c r="HG1" s="157"/>
-      <c r="HH1" s="161" t="s">
+      <c r="HF1" s="187"/>
+      <c r="HG1" s="188"/>
+      <c r="HH1" s="192" t="s">
         <v>483</v>
       </c>
-      <c r="HI1" s="162"/>
-      <c r="HJ1" s="162"/>
-      <c r="HK1" s="162"/>
-      <c r="HL1" s="162"/>
-      <c r="HM1" s="162"/>
-      <c r="HN1" s="162"/>
-      <c r="HO1" s="162"/>
-      <c r="HP1" s="162"/>
-      <c r="HQ1" s="162"/>
-      <c r="HR1" s="162"/>
-      <c r="HS1" s="162"/>
-      <c r="HT1" s="162"/>
-      <c r="HU1" s="162"/>
-      <c r="HV1" s="162"/>
-      <c r="HW1" s="162"/>
-      <c r="HX1" s="162"/>
-      <c r="HY1" s="162"/>
-      <c r="HZ1" s="162"/>
-      <c r="IA1" s="162"/>
-      <c r="IB1" s="162"/>
-      <c r="IC1" s="162"/>
-      <c r="ID1" s="162"/>
-      <c r="IE1" s="162"/>
-      <c r="IF1" s="162"/>
-      <c r="IG1" s="162"/>
-      <c r="IH1" s="162"/>
-      <c r="II1" s="162"/>
-      <c r="IJ1" s="163"/>
-      <c r="IK1" s="164" t="s">
+      <c r="HI1" s="193"/>
+      <c r="HJ1" s="193"/>
+      <c r="HK1" s="193"/>
+      <c r="HL1" s="193"/>
+      <c r="HM1" s="193"/>
+      <c r="HN1" s="193"/>
+      <c r="HO1" s="193"/>
+      <c r="HP1" s="193"/>
+      <c r="HQ1" s="193"/>
+      <c r="HR1" s="193"/>
+      <c r="HS1" s="193"/>
+      <c r="HT1" s="193"/>
+      <c r="HU1" s="193"/>
+      <c r="HV1" s="193"/>
+      <c r="HW1" s="193"/>
+      <c r="HX1" s="193"/>
+      <c r="HY1" s="193"/>
+      <c r="HZ1" s="193"/>
+      <c r="IA1" s="193"/>
+      <c r="IB1" s="193"/>
+      <c r="IC1" s="193"/>
+      <c r="ID1" s="193"/>
+      <c r="IE1" s="193"/>
+      <c r="IF1" s="193"/>
+      <c r="IG1" s="193"/>
+      <c r="IH1" s="193"/>
+      <c r="II1" s="193"/>
+      <c r="IJ1" s="194"/>
+      <c r="IK1" s="195" t="s">
         <v>484</v>
       </c>
-      <c r="IL1" s="165"/>
-      <c r="IM1" s="165"/>
-      <c r="IN1" s="165"/>
-      <c r="IO1" s="165"/>
-      <c r="IP1" s="165"/>
-      <c r="IQ1" s="165"/>
-      <c r="IR1" s="165"/>
-      <c r="IS1" s="165"/>
-      <c r="IT1" s="165"/>
-      <c r="IU1" s="165"/>
-      <c r="IV1" s="165"/>
-      <c r="IW1" s="165"/>
-      <c r="IX1" s="165"/>
-      <c r="IY1" s="165"/>
-      <c r="IZ1" s="165"/>
-      <c r="JA1" s="165"/>
-      <c r="JB1" s="165"/>
-      <c r="JC1" s="165"/>
-      <c r="JD1" s="165"/>
-      <c r="JE1" s="165"/>
-      <c r="JF1" s="165"/>
-      <c r="JG1" s="165"/>
-      <c r="JH1" s="165"/>
-      <c r="JI1" s="166"/>
+      <c r="IL1" s="196"/>
+      <c r="IM1" s="196"/>
+      <c r="IN1" s="196"/>
+      <c r="IO1" s="196"/>
+      <c r="IP1" s="196"/>
+      <c r="IQ1" s="196"/>
+      <c r="IR1" s="196"/>
+      <c r="IS1" s="196"/>
+      <c r="IT1" s="196"/>
+      <c r="IU1" s="196"/>
+      <c r="IV1" s="196"/>
+      <c r="IW1" s="196"/>
+      <c r="IX1" s="196"/>
+      <c r="IY1" s="196"/>
+      <c r="IZ1" s="196"/>
+      <c r="JA1" s="196"/>
+      <c r="JB1" s="196"/>
+      <c r="JC1" s="196"/>
+      <c r="JD1" s="196"/>
+      <c r="JE1" s="196"/>
+      <c r="JF1" s="196"/>
+      <c r="JG1" s="196"/>
+      <c r="JH1" s="196"/>
+      <c r="JI1" s="197"/>
     </row>
     <row r="2" spans="1:269" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="180" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="154"/>
-      <c r="AM2" s="154"/>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="154"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="154"/>
-      <c r="AS2" s="154"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
-      <c r="AX2" s="154"/>
-      <c r="AY2" s="154"/>
-      <c r="AZ2" s="154"/>
-      <c r="BA2" s="154"/>
-      <c r="BB2" s="154"/>
-      <c r="BC2" s="154"/>
-      <c r="BD2" s="154"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="149" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="185"/>
+      <c r="AN2" s="185"/>
+      <c r="AO2" s="185"/>
+      <c r="AP2" s="185"/>
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="185"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="185"/>
+      <c r="AX2" s="185"/>
+      <c r="AY2" s="185"/>
+      <c r="AZ2" s="185"/>
+      <c r="BA2" s="185"/>
+      <c r="BB2" s="185"/>
+      <c r="BC2" s="185"/>
+      <c r="BD2" s="185"/>
+      <c r="BE2" s="181"/>
+      <c r="BF2" s="180" t="s">
         <v>478</v>
       </c>
-      <c r="BG2" s="154"/>
-      <c r="BH2" s="154"/>
-      <c r="BI2" s="154"/>
-      <c r="BJ2" s="154"/>
-      <c r="BK2" s="154"/>
-      <c r="BL2" s="154"/>
-      <c r="BM2" s="154"/>
-      <c r="BN2" s="154"/>
-      <c r="BO2" s="154"/>
-      <c r="BP2" s="154"/>
-      <c r="BQ2" s="154"/>
-      <c r="BR2" s="154"/>
-      <c r="BS2" s="154"/>
-      <c r="BT2" s="154"/>
-      <c r="BU2" s="154"/>
-      <c r="BV2" s="154"/>
-      <c r="BW2" s="154"/>
-      <c r="BX2" s="154"/>
-      <c r="BY2" s="154"/>
-      <c r="BZ2" s="154"/>
-      <c r="CA2" s="154"/>
-      <c r="CB2" s="154"/>
-      <c r="CC2" s="154"/>
-      <c r="CD2" s="154"/>
-      <c r="CE2" s="154"/>
-      <c r="CF2" s="154"/>
-      <c r="CG2" s="154"/>
-      <c r="CH2" s="154"/>
-      <c r="CI2" s="154"/>
-      <c r="CJ2" s="154"/>
-      <c r="CK2" s="154"/>
-      <c r="CL2" s="154"/>
-      <c r="CM2" s="154"/>
-      <c r="CN2" s="154"/>
-      <c r="CO2" s="154"/>
-      <c r="CP2" s="154"/>
-      <c r="CQ2" s="150"/>
-      <c r="CR2" s="149" t="s">
+      <c r="BG2" s="185"/>
+      <c r="BH2" s="185"/>
+      <c r="BI2" s="185"/>
+      <c r="BJ2" s="185"/>
+      <c r="BK2" s="185"/>
+      <c r="BL2" s="185"/>
+      <c r="BM2" s="185"/>
+      <c r="BN2" s="185"/>
+      <c r="BO2" s="185"/>
+      <c r="BP2" s="185"/>
+      <c r="BQ2" s="185"/>
+      <c r="BR2" s="185"/>
+      <c r="BS2" s="185"/>
+      <c r="BT2" s="185"/>
+      <c r="BU2" s="185"/>
+      <c r="BV2" s="185"/>
+      <c r="BW2" s="185"/>
+      <c r="BX2" s="185"/>
+      <c r="BY2" s="185"/>
+      <c r="BZ2" s="185"/>
+      <c r="CA2" s="185"/>
+      <c r="CB2" s="185"/>
+      <c r="CC2" s="185"/>
+      <c r="CD2" s="185"/>
+      <c r="CE2" s="185"/>
+      <c r="CF2" s="185"/>
+      <c r="CG2" s="185"/>
+      <c r="CH2" s="185"/>
+      <c r="CI2" s="185"/>
+      <c r="CJ2" s="185"/>
+      <c r="CK2" s="185"/>
+      <c r="CL2" s="185"/>
+      <c r="CM2" s="185"/>
+      <c r="CN2" s="185"/>
+      <c r="CO2" s="185"/>
+      <c r="CP2" s="185"/>
+      <c r="CQ2" s="181"/>
+      <c r="CR2" s="180" t="s">
         <v>454</v>
       </c>
-      <c r="CS2" s="154"/>
-      <c r="CT2" s="154"/>
-      <c r="CU2" s="154"/>
-      <c r="CV2" s="150"/>
-      <c r="CW2" s="149" t="s">
+      <c r="CS2" s="185"/>
+      <c r="CT2" s="185"/>
+      <c r="CU2" s="185"/>
+      <c r="CV2" s="181"/>
+      <c r="CW2" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="CX2" s="154"/>
-      <c r="CY2" s="154"/>
-      <c r="CZ2" s="154"/>
-      <c r="DA2" s="154"/>
-      <c r="DB2" s="150"/>
-      <c r="DC2" s="149" t="s">
+      <c r="CX2" s="185"/>
+      <c r="CY2" s="185"/>
+      <c r="CZ2" s="185"/>
+      <c r="DA2" s="185"/>
+      <c r="DB2" s="181"/>
+      <c r="DC2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DD2" s="154"/>
-      <c r="DE2" s="154"/>
-      <c r="DF2" s="154"/>
-      <c r="DG2" s="154"/>
-      <c r="DH2" s="154"/>
-      <c r="DI2" s="154"/>
-      <c r="DJ2" s="150"/>
-      <c r="DK2" s="149" t="s">
+      <c r="DD2" s="185"/>
+      <c r="DE2" s="185"/>
+      <c r="DF2" s="185"/>
+      <c r="DG2" s="185"/>
+      <c r="DH2" s="185"/>
+      <c r="DI2" s="185"/>
+      <c r="DJ2" s="181"/>
+      <c r="DK2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DL2" s="154"/>
-      <c r="DM2" s="154"/>
-      <c r="DN2" s="154"/>
-      <c r="DO2" s="154"/>
-      <c r="DP2" s="154"/>
-      <c r="DQ2" s="154"/>
-      <c r="DR2" s="150"/>
-      <c r="DS2" s="149" t="s">
+      <c r="DL2" s="185"/>
+      <c r="DM2" s="185"/>
+      <c r="DN2" s="185"/>
+      <c r="DO2" s="185"/>
+      <c r="DP2" s="185"/>
+      <c r="DQ2" s="185"/>
+      <c r="DR2" s="181"/>
+      <c r="DS2" s="180" t="s">
         <v>457</v>
       </c>
-      <c r="DT2" s="154"/>
-      <c r="DU2" s="154"/>
-      <c r="DV2" s="154"/>
-      <c r="DW2" s="150"/>
-      <c r="DX2" s="149" t="s">
+      <c r="DT2" s="185"/>
+      <c r="DU2" s="185"/>
+      <c r="DV2" s="185"/>
+      <c r="DW2" s="181"/>
+      <c r="DX2" s="180" t="s">
         <v>458</v>
       </c>
-      <c r="DY2" s="154"/>
-      <c r="DZ2" s="154"/>
-      <c r="EA2" s="154"/>
-      <c r="EB2" s="154"/>
-      <c r="EC2" s="154"/>
-      <c r="ED2" s="154"/>
-      <c r="EE2" s="150"/>
-      <c r="EF2" s="149" t="s">
+      <c r="DY2" s="185"/>
+      <c r="DZ2" s="185"/>
+      <c r="EA2" s="185"/>
+      <c r="EB2" s="185"/>
+      <c r="EC2" s="185"/>
+      <c r="ED2" s="185"/>
+      <c r="EE2" s="181"/>
+      <c r="EF2" s="180" t="s">
         <v>459</v>
       </c>
-      <c r="EG2" s="150"/>
-      <c r="EH2" s="151" t="s">
+      <c r="EG2" s="181"/>
+      <c r="EH2" s="182" t="s">
         <v>460</v>
       </c>
-      <c r="EI2" s="152"/>
-      <c r="EJ2" s="152"/>
-      <c r="EK2" s="152"/>
-      <c r="EL2" s="152"/>
-      <c r="EM2" s="152"/>
-      <c r="EN2" s="152"/>
-      <c r="EO2" s="153"/>
-      <c r="EP2" s="149" t="s">
+      <c r="EI2" s="183"/>
+      <c r="EJ2" s="183"/>
+      <c r="EK2" s="183"/>
+      <c r="EL2" s="183"/>
+      <c r="EM2" s="183"/>
+      <c r="EN2" s="183"/>
+      <c r="EO2" s="184"/>
+      <c r="EP2" s="180" t="s">
         <v>461</v>
       </c>
-      <c r="EQ2" s="154"/>
-      <c r="ER2" s="154"/>
-      <c r="ES2" s="154"/>
-      <c r="ET2" s="154"/>
-      <c r="EU2" s="154"/>
-      <c r="EV2" s="154"/>
-      <c r="EW2" s="154"/>
-      <c r="EX2" s="154"/>
-      <c r="EY2" s="154"/>
-      <c r="EZ2" s="154"/>
-      <c r="FA2" s="150"/>
-      <c r="FB2" s="149" t="s">
+      <c r="EQ2" s="185"/>
+      <c r="ER2" s="185"/>
+      <c r="ES2" s="185"/>
+      <c r="ET2" s="185"/>
+      <c r="EU2" s="185"/>
+      <c r="EV2" s="185"/>
+      <c r="EW2" s="185"/>
+      <c r="EX2" s="185"/>
+      <c r="EY2" s="185"/>
+      <c r="EZ2" s="185"/>
+      <c r="FA2" s="181"/>
+      <c r="FB2" s="180" t="s">
         <v>462</v>
       </c>
-      <c r="FC2" s="154"/>
-      <c r="FD2" s="154"/>
-      <c r="FE2" s="154"/>
-      <c r="FF2" s="154"/>
-      <c r="FG2" s="154"/>
-      <c r="FH2" s="154"/>
-      <c r="FI2" s="150"/>
-      <c r="FJ2" s="149" t="s">
+      <c r="FC2" s="185"/>
+      <c r="FD2" s="185"/>
+      <c r="FE2" s="185"/>
+      <c r="FF2" s="185"/>
+      <c r="FG2" s="185"/>
+      <c r="FH2" s="185"/>
+      <c r="FI2" s="181"/>
+      <c r="FJ2" s="180" t="s">
         <v>463</v>
       </c>
-      <c r="FK2" s="154"/>
-      <c r="FL2" s="154"/>
-      <c r="FM2" s="154"/>
-      <c r="FN2" s="154"/>
-      <c r="FO2" s="154"/>
-      <c r="FP2" s="154"/>
-      <c r="FQ2" s="154"/>
-      <c r="FR2" s="154"/>
-      <c r="FS2" s="154"/>
-      <c r="FT2" s="154"/>
-      <c r="FU2" s="154"/>
-      <c r="FV2" s="150"/>
-      <c r="FW2" s="149" t="s">
+      <c r="FK2" s="185"/>
+      <c r="FL2" s="185"/>
+      <c r="FM2" s="185"/>
+      <c r="FN2" s="185"/>
+      <c r="FO2" s="185"/>
+      <c r="FP2" s="185"/>
+      <c r="FQ2" s="185"/>
+      <c r="FR2" s="185"/>
+      <c r="FS2" s="185"/>
+      <c r="FT2" s="185"/>
+      <c r="FU2" s="185"/>
+      <c r="FV2" s="181"/>
+      <c r="FW2" s="180" t="s">
         <v>464</v>
       </c>
-      <c r="FX2" s="150"/>
-      <c r="FY2" s="149" t="s">
+      <c r="FX2" s="181"/>
+      <c r="FY2" s="180" t="s">
         <v>465</v>
       </c>
-      <c r="FZ2" s="154"/>
-      <c r="GA2" s="154"/>
-      <c r="GB2" s="154"/>
-      <c r="GC2" s="154"/>
-      <c r="GD2" s="154"/>
-      <c r="GE2" s="154"/>
-      <c r="GF2" s="154"/>
-      <c r="GG2" s="154"/>
-      <c r="GH2" s="154"/>
-      <c r="GI2" s="154"/>
-      <c r="GJ2" s="154"/>
-      <c r="GK2" s="150"/>
-      <c r="GL2" s="149" t="s">
+      <c r="FZ2" s="185"/>
+      <c r="GA2" s="185"/>
+      <c r="GB2" s="185"/>
+      <c r="GC2" s="185"/>
+      <c r="GD2" s="185"/>
+      <c r="GE2" s="185"/>
+      <c r="GF2" s="185"/>
+      <c r="GG2" s="185"/>
+      <c r="GH2" s="185"/>
+      <c r="GI2" s="185"/>
+      <c r="GJ2" s="185"/>
+      <c r="GK2" s="181"/>
+      <c r="GL2" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="GM2" s="154"/>
-      <c r="GN2" s="154"/>
-      <c r="GO2" s="154"/>
-      <c r="GP2" s="154"/>
-      <c r="GQ2" s="154"/>
-      <c r="GR2" s="150"/>
-      <c r="GS2" s="149" t="s">
+      <c r="GM2" s="185"/>
+      <c r="GN2" s="185"/>
+      <c r="GO2" s="185"/>
+      <c r="GP2" s="185"/>
+      <c r="GQ2" s="185"/>
+      <c r="GR2" s="181"/>
+      <c r="GS2" s="180" t="s">
         <v>467</v>
       </c>
-      <c r="GT2" s="154"/>
-      <c r="GU2" s="154"/>
-      <c r="GV2" s="154"/>
-      <c r="GW2" s="154"/>
-      <c r="GX2" s="154"/>
-      <c r="GY2" s="154"/>
-      <c r="GZ2" s="154"/>
-      <c r="HA2" s="154"/>
-      <c r="HB2" s="150"/>
-      <c r="HC2" s="149" t="s">
+      <c r="GT2" s="185"/>
+      <c r="GU2" s="185"/>
+      <c r="GV2" s="185"/>
+      <c r="GW2" s="185"/>
+      <c r="GX2" s="185"/>
+      <c r="GY2" s="185"/>
+      <c r="GZ2" s="185"/>
+      <c r="HA2" s="185"/>
+      <c r="HB2" s="181"/>
+      <c r="HC2" s="180" t="s">
         <v>468</v>
       </c>
-      <c r="HD2" s="150"/>
-      <c r="HE2" s="158"/>
-      <c r="HF2" s="159"/>
-      <c r="HG2" s="160"/>
-      <c r="HH2" s="149" t="s">
+      <c r="HD2" s="181"/>
+      <c r="HE2" s="189"/>
+      <c r="HF2" s="190"/>
+      <c r="HG2" s="191"/>
+      <c r="HH2" s="180" t="s">
         <v>470</v>
       </c>
-      <c r="HI2" s="154"/>
-      <c r="HJ2" s="154"/>
-      <c r="HK2" s="154"/>
-      <c r="HL2" s="154"/>
-      <c r="HM2" s="154"/>
-      <c r="HN2" s="150"/>
-      <c r="HO2" s="149" t="s">
+      <c r="HI2" s="185"/>
+      <c r="HJ2" s="185"/>
+      <c r="HK2" s="185"/>
+      <c r="HL2" s="185"/>
+      <c r="HM2" s="185"/>
+      <c r="HN2" s="181"/>
+      <c r="HO2" s="180" t="s">
         <v>614</v>
       </c>
-      <c r="HP2" s="154"/>
-      <c r="HQ2" s="154"/>
-      <c r="HR2" s="154"/>
-      <c r="HS2" s="154"/>
-      <c r="HT2" s="154"/>
-      <c r="HU2" s="154"/>
-      <c r="HV2" s="154"/>
-      <c r="HW2" s="154"/>
-      <c r="HX2" s="154"/>
-      <c r="HY2" s="154"/>
-      <c r="HZ2" s="154"/>
-      <c r="IA2" s="154"/>
-      <c r="IB2" s="150"/>
-      <c r="IC2" s="149" t="s">
+      <c r="HP2" s="185"/>
+      <c r="HQ2" s="185"/>
+      <c r="HR2" s="185"/>
+      <c r="HS2" s="185"/>
+      <c r="HT2" s="185"/>
+      <c r="HU2" s="185"/>
+      <c r="HV2" s="185"/>
+      <c r="HW2" s="185"/>
+      <c r="HX2" s="185"/>
+      <c r="HY2" s="185"/>
+      <c r="HZ2" s="185"/>
+      <c r="IA2" s="185"/>
+      <c r="IB2" s="181"/>
+      <c r="IC2" s="180" t="s">
         <v>472</v>
       </c>
-      <c r="ID2" s="154"/>
-      <c r="IE2" s="154"/>
-      <c r="IF2" s="154"/>
-      <c r="IG2" s="150"/>
-      <c r="IH2" s="149" t="s">
+      <c r="ID2" s="185"/>
+      <c r="IE2" s="185"/>
+      <c r="IF2" s="185"/>
+      <c r="IG2" s="181"/>
+      <c r="IH2" s="180" t="s">
         <v>473</v>
       </c>
-      <c r="II2" s="154"/>
-      <c r="IJ2" s="150"/>
-      <c r="IK2" s="149" t="s">
+      <c r="II2" s="185"/>
+      <c r="IJ2" s="181"/>
+      <c r="IK2" s="180" t="s">
         <v>474</v>
       </c>
-      <c r="IL2" s="154"/>
-      <c r="IM2" s="154"/>
-      <c r="IN2" s="154"/>
-      <c r="IO2" s="154"/>
-      <c r="IP2" s="150"/>
-      <c r="IQ2" s="149" t="s">
+      <c r="IL2" s="185"/>
+      <c r="IM2" s="185"/>
+      <c r="IN2" s="185"/>
+      <c r="IO2" s="185"/>
+      <c r="IP2" s="181"/>
+      <c r="IQ2" s="180" t="s">
         <v>475</v>
       </c>
-      <c r="IR2" s="154"/>
-      <c r="IS2" s="154"/>
-      <c r="IT2" s="154"/>
-      <c r="IU2" s="154"/>
-      <c r="IV2" s="150"/>
-      <c r="IW2" s="146" t="s">
+      <c r="IR2" s="185"/>
+      <c r="IS2" s="185"/>
+      <c r="IT2" s="185"/>
+      <c r="IU2" s="185"/>
+      <c r="IV2" s="181"/>
+      <c r="IW2" s="177" t="s">
         <v>907</v>
       </c>
-      <c r="IX2" s="147"/>
-      <c r="IY2" s="147"/>
-      <c r="IZ2" s="147"/>
-      <c r="JA2" s="147"/>
-      <c r="JB2" s="147"/>
-      <c r="JC2" s="147"/>
-      <c r="JD2" s="147"/>
-      <c r="JE2" s="148"/>
-      <c r="JF2" s="146" t="s">
+      <c r="IX2" s="178"/>
+      <c r="IY2" s="178"/>
+      <c r="IZ2" s="178"/>
+      <c r="JA2" s="178"/>
+      <c r="JB2" s="178"/>
+      <c r="JC2" s="178"/>
+      <c r="JD2" s="178"/>
+      <c r="JE2" s="179"/>
+      <c r="JF2" s="177" t="s">
         <v>476</v>
       </c>
-      <c r="JG2" s="147"/>
-      <c r="JH2" s="147"/>
-      <c r="JI2" s="148"/>
+      <c r="JG2" s="178"/>
+      <c r="JH2" s="178"/>
+      <c r="JI2" s="179"/>
     </row>
     <row r="3" spans="1:269" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
@@ -17709,9 +17702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B904826-E23A-47F0-B390-89E962372A0E}">
   <dimension ref="A1:JJ20"/>
   <sheetViews>
-    <sheetView topLeftCell="IS1" workbookViewId="0">
-      <selection activeCell="JD17" sqref="JD17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17731,611 +17722,611 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="198" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="168"/>
-      <c r="AU1" s="168"/>
-      <c r="AV1" s="168"/>
-      <c r="AW1" s="168"/>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="168"/>
-      <c r="BB1" s="168"/>
-      <c r="BC1" s="168"/>
-      <c r="BD1" s="168"/>
-      <c r="BE1" s="168"/>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="168"/>
-      <c r="BI1" s="168"/>
-      <c r="BJ1" s="168"/>
-      <c r="BK1" s="168"/>
-      <c r="BL1" s="168"/>
-      <c r="BM1" s="168"/>
-      <c r="BN1" s="168"/>
-      <c r="BO1" s="168"/>
-      <c r="BP1" s="168"/>
-      <c r="BQ1" s="168"/>
-      <c r="BR1" s="168"/>
-      <c r="BS1" s="168"/>
-      <c r="BT1" s="168"/>
-      <c r="BU1" s="168"/>
-      <c r="BV1" s="168"/>
-      <c r="BW1" s="168"/>
-      <c r="BX1" s="168"/>
-      <c r="BY1" s="168"/>
-      <c r="BZ1" s="168"/>
-      <c r="CA1" s="168"/>
-      <c r="CB1" s="168"/>
-      <c r="CC1" s="168"/>
-      <c r="CD1" s="168"/>
-      <c r="CE1" s="168"/>
-      <c r="CF1" s="168"/>
-      <c r="CG1" s="168"/>
-      <c r="CH1" s="168"/>
-      <c r="CI1" s="168"/>
-      <c r="CJ1" s="168"/>
-      <c r="CK1" s="168"/>
-      <c r="CL1" s="168"/>
-      <c r="CM1" s="168"/>
-      <c r="CN1" s="168"/>
-      <c r="CO1" s="168"/>
-      <c r="CP1" s="168"/>
-      <c r="CQ1" s="169"/>
-      <c r="CR1" s="170" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
+      <c r="AJ1" s="199"/>
+      <c r="AK1" s="199"/>
+      <c r="AL1" s="199"/>
+      <c r="AM1" s="199"/>
+      <c r="AN1" s="199"/>
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="199"/>
+      <c r="AQ1" s="199"/>
+      <c r="AR1" s="199"/>
+      <c r="AS1" s="199"/>
+      <c r="AT1" s="199"/>
+      <c r="AU1" s="199"/>
+      <c r="AV1" s="199"/>
+      <c r="AW1" s="199"/>
+      <c r="AX1" s="199"/>
+      <c r="AY1" s="199"/>
+      <c r="AZ1" s="199"/>
+      <c r="BA1" s="199"/>
+      <c r="BB1" s="199"/>
+      <c r="BC1" s="199"/>
+      <c r="BD1" s="199"/>
+      <c r="BE1" s="199"/>
+      <c r="BF1" s="199"/>
+      <c r="BG1" s="199"/>
+      <c r="BH1" s="199"/>
+      <c r="BI1" s="199"/>
+      <c r="BJ1" s="199"/>
+      <c r="BK1" s="199"/>
+      <c r="BL1" s="199"/>
+      <c r="BM1" s="199"/>
+      <c r="BN1" s="199"/>
+      <c r="BO1" s="199"/>
+      <c r="BP1" s="199"/>
+      <c r="BQ1" s="199"/>
+      <c r="BR1" s="199"/>
+      <c r="BS1" s="199"/>
+      <c r="BT1" s="199"/>
+      <c r="BU1" s="199"/>
+      <c r="BV1" s="199"/>
+      <c r="BW1" s="199"/>
+      <c r="BX1" s="199"/>
+      <c r="BY1" s="199"/>
+      <c r="BZ1" s="199"/>
+      <c r="CA1" s="199"/>
+      <c r="CB1" s="199"/>
+      <c r="CC1" s="199"/>
+      <c r="CD1" s="199"/>
+      <c r="CE1" s="199"/>
+      <c r="CF1" s="199"/>
+      <c r="CG1" s="199"/>
+      <c r="CH1" s="199"/>
+      <c r="CI1" s="199"/>
+      <c r="CJ1" s="199"/>
+      <c r="CK1" s="199"/>
+      <c r="CL1" s="199"/>
+      <c r="CM1" s="199"/>
+      <c r="CN1" s="199"/>
+      <c r="CO1" s="199"/>
+      <c r="CP1" s="199"/>
+      <c r="CQ1" s="200"/>
+      <c r="CR1" s="201" t="s">
         <v>480</v>
       </c>
-      <c r="CS1" s="171"/>
-      <c r="CT1" s="171"/>
-      <c r="CU1" s="171"/>
-      <c r="CV1" s="171"/>
-      <c r="CW1" s="171"/>
-      <c r="CX1" s="171"/>
-      <c r="CY1" s="171"/>
-      <c r="CZ1" s="171"/>
-      <c r="DA1" s="171"/>
-      <c r="DB1" s="171"/>
-      <c r="DC1" s="171"/>
-      <c r="DD1" s="171"/>
-      <c r="DE1" s="171"/>
-      <c r="DF1" s="171"/>
-      <c r="DG1" s="171"/>
-      <c r="DH1" s="171"/>
-      <c r="DI1" s="171"/>
-      <c r="DJ1" s="171"/>
-      <c r="DK1" s="171"/>
-      <c r="DL1" s="171"/>
-      <c r="DM1" s="171"/>
-      <c r="DN1" s="171"/>
-      <c r="DO1" s="171"/>
-      <c r="DP1" s="171"/>
-      <c r="DQ1" s="171"/>
-      <c r="DR1" s="171"/>
-      <c r="DS1" s="171"/>
-      <c r="DT1" s="171"/>
-      <c r="DU1" s="171"/>
-      <c r="DV1" s="171"/>
-      <c r="DW1" s="171"/>
-      <c r="DX1" s="171"/>
-      <c r="DY1" s="171"/>
-      <c r="DZ1" s="171"/>
-      <c r="EA1" s="171"/>
-      <c r="EB1" s="171"/>
-      <c r="EC1" s="171"/>
-      <c r="ED1" s="171"/>
-      <c r="EE1" s="172"/>
-      <c r="EF1" s="173" t="s">
+      <c r="CS1" s="202"/>
+      <c r="CT1" s="202"/>
+      <c r="CU1" s="202"/>
+      <c r="CV1" s="202"/>
+      <c r="CW1" s="202"/>
+      <c r="CX1" s="202"/>
+      <c r="CY1" s="202"/>
+      <c r="CZ1" s="202"/>
+      <c r="DA1" s="202"/>
+      <c r="DB1" s="202"/>
+      <c r="DC1" s="202"/>
+      <c r="DD1" s="202"/>
+      <c r="DE1" s="202"/>
+      <c r="DF1" s="202"/>
+      <c r="DG1" s="202"/>
+      <c r="DH1" s="202"/>
+      <c r="DI1" s="202"/>
+      <c r="DJ1" s="202"/>
+      <c r="DK1" s="202"/>
+      <c r="DL1" s="202"/>
+      <c r="DM1" s="202"/>
+      <c r="DN1" s="202"/>
+      <c r="DO1" s="202"/>
+      <c r="DP1" s="202"/>
+      <c r="DQ1" s="202"/>
+      <c r="DR1" s="202"/>
+      <c r="DS1" s="202"/>
+      <c r="DT1" s="202"/>
+      <c r="DU1" s="202"/>
+      <c r="DV1" s="202"/>
+      <c r="DW1" s="202"/>
+      <c r="DX1" s="202"/>
+      <c r="DY1" s="202"/>
+      <c r="DZ1" s="202"/>
+      <c r="EA1" s="202"/>
+      <c r="EB1" s="202"/>
+      <c r="EC1" s="202"/>
+      <c r="ED1" s="202"/>
+      <c r="EE1" s="203"/>
+      <c r="EF1" s="204" t="s">
         <v>481</v>
       </c>
-      <c r="EG1" s="174"/>
-      <c r="EH1" s="174"/>
-      <c r="EI1" s="174"/>
-      <c r="EJ1" s="174"/>
-      <c r="EK1" s="174"/>
-      <c r="EL1" s="174"/>
-      <c r="EM1" s="174"/>
-      <c r="EN1" s="174"/>
-      <c r="EO1" s="175"/>
-      <c r="EP1" s="176" t="s">
+      <c r="EG1" s="205"/>
+      <c r="EH1" s="205"/>
+      <c r="EI1" s="205"/>
+      <c r="EJ1" s="205"/>
+      <c r="EK1" s="205"/>
+      <c r="EL1" s="205"/>
+      <c r="EM1" s="205"/>
+      <c r="EN1" s="205"/>
+      <c r="EO1" s="206"/>
+      <c r="EP1" s="207" t="s">
         <v>482</v>
       </c>
-      <c r="EQ1" s="177"/>
-      <c r="ER1" s="177"/>
-      <c r="ES1" s="177"/>
-      <c r="ET1" s="177"/>
-      <c r="EU1" s="177"/>
-      <c r="EV1" s="177"/>
-      <c r="EW1" s="177"/>
-      <c r="EX1" s="177"/>
-      <c r="EY1" s="177"/>
-      <c r="EZ1" s="177"/>
-      <c r="FA1" s="177"/>
-      <c r="FB1" s="177"/>
-      <c r="FC1" s="177"/>
-      <c r="FD1" s="177"/>
-      <c r="FE1" s="177"/>
-      <c r="FF1" s="177"/>
-      <c r="FG1" s="177"/>
-      <c r="FH1" s="177"/>
-      <c r="FI1" s="177"/>
-      <c r="FJ1" s="177"/>
-      <c r="FK1" s="177"/>
-      <c r="FL1" s="177"/>
-      <c r="FM1" s="177"/>
-      <c r="FN1" s="177"/>
-      <c r="FO1" s="177"/>
-      <c r="FP1" s="177"/>
-      <c r="FQ1" s="177"/>
-      <c r="FR1" s="177"/>
-      <c r="FS1" s="177"/>
-      <c r="FT1" s="177"/>
-      <c r="FU1" s="177"/>
-      <c r="FV1" s="177"/>
-      <c r="FW1" s="177"/>
-      <c r="FX1" s="177"/>
-      <c r="FY1" s="177"/>
-      <c r="FZ1" s="177"/>
-      <c r="GA1" s="177"/>
-      <c r="GB1" s="177"/>
-      <c r="GC1" s="177"/>
-      <c r="GD1" s="177"/>
-      <c r="GE1" s="177"/>
-      <c r="GF1" s="177"/>
-      <c r="GG1" s="177"/>
-      <c r="GH1" s="177"/>
-      <c r="GI1" s="177"/>
-      <c r="GJ1" s="177"/>
-      <c r="GK1" s="177"/>
-      <c r="GL1" s="177"/>
-      <c r="GM1" s="177"/>
-      <c r="GN1" s="177"/>
-      <c r="GO1" s="177"/>
-      <c r="GP1" s="177"/>
-      <c r="GQ1" s="177"/>
-      <c r="GR1" s="177"/>
-      <c r="GS1" s="177"/>
-      <c r="GT1" s="177"/>
-      <c r="GU1" s="177"/>
-      <c r="GV1" s="177"/>
-      <c r="GW1" s="177"/>
-      <c r="GX1" s="177"/>
-      <c r="GY1" s="177"/>
-      <c r="GZ1" s="177"/>
-      <c r="HA1" s="177"/>
-      <c r="HB1" s="177"/>
-      <c r="HC1" s="177"/>
-      <c r="HD1" s="177"/>
-      <c r="HE1" s="155" t="s">
+      <c r="EQ1" s="208"/>
+      <c r="ER1" s="208"/>
+      <c r="ES1" s="208"/>
+      <c r="ET1" s="208"/>
+      <c r="EU1" s="208"/>
+      <c r="EV1" s="208"/>
+      <c r="EW1" s="208"/>
+      <c r="EX1" s="208"/>
+      <c r="EY1" s="208"/>
+      <c r="EZ1" s="208"/>
+      <c r="FA1" s="208"/>
+      <c r="FB1" s="208"/>
+      <c r="FC1" s="208"/>
+      <c r="FD1" s="208"/>
+      <c r="FE1" s="208"/>
+      <c r="FF1" s="208"/>
+      <c r="FG1" s="208"/>
+      <c r="FH1" s="208"/>
+      <c r="FI1" s="208"/>
+      <c r="FJ1" s="208"/>
+      <c r="FK1" s="208"/>
+      <c r="FL1" s="208"/>
+      <c r="FM1" s="208"/>
+      <c r="FN1" s="208"/>
+      <c r="FO1" s="208"/>
+      <c r="FP1" s="208"/>
+      <c r="FQ1" s="208"/>
+      <c r="FR1" s="208"/>
+      <c r="FS1" s="208"/>
+      <c r="FT1" s="208"/>
+      <c r="FU1" s="208"/>
+      <c r="FV1" s="208"/>
+      <c r="FW1" s="208"/>
+      <c r="FX1" s="208"/>
+      <c r="FY1" s="208"/>
+      <c r="FZ1" s="208"/>
+      <c r="GA1" s="208"/>
+      <c r="GB1" s="208"/>
+      <c r="GC1" s="208"/>
+      <c r="GD1" s="208"/>
+      <c r="GE1" s="208"/>
+      <c r="GF1" s="208"/>
+      <c r="GG1" s="208"/>
+      <c r="GH1" s="208"/>
+      <c r="GI1" s="208"/>
+      <c r="GJ1" s="208"/>
+      <c r="GK1" s="208"/>
+      <c r="GL1" s="208"/>
+      <c r="GM1" s="208"/>
+      <c r="GN1" s="208"/>
+      <c r="GO1" s="208"/>
+      <c r="GP1" s="208"/>
+      <c r="GQ1" s="208"/>
+      <c r="GR1" s="208"/>
+      <c r="GS1" s="208"/>
+      <c r="GT1" s="208"/>
+      <c r="GU1" s="208"/>
+      <c r="GV1" s="208"/>
+      <c r="GW1" s="208"/>
+      <c r="GX1" s="208"/>
+      <c r="GY1" s="208"/>
+      <c r="GZ1" s="208"/>
+      <c r="HA1" s="208"/>
+      <c r="HB1" s="208"/>
+      <c r="HC1" s="208"/>
+      <c r="HD1" s="208"/>
+      <c r="HE1" s="186" t="s">
         <v>485</v>
       </c>
-      <c r="HF1" s="156"/>
-      <c r="HG1" s="157"/>
-      <c r="HH1" s="161" t="s">
+      <c r="HF1" s="187"/>
+      <c r="HG1" s="188"/>
+      <c r="HH1" s="192" t="s">
         <v>483</v>
       </c>
-      <c r="HI1" s="162"/>
-      <c r="HJ1" s="162"/>
-      <c r="HK1" s="162"/>
-      <c r="HL1" s="162"/>
-      <c r="HM1" s="162"/>
-      <c r="HN1" s="162"/>
-      <c r="HO1" s="162"/>
-      <c r="HP1" s="162"/>
-      <c r="HQ1" s="162"/>
-      <c r="HR1" s="162"/>
-      <c r="HS1" s="162"/>
-      <c r="HT1" s="162"/>
-      <c r="HU1" s="162"/>
-      <c r="HV1" s="162"/>
-      <c r="HW1" s="162"/>
-      <c r="HX1" s="162"/>
-      <c r="HY1" s="162"/>
-      <c r="HZ1" s="162"/>
-      <c r="IA1" s="162"/>
-      <c r="IB1" s="162"/>
-      <c r="IC1" s="162"/>
-      <c r="ID1" s="162"/>
-      <c r="IE1" s="162"/>
-      <c r="IF1" s="162"/>
-      <c r="IG1" s="162"/>
-      <c r="IH1" s="162"/>
-      <c r="II1" s="162"/>
-      <c r="IJ1" s="163"/>
-      <c r="IK1" s="164" t="s">
+      <c r="HI1" s="193"/>
+      <c r="HJ1" s="193"/>
+      <c r="HK1" s="193"/>
+      <c r="HL1" s="193"/>
+      <c r="HM1" s="193"/>
+      <c r="HN1" s="193"/>
+      <c r="HO1" s="193"/>
+      <c r="HP1" s="193"/>
+      <c r="HQ1" s="193"/>
+      <c r="HR1" s="193"/>
+      <c r="HS1" s="193"/>
+      <c r="HT1" s="193"/>
+      <c r="HU1" s="193"/>
+      <c r="HV1" s="193"/>
+      <c r="HW1" s="193"/>
+      <c r="HX1" s="193"/>
+      <c r="HY1" s="193"/>
+      <c r="HZ1" s="193"/>
+      <c r="IA1" s="193"/>
+      <c r="IB1" s="193"/>
+      <c r="IC1" s="193"/>
+      <c r="ID1" s="193"/>
+      <c r="IE1" s="193"/>
+      <c r="IF1" s="193"/>
+      <c r="IG1" s="193"/>
+      <c r="IH1" s="193"/>
+      <c r="II1" s="193"/>
+      <c r="IJ1" s="194"/>
+      <c r="IK1" s="195" t="s">
         <v>484</v>
       </c>
-      <c r="IL1" s="165"/>
-      <c r="IM1" s="165"/>
-      <c r="IN1" s="165"/>
-      <c r="IO1" s="165"/>
-      <c r="IP1" s="165"/>
-      <c r="IQ1" s="165"/>
-      <c r="IR1" s="165"/>
-      <c r="IS1" s="165"/>
-      <c r="IT1" s="165"/>
-      <c r="IU1" s="165"/>
-      <c r="IV1" s="165"/>
-      <c r="IW1" s="165"/>
-      <c r="IX1" s="165"/>
-      <c r="IY1" s="165"/>
-      <c r="IZ1" s="165"/>
-      <c r="JA1" s="165"/>
-      <c r="JB1" s="165"/>
-      <c r="JC1" s="165"/>
-      <c r="JD1" s="165"/>
-      <c r="JE1" s="165"/>
-      <c r="JF1" s="165"/>
-      <c r="JG1" s="165"/>
-      <c r="JH1" s="165"/>
-      <c r="JI1" s="166"/>
+      <c r="IL1" s="196"/>
+      <c r="IM1" s="196"/>
+      <c r="IN1" s="196"/>
+      <c r="IO1" s="196"/>
+      <c r="IP1" s="196"/>
+      <c r="IQ1" s="196"/>
+      <c r="IR1" s="196"/>
+      <c r="IS1" s="196"/>
+      <c r="IT1" s="196"/>
+      <c r="IU1" s="196"/>
+      <c r="IV1" s="196"/>
+      <c r="IW1" s="196"/>
+      <c r="IX1" s="196"/>
+      <c r="IY1" s="196"/>
+      <c r="IZ1" s="196"/>
+      <c r="JA1" s="196"/>
+      <c r="JB1" s="196"/>
+      <c r="JC1" s="196"/>
+      <c r="JD1" s="196"/>
+      <c r="JE1" s="196"/>
+      <c r="JF1" s="196"/>
+      <c r="JG1" s="196"/>
+      <c r="JH1" s="196"/>
+      <c r="JI1" s="197"/>
     </row>
     <row r="2" spans="1:269" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="180" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="154"/>
-      <c r="AM2" s="154"/>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="154"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="154"/>
-      <c r="AS2" s="154"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
-      <c r="AX2" s="154"/>
-      <c r="AY2" s="154"/>
-      <c r="AZ2" s="154"/>
-      <c r="BA2" s="154"/>
-      <c r="BB2" s="154"/>
-      <c r="BC2" s="154"/>
-      <c r="BD2" s="154"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="149" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="185"/>
+      <c r="AN2" s="185"/>
+      <c r="AO2" s="185"/>
+      <c r="AP2" s="185"/>
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="185"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="185"/>
+      <c r="AX2" s="185"/>
+      <c r="AY2" s="185"/>
+      <c r="AZ2" s="185"/>
+      <c r="BA2" s="185"/>
+      <c r="BB2" s="185"/>
+      <c r="BC2" s="185"/>
+      <c r="BD2" s="185"/>
+      <c r="BE2" s="181"/>
+      <c r="BF2" s="180" t="s">
         <v>478</v>
       </c>
-      <c r="BG2" s="154"/>
-      <c r="BH2" s="154"/>
-      <c r="BI2" s="154"/>
-      <c r="BJ2" s="154"/>
-      <c r="BK2" s="154"/>
-      <c r="BL2" s="154"/>
-      <c r="BM2" s="154"/>
-      <c r="BN2" s="154"/>
-      <c r="BO2" s="154"/>
-      <c r="BP2" s="154"/>
-      <c r="BQ2" s="154"/>
-      <c r="BR2" s="154"/>
-      <c r="BS2" s="154"/>
-      <c r="BT2" s="154"/>
-      <c r="BU2" s="154"/>
-      <c r="BV2" s="154"/>
-      <c r="BW2" s="154"/>
-      <c r="BX2" s="154"/>
-      <c r="BY2" s="154"/>
-      <c r="BZ2" s="154"/>
-      <c r="CA2" s="154"/>
-      <c r="CB2" s="154"/>
-      <c r="CC2" s="154"/>
-      <c r="CD2" s="154"/>
-      <c r="CE2" s="154"/>
-      <c r="CF2" s="154"/>
-      <c r="CG2" s="154"/>
-      <c r="CH2" s="154"/>
-      <c r="CI2" s="154"/>
-      <c r="CJ2" s="154"/>
-      <c r="CK2" s="154"/>
-      <c r="CL2" s="154"/>
-      <c r="CM2" s="154"/>
-      <c r="CN2" s="154"/>
-      <c r="CO2" s="154"/>
-      <c r="CP2" s="154"/>
-      <c r="CQ2" s="150"/>
-      <c r="CR2" s="149" t="s">
+      <c r="BG2" s="185"/>
+      <c r="BH2" s="185"/>
+      <c r="BI2" s="185"/>
+      <c r="BJ2" s="185"/>
+      <c r="BK2" s="185"/>
+      <c r="BL2" s="185"/>
+      <c r="BM2" s="185"/>
+      <c r="BN2" s="185"/>
+      <c r="BO2" s="185"/>
+      <c r="BP2" s="185"/>
+      <c r="BQ2" s="185"/>
+      <c r="BR2" s="185"/>
+      <c r="BS2" s="185"/>
+      <c r="BT2" s="185"/>
+      <c r="BU2" s="185"/>
+      <c r="BV2" s="185"/>
+      <c r="BW2" s="185"/>
+      <c r="BX2" s="185"/>
+      <c r="BY2" s="185"/>
+      <c r="BZ2" s="185"/>
+      <c r="CA2" s="185"/>
+      <c r="CB2" s="185"/>
+      <c r="CC2" s="185"/>
+      <c r="CD2" s="185"/>
+      <c r="CE2" s="185"/>
+      <c r="CF2" s="185"/>
+      <c r="CG2" s="185"/>
+      <c r="CH2" s="185"/>
+      <c r="CI2" s="185"/>
+      <c r="CJ2" s="185"/>
+      <c r="CK2" s="185"/>
+      <c r="CL2" s="185"/>
+      <c r="CM2" s="185"/>
+      <c r="CN2" s="185"/>
+      <c r="CO2" s="185"/>
+      <c r="CP2" s="185"/>
+      <c r="CQ2" s="181"/>
+      <c r="CR2" s="180" t="s">
         <v>454</v>
       </c>
-      <c r="CS2" s="154"/>
-      <c r="CT2" s="154"/>
-      <c r="CU2" s="154"/>
-      <c r="CV2" s="150"/>
-      <c r="CW2" s="149" t="s">
+      <c r="CS2" s="185"/>
+      <c r="CT2" s="185"/>
+      <c r="CU2" s="185"/>
+      <c r="CV2" s="181"/>
+      <c r="CW2" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="CX2" s="154"/>
-      <c r="CY2" s="154"/>
-      <c r="CZ2" s="154"/>
-      <c r="DA2" s="154"/>
-      <c r="DB2" s="150"/>
-      <c r="DC2" s="149" t="s">
+      <c r="CX2" s="185"/>
+      <c r="CY2" s="185"/>
+      <c r="CZ2" s="185"/>
+      <c r="DA2" s="185"/>
+      <c r="DB2" s="181"/>
+      <c r="DC2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DD2" s="154"/>
-      <c r="DE2" s="154"/>
-      <c r="DF2" s="154"/>
-      <c r="DG2" s="154"/>
-      <c r="DH2" s="154"/>
-      <c r="DI2" s="154"/>
-      <c r="DJ2" s="150"/>
-      <c r="DK2" s="149" t="s">
+      <c r="DD2" s="185"/>
+      <c r="DE2" s="185"/>
+      <c r="DF2" s="185"/>
+      <c r="DG2" s="185"/>
+      <c r="DH2" s="185"/>
+      <c r="DI2" s="185"/>
+      <c r="DJ2" s="181"/>
+      <c r="DK2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DL2" s="154"/>
-      <c r="DM2" s="154"/>
-      <c r="DN2" s="154"/>
-      <c r="DO2" s="154"/>
-      <c r="DP2" s="154"/>
-      <c r="DQ2" s="154"/>
-      <c r="DR2" s="150"/>
-      <c r="DS2" s="149" t="s">
+      <c r="DL2" s="185"/>
+      <c r="DM2" s="185"/>
+      <c r="DN2" s="185"/>
+      <c r="DO2" s="185"/>
+      <c r="DP2" s="185"/>
+      <c r="DQ2" s="185"/>
+      <c r="DR2" s="181"/>
+      <c r="DS2" s="180" t="s">
         <v>457</v>
       </c>
-      <c r="DT2" s="154"/>
-      <c r="DU2" s="154"/>
-      <c r="DV2" s="154"/>
-      <c r="DW2" s="150"/>
-      <c r="DX2" s="149" t="s">
+      <c r="DT2" s="185"/>
+      <c r="DU2" s="185"/>
+      <c r="DV2" s="185"/>
+      <c r="DW2" s="181"/>
+      <c r="DX2" s="180" t="s">
         <v>458</v>
       </c>
-      <c r="DY2" s="154"/>
-      <c r="DZ2" s="154"/>
-      <c r="EA2" s="154"/>
-      <c r="EB2" s="154"/>
-      <c r="EC2" s="154"/>
-      <c r="ED2" s="154"/>
-      <c r="EE2" s="150"/>
-      <c r="EF2" s="149" t="s">
+      <c r="DY2" s="185"/>
+      <c r="DZ2" s="185"/>
+      <c r="EA2" s="185"/>
+      <c r="EB2" s="185"/>
+      <c r="EC2" s="185"/>
+      <c r="ED2" s="185"/>
+      <c r="EE2" s="181"/>
+      <c r="EF2" s="180" t="s">
         <v>459</v>
       </c>
-      <c r="EG2" s="150"/>
-      <c r="EH2" s="151" t="s">
+      <c r="EG2" s="181"/>
+      <c r="EH2" s="182" t="s">
         <v>460</v>
       </c>
-      <c r="EI2" s="152"/>
-      <c r="EJ2" s="152"/>
-      <c r="EK2" s="152"/>
-      <c r="EL2" s="152"/>
-      <c r="EM2" s="152"/>
-      <c r="EN2" s="152"/>
-      <c r="EO2" s="153"/>
-      <c r="EP2" s="149" t="s">
+      <c r="EI2" s="183"/>
+      <c r="EJ2" s="183"/>
+      <c r="EK2" s="183"/>
+      <c r="EL2" s="183"/>
+      <c r="EM2" s="183"/>
+      <c r="EN2" s="183"/>
+      <c r="EO2" s="184"/>
+      <c r="EP2" s="180" t="s">
         <v>461</v>
       </c>
-      <c r="EQ2" s="154"/>
-      <c r="ER2" s="154"/>
-      <c r="ES2" s="154"/>
-      <c r="ET2" s="154"/>
-      <c r="EU2" s="154"/>
-      <c r="EV2" s="154"/>
-      <c r="EW2" s="154"/>
-      <c r="EX2" s="154"/>
-      <c r="EY2" s="154"/>
-      <c r="EZ2" s="154"/>
-      <c r="FA2" s="150"/>
-      <c r="FB2" s="149" t="s">
+      <c r="EQ2" s="185"/>
+      <c r="ER2" s="185"/>
+      <c r="ES2" s="185"/>
+      <c r="ET2" s="185"/>
+      <c r="EU2" s="185"/>
+      <c r="EV2" s="185"/>
+      <c r="EW2" s="185"/>
+      <c r="EX2" s="185"/>
+      <c r="EY2" s="185"/>
+      <c r="EZ2" s="185"/>
+      <c r="FA2" s="181"/>
+      <c r="FB2" s="180" t="s">
         <v>462</v>
       </c>
-      <c r="FC2" s="154"/>
-      <c r="FD2" s="154"/>
-      <c r="FE2" s="154"/>
-      <c r="FF2" s="154"/>
-      <c r="FG2" s="154"/>
-      <c r="FH2" s="154"/>
-      <c r="FI2" s="150"/>
-      <c r="FJ2" s="149" t="s">
+      <c r="FC2" s="185"/>
+      <c r="FD2" s="185"/>
+      <c r="FE2" s="185"/>
+      <c r="FF2" s="185"/>
+      <c r="FG2" s="185"/>
+      <c r="FH2" s="185"/>
+      <c r="FI2" s="181"/>
+      <c r="FJ2" s="180" t="s">
         <v>463</v>
       </c>
-      <c r="FK2" s="154"/>
-      <c r="FL2" s="154"/>
-      <c r="FM2" s="154"/>
-      <c r="FN2" s="154"/>
-      <c r="FO2" s="154"/>
-      <c r="FP2" s="154"/>
-      <c r="FQ2" s="154"/>
-      <c r="FR2" s="154"/>
-      <c r="FS2" s="154"/>
-      <c r="FT2" s="154"/>
-      <c r="FU2" s="154"/>
-      <c r="FV2" s="150"/>
-      <c r="FW2" s="149" t="s">
+      <c r="FK2" s="185"/>
+      <c r="FL2" s="185"/>
+      <c r="FM2" s="185"/>
+      <c r="FN2" s="185"/>
+      <c r="FO2" s="185"/>
+      <c r="FP2" s="185"/>
+      <c r="FQ2" s="185"/>
+      <c r="FR2" s="185"/>
+      <c r="FS2" s="185"/>
+      <c r="FT2" s="185"/>
+      <c r="FU2" s="185"/>
+      <c r="FV2" s="181"/>
+      <c r="FW2" s="180" t="s">
         <v>464</v>
       </c>
-      <c r="FX2" s="150"/>
-      <c r="FY2" s="149" t="s">
+      <c r="FX2" s="181"/>
+      <c r="FY2" s="180" t="s">
         <v>465</v>
       </c>
-      <c r="FZ2" s="154"/>
-      <c r="GA2" s="154"/>
-      <c r="GB2" s="154"/>
-      <c r="GC2" s="154"/>
-      <c r="GD2" s="154"/>
-      <c r="GE2" s="154"/>
-      <c r="GF2" s="154"/>
-      <c r="GG2" s="154"/>
-      <c r="GH2" s="154"/>
-      <c r="GI2" s="154"/>
-      <c r="GJ2" s="154"/>
-      <c r="GK2" s="150"/>
-      <c r="GL2" s="149" t="s">
+      <c r="FZ2" s="185"/>
+      <c r="GA2" s="185"/>
+      <c r="GB2" s="185"/>
+      <c r="GC2" s="185"/>
+      <c r="GD2" s="185"/>
+      <c r="GE2" s="185"/>
+      <c r="GF2" s="185"/>
+      <c r="GG2" s="185"/>
+      <c r="GH2" s="185"/>
+      <c r="GI2" s="185"/>
+      <c r="GJ2" s="185"/>
+      <c r="GK2" s="181"/>
+      <c r="GL2" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="GM2" s="154"/>
-      <c r="GN2" s="154"/>
-      <c r="GO2" s="154"/>
-      <c r="GP2" s="154"/>
-      <c r="GQ2" s="154"/>
-      <c r="GR2" s="150"/>
-      <c r="GS2" s="149" t="s">
+      <c r="GM2" s="185"/>
+      <c r="GN2" s="185"/>
+      <c r="GO2" s="185"/>
+      <c r="GP2" s="185"/>
+      <c r="GQ2" s="185"/>
+      <c r="GR2" s="181"/>
+      <c r="GS2" s="180" t="s">
         <v>496</v>
       </c>
-      <c r="GT2" s="154"/>
-      <c r="GU2" s="154"/>
-      <c r="GV2" s="154"/>
-      <c r="GW2" s="154"/>
-      <c r="GX2" s="154"/>
-      <c r="GY2" s="154"/>
-      <c r="GZ2" s="154"/>
-      <c r="HA2" s="154"/>
-      <c r="HB2" s="150"/>
-      <c r="HC2" s="149" t="s">
+      <c r="GT2" s="185"/>
+      <c r="GU2" s="185"/>
+      <c r="GV2" s="185"/>
+      <c r="GW2" s="185"/>
+      <c r="GX2" s="185"/>
+      <c r="GY2" s="185"/>
+      <c r="GZ2" s="185"/>
+      <c r="HA2" s="185"/>
+      <c r="HB2" s="181"/>
+      <c r="HC2" s="180" t="s">
         <v>468</v>
       </c>
-      <c r="HD2" s="150"/>
-      <c r="HE2" s="158"/>
-      <c r="HF2" s="159"/>
-      <c r="HG2" s="160"/>
-      <c r="HH2" s="149" t="s">
+      <c r="HD2" s="181"/>
+      <c r="HE2" s="189"/>
+      <c r="HF2" s="190"/>
+      <c r="HG2" s="191"/>
+      <c r="HH2" s="180" t="s">
         <v>470</v>
       </c>
-      <c r="HI2" s="154"/>
-      <c r="HJ2" s="154"/>
-      <c r="HK2" s="154"/>
-      <c r="HL2" s="154"/>
-      <c r="HM2" s="154"/>
-      <c r="HN2" s="150"/>
-      <c r="HO2" s="149" t="s">
+      <c r="HI2" s="185"/>
+      <c r="HJ2" s="185"/>
+      <c r="HK2" s="185"/>
+      <c r="HL2" s="185"/>
+      <c r="HM2" s="185"/>
+      <c r="HN2" s="181"/>
+      <c r="HO2" s="180" t="s">
         <v>614</v>
       </c>
-      <c r="HP2" s="154"/>
-      <c r="HQ2" s="154"/>
-      <c r="HR2" s="154"/>
-      <c r="HS2" s="154"/>
-      <c r="HT2" s="154"/>
-      <c r="HU2" s="154"/>
-      <c r="HV2" s="154"/>
-      <c r="HW2" s="154"/>
-      <c r="HX2" s="154"/>
-      <c r="HY2" s="154"/>
-      <c r="HZ2" s="154"/>
-      <c r="IA2" s="154"/>
-      <c r="IB2" s="150"/>
-      <c r="IC2" s="149" t="s">
+      <c r="HP2" s="185"/>
+      <c r="HQ2" s="185"/>
+      <c r="HR2" s="185"/>
+      <c r="HS2" s="185"/>
+      <c r="HT2" s="185"/>
+      <c r="HU2" s="185"/>
+      <c r="HV2" s="185"/>
+      <c r="HW2" s="185"/>
+      <c r="HX2" s="185"/>
+      <c r="HY2" s="185"/>
+      <c r="HZ2" s="185"/>
+      <c r="IA2" s="185"/>
+      <c r="IB2" s="181"/>
+      <c r="IC2" s="180" t="s">
         <v>472</v>
       </c>
-      <c r="ID2" s="154"/>
-      <c r="IE2" s="154"/>
-      <c r="IF2" s="154"/>
-      <c r="IG2" s="150"/>
-      <c r="IH2" s="149" t="s">
+      <c r="ID2" s="185"/>
+      <c r="IE2" s="185"/>
+      <c r="IF2" s="185"/>
+      <c r="IG2" s="181"/>
+      <c r="IH2" s="180" t="s">
         <v>473</v>
       </c>
-      <c r="II2" s="154"/>
-      <c r="IJ2" s="150"/>
-      <c r="IK2" s="149" t="s">
+      <c r="II2" s="185"/>
+      <c r="IJ2" s="181"/>
+      <c r="IK2" s="180" t="s">
         <v>474</v>
       </c>
-      <c r="IL2" s="154"/>
-      <c r="IM2" s="154"/>
-      <c r="IN2" s="154"/>
-      <c r="IO2" s="154"/>
-      <c r="IP2" s="150"/>
-      <c r="IQ2" s="149" t="s">
+      <c r="IL2" s="185"/>
+      <c r="IM2" s="185"/>
+      <c r="IN2" s="185"/>
+      <c r="IO2" s="185"/>
+      <c r="IP2" s="181"/>
+      <c r="IQ2" s="180" t="s">
         <v>475</v>
       </c>
-      <c r="IR2" s="154"/>
-      <c r="IS2" s="154"/>
-      <c r="IT2" s="154"/>
-      <c r="IU2" s="154"/>
-      <c r="IV2" s="150"/>
-      <c r="IW2" s="146" t="s">
+      <c r="IR2" s="185"/>
+      <c r="IS2" s="185"/>
+      <c r="IT2" s="185"/>
+      <c r="IU2" s="185"/>
+      <c r="IV2" s="181"/>
+      <c r="IW2" s="177" t="s">
         <v>907</v>
       </c>
-      <c r="IX2" s="147"/>
-      <c r="IY2" s="147"/>
-      <c r="IZ2" s="147"/>
-      <c r="JA2" s="147"/>
-      <c r="JB2" s="147"/>
-      <c r="JC2" s="147"/>
-      <c r="JD2" s="147"/>
-      <c r="JE2" s="148"/>
-      <c r="JF2" s="146" t="s">
+      <c r="IX2" s="178"/>
+      <c r="IY2" s="178"/>
+      <c r="IZ2" s="178"/>
+      <c r="JA2" s="178"/>
+      <c r="JB2" s="178"/>
+      <c r="JC2" s="178"/>
+      <c r="JD2" s="178"/>
+      <c r="JE2" s="179"/>
+      <c r="JF2" s="177" t="s">
         <v>476</v>
       </c>
-      <c r="JG2" s="147"/>
-      <c r="JH2" s="147"/>
-      <c r="JI2" s="148"/>
+      <c r="JG2" s="178"/>
+      <c r="JH2" s="178"/>
+      <c r="JI2" s="179"/>
     </row>
     <row r="3" spans="1:269" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
@@ -29998,226 +29989,226 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="218" t="s">
         <v>480</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="173" t="s">
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="204" t="s">
         <v>481</v>
       </c>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="176" t="s">
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="207" t="s">
         <v>482</v>
       </c>
-      <c r="AI1" s="177"/>
-      <c r="AJ1" s="177"/>
-      <c r="AK1" s="177"/>
-      <c r="AL1" s="177"/>
-      <c r="AM1" s="177"/>
-      <c r="AN1" s="177"/>
-      <c r="AO1" s="177"/>
-      <c r="AP1" s="177"/>
-      <c r="AQ1" s="177"/>
-      <c r="AR1" s="177"/>
-      <c r="AS1" s="177"/>
-      <c r="AT1" s="177"/>
-      <c r="AU1" s="177"/>
-      <c r="AV1" s="177"/>
-      <c r="AW1" s="177"/>
-      <c r="AX1" s="177"/>
-      <c r="AY1" s="177"/>
-      <c r="AZ1" s="177"/>
-      <c r="BA1" s="177"/>
-      <c r="BB1" s="177"/>
-      <c r="BC1" s="177"/>
-      <c r="BD1" s="177"/>
-      <c r="BE1" s="177"/>
-      <c r="BF1" s="177"/>
-      <c r="BG1" s="177"/>
-      <c r="BH1" s="177"/>
-      <c r="BI1" s="177"/>
-      <c r="BJ1" s="177"/>
-      <c r="BK1" s="177"/>
-      <c r="BL1" s="177"/>
-      <c r="BM1" s="186"/>
-      <c r="BN1" s="155" t="s">
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="208"/>
+      <c r="AR1" s="208"/>
+      <c r="AS1" s="208"/>
+      <c r="AT1" s="208"/>
+      <c r="AU1" s="208"/>
+      <c r="AV1" s="208"/>
+      <c r="AW1" s="208"/>
+      <c r="AX1" s="208"/>
+      <c r="AY1" s="208"/>
+      <c r="AZ1" s="208"/>
+      <c r="BA1" s="208"/>
+      <c r="BB1" s="208"/>
+      <c r="BC1" s="208"/>
+      <c r="BD1" s="208"/>
+      <c r="BE1" s="208"/>
+      <c r="BF1" s="208"/>
+      <c r="BG1" s="208"/>
+      <c r="BH1" s="208"/>
+      <c r="BI1" s="208"/>
+      <c r="BJ1" s="208"/>
+      <c r="BK1" s="208"/>
+      <c r="BL1" s="208"/>
+      <c r="BM1" s="217"/>
+      <c r="BN1" s="186" t="s">
         <v>485</v>
       </c>
-      <c r="BO1" s="156"/>
-      <c r="BP1" s="156"/>
-      <c r="BQ1" s="157"/>
-      <c r="BR1" s="161" t="s">
+      <c r="BO1" s="187"/>
+      <c r="BP1" s="187"/>
+      <c r="BQ1" s="188"/>
+      <c r="BR1" s="192" t="s">
         <v>483</v>
       </c>
-      <c r="BS1" s="184"/>
-      <c r="BT1" s="184"/>
-      <c r="BU1" s="184"/>
-      <c r="BV1" s="184"/>
-      <c r="BW1" s="184"/>
-      <c r="BX1" s="184"/>
-      <c r="BY1" s="184"/>
-      <c r="BZ1" s="184"/>
-      <c r="CA1" s="184"/>
-      <c r="CB1" s="184"/>
-      <c r="CC1" s="184"/>
-      <c r="CD1" s="184"/>
-      <c r="CE1" s="184"/>
-      <c r="CF1" s="184"/>
-      <c r="CG1" s="185"/>
+      <c r="BS1" s="215"/>
+      <c r="BT1" s="215"/>
+      <c r="BU1" s="215"/>
+      <c r="BV1" s="215"/>
+      <c r="BW1" s="215"/>
+      <c r="BX1" s="215"/>
+      <c r="BY1" s="215"/>
+      <c r="BZ1" s="215"/>
+      <c r="CA1" s="215"/>
+      <c r="CB1" s="215"/>
+      <c r="CC1" s="215"/>
+      <c r="CD1" s="215"/>
+      <c r="CE1" s="215"/>
+      <c r="CF1" s="215"/>
+      <c r="CG1" s="216"/>
     </row>
     <row r="2" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="212" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="181" t="s">
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="212" t="s">
         <v>455</v>
       </c>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="181" t="s">
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="212" t="s">
         <v>486</v>
       </c>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="181" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="212" t="s">
         <v>487</v>
       </c>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="181" t="s">
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="212" t="s">
         <v>457</v>
       </c>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="181" t="s">
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="212" t="s">
         <v>458</v>
       </c>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="181" t="s">
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="212" t="s">
         <v>459</v>
       </c>
-      <c r="AA2" s="182"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="181" t="s">
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="212" t="s">
         <v>460</v>
       </c>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183"/>
-      <c r="AH2" s="181" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="213"/>
+      <c r="AG2" s="214"/>
+      <c r="AH2" s="212" t="s">
         <v>498</v>
       </c>
-      <c r="AI2" s="182"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="181" t="s">
+      <c r="AI2" s="213"/>
+      <c r="AJ2" s="213"/>
+      <c r="AK2" s="214"/>
+      <c r="AL2" s="212" t="s">
         <v>462</v>
       </c>
-      <c r="AM2" s="182"/>
-      <c r="AN2" s="182"/>
-      <c r="AO2" s="183"/>
-      <c r="AP2" s="178" t="s">
+      <c r="AM2" s="213"/>
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="209" t="s">
         <v>488</v>
       </c>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="180"/>
-      <c r="AT2" s="181" t="s">
+      <c r="AQ2" s="210"/>
+      <c r="AR2" s="210"/>
+      <c r="AS2" s="211"/>
+      <c r="AT2" s="212" t="s">
         <v>464</v>
       </c>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="183"/>
-      <c r="AX2" s="181" t="s">
+      <c r="AU2" s="213"/>
+      <c r="AV2" s="213"/>
+      <c r="AW2" s="214"/>
+      <c r="AX2" s="212" t="s">
         <v>465</v>
       </c>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="182"/>
-      <c r="BA2" s="183"/>
-      <c r="BB2" s="181" t="s">
+      <c r="AY2" s="213"/>
+      <c r="AZ2" s="213"/>
+      <c r="BA2" s="214"/>
+      <c r="BB2" s="212" t="s">
         <v>466</v>
       </c>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="182"/>
-      <c r="BE2" s="183"/>
-      <c r="BF2" s="181" t="s">
+      <c r="BC2" s="213"/>
+      <c r="BD2" s="213"/>
+      <c r="BE2" s="214"/>
+      <c r="BF2" s="212" t="s">
         <v>497</v>
       </c>
-      <c r="BG2" s="182"/>
-      <c r="BH2" s="182"/>
-      <c r="BI2" s="183"/>
-      <c r="BJ2" s="181" t="s">
+      <c r="BG2" s="213"/>
+      <c r="BH2" s="213"/>
+      <c r="BI2" s="214"/>
+      <c r="BJ2" s="212" t="s">
         <v>489</v>
       </c>
-      <c r="BK2" s="182"/>
-      <c r="BL2" s="182"/>
-      <c r="BM2" s="183"/>
-      <c r="BN2" s="158"/>
-      <c r="BO2" s="159"/>
-      <c r="BP2" s="159"/>
-      <c r="BQ2" s="160"/>
-      <c r="BR2" s="181" t="s">
+      <c r="BK2" s="213"/>
+      <c r="BL2" s="213"/>
+      <c r="BM2" s="214"/>
+      <c r="BN2" s="189"/>
+      <c r="BO2" s="190"/>
+      <c r="BP2" s="190"/>
+      <c r="BQ2" s="191"/>
+      <c r="BR2" s="212" t="s">
         <v>470</v>
       </c>
-      <c r="BS2" s="182"/>
-      <c r="BT2" s="182"/>
-      <c r="BU2" s="183"/>
-      <c r="BV2" s="181" t="s">
+      <c r="BS2" s="213"/>
+      <c r="BT2" s="213"/>
+      <c r="BU2" s="214"/>
+      <c r="BV2" s="212" t="s">
         <v>490</v>
       </c>
-      <c r="BW2" s="182"/>
-      <c r="BX2" s="182"/>
-      <c r="BY2" s="183"/>
-      <c r="BZ2" s="181" t="s">
+      <c r="BW2" s="213"/>
+      <c r="BX2" s="213"/>
+      <c r="BY2" s="214"/>
+      <c r="BZ2" s="212" t="s">
         <v>471</v>
       </c>
-      <c r="CA2" s="182"/>
-      <c r="CB2" s="182"/>
-      <c r="CC2" s="183"/>
-      <c r="CD2" s="181" t="s">
+      <c r="CA2" s="213"/>
+      <c r="CB2" s="213"/>
+      <c r="CC2" s="214"/>
+      <c r="CD2" s="212" t="s">
         <v>473</v>
       </c>
-      <c r="CE2" s="182"/>
-      <c r="CF2" s="182"/>
-      <c r="CG2" s="183"/>
+      <c r="CE2" s="213"/>
+      <c r="CF2" s="213"/>
+      <c r="CG2" s="214"/>
     </row>
     <row r="3" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -33926,13 +33917,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A188F0A-8299-492D-BA9E-2FD685457E4A}">
   <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BQ33" sqref="BQ33"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4" style="53" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="53" customWidth="1"/>
     <col min="2" max="2" width="27.81640625" customWidth="1"/>
     <col min="3" max="3" width="28.08984375" customWidth="1"/>
     <col min="4" max="4" width="6.26953125" customWidth="1"/>
@@ -34002,176 +33993,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="273" t="s">
         <v>781</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="214"/>
-      <c r="S1" s="206" t="s">
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="275"/>
+      <c r="S1" s="267" t="s">
         <v>822</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="207"/>
-      <c r="AB1" s="207"/>
-      <c r="AC1" s="207"/>
-      <c r="AD1" s="207"/>
-      <c r="AE1" s="207"/>
-      <c r="AF1" s="207"/>
-      <c r="AG1" s="207"/>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="207"/>
-      <c r="AJ1" s="208"/>
-      <c r="AL1" s="254" t="s">
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="268"/>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="268"/>
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="269"/>
+      <c r="AL1" s="282" t="s">
         <v>481</v>
       </c>
-      <c r="AM1" s="255"/>
-      <c r="AN1" s="255"/>
-      <c r="AO1" s="255"/>
-      <c r="AP1" s="255"/>
-      <c r="AQ1" s="255"/>
-      <c r="AR1" s="255"/>
-      <c r="AS1" s="255"/>
-      <c r="AT1" s="255"/>
-      <c r="AU1" s="255"/>
-      <c r="AV1" s="256"/>
-      <c r="AX1" s="260" t="s">
+      <c r="AM1" s="283"/>
+      <c r="AN1" s="283"/>
+      <c r="AO1" s="283"/>
+      <c r="AP1" s="283"/>
+      <c r="AQ1" s="283"/>
+      <c r="AR1" s="283"/>
+      <c r="AS1" s="283"/>
+      <c r="AT1" s="283"/>
+      <c r="AU1" s="283"/>
+      <c r="AV1" s="284"/>
+      <c r="AX1" s="288" t="s">
         <v>482</v>
       </c>
-      <c r="AY1" s="261"/>
-      <c r="AZ1" s="261"/>
-      <c r="BA1" s="261"/>
-      <c r="BB1" s="261"/>
-      <c r="BC1" s="262"/>
-      <c r="BE1" s="245" t="s">
+      <c r="AY1" s="289"/>
+      <c r="AZ1" s="289"/>
+      <c r="BA1" s="289"/>
+      <c r="BB1" s="289"/>
+      <c r="BC1" s="290"/>
+      <c r="BE1" s="252" t="s">
         <v>483</v>
       </c>
-      <c r="BF1" s="246"/>
-      <c r="BG1" s="246"/>
-      <c r="BH1" s="246"/>
-      <c r="BI1" s="246"/>
-      <c r="BJ1" s="247"/>
-      <c r="BL1" s="271" t="s">
+      <c r="BF1" s="253"/>
+      <c r="BG1" s="253"/>
+      <c r="BH1" s="253"/>
+      <c r="BI1" s="253"/>
+      <c r="BJ1" s="254"/>
+      <c r="BL1" s="299" t="s">
         <v>896</v>
       </c>
-      <c r="BM1" s="272"/>
-      <c r="BN1" s="272"/>
-      <c r="BO1" s="272"/>
-      <c r="BP1" s="272"/>
-      <c r="BQ1" s="272"/>
-      <c r="BR1" s="272"/>
-      <c r="BS1" s="272"/>
-      <c r="BT1" s="272"/>
-      <c r="BU1" s="272"/>
-      <c r="BV1" s="272"/>
-      <c r="BW1" s="272"/>
-      <c r="BX1" s="272"/>
-      <c r="BY1" s="272"/>
-      <c r="BZ1" s="272"/>
-      <c r="CA1" s="272"/>
-      <c r="CB1" s="272"/>
-      <c r="CC1" s="272"/>
-      <c r="CD1" s="273"/>
+      <c r="BM1" s="300"/>
+      <c r="BN1" s="300"/>
+      <c r="BO1" s="300"/>
+      <c r="BP1" s="300"/>
+      <c r="BQ1" s="300"/>
+      <c r="BR1" s="300"/>
+      <c r="BS1" s="300"/>
+      <c r="BT1" s="300"/>
+      <c r="BU1" s="300"/>
+      <c r="BV1" s="300"/>
+      <c r="BW1" s="300"/>
+      <c r="BX1" s="300"/>
+      <c r="BY1" s="300"/>
+      <c r="BZ1" s="300"/>
+      <c r="CA1" s="300"/>
+      <c r="CB1" s="300"/>
+      <c r="CC1" s="300"/>
+      <c r="CD1" s="301"/>
     </row>
     <row r="2" spans="1:82" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="199"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="217"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="210"/>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="210"/>
-      <c r="AJ2" s="211"/>
-      <c r="AL2" s="257"/>
-      <c r="AM2" s="258"/>
-      <c r="AN2" s="258"/>
-      <c r="AO2" s="258"/>
-      <c r="AP2" s="258"/>
-      <c r="AQ2" s="258"/>
-      <c r="AR2" s="258"/>
-      <c r="AS2" s="258"/>
-      <c r="AT2" s="258"/>
-      <c r="AU2" s="258"/>
-      <c r="AV2" s="259"/>
-      <c r="AX2" s="263"/>
-      <c r="AY2" s="264"/>
-      <c r="AZ2" s="264"/>
-      <c r="BA2" s="264"/>
-      <c r="BB2" s="264"/>
-      <c r="BC2" s="265"/>
-      <c r="BE2" s="248"/>
-      <c r="BF2" s="249"/>
-      <c r="BG2" s="249"/>
-      <c r="BH2" s="249"/>
-      <c r="BI2" s="249"/>
-      <c r="BJ2" s="250"/>
-      <c r="BL2" s="274"/>
-      <c r="BM2" s="275"/>
-      <c r="BN2" s="275"/>
-      <c r="BO2" s="275"/>
-      <c r="BP2" s="275"/>
-      <c r="BQ2" s="275"/>
-      <c r="BR2" s="275"/>
-      <c r="BS2" s="275"/>
-      <c r="BT2" s="275"/>
-      <c r="BU2" s="275"/>
-      <c r="BV2" s="275"/>
-      <c r="BW2" s="275"/>
-      <c r="BX2" s="275"/>
-      <c r="BY2" s="275"/>
-      <c r="BZ2" s="275"/>
-      <c r="CA2" s="275"/>
-      <c r="CB2" s="275"/>
-      <c r="CC2" s="275"/>
-      <c r="CD2" s="276"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="278"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
+      <c r="X2" s="271"/>
+      <c r="Y2" s="271"/>
+      <c r="Z2" s="271"/>
+      <c r="AA2" s="271"/>
+      <c r="AB2" s="271"/>
+      <c r="AC2" s="271"/>
+      <c r="AD2" s="271"/>
+      <c r="AE2" s="271"/>
+      <c r="AF2" s="271"/>
+      <c r="AG2" s="271"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="271"/>
+      <c r="AJ2" s="272"/>
+      <c r="AL2" s="285"/>
+      <c r="AM2" s="286"/>
+      <c r="AN2" s="286"/>
+      <c r="AO2" s="286"/>
+      <c r="AP2" s="286"/>
+      <c r="AQ2" s="286"/>
+      <c r="AR2" s="286"/>
+      <c r="AS2" s="286"/>
+      <c r="AT2" s="286"/>
+      <c r="AU2" s="286"/>
+      <c r="AV2" s="287"/>
+      <c r="AX2" s="291"/>
+      <c r="AY2" s="292"/>
+      <c r="AZ2" s="292"/>
+      <c r="BA2" s="292"/>
+      <c r="BB2" s="292"/>
+      <c r="BC2" s="293"/>
+      <c r="BE2" s="255"/>
+      <c r="BF2" s="256"/>
+      <c r="BG2" s="256"/>
+      <c r="BH2" s="256"/>
+      <c r="BI2" s="256"/>
+      <c r="BJ2" s="257"/>
+      <c r="BL2" s="302"/>
+      <c r="BM2" s="303"/>
+      <c r="BN2" s="303"/>
+      <c r="BO2" s="303"/>
+      <c r="BP2" s="303"/>
+      <c r="BQ2" s="303"/>
+      <c r="BR2" s="303"/>
+      <c r="BS2" s="303"/>
+      <c r="BT2" s="303"/>
+      <c r="BU2" s="303"/>
+      <c r="BV2" s="303"/>
+      <c r="BW2" s="303"/>
+      <c r="BX2" s="303"/>
+      <c r="BY2" s="303"/>
+      <c r="BZ2" s="303"/>
+      <c r="CA2" s="303"/>
+      <c r="CB2" s="303"/>
+      <c r="CC2" s="303"/>
+      <c r="CD2" s="304"/>
     </row>
     <row r="3" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53" t="s">
@@ -34339,53 +34330,53 @@
       <c r="BJ3" t="s">
         <v>786</v>
       </c>
-      <c r="BL3" s="251" t="s">
+      <c r="BL3" s="307" t="s">
         <v>897</v>
       </c>
-      <c r="BM3" s="252"/>
-      <c r="BN3" s="252"/>
-      <c r="BO3" s="252"/>
-      <c r="BP3" s="252"/>
-      <c r="BQ3" s="252"/>
-      <c r="BR3" s="253"/>
-      <c r="BT3" s="251" t="s">
+      <c r="BM3" s="308"/>
+      <c r="BN3" s="308"/>
+      <c r="BO3" s="308"/>
+      <c r="BP3" s="308"/>
+      <c r="BQ3" s="308"/>
+      <c r="BR3" s="309"/>
+      <c r="BT3" s="307" t="s">
         <v>908</v>
       </c>
-      <c r="BU3" s="253"/>
-      <c r="BW3" s="251" t="s">
+      <c r="BU3" s="309"/>
+      <c r="BW3" s="307" t="s">
         <v>909</v>
       </c>
-      <c r="BX3" s="252"/>
-      <c r="BY3" s="252"/>
-      <c r="BZ3" s="253"/>
-      <c r="CB3" s="268" t="s">
+      <c r="BX3" s="308"/>
+      <c r="BY3" s="308"/>
+      <c r="BZ3" s="309"/>
+      <c r="CB3" s="296" t="s">
         <v>476</v>
       </c>
-      <c r="CC3" s="269"/>
-      <c r="CD3" s="270"/>
+      <c r="CC3" s="297"/>
+      <c r="CD3" s="298"/>
     </row>
     <row r="4" spans="1:82" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="231" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="220"/>
-      <c r="G4" s="223" t="s">
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="233"/>
+      <c r="G4" s="279" t="s">
         <v>680</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
-      <c r="K4" s="225"/>
-      <c r="M4" s="237" t="s">
+      <c r="H4" s="280"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="281"/>
+      <c r="M4" s="258" t="s">
         <v>478</v>
       </c>
-      <c r="N4" s="238"/>
-      <c r="O4" s="238"/>
-      <c r="P4" s="238"/>
-      <c r="Q4" s="239"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="260"/>
       <c r="S4">
         <v>1</v>
       </c>
@@ -34536,19 +34527,19 @@
         <f t="shared" ref="BJ4" si="5">IF(BH4&lt;=20%, "very low", IF(BH4&lt;=40%, "low", IF(BH4&lt;=60%, "moderate", IF(BH4&lt;=80%, "high", "very high"))))</f>
         <v>low</v>
       </c>
-      <c r="BL4" s="277" t="s">
+      <c r="BL4" s="305" t="s">
         <v>898</v>
       </c>
-      <c r="BM4" s="149" t="s">
+      <c r="BM4" s="180" t="s">
         <v>899</v>
       </c>
-      <c r="BN4" s="154"/>
-      <c r="BO4" s="150"/>
-      <c r="BP4" s="149" t="s">
+      <c r="BN4" s="185"/>
+      <c r="BO4" s="181"/>
+      <c r="BP4" s="180" t="s">
         <v>900</v>
       </c>
-      <c r="BQ4" s="154"/>
-      <c r="BR4" s="150"/>
+      <c r="BQ4" s="185"/>
+      <c r="BR4" s="181"/>
       <c r="BT4" s="12" t="s">
         <v>419</v>
       </c>
@@ -34580,10 +34571,10 @@
       </c>
     </row>
     <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="190">
-        <v>1</v>
-      </c>
-      <c r="B5" s="221" t="s">
+      <c r="A5" s="230">
+        <v>1</v>
+      </c>
+      <c r="B5" s="234" t="s">
         <v>630</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -34596,10 +34587,10 @@
         <f>COUNTIF(coded_data!B:B, D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="190">
+      <c r="G5" s="230">
         <v>14</v>
       </c>
-      <c r="H5" s="195" t="s">
+      <c r="H5" s="222" t="s">
         <v>731</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -34610,10 +34601,10 @@
         <f>COUNT(raw_data!A:A) - COUNTIF(raw_data!AA:AA, J5)</f>
         <v>10</v>
       </c>
-      <c r="M5" s="193">
+      <c r="M5" s="227">
         <v>21</v>
       </c>
-      <c r="N5" s="194" t="s">
+      <c r="N5" s="221" t="s">
         <v>733</v>
       </c>
       <c r="O5" s="57" t="s">
@@ -34776,7 +34767,7 @@
         <f t="shared" ref="BJ5:BJ24" si="11">IF(BH5&lt;=20%, "very low", IF(BH5&lt;=40%, "low", IF(BH5&lt;=60%, "moderate", IF(BH5&lt;=80%, "high", "very high"))))</f>
         <v>very low</v>
       </c>
-      <c r="BL5" s="278"/>
+      <c r="BL5" s="306"/>
       <c r="BM5" s="1" t="s">
         <v>901</v>
       </c>
@@ -34829,8 +34820,8 @@
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A6" s="191"/>
-      <c r="B6" s="221"/>
+      <c r="A6" s="228"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="1" t="s">
         <v>632</v>
       </c>
@@ -34841,8 +34832,8 @@
         <f>COUNTIF(coded_data!B:B, D6)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="191"/>
-      <c r="H6" s="195"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="222"/>
       <c r="I6" s="1" t="s">
         <v>682</v>
       </c>
@@ -34851,8 +34842,8 @@
         <f>COUNT(raw_data!A:A) - COUNTIF(raw_data!AB:AB, J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="192"/>
-      <c r="N6" s="196"/>
+      <c r="M6" s="229"/>
+      <c r="N6" s="223"/>
       <c r="O6" s="61" t="s">
         <v>735</v>
       </c>
@@ -35074,8 +35065,8 @@
       </c>
     </row>
     <row r="7" spans="1:82" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="191"/>
-      <c r="B7" s="221"/>
+      <c r="A7" s="228"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="1" t="s">
         <v>633</v>
       </c>
@@ -35086,8 +35077,8 @@
         <f>COUNTIF(coded_data!B:B, D7)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="195"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="222"/>
       <c r="I7" s="1" t="s">
         <v>683</v>
       </c>
@@ -35102,11 +35093,11 @@
       <c r="N7" s="77" t="s">
         <v>745</v>
       </c>
-      <c r="O7" s="240" t="s">
+      <c r="O7" s="249" t="s">
         <v>693</v>
       </c>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="242"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="251"/>
       <c r="S7">
         <v>4</v>
       </c>
@@ -35318,8 +35309,8 @@
       </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A8" s="191"/>
-      <c r="B8" s="221"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="1" t="s">
         <v>634</v>
       </c>
@@ -35330,8 +35321,8 @@
         <f>COUNTIF(coded_data!B:B, D8)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="191"/>
-      <c r="H8" s="195"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="222"/>
       <c r="I8" s="1" t="s">
         <v>684</v>
       </c>
@@ -35563,8 +35554,8 @@
       </c>
     </row>
     <row r="9" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="191"/>
-      <c r="B9" s="221"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="1" t="s">
         <v>635</v>
       </c>
@@ -35575,8 +35566,8 @@
         <f>COUNTIF(coded_data!B:B, D9)</f>
         <v>3</v>
       </c>
-      <c r="G9" s="191"/>
-      <c r="H9" s="195"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="222"/>
       <c r="I9" s="1" t="s">
         <v>685</v>
       </c>
@@ -35808,8 +35799,8 @@
       </c>
     </row>
     <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="191"/>
-      <c r="B10" s="221"/>
+      <c r="A10" s="228"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="1" t="s">
         <v>636</v>
       </c>
@@ -35820,8 +35811,8 @@
         <f>COUNTIF(coded_data!B:B, D10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="191"/>
-      <c r="H10" s="195"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="222"/>
       <c r="I10" s="1" t="s">
         <v>686</v>
       </c>
@@ -36038,8 +36029,8 @@
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A11" s="191"/>
-      <c r="B11" s="221"/>
+      <c r="A11" s="228"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="1" t="s">
         <v>637</v>
       </c>
@@ -36050,8 +36041,8 @@
         <f>COUNTIF(coded_data!B:B, D11)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="191"/>
-      <c r="H11" s="195"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="222"/>
       <c r="I11" s="1" t="s">
         <v>687</v>
       </c>
@@ -36255,8 +36246,8 @@
       <c r="BZ11" s="1"/>
     </row>
     <row r="12" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="192"/>
-      <c r="B12" s="222"/>
+      <c r="A12" s="229"/>
+      <c r="B12" s="235"/>
       <c r="C12" s="61" t="s">
         <v>638</v>
       </c>
@@ -36267,8 +36258,8 @@
         <f>COUNTIF(coded_data!B:B, D12)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="192"/>
-      <c r="H12" s="196"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="223"/>
       <c r="I12" s="61" t="s">
         <v>643</v>
       </c>
@@ -36430,10 +36421,10 @@
       <c r="BZ12" s="1"/>
     </row>
     <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="193">
+      <c r="A13" s="227">
         <v>2</v>
       </c>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="236" t="s">
         <v>639</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -36444,10 +36435,10 @@
         <f>AVERAGE(coded_data!C:C)</f>
         <v>42.3</v>
       </c>
-      <c r="G13" s="193">
+      <c r="G13" s="227">
         <v>15</v>
       </c>
-      <c r="H13" s="194" t="s">
+      <c r="H13" s="221" t="s">
         <v>688</v>
       </c>
       <c r="I13" s="57" t="s">
@@ -36580,23 +36571,23 @@
         <f t="shared" si="11"/>
         <v>very low</v>
       </c>
-      <c r="BL13" s="251" t="s">
+      <c r="BL13" s="307" t="s">
         <v>904</v>
       </c>
-      <c r="BM13" s="252"/>
-      <c r="BN13" s="252"/>
-      <c r="BO13" s="252"/>
-      <c r="BP13" s="252"/>
-      <c r="BQ13" s="252"/>
-      <c r="BR13" s="253"/>
+      <c r="BM13" s="308"/>
+      <c r="BN13" s="308"/>
+      <c r="BO13" s="308"/>
+      <c r="BP13" s="308"/>
+      <c r="BQ13" s="308"/>
+      <c r="BR13" s="309"/>
       <c r="BW13" s="1"/>
       <c r="BX13" s="1"/>
       <c r="BY13" s="1"/>
       <c r="BZ13" s="1"/>
     </row>
     <row r="14" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="191"/>
-      <c r="B14" s="221"/>
+      <c r="A14" s="228"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="1" t="s">
         <v>719</v>
       </c>
@@ -36605,8 +36596,8 @@
         <f>MEDIAN(coded_data!C:C)</f>
         <v>39</v>
       </c>
-      <c r="G14" s="191"/>
-      <c r="H14" s="195"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="222"/>
       <c r="I14" s="1" t="s">
         <v>690</v>
       </c>
@@ -36619,11 +36610,11 @@
       </c>
       <c r="M14" s="79"/>
       <c r="N14" s="76"/>
-      <c r="O14" s="240" t="s">
+      <c r="O14" s="249" t="s">
         <v>695</v>
       </c>
-      <c r="P14" s="241"/>
-      <c r="Q14" s="242"/>
+      <c r="P14" s="250"/>
+      <c r="Q14" s="251"/>
       <c r="S14">
         <v>11</v>
       </c>
@@ -36690,19 +36681,19 @@
         <f t="shared" si="11"/>
         <v>very low</v>
       </c>
-      <c r="BL14" s="266" t="s">
+      <c r="BL14" s="294" t="s">
         <v>905</v>
       </c>
-      <c r="BM14" s="154" t="s">
+      <c r="BM14" s="185" t="s">
         <v>899</v>
       </c>
-      <c r="BN14" s="154"/>
-      <c r="BO14" s="150"/>
-      <c r="BP14" s="149" t="s">
+      <c r="BN14" s="185"/>
+      <c r="BO14" s="181"/>
+      <c r="BP14" s="180" t="s">
         <v>900</v>
       </c>
-      <c r="BQ14" s="154"/>
-      <c r="BR14" s="150"/>
+      <c r="BQ14" s="185"/>
+      <c r="BR14" s="181"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
       <c r="BW14" s="1"/>
@@ -36711,8 +36702,8 @@
       <c r="BZ14" s="1"/>
     </row>
     <row r="15" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="191"/>
-      <c r="B15" s="221"/>
+      <c r="A15" s="228"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="1" t="s">
         <v>720</v>
       </c>
@@ -36721,8 +36712,8 @@
         <f>MODE(coded_data!C:C)</f>
         <v>49</v>
       </c>
-      <c r="G15" s="191"/>
-      <c r="H15" s="195"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="222"/>
       <c r="I15" s="1" t="s">
         <v>691</v>
       </c>
@@ -36811,7 +36802,7 @@
         <f t="shared" si="11"/>
         <v>low</v>
       </c>
-      <c r="BL15" s="267"/>
+      <c r="BL15" s="295"/>
       <c r="BM15" s="1" t="s">
         <v>901</v>
       </c>
@@ -36834,8 +36825,8 @@
       <c r="BU15" s="1"/>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A16" s="191"/>
-      <c r="B16" s="221"/>
+      <c r="A16" s="228"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="1" t="s">
         <v>509</v>
       </c>
@@ -36844,8 +36835,8 @@
         <f>_xlfn.STDEV.S(coded_data!C:C)</f>
         <v>14.719978864719121</v>
       </c>
-      <c r="G16" s="191"/>
-      <c r="H16" s="195"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="222"/>
       <c r="I16" s="1" t="s">
         <v>692</v>
       </c>
@@ -36963,8 +36954,8 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A17" s="192"/>
-      <c r="B17" s="222"/>
+      <c r="A17" s="229"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="61" t="s">
         <v>508</v>
       </c>
@@ -36973,8 +36964,8 @@
         <f>MAX(coded_data!C:C) - MIN(coded_data!C:C)</f>
         <v>45</v>
       </c>
-      <c r="G17" s="192"/>
-      <c r="H17" s="196"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="223"/>
       <c r="I17" s="1" t="s">
         <v>643</v>
       </c>
@@ -37092,10 +37083,10 @@
       </c>
     </row>
     <row r="18" spans="1:70" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="193">
+      <c r="A18" s="227">
         <v>3</v>
       </c>
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="237" t="s">
         <v>640</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -37108,17 +37099,17 @@
         <f>COUNTIF(coded_data!D:D, D18)</f>
         <v>6</v>
       </c>
-      <c r="G18" s="193">
+      <c r="G18" s="227">
         <v>16</v>
       </c>
-      <c r="H18" s="233" t="s">
+      <c r="H18" s="247" t="s">
         <v>730</v>
       </c>
-      <c r="I18" s="240" t="s">
+      <c r="I18" s="249" t="s">
         <v>693</v>
       </c>
-      <c r="J18" s="241"/>
-      <c r="K18" s="242"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
       <c r="M18" s="79"/>
       <c r="N18" s="76"/>
       <c r="O18" s="1" t="s">
@@ -37226,8 +37217,8 @@
       </c>
     </row>
     <row r="19" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="191"/>
-      <c r="B19" s="228"/>
+      <c r="A19" s="228"/>
+      <c r="B19" s="238"/>
       <c r="C19" s="1" t="s">
         <v>642</v>
       </c>
@@ -37238,8 +37229,8 @@
         <f>COUNTIF(coded_data!D:D, D19)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="191"/>
-      <c r="H19" s="195"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="222"/>
       <c r="I19" s="63" t="s">
         <v>689</v>
       </c>
@@ -37357,8 +37348,8 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A20" s="192"/>
-      <c r="B20" s="229"/>
+      <c r="A20" s="229"/>
+      <c r="B20" s="239"/>
       <c r="C20" s="61" t="s">
         <v>643</v>
       </c>
@@ -37369,8 +37360,8 @@
         <f>COUNTIF(coded_data!D:D, D20)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="191"/>
-      <c r="H20" s="195"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="222"/>
       <c r="I20" s="63" t="s">
         <v>694</v>
       </c>
@@ -37439,10 +37430,10 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A21" s="193">
+      <c r="A21" s="227">
         <v>4</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="236" t="s">
         <v>714</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -37455,8 +37446,8 @@
         <f>COUNTIF(coded_data!E:E, D21)</f>
         <v>1</v>
       </c>
-      <c r="G21" s="191"/>
-      <c r="H21" s="195"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="222"/>
       <c r="I21" s="63" t="s">
         <v>643</v>
       </c>
@@ -37469,11 +37460,11 @@
       </c>
       <c r="M21" s="79"/>
       <c r="N21" s="76"/>
-      <c r="O21" s="240" t="s">
+      <c r="O21" s="249" t="s">
         <v>699</v>
       </c>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="242"/>
+      <c r="P21" s="250"/>
+      <c r="Q21" s="251"/>
       <c r="AX21">
         <v>18</v>
       </c>
@@ -37520,8 +37511,8 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A22" s="191"/>
-      <c r="B22" s="221"/>
+      <c r="A22" s="228"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="1" t="s">
         <v>645</v>
       </c>
@@ -37532,13 +37523,13 @@
         <f>COUNTIF(coded_data!E:E, D22)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="191"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="240" t="s">
+      <c r="G22" s="228"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="249" t="s">
         <v>695</v>
       </c>
-      <c r="J22" s="241"/>
-      <c r="K22" s="242"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
       <c r="M22" s="79"/>
       <c r="N22" s="76"/>
       <c r="O22" s="1" t="s">
@@ -37597,8 +37588,8 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A23" s="191"/>
-      <c r="B23" s="221"/>
+      <c r="A23" s="228"/>
+      <c r="B23" s="234"/>
       <c r="C23" s="1" t="s">
         <v>646</v>
       </c>
@@ -37609,8 +37600,8 @@
         <f>COUNTIF(coded_data!E:E, D23)</f>
         <v>3</v>
       </c>
-      <c r="G23" s="191"/>
-      <c r="H23" s="195"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="222"/>
       <c r="I23" s="63" t="s">
         <v>689</v>
       </c>
@@ -37679,8 +37670,8 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A24" s="192"/>
-      <c r="B24" s="222"/>
+      <c r="A24" s="229"/>
+      <c r="B24" s="235"/>
       <c r="C24" s="61" t="s">
         <v>647</v>
       </c>
@@ -37691,8 +37682,8 @@
         <f>COUNTIF(coded_data!E:E, D24)</f>
         <v>4</v>
       </c>
-      <c r="G24" s="191"/>
-      <c r="H24" s="195"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="222"/>
       <c r="I24" s="63" t="s">
         <v>696</v>
       </c>
@@ -37761,10 +37752,10 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A25" s="193">
+      <c r="A25" s="227">
         <v>5</v>
       </c>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="240" t="s">
         <v>715</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -37777,8 +37768,8 @@
         <f>COUNTIF(coded_data!F:F, D25)</f>
         <v>8</v>
       </c>
-      <c r="G25" s="191"/>
-      <c r="H25" s="195"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="222"/>
       <c r="I25" s="63" t="s">
         <v>697</v>
       </c>
@@ -37825,8 +37816,8 @@
       </c>
     </row>
     <row r="26" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="230"/>
-      <c r="B26" s="236"/>
+      <c r="A26" s="244"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="1" t="s">
         <v>650</v>
       </c>
@@ -37837,8 +37828,8 @@
         <f>COUNTIF(coded_data!F:F, D26)</f>
         <v>2</v>
       </c>
-      <c r="G26" s="191"/>
-      <c r="H26" s="195"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="222"/>
       <c r="I26" s="63" t="s">
         <v>698</v>
       </c>
@@ -37885,15 +37876,15 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="218" t="s">
+      <c r="A27" s="231" t="s">
         <v>651</v>
       </c>
-      <c r="B27" s="219"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="220"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="195"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="233"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="222"/>
       <c r="I27" s="63" t="s">
         <v>643</v>
       </c>
@@ -37922,10 +37913,10 @@
       </c>
     </row>
     <row r="28" spans="1:70" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="190">
+      <c r="A28" s="230">
         <v>6</v>
       </c>
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="224" t="s">
         <v>652</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -37938,13 +37929,13 @@
         <f>COUNTIF(coded_data!G:G, D28)</f>
         <v>4</v>
       </c>
-      <c r="G28" s="191"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="240" t="s">
+      <c r="G28" s="228"/>
+      <c r="H28" s="248"/>
+      <c r="I28" s="249" t="s">
         <v>699</v>
       </c>
-      <c r="J28" s="241"/>
-      <c r="K28" s="242"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
       <c r="M28" s="71"/>
       <c r="N28" s="74"/>
       <c r="O28" s="1" t="s">
@@ -37957,18 +37948,18 @@
         <f>COUNTIF(coded_data!BY:BY, P28)</f>
         <v>9</v>
       </c>
-      <c r="AX28" s="200" t="s">
+      <c r="AX28" s="261" t="s">
         <v>872</v>
       </c>
-      <c r="AY28" s="201"/>
-      <c r="AZ28" s="201"/>
-      <c r="BA28" s="201"/>
-      <c r="BB28" s="201"/>
-      <c r="BC28" s="202"/>
+      <c r="AY28" s="262"/>
+      <c r="AZ28" s="262"/>
+      <c r="BA28" s="262"/>
+      <c r="BB28" s="262"/>
+      <c r="BC28" s="263"/>
     </row>
     <row r="29" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="192"/>
-      <c r="B29" s="198"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="61" t="s">
         <v>649</v>
       </c>
@@ -37979,8 +37970,8 @@
         <f>COUNTIF(coded_data!G:G, D29)</f>
         <v>6</v>
       </c>
-      <c r="G29" s="191"/>
-      <c r="H29" s="195"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="222"/>
       <c r="I29" s="63" t="s">
         <v>700</v>
       </c>
@@ -38003,18 +37994,18 @@
         <f>COUNTIF(coded_data!BZ:BZ, P29)</f>
         <v>3</v>
       </c>
-      <c r="AX29" s="203"/>
-      <c r="AY29" s="204"/>
-      <c r="AZ29" s="204"/>
-      <c r="BA29" s="204"/>
-      <c r="BB29" s="204"/>
-      <c r="BC29" s="205"/>
+      <c r="AX29" s="264"/>
+      <c r="AY29" s="265"/>
+      <c r="AZ29" s="265"/>
+      <c r="BA29" s="265"/>
+      <c r="BB29" s="265"/>
+      <c r="BC29" s="266"/>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A30" s="193">
+      <c r="A30" s="227">
         <v>7</v>
       </c>
-      <c r="B30" s="194" t="s">
+      <c r="B30" s="221" t="s">
         <v>728</v>
       </c>
       <c r="C30" s="57" t="s">
@@ -38027,8 +38018,8 @@
         <f>COUNTIF(coded_data!H:H, D30)</f>
         <v>8</v>
       </c>
-      <c r="G30" s="191"/>
-      <c r="H30" s="195"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="222"/>
       <c r="I30" s="63" t="s">
         <v>701</v>
       </c>
@@ -38071,8 +38062,8 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A31" s="191"/>
-      <c r="B31" s="195"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="222"/>
       <c r="C31" s="1" t="s">
         <v>654</v>
       </c>
@@ -38083,8 +38074,8 @@
         <f>COUNTIF(coded_data!H:H, D31)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="191"/>
-      <c r="H31" s="195"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="222"/>
       <c r="I31" s="63" t="s">
         <v>702</v>
       </c>
@@ -38131,8 +38122,8 @@
       </c>
     </row>
     <row r="32" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="230"/>
-      <c r="B32" s="195"/>
+      <c r="A32" s="244"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="1" t="s">
         <v>643</v>
       </c>
@@ -38143,8 +38134,8 @@
         <f>COUNTIF(coded_data!H:H, D32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="191"/>
-      <c r="H32" s="195"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="222"/>
       <c r="I32" s="63" t="s">
         <v>703</v>
       </c>
@@ -38195,15 +38186,15 @@
       </c>
     </row>
     <row r="33" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="218" t="s">
+      <c r="A33" s="231" t="s">
         <v>655</v>
       </c>
-      <c r="B33" s="219"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="220"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="196"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="233"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="223"/>
       <c r="I33" s="64" t="s">
         <v>643</v>
       </c>
@@ -38250,10 +38241,10 @@
       </c>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A34" s="190">
+      <c r="A34" s="230">
         <v>8</v>
       </c>
-      <c r="B34" s="195" t="s">
+      <c r="B34" s="222" t="s">
         <v>716</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -38266,10 +38257,10 @@
         <f>COUNTIF(coded_data!I:I, D34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="193">
+      <c r="G34" s="227">
         <v>17</v>
       </c>
-      <c r="H34" s="194" t="s">
+      <c r="H34" s="221" t="s">
         <v>704</v>
       </c>
       <c r="I34" s="66" t="s">
@@ -38296,8 +38287,8 @@
       </c>
     </row>
     <row r="35" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="191"/>
-      <c r="B35" s="195"/>
+      <c r="A35" s="228"/>
+      <c r="B35" s="222"/>
       <c r="C35" s="1" t="s">
         <v>657</v>
       </c>
@@ -38308,8 +38299,8 @@
         <f>COUNTIF(coded_data!I:I, D35)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="191"/>
-      <c r="H35" s="195"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="222"/>
       <c r="I35" s="63" t="s">
         <v>723</v>
       </c>
@@ -38334,8 +38325,8 @@
       </c>
     </row>
     <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="191"/>
-      <c r="B36" s="195"/>
+      <c r="A36" s="228"/>
+      <c r="B36" s="222"/>
       <c r="C36" s="1" t="s">
         <v>658</v>
       </c>
@@ -38346,8 +38337,8 @@
         <f>COUNTIF(coded_data!I:I, D36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="192"/>
-      <c r="H36" s="196"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="223"/>
       <c r="I36" s="63" t="s">
         <v>724</v>
       </c>
@@ -38372,8 +38363,8 @@
       </c>
     </row>
     <row r="37" spans="1:55" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="191"/>
-      <c r="B37" s="195"/>
+      <c r="A37" s="228"/>
+      <c r="B37" s="222"/>
       <c r="C37" s="1" t="s">
         <v>659</v>
       </c>
@@ -38384,17 +38375,17 @@
         <f>COUNTIF(coded_data!I:I, D37)</f>
         <v>5</v>
       </c>
-      <c r="G37" s="193">
+      <c r="G37" s="227">
         <v>18</v>
       </c>
-      <c r="H37" s="194" t="s">
+      <c r="H37" s="221" t="s">
         <v>729</v>
       </c>
-      <c r="I37" s="243" t="s">
+      <c r="I37" s="245" t="s">
         <v>725</v>
       </c>
-      <c r="J37" s="243"/>
-      <c r="K37" s="244"/>
+      <c r="J37" s="245"/>
+      <c r="K37" s="246"/>
       <c r="L37" s="54"/>
       <c r="M37" s="72"/>
       <c r="N37" s="75"/>
@@ -38410,8 +38401,8 @@
       </c>
     </row>
     <row r="38" spans="1:55" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="191"/>
-      <c r="B38" s="195"/>
+      <c r="A38" s="228"/>
+      <c r="B38" s="222"/>
       <c r="C38" s="1" t="s">
         <v>660</v>
       </c>
@@ -38422,8 +38413,8 @@
         <f>COUNTIF(coded_data!I:I, D38)</f>
         <v>2</v>
       </c>
-      <c r="G38" s="191"/>
-      <c r="H38" s="195"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="222"/>
       <c r="I38" s="69" t="s">
         <v>732</v>
       </c>
@@ -38450,8 +38441,8 @@
       </c>
     </row>
     <row r="39" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="191"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="228"/>
+      <c r="B39" s="222"/>
       <c r="C39" s="1" t="s">
         <v>661</v>
       </c>
@@ -38462,8 +38453,8 @@
         <f>COUNTIF(coded_data!I:I, D39)</f>
         <v>2</v>
       </c>
-      <c r="G39" s="191"/>
-      <c r="H39" s="195"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="222"/>
       <c r="I39" s="59" t="s">
         <v>718</v>
       </c>
@@ -38486,8 +38477,8 @@
       </c>
     </row>
     <row r="40" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="192"/>
-      <c r="B40" s="196"/>
+      <c r="A40" s="229"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="61" t="s">
         <v>643</v>
       </c>
@@ -38498,8 +38489,8 @@
         <f>COUNTIF(coded_data!I:I, D40)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="191"/>
-      <c r="H40" s="195"/>
+      <c r="G40" s="228"/>
+      <c r="H40" s="222"/>
       <c r="I40" s="60" t="s">
         <v>508</v>
       </c>
@@ -38522,10 +38513,10 @@
       </c>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A41" s="193">
+      <c r="A41" s="227">
         <v>9</v>
       </c>
-      <c r="B41" s="194" t="s">
+      <c r="B41" s="221" t="s">
         <v>662</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -38538,13 +38529,13 @@
         <f>COUNTIF(coded_data!J:J, D41)</f>
         <v>2</v>
       </c>
-      <c r="G41" s="191"/>
-      <c r="H41" s="195"/>
-      <c r="I41" s="231" t="s">
+      <c r="G41" s="228"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="242" t="s">
         <v>726</v>
       </c>
-      <c r="J41" s="231"/>
-      <c r="K41" s="232"/>
+      <c r="J41" s="242"/>
+      <c r="K41" s="243"/>
       <c r="M41" s="71"/>
       <c r="N41" s="74"/>
       <c r="O41" s="59" t="s">
@@ -38559,8 +38550,8 @@
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A42" s="192"/>
-      <c r="B42" s="196"/>
+      <c r="A42" s="229"/>
+      <c r="B42" s="223"/>
       <c r="C42" s="61" t="s">
         <v>649</v>
       </c>
@@ -38571,8 +38562,8 @@
         <f>COUNTIF(coded_data!J:J, D42)</f>
         <v>8</v>
       </c>
-      <c r="G42" s="191"/>
-      <c r="H42" s="195"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="222"/>
       <c r="I42" s="69" t="s">
         <v>732</v>
       </c>
@@ -38605,8 +38596,8 @@
         <f>CONCATENATE(SUM(coded_data!K:K)/(COUNT(coded_data!A:A) - COUNTIF(coded_data!K:K, D43)), " per month")</f>
         <v>45 per month</v>
       </c>
-      <c r="G43" s="191"/>
-      <c r="H43" s="195"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="222"/>
       <c r="I43" s="59" t="s">
         <v>718</v>
       </c>
@@ -38634,10 +38625,10 @@
       </c>
     </row>
     <row r="44" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="193">
+      <c r="A44" s="227">
         <v>11</v>
       </c>
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="221" t="s">
         <v>717</v>
       </c>
       <c r="C44" s="57" t="s">
@@ -38650,8 +38641,8 @@
         <f>COUNTIF(coded_data!L:L, D44)</f>
         <v>6</v>
       </c>
-      <c r="G44" s="191"/>
-      <c r="H44" s="195"/>
+      <c r="G44" s="228"/>
+      <c r="H44" s="222"/>
       <c r="I44" s="60" t="s">
         <v>508</v>
       </c>
@@ -38674,8 +38665,8 @@
       </c>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A45" s="191"/>
-      <c r="B45" s="195"/>
+      <c r="A45" s="228"/>
+      <c r="B45" s="222"/>
       <c r="C45" s="1" t="s">
         <v>665</v>
       </c>
@@ -38686,13 +38677,13 @@
         <f>COUNTIF(coded_data!L:L, D45)</f>
         <v>4</v>
       </c>
-      <c r="G45" s="191"/>
-      <c r="H45" s="195"/>
-      <c r="I45" s="231" t="s">
+      <c r="G45" s="228"/>
+      <c r="H45" s="222"/>
+      <c r="I45" s="242" t="s">
         <v>727</v>
       </c>
-      <c r="J45" s="231"/>
-      <c r="K45" s="232"/>
+      <c r="J45" s="242"/>
+      <c r="K45" s="243"/>
       <c r="M45" s="71"/>
       <c r="N45" s="74"/>
       <c r="O45" s="59" t="s">
@@ -38707,8 +38698,8 @@
       </c>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A46" s="192"/>
-      <c r="B46" s="196"/>
+      <c r="A46" s="229"/>
+      <c r="B46" s="223"/>
       <c r="C46" s="61" t="s">
         <v>643</v>
       </c>
@@ -38719,8 +38710,8 @@
         <f>COUNTIF(coded_data!L:L, D46)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="191"/>
-      <c r="H46" s="195"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="222"/>
       <c r="I46" s="69" t="s">
         <v>732</v>
       </c>
@@ -38743,10 +38734,10 @@
       </c>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A47" s="193">
+      <c r="A47" s="227">
         <v>12</v>
       </c>
-      <c r="B47" s="194" t="s">
+      <c r="B47" s="221" t="s">
         <v>666</v>
       </c>
       <c r="C47" s="57" t="s">
@@ -38759,8 +38750,8 @@
         <f>COUNTIF(coded_data!M:M, D47)</f>
         <v>4</v>
       </c>
-      <c r="G47" s="191"/>
-      <c r="H47" s="195"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="222"/>
       <c r="I47" s="59" t="s">
         <v>718</v>
       </c>
@@ -38783,8 +38774,8 @@
       </c>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A48" s="191"/>
-      <c r="B48" s="195"/>
+      <c r="A48" s="228"/>
+      <c r="B48" s="222"/>
       <c r="C48" s="1" t="s">
         <v>668</v>
       </c>
@@ -38795,8 +38786,8 @@
         <f>COUNTIF(coded_data!N:N, D48)</f>
         <v>6</v>
       </c>
-      <c r="G48" s="192"/>
-      <c r="H48" s="196"/>
+      <c r="G48" s="229"/>
+      <c r="H48" s="223"/>
       <c r="I48" s="60" t="s">
         <v>508</v>
       </c>
@@ -38819,8 +38810,8 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="191"/>
-      <c r="B49" s="195"/>
+      <c r="A49" s="228"/>
+      <c r="B49" s="222"/>
       <c r="C49" s="1" t="s">
         <v>669</v>
       </c>
@@ -38831,10 +38822,10 @@
         <f>COUNTIF(coded_data!O:O, D49)</f>
         <v>6</v>
       </c>
-      <c r="G49" s="193">
+      <c r="G49" s="227">
         <v>19</v>
       </c>
-      <c r="H49" s="194" t="s">
+      <c r="H49" s="221" t="s">
         <v>705</v>
       </c>
       <c r="I49" s="57" t="s">
@@ -38866,8 +38857,8 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="191"/>
-      <c r="B50" s="195"/>
+      <c r="A50" s="228"/>
+      <c r="B50" s="222"/>
       <c r="C50" s="1" t="s">
         <v>670</v>
       </c>
@@ -38878,8 +38869,8 @@
         <f>COUNTIF(coded_data!P:P, D50)</f>
         <v>6</v>
       </c>
-      <c r="G50" s="191"/>
-      <c r="H50" s="195"/>
+      <c r="G50" s="228"/>
+      <c r="H50" s="222"/>
       <c r="I50" s="1" t="s">
         <v>707</v>
       </c>
@@ -38904,8 +38895,8 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="191"/>
-      <c r="B51" s="195"/>
+      <c r="A51" s="228"/>
+      <c r="B51" s="222"/>
       <c r="C51" s="1" t="s">
         <v>671</v>
       </c>
@@ -38916,8 +38907,8 @@
         <f>COUNTIF(coded_data!Q:Q, D51)</f>
         <v>5</v>
       </c>
-      <c r="G51" s="191"/>
-      <c r="H51" s="195"/>
+      <c r="G51" s="228"/>
+      <c r="H51" s="222"/>
       <c r="I51" s="1" t="s">
         <v>708</v>
       </c>
@@ -38942,8 +38933,8 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="192"/>
-      <c r="B52" s="196"/>
+      <c r="A52" s="229"/>
+      <c r="B52" s="223"/>
       <c r="C52" s="61" t="s">
         <v>643</v>
       </c>
@@ -38954,8 +38945,8 @@
         <f>COUNTIF(coded_data!R:R, D52)</f>
         <v>1</v>
       </c>
-      <c r="G52" s="192"/>
-      <c r="H52" s="196"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="223"/>
       <c r="I52" s="61" t="s">
         <v>709</v>
       </c>
@@ -38984,10 +38975,10 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="193">
+      <c r="A53" s="227">
         <v>13</v>
       </c>
-      <c r="B53" s="194" t="s">
+      <c r="B53" s="221" t="s">
         <v>672</v>
       </c>
       <c r="C53" s="57" t="s">
@@ -39000,10 +38991,10 @@
         <f>COUNTIF(coded_data!S:S, D53)</f>
         <v>10</v>
       </c>
-      <c r="G53" s="193">
+      <c r="G53" s="227">
         <v>20</v>
       </c>
-      <c r="H53" s="194" t="s">
+      <c r="H53" s="221" t="s">
         <v>710</v>
       </c>
       <c r="I53" s="57" t="s">
@@ -39030,8 +39021,8 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="191"/>
-      <c r="B54" s="195"/>
+      <c r="A54" s="228"/>
+      <c r="B54" s="222"/>
       <c r="C54" s="1" t="s">
         <v>674</v>
       </c>
@@ -39042,8 +39033,8 @@
         <f>COUNTIF(coded_data!T:T, D54)</f>
         <v>2</v>
       </c>
-      <c r="G54" s="191"/>
-      <c r="H54" s="195"/>
+      <c r="G54" s="228"/>
+      <c r="H54" s="222"/>
       <c r="I54" s="1" t="s">
         <v>712</v>
       </c>
@@ -39068,8 +39059,8 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="191"/>
-      <c r="B55" s="195"/>
+      <c r="A55" s="228"/>
+      <c r="B55" s="222"/>
       <c r="C55" s="1" t="s">
         <v>675</v>
       </c>
@@ -39080,8 +39071,8 @@
         <f>COUNTIF(coded_data!U:U, D55)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="191"/>
-      <c r="H55" s="195"/>
+      <c r="G55" s="228"/>
+      <c r="H55" s="222"/>
       <c r="I55" s="1" t="s">
         <v>713</v>
       </c>
@@ -39106,8 +39097,8 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="191"/>
-      <c r="B56" s="195"/>
+      <c r="A56" s="228"/>
+      <c r="B56" s="222"/>
       <c r="C56" s="1" t="s">
         <v>676</v>
       </c>
@@ -39118,8 +39109,8 @@
         <f>COUNTIF(coded_data!V:V, D56)</f>
         <v>3</v>
       </c>
-      <c r="G56" s="192"/>
-      <c r="H56" s="196"/>
+      <c r="G56" s="229"/>
+      <c r="H56" s="223"/>
       <c r="I56" s="61" t="s">
         <v>643</v>
       </c>
@@ -39144,8 +39135,8 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="191"/>
-      <c r="B57" s="195"/>
+      <c r="A57" s="228"/>
+      <c r="B57" s="222"/>
       <c r="C57" s="1" t="s">
         <v>677</v>
       </c>
@@ -39170,8 +39161,8 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="191"/>
-      <c r="B58" s="195"/>
+      <c r="A58" s="228"/>
+      <c r="B58" s="222"/>
       <c r="C58" s="1" t="s">
         <v>678</v>
       </c>
@@ -39200,8 +39191,8 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="191"/>
-      <c r="B59" s="195"/>
+      <c r="A59" s="228"/>
+      <c r="B59" s="222"/>
       <c r="C59" s="1" t="s">
         <v>679</v>
       </c>
@@ -39226,8 +39217,8 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="192"/>
-      <c r="B60" s="196"/>
+      <c r="A60" s="229"/>
+      <c r="B60" s="223"/>
       <c r="C60" s="61" t="s">
         <v>643</v>
       </c>
@@ -39279,12 +39270,18 @@
     <mergeCell ref="BL3:BR3"/>
     <mergeCell ref="BT3:BU3"/>
     <mergeCell ref="BW3:BZ3"/>
+    <mergeCell ref="AX28:BC29"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="S1:AJ2"/>
+    <mergeCell ref="B1:Q2"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="G13:G17"/>
     <mergeCell ref="AL1:AV2"/>
     <mergeCell ref="AX1:BC2"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I28:K28"/>
     <mergeCell ref="BE1:BJ2"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="O7:Q7"/>
@@ -39296,6 +39293,7 @@
     <mergeCell ref="H37:H48"/>
     <mergeCell ref="H49:H52"/>
     <mergeCell ref="H18:H33"/>
+    <mergeCell ref="I28:K28"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="H34:H36"/>
@@ -39308,24 +39306,15 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="AX28:BC29"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="S1:AJ2"/>
     <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B1:Q2"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B5:B12"/>
-    <mergeCell ref="G4:K4"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="G13:G17"/>
     <mergeCell ref="H53:H56"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A1:A2"/>
@@ -39340,6 +39329,8 @@
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:A60"/>
     <mergeCell ref="H5:H12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E12">
     <cfRule type="dataBar" priority="88">
@@ -39650,7 +39641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM6:BM12 BN11:BR11">
-    <cfRule type="top10" dxfId="56" priority="64" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="64" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU4:BU9">
     <cfRule type="dataBar" priority="53">
@@ -39681,13 +39672,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BX14 BY5:BZ10">
-    <cfRule type="top10" dxfId="55" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="51" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:BY14">
-    <cfRule type="top10" dxfId="54" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:BZ14">
-    <cfRule type="top10" dxfId="53" priority="49" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="49" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU4:BU9">
     <cfRule type="dataBar" priority="48">
@@ -39704,63 +39695,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN6:BO10 BN12:BO12">
-    <cfRule type="top10" dxfId="52" priority="47" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="47" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO6:BO10 BO12">
-    <cfRule type="top10" dxfId="51" priority="45" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="50" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM16:BO19">
-    <cfRule type="top10" dxfId="49" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="44" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM16:BO19">
-    <cfRule type="top10" dxfId="48" priority="42" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="47" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="43" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN16:BN19">
-    <cfRule type="top10" dxfId="46" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP6:BP10 BP12">
-    <cfRule type="top10" dxfId="45" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="40" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP6:BP10 BP12">
-    <cfRule type="top10" dxfId="44" priority="38" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="43" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="39" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ6:BR10 BQ12:BR12">
-    <cfRule type="top10" dxfId="42" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ6:BR10 BQ12:BR12">
-    <cfRule type="top10" dxfId="41" priority="35" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="40" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="35" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="36" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR6:BR10 BR12">
-    <cfRule type="top10" dxfId="39" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BR19">
-    <cfRule type="top10" dxfId="38" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BR19">
-    <cfRule type="top10" dxfId="37" priority="31" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="36" priority="32" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="31" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="32" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BR19">
-    <cfRule type="top10" dxfId="35" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BP19">
-    <cfRule type="top10" dxfId="34" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR16:BR19">
-    <cfRule type="top10" dxfId="33" priority="28" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM16:BM19">
-    <cfRule type="top10" dxfId="32" priority="27" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="27" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BX10 BY10:BZ10">
-    <cfRule type="top10" dxfId="31" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:BY10">
-    <cfRule type="top10" dxfId="30" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V19">
     <cfRule type="dataBar" priority="24">
@@ -39789,19 +39780,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB11">
-    <cfRule type="top10" dxfId="29" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC11">
-    <cfRule type="top10" dxfId="28" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AD11">
-    <cfRule type="top10" dxfId="27" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE11">
-    <cfRule type="top10" dxfId="26" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AF11">
-    <cfRule type="top10" dxfId="25" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH11">
     <cfRule type="dataBar" priority="17">
@@ -39830,19 +39821,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AN13">
-    <cfRule type="top10" dxfId="24" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AO13">
-    <cfRule type="top10" dxfId="23" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP4:AP13">
-    <cfRule type="top10" dxfId="22" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ13">
-    <cfRule type="top10" dxfId="21" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AR13">
-    <cfRule type="top10" dxfId="20" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT13">
     <cfRule type="dataBar" priority="10">
@@ -39949,10 +39940,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD4:CD9">
-    <cfRule type="top10" dxfId="19" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD4:CD9">
-    <cfRule type="top10" dxfId="18" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{A35CC3EA-D0D8-4293-99BE-F65CD0BE0C43}"/>
@@ -40319,10 +40310,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FF890B-864C-4471-99CA-A6C8BFDED789}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M2"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40341,56 +40332,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="212" t="str">
+      <c r="B1" s="273" t="str">
         <f>CONCATENATE("SUMMARY OF VARIABLE SCORES AT (n = ", COUNT(processed_data!A:A), ")")</f>
         <v>SUMMARY OF VARIABLE SCORES AT (n = 10)</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="282"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="312"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="199"/>
-      <c r="B2" s="283"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="285"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
+      <c r="G2" s="314"/>
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="315"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="316" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
+      <c r="B3" s="317"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="317"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
@@ -40745,468 +40736,364 @@
         <v>1.5491933384829668</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="288" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="318" t="s">
         <v>481</v>
       </c>
-      <c r="B11" s="289"/>
-      <c r="C11" s="289"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="289"/>
-      <c r="M11" s="289"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
-        <v>499</v>
-      </c>
-      <c r="B12" t="s">
-        <v>500</v>
-      </c>
-      <c r="C12" t="s">
-        <v>501</v>
-      </c>
-      <c r="D12" t="s">
-        <v>502</v>
-      </c>
-      <c r="E12" t="s">
-        <v>503</v>
-      </c>
-      <c r="F12" t="s">
-        <v>615</v>
-      </c>
-      <c r="G12" t="s">
-        <v>504</v>
-      </c>
-      <c r="H12" t="s">
-        <v>505</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>621</v>
-      </c>
-      <c r="J12" t="s">
-        <v>507</v>
-      </c>
-      <c r="K12" t="s">
-        <v>495</v>
-      </c>
-      <c r="L12" t="s">
-        <v>508</v>
-      </c>
-      <c r="M12" t="s">
-        <v>509</v>
-      </c>
+      <c r="B12" s="319"/>
+      <c r="C12" s="319"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="319"/>
+      <c r="J12" s="319"/>
+      <c r="K12" s="319"/>
+      <c r="L12" s="319"/>
+      <c r="M12" s="319"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="53" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" t="s">
+        <v>502</v>
+      </c>
+      <c r="E13" t="s">
+        <v>503</v>
+      </c>
+      <c r="F13" t="s">
+        <v>615</v>
+      </c>
+      <c r="G13" t="s">
+        <v>504</v>
+      </c>
+      <c r="H13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="J13" t="s">
+        <v>507</v>
+      </c>
+      <c r="K13" t="s">
+        <v>495</v>
+      </c>
+      <c r="L13" t="s">
+        <v>508</v>
+      </c>
+      <c r="M13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="53" t="s">
         <v>596</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>459</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>MIN(processed_data!Z:Z)</f>
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>MAX(processed_data!Z:Z)</f>
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f>AVERAGE(processed_data!Z:Z)</f>
         <v>9.1</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f>MEDIAN(processed_data!Z:Z)</f>
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f>MODE(processed_data!Z:Z)</f>
         <v>10</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <f>SUM(processed_data!Z:Z)</f>
         <v>91</v>
       </c>
-      <c r="I13" s="40">
-        <f>H13/COUNT(processed_data!A:A)/10</f>
+      <c r="I14" s="40">
+        <f>H14/COUNT(processed_data!A:A)/10</f>
         <v>0.90999999999999992</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" ref="J13:J14" si="3">IF(I13&lt;=20%, "very low", IF(I13&lt;=40%, "low", IF(I13&lt;=60%, "moderate", IF(I13&lt;=80%, "high", "very high"))))</f>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14:J15" si="3">IF(I14&lt;=20%, "very low", IF(I14&lt;=40%, "low", IF(I14&lt;=60%, "moderate", IF(I14&lt;=80%, "high", "very high"))))</f>
         <v>very high</v>
       </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K14" si="4">IF(J13="very high", 5, IF(J13="high", 4, IF(J13="moderate", 3, IF(J13="low", 2, 1))))</f>
+      <c r="K14">
+        <f t="shared" ref="K14:K15" si="4">IF(J14="very high", 5, IF(J14="high", 4, IF(J14="moderate", 3, IF(J14="low", 2, 1))))</f>
         <v>5</v>
       </c>
-      <c r="L13">
-        <f>D13-C13</f>
+      <c r="L14">
+        <f>D14-C14</f>
         <v>3</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f>_xlfn.STDEV.S(processed_data!Z:Z)</f>
         <v>0.99442892601175192</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>460</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f>MIN(processed_data!AD:AD)</f>
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f>MAX(processed_data!AD:AD)</f>
         <v>33</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f>AVERAGE(processed_data!AD:AD)</f>
         <v>29.1</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f>MEDIAN(processed_data!AD:AD)</f>
         <v>29.5</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f>MODE(processed_data!AD:AD)</f>
         <v>31</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f>SUM(processed_data!AD:AD)</f>
         <v>291</v>
       </c>
-      <c r="I14" s="40">
-        <f>H14/COUNT(processed_data!A:A)/40</f>
+      <c r="I15" s="40">
+        <f>H15/COUNT(processed_data!A:A)/40</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="3"/>
         <v>high</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="L14">
-        <f>D14-C14</f>
+      <c r="L15">
+        <f>D15-C15</f>
         <v>7</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <f>_xlfn.STDEV.S(processed_data!AD:AD)</f>
         <v>2.4698178070456938</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="290" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="320" t="s">
         <v>482</v>
       </c>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
-      <c r="M15" s="290"/>
+      <c r="B17" s="320"/>
+      <c r="C17" s="320"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="320"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="320"/>
+      <c r="H17" s="320"/>
+      <c r="I17" s="320"/>
+      <c r="J17" s="320"/>
+      <c r="K17" s="320"/>
+      <c r="L17" s="320"/>
+      <c r="M17" s="320"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="53" t="s">
         <v>499</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>500</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>501</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>502</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>503</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>615</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>504</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>505</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I18" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J18" t="s">
         <v>507</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K18" t="s">
         <v>495</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L18" t="s">
         <v>508</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M18" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>498</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <f>MIN(processed_data!AH:AH)</f>
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <f>MAX(processed_data!AH:AH)</f>
         <v>16</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <f>AVERAGE(processed_data!AH:AH)</f>
         <v>11.6</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <f>MEDIAN(processed_data!AH:AH)</f>
         <v>12</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <f>MODE(processed_data!AH:AH)</f>
         <v>12</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <f>SUM(processed_data!AH:AH)</f>
         <v>116</v>
       </c>
-      <c r="I17" s="40">
-        <f>H17/COUNT(processed_data!A:A)/17</f>
+      <c r="I19" s="40">
+        <f>H19/COUNT(processed_data!A:A)/17</f>
         <v>0.68235294117647061</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" ref="J17:J24" si="5">IF(I17&lt;=20%, "very low", IF(I17&lt;=40%, "low", IF(I17&lt;=60%, "moderate", IF(I17&lt;=80%, "high", "very high"))))</f>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J26" si="5">IF(I19&lt;=20%, "very low", IF(I19&lt;=40%, "low", IF(I19&lt;=60%, "moderate", IF(I19&lt;=80%, "high", "very high"))))</f>
         <v>high</v>
       </c>
-      <c r="K17">
-        <f t="shared" ref="K17:K24" si="6">IF(J17="very high", 5, IF(J17="high", 4, IF(J17="moderate", 3, IF(J17="low", 2, 1))))</f>
+      <c r="K19">
+        <f t="shared" ref="K19:K26" si="6">IF(J19="very high", 5, IF(J19="high", 4, IF(J19="moderate", 3, IF(J19="low", 2, 1))))</f>
         <v>4</v>
       </c>
-      <c r="L17">
-        <f t="shared" ref="L17:L24" si="7">D17-C17</f>
+      <c r="L19">
+        <f t="shared" ref="L19:L26" si="7">D19-C19</f>
         <v>8</v>
       </c>
-      <c r="M17">
+      <c r="M19">
         <f>_xlfn.STDEV.S(processed_data!AH:AH)</f>
         <v>2.4585451886114389</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>462</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <f>MIN(processed_data!AL:AL)</f>
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <f>MAX(processed_data!AL:AL)</f>
         <v>12</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <f>AVERAGE(processed_data!AL:AL)</f>
         <v>7.7</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f>MEDIAN(processed_data!AL:AL)</f>
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <f>MODE(processed_data!AL:AL)</f>
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f>SUM(processed_data!AL:AL)</f>
         <v>77</v>
       </c>
-      <c r="I18" s="40">
-        <f>H18/COUNT(processed_data!A:A)/13</f>
+      <c r="I20" s="40">
+        <f>H20/COUNT(processed_data!A:A)/13</f>
         <v>0.59230769230769231</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="5"/>
         <v>moderate</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <f>_xlfn.STDEV.S(processed_data!AL:AL)</f>
         <v>1.8885620632287066</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="42" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>488</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <f>MIN(processed_data!AP:AP)</f>
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <f>MAX(processed_data!AP:AP)</f>
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <f>AVERAGE(processed_data!AP:AP)</f>
         <v>5.6</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <f>MEDIAN(processed_data!AP:AP)</f>
         <v>6</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <f>MODE(processed_data!AP:AP)</f>
         <v>6</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <f>SUM(processed_data!AP:AP)</f>
         <v>56</v>
       </c>
-      <c r="I19" s="40">
-        <f>H19/COUNT(processed_data!A:A)/12</f>
+      <c r="I21" s="40">
+        <f>H21/COUNT(processed_data!A:A)/12</f>
         <v>0.46666666666666662</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="5"/>
-        <v>moderate</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <f>_xlfn.STDEV.S(processed_data!AP:AP)</f>
-        <v>1.3498971154211048</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
-        <v>601</v>
-      </c>
-      <c r="B20" t="s">
-        <v>611</v>
-      </c>
-      <c r="C20">
-        <f>MIN(processed_data!AT:AT)</f>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f>MAX(processed_data!AT:AT)</f>
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f>AVERAGE(processed_data!AT:AT)</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f>MEDIAN(processed_data!AT:AT)</f>
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f>MODE(processed_data!AT:AT)</f>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f>SUM(processed_data!AT:AT)</f>
-        <v>10</v>
-      </c>
-      <c r="I20" s="40">
-        <f>H20/COUNT(processed_data!A:A)/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="5"/>
-        <v>low</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <f>_xlfn.STDEV.S(processed_data!AT:AT)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="42" t="s">
-        <v>602</v>
-      </c>
-      <c r="B21" t="s">
-        <v>612</v>
-      </c>
-      <c r="C21">
-        <f>MIN(processed_data!AX:AX)</f>
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <f>MAX(processed_data!AX:AX)</f>
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <f>AVERAGE(processed_data!AX:AX)</f>
-        <v>6.3</v>
-      </c>
-      <c r="F21">
-        <f>MEDIAN(processed_data!AX:AX)</f>
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <f>MODE(processed_data!AX:AX)</f>
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <f>SUM(processed_data!AX:AX)</f>
-        <v>63</v>
-      </c>
-      <c r="I21" s="40">
-        <f>H21/COUNT(processed_data!A:A)/13</f>
-        <v>0.48461538461538461</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="5"/>
@@ -41218,47 +41105,47 @@
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <f>_xlfn.STDEV.S(processed_data!AX:AX)</f>
-        <v>1.8885620632287066</v>
+        <f>_xlfn.STDEV.S(processed_data!AP:AP)</f>
+        <v>1.3498971154211048</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="42" t="s">
-        <v>603</v>
+      <c r="A22" s="53" t="s">
+        <v>601</v>
       </c>
       <c r="B22" t="s">
-        <v>466</v>
+        <v>611</v>
       </c>
       <c r="C22">
-        <f>MIN(processed_data!BB:BB)</f>
-        <v>1</v>
+        <f>MIN(processed_data!AT:AT)</f>
+        <v>0</v>
       </c>
       <c r="D22">
-        <f>MAX(processed_data!BB:BB)</f>
-        <v>7</v>
+        <f>MAX(processed_data!AT:AT)</f>
+        <v>2</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(processed_data!BB:BB)</f>
-        <v>2.8</v>
+        <f>AVERAGE(processed_data!AT:AT)</f>
+        <v>1</v>
       </c>
       <c r="F22">
-        <f>MEDIAN(processed_data!BB:BB)</f>
-        <v>2</v>
+        <f>MEDIAN(processed_data!AT:AT)</f>
+        <v>1</v>
       </c>
       <c r="G22">
-        <f>MODE(processed_data!BB:BB)</f>
-        <v>2</v>
+        <f>MODE(processed_data!AT:AT)</f>
+        <v>1</v>
       </c>
       <c r="H22">
-        <f>SUM(processed_data!BB:BB)</f>
-        <v>28</v>
+        <f>SUM(processed_data!AT:AT)</f>
+        <v>10</v>
       </c>
       <c r="I22" s="40">
-        <f>H22/COUNT(processed_data!A:A)/7</f>
-        <v>0.39999999999999997</v>
+        <f>H22/COUNT(processed_data!A:A)/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="5"/>
@@ -41270,47 +41157,47 @@
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <f>_xlfn.STDEV.S(processed_data!BB:BB)</f>
-        <v>2.0976176963403028</v>
+        <f>_xlfn.STDEV.S(processed_data!AT:AT)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="42" t="s">
-        <v>604</v>
+      <c r="A23" s="53" t="s">
+        <v>602</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>612</v>
       </c>
       <c r="C23">
-        <f>MIN(processed_data!BF:BF)</f>
+        <f>MIN(processed_data!AX:AX)</f>
         <v>3</v>
       </c>
       <c r="D23">
-        <f>MAX(processed_data!BF:BF)</f>
-        <v>5</v>
+        <f>MAX(processed_data!AX:AX)</f>
+        <v>8</v>
       </c>
       <c r="E23">
-        <f>AVERAGE(processed_data!BF:BF)</f>
-        <v>4</v>
+        <f>AVERAGE(processed_data!AX:AX)</f>
+        <v>6.3</v>
       </c>
       <c r="F23">
-        <f>MEDIAN(processed_data!BF:BF)</f>
-        <v>4</v>
+        <f>MEDIAN(processed_data!AX:AX)</f>
+        <v>7</v>
       </c>
       <c r="G23">
-        <f>MODE(processed_data!BF:BF)</f>
-        <v>4</v>
+        <f>MODE(processed_data!AX:AX)</f>
+        <v>7</v>
       </c>
       <c r="H23">
-        <f>SUM(processed_data!BF:BF)</f>
-        <v>40</v>
+        <f>SUM(processed_data!AX:AX)</f>
+        <v>63</v>
       </c>
       <c r="I23" s="40">
-        <f>H23/COUNT(processed_data!A:A)/8</f>
-        <v>0.5</v>
+        <f>H23/COUNT(processed_data!A:A)/13</f>
+        <v>0.48461538461538461</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="5"/>
@@ -41322,47 +41209,47 @@
       </c>
       <c r="L23">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <f>_xlfn.STDEV.S(processed_data!BF:BF)</f>
-        <v>0.81649658092772603</v>
+        <f>_xlfn.STDEV.S(processed_data!AX:AX)</f>
+        <v>1.8885620632287066</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="42" t="s">
-        <v>605</v>
+      <c r="A24" s="53" t="s">
+        <v>603</v>
       </c>
       <c r="B24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C24">
-        <f>MIN(processed_data!BJ:BJ)</f>
-        <v>0</v>
+        <f>MIN(processed_data!BB:BB)</f>
+        <v>1</v>
       </c>
       <c r="D24">
-        <f>MAX(processed_data!BJ:BJ)</f>
-        <v>4</v>
+        <f>MAX(processed_data!BB:BB)</f>
+        <v>7</v>
       </c>
       <c r="E24">
-        <f>AVERAGE(processed_data!BJ:BJ)</f>
-        <v>1.2</v>
+        <f>AVERAGE(processed_data!BB:BB)</f>
+        <v>2.8</v>
       </c>
       <c r="F24">
-        <f>MEDIAN(processed_data!BJ:BJ)</f>
-        <v>0</v>
+        <f>MEDIAN(processed_data!BB:BB)</f>
+        <v>2</v>
       </c>
       <c r="G24">
-        <f>MODE(processed_data!BJ:BJ)</f>
-        <v>0</v>
+        <f>MODE(processed_data!BB:BB)</f>
+        <v>2</v>
       </c>
       <c r="H24">
-        <f>SUM(processed_data!BJ:BJ)</f>
-        <v>12</v>
+        <f>SUM(processed_data!BB:BB)</f>
+        <v>28</v>
       </c>
       <c r="I24" s="40">
-        <f>H24/COUNT(processed_data!A:A)/4</f>
-        <v>0.3</v>
+        <f>H24/COUNT(processed_data!A:A)/7</f>
+        <v>0.39999999999999997</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="5"/>
@@ -41374,397 +41261,501 @@
       </c>
       <c r="L24">
         <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <f>_xlfn.STDEV.S(processed_data!BB:BB)</f>
+        <v>2.0976176963403028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="53" t="s">
+        <v>604</v>
+      </c>
+      <c r="B25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25">
+        <f>MIN(processed_data!BF:BF)</f>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f>MAX(processed_data!BF:BF)</f>
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(processed_data!BF:BF)</f>
         <v>4</v>
       </c>
-      <c r="M24">
+      <c r="F25">
+        <f>MEDIAN(processed_data!BF:BF)</f>
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f>MODE(processed_data!BF:BF)</f>
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <f>SUM(processed_data!BF:BF)</f>
+        <v>40</v>
+      </c>
+      <c r="I25" s="40">
+        <f>H25/COUNT(processed_data!A:A)/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v>moderate</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f>_xlfn.STDEV.S(processed_data!BF:BF)</f>
+        <v>0.81649658092772603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="53" t="s">
+        <v>605</v>
+      </c>
+      <c r="B26" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26">
+        <f>MIN(processed_data!BJ:BJ)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>MAX(processed_data!BJ:BJ)</f>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(processed_data!BJ:BJ)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F26">
+        <f>MEDIAN(processed_data!BJ:BJ)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>MODE(processed_data!BJ:BJ)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>SUM(processed_data!BJ:BJ)</f>
+        <v>12</v>
+      </c>
+      <c r="I26" s="40">
+        <f>H26/COUNT(processed_data!A:A)/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v>low</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M26">
         <f>_xlfn.STDEV.S(processed_data!BJ:BJ)</f>
         <v>1.9321835661585918</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="291" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="321" t="s">
         <v>616</v>
       </c>
-      <c r="B25" s="291"/>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
-      <c r="E25" s="291"/>
-      <c r="F25" s="291"/>
-      <c r="G25" s="291"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="291"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="291"/>
-      <c r="M25" s="291"/>
+      <c r="B28" s="321"/>
+      <c r="C28" s="321"/>
+      <c r="D28" s="321"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="321"/>
+      <c r="G28" s="321"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="321"/>
+      <c r="J28" s="321"/>
+      <c r="K28" s="321"/>
+      <c r="L28" s="321"/>
+      <c r="M28" s="321"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="53" t="s">
         <v>499</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>500</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>501</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>502</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E29" t="s">
         <v>503</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>615</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>504</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H29" t="s">
         <v>505</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I29" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J29" t="s">
         <v>507</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K29" t="s">
         <v>495</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L29" t="s">
         <v>508</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M29" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="53" t="s">
         <v>606</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>469</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <f>MIN(processed_data!BN:BN)</f>
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <f>MAX(processed_data!BN:BN)</f>
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <f>AVERAGE(processed_data!BN:BN)</f>
         <v>1.5</v>
       </c>
-      <c r="F27">
+      <c r="F30">
         <f>MEDIAN(processed_data!BN:BN)</f>
         <v>1.5</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <f>MODE(processed_data!BN:BN)</f>
         <v>2</v>
       </c>
-      <c r="H27">
+      <c r="H30">
         <f>SUM(processed_data!BN:BN)</f>
         <v>15</v>
       </c>
-      <c r="I27" s="40">
-        <f>H27/COUNT(processed_data!A:A)/3</f>
+      <c r="I30" s="40">
+        <f>H30/COUNT(processed_data!A:A)/3</f>
         <v>0.5</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" ref="J27" si="8">IF(I27&lt;=20%, "very low", IF(I27&lt;=40%, "low", IF(I27&lt;=60%, "moderate", IF(I27&lt;=80%, "high", "very high"))))</f>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30" si="8">IF(I30&lt;=20%, "very low", IF(I30&lt;=40%, "low", IF(I30&lt;=60%, "moderate", IF(I30&lt;=80%, "high", "very high"))))</f>
         <v>moderate</v>
       </c>
-      <c r="K27">
-        <f t="shared" ref="K27" si="9">IF(J27="very high", 5, IF(J27="high", 4, IF(J27="moderate", 3, IF(J27="low", 2, 1))))</f>
+      <c r="K30">
+        <f t="shared" ref="K30" si="9">IF(J30="very high", 5, IF(J30="high", 4, IF(J30="moderate", 3, IF(J30="low", 2, 1))))</f>
         <v>3</v>
       </c>
-      <c r="L27">
-        <f>D27-C27</f>
-        <v>1</v>
-      </c>
-      <c r="M27">
+      <c r="L30">
+        <f>D30-C30</f>
+        <v>1</v>
+      </c>
+      <c r="M30">
         <f>_xlfn.STDEV.S(processed_data!BN:BN)</f>
         <v>0.52704627669472992</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="279" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="310" t="s">
         <v>617</v>
       </c>
-      <c r="B28" s="280"/>
-      <c r="C28" s="280"/>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="280"/>
-      <c r="G28" s="280"/>
-      <c r="H28" s="280"/>
-      <c r="I28" s="280"/>
-      <c r="J28" s="280"/>
-      <c r="K28" s="280"/>
-      <c r="L28" s="280"/>
-      <c r="M28" s="280"/>
+      <c r="B32" s="310"/>
+      <c r="C32" s="310"/>
+      <c r="D32" s="310"/>
+      <c r="E32" s="310"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="310"/>
+      <c r="H32" s="310"/>
+      <c r="I32" s="310"/>
+      <c r="J32" s="310"/>
+      <c r="K32" s="310"/>
+      <c r="L32" s="310"/>
+      <c r="M32" s="310"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="42" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="53" t="s">
         <v>499</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>500</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>501</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
         <v>502</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E33" t="s">
         <v>503</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F33" t="s">
         <v>615</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H33" t="s">
         <v>505</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I33" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J33" t="s">
         <v>507</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K33" t="s">
         <v>495</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L33" t="s">
         <v>508</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M33" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>613</v>
       </c>
-      <c r="C30">
+      <c r="C34">
         <f>MIN(processed_data!BR:BR)</f>
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <f>MAX(processed_data!BR:BR)</f>
         <v>7</v>
       </c>
-      <c r="E30">
+      <c r="E34">
         <f>AVERAGE(processed_data!BR:BR)</f>
         <v>2.6</v>
       </c>
-      <c r="F30">
+      <c r="F34">
         <f>MEDIAN(processed_data!BR:BR)</f>
         <v>1</v>
       </c>
-      <c r="G30">
+      <c r="G34">
         <f>MODE(processed_data!BR:BR)</f>
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="H34">
         <f>SUM(processed_data!BR:BR)</f>
         <v>26</v>
       </c>
-      <c r="I30" s="40">
-        <f>H30/COUNT(processed_data!A:A)/8</f>
+      <c r="I34" s="40">
+        <f>H34/COUNT(processed_data!A:A)/8</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J30" t="str">
-        <f>IF(I30&lt;=20%, "very low", IF(I30&lt;=40%, "low", IF(I30&lt;=60%, "moderate", IF(I30&lt;=80%, "high", "very high"))))</f>
+      <c r="J34" t="str">
+        <f>IF(I34&lt;=20%, "very low", IF(I34&lt;=40%, "low", IF(I34&lt;=60%, "moderate", IF(I34&lt;=80%, "high", "very high"))))</f>
         <v>low</v>
       </c>
-      <c r="K30">
-        <f>IF(J30="very high", 5, IF(J30="high", 4, IF(J30="moderate", 3, IF(J30="low", 2, 1))))</f>
+      <c r="K34">
+        <f>IF(J34="very high", 5, IF(J34="high", 4, IF(J34="moderate", 3, IF(J34="low", 2, 1))))</f>
         <v>2</v>
       </c>
-      <c r="L30">
-        <f>D30-C30</f>
+      <c r="L34">
+        <f>D34-C34</f>
         <v>6</v>
       </c>
-      <c r="M30">
+      <c r="M34">
         <f>_xlfn.STDEV.S(processed_data!BR:BR)</f>
         <v>2.3190036174568114</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="42" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>614</v>
       </c>
-      <c r="C31">
+      <c r="C35">
         <f>MIN(processed_data!BV:BV)</f>
         <v>0</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <f>MAX(processed_data!BV:BV)</f>
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <f>AVERAGE(processed_data!BV:BV)</f>
         <v>3.5</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <f>MEDIAN(processed_data!BV:BV)</f>
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G35">
         <f>MODE(processed_data!BV:BV)</f>
         <v>0</v>
       </c>
-      <c r="H31">
+      <c r="H35">
         <f>SUM(processed_data!BV:BV)</f>
         <v>35</v>
       </c>
-      <c r="I31" s="40">
-        <f>H31/COUNT(processed_data!A:A)/14</f>
+      <c r="I35" s="40">
+        <f>H35/COUNT(processed_data!A:A)/14</f>
         <v>0.25</v>
       </c>
-      <c r="J31" t="str">
-        <f>IF(I31&lt;=20%, "very low", IF(I31&lt;=40%, "low", IF(I31&lt;=60%, "moderate", IF(I31&lt;=80%, "high", "very high"))))</f>
+      <c r="J35" t="str">
+        <f>IF(I35&lt;=20%, "very low", IF(I35&lt;=40%, "low", IF(I35&lt;=60%, "moderate", IF(I35&lt;=80%, "high", "very high"))))</f>
         <v>low</v>
       </c>
-      <c r="K31">
-        <f>IF(J31="very high", 5, IF(J31="high", 4, IF(J31="moderate", 3, IF(J31="low", 2, 1))))</f>
+      <c r="K35">
+        <f>IF(J35="very high", 5, IF(J35="high", 4, IF(J35="moderate", 3, IF(J35="low", 2, 1))))</f>
         <v>2</v>
       </c>
-      <c r="L31">
-        <f>D31-C31</f>
+      <c r="L35">
+        <f>D35-C35</f>
         <v>14</v>
       </c>
-      <c r="M31">
+      <c r="M35">
         <f>_xlfn.STDEV.S(processed_data!BV:BV)</f>
         <v>5.1044642770378514</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="42" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>471</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <f>MIN(processed_data!BZ:BZ)</f>
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <f>MAX(processed_data!BZ:BZ)</f>
         <v>5</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <f>AVERAGE(processed_data!BZ:BZ)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <f>MEDIAN(processed_data!BZ:BZ)</f>
         <v>1</v>
       </c>
-      <c r="G32">
+      <c r="G36">
         <f>MODE(processed_data!BZ:BZ)</f>
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H36">
         <f>SUM(processed_data!BZ:BZ)</f>
         <v>11</v>
       </c>
-      <c r="I32" s="40">
-        <f>H32/COUNT(processed_data!A:A)/5</f>
+      <c r="I36" s="40">
+        <f>H36/COUNT(processed_data!A:A)/5</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="J32" t="str">
-        <f>IF(I32&lt;=20%, "very low", IF(I32&lt;=40%, "low", IF(I32&lt;=60%, "moderate", IF(I32&lt;=80%, "high", "very high"))))</f>
+      <c r="J36" t="str">
+        <f>IF(I36&lt;=20%, "very low", IF(I36&lt;=40%, "low", IF(I36&lt;=60%, "moderate", IF(I36&lt;=80%, "high", "very high"))))</f>
         <v>low</v>
       </c>
-      <c r="K32">
-        <f>IF(J32="very high", 5, IF(J32="high", 4, IF(J32="moderate", 3, IF(J32="low", 2, 1))))</f>
+      <c r="K36">
+        <f>IF(J36="very high", 5, IF(J36="high", 4, IF(J36="moderate", 3, IF(J36="low", 2, 1))))</f>
         <v>2</v>
       </c>
-      <c r="L32">
-        <f>D32-C32</f>
+      <c r="L36">
+        <f>D36-C36</f>
         <v>5</v>
       </c>
-      <c r="M32">
+      <c r="M36">
         <f>_xlfn.STDEV.S(processed_data!BZ:BZ)</f>
         <v>1.4491376746189437</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="42" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>473</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <f>MIN(processed_data!CD:CD)</f>
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <f>MAX(processed_data!CD:CD)</f>
         <v>4</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <f>AVERAGE(processed_data!CD:CD)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <f>MEDIAN(processed_data!CD:CD)</f>
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="G37">
         <f>MODE(processed_data!CD:CD)</f>
         <v>1</v>
       </c>
-      <c r="H33">
+      <c r="H37">
         <f>SUM(processed_data!CD:CD)</f>
         <v>11</v>
       </c>
-      <c r="I33" s="40">
-        <f>H33/COUNT(processed_data!A:A)/4</f>
+      <c r="I37" s="40">
+        <f>H37/COUNT(processed_data!A:A)/4</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="J33" t="str">
-        <f>IF(I33&lt;=20%, "very low", IF(I33&lt;=40%, "low", IF(I33&lt;=60%, "moderate", IF(I33&lt;=80%, "high", "very high"))))</f>
+      <c r="J37" t="str">
+        <f>IF(I37&lt;=20%, "very low", IF(I37&lt;=40%, "low", IF(I37&lt;=60%, "moderate", IF(I37&lt;=80%, "high", "very high"))))</f>
         <v>low</v>
       </c>
-      <c r="K33">
-        <f>IF(J33="very high", 5, IF(J33="high", 4, IF(J33="moderate", 3, IF(J33="low", 2, 1))))</f>
+      <c r="K37">
+        <f>IF(J37="very high", 5, IF(J37="high", 4, IF(J37="moderate", 3, IF(J37="low", 2, 1))))</f>
         <v>2</v>
       </c>
-      <c r="L33">
-        <f>D33-C33</f>
+      <c r="L37">
+        <f>D37-C37</f>
         <v>4</v>
       </c>
-      <c r="M33">
+      <c r="M37">
         <f>_xlfn.STDEV.S(processed_data!CD:CD)</f>
         <v>1.1972189997378648</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A17:M17"/>
     <mergeCell ref="A28:M28"/>
     <mergeCell ref="B1:M2"/>
     <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A12:M12"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I10">
@@ -41781,7 +41772,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I14">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -41795,7 +41786,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I24">
+  <conditionalFormatting sqref="I19:I26">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -41809,7 +41800,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="I30">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -41835,7 +41826,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I33">
+  <conditionalFormatting sqref="I34:I37">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -41883,7 +41874,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I13:I14</xm:sqref>
+          <xm:sqref>I14:I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{837569BE-1A48-45BD-8CAE-213A2AEF4F5A}">
@@ -41894,7 +41885,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I17:I24</xm:sqref>
+          <xm:sqref>I19:I26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2B920843-4D91-4D8A-8F69-78149677E052}">
@@ -41913,7 +41904,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I27</xm:sqref>
+          <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{31E68CFA-4D0B-48A0-8A78-777047F9D60C}">
@@ -41924,7 +41915,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I30:I33</xm:sqref>
+          <xm:sqref>I34:I37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -41936,8 +41927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E119F99E-F9FD-4A7B-922F-6DF793DB74F3}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A52"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41948,135 +41939,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="326" t="s">
+      <c r="B1" s="325" t="s">
         <v>926</v>
       </c>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
-      <c r="R1" s="327"/>
-      <c r="S1" s="327"/>
-      <c r="T1" s="327"/>
-      <c r="U1" s="327"/>
-      <c r="V1" s="328"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="327"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="292"/>
-      <c r="B2" s="329"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330"/>
-      <c r="J2" s="330"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330"/>
-      <c r="R2" s="330"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="330"/>
-      <c r="U2" s="330"/>
-      <c r="V2" s="331"/>
+      <c r="A2" s="331"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="329"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
+      <c r="Q2" s="329"/>
+      <c r="R2" s="329"/>
+      <c r="S2" s="329"/>
+      <c r="T2" s="329"/>
+      <c r="U2" s="329"/>
+      <c r="V2" s="330"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="322" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="325"/>
+      <c r="A4" s="323"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="90" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="293" t="s">
+      <c r="C5" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="D5" s="293" t="s">
+      <c r="D5" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="E5" s="293" t="s">
+      <c r="E5" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="F5" s="293" t="s">
+      <c r="F5" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="G5" s="293" t="s">
+      <c r="G5" s="90" t="s">
         <v>458</v>
       </c>
-      <c r="H5" s="294" t="s">
+      <c r="H5" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="I5" s="294" t="s">
+      <c r="I5" s="91" t="s">
         <v>460</v>
       </c>
-      <c r="J5" s="300" t="s">
+      <c r="J5" s="97" t="s">
         <v>498</v>
       </c>
-      <c r="K5" s="300" t="s">
+      <c r="K5" s="97" t="s">
         <v>462</v>
       </c>
-      <c r="L5" s="300" t="s">
+      <c r="L5" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="M5" s="300" t="s">
+      <c r="M5" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="N5" s="300" t="s">
+      <c r="N5" s="97" t="s">
         <v>612</v>
       </c>
-      <c r="O5" s="300" t="s">
+      <c r="O5" s="97" t="s">
         <v>466</v>
       </c>
-      <c r="P5" s="300" t="s">
+      <c r="P5" s="97" t="s">
         <v>497</v>
       </c>
-      <c r="Q5" s="300" t="s">
+      <c r="Q5" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="R5" s="299" t="s">
+      <c r="R5" s="96" t="s">
         <v>469</v>
       </c>
-      <c r="S5" s="295" t="s">
+      <c r="S5" s="92" t="s">
         <v>613</v>
       </c>
-      <c r="T5" s="295" t="s">
+      <c r="T5" s="92" t="s">
         <v>614</v>
       </c>
-      <c r="U5" s="295" t="s">
+      <c r="U5" s="92" t="s">
         <v>471</v>
       </c>
-      <c r="V5" s="296" t="s">
+      <c r="V5" s="93" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="302" t="s">
+      <c r="A6" s="99" t="s">
         <v>454</v>
       </c>
       <c r="B6" s="56">
@@ -42097,14 +42088,14 @@
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="58"/>
-      <c r="R6" s="316"/>
+      <c r="R6" s="113"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="45"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="303" t="s">
+      <c r="A7" s="100" t="s">
         <v>455</v>
       </c>
       <c r="B7" s="59">
@@ -42128,14 +42119,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="33"/>
-      <c r="R7" s="317"/>
+      <c r="R7" s="114"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="46"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="303" t="s">
+      <c r="A8" s="100" t="s">
         <v>456</v>
       </c>
       <c r="B8" s="59">
@@ -42162,14 +42153,14 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="33"/>
-      <c r="R8" s="317"/>
+      <c r="R8" s="114"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="46"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="303" t="s">
+      <c r="A9" s="100" t="s">
         <v>487</v>
       </c>
       <c r="B9" s="59">
@@ -42199,14 +42190,14 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="33"/>
-      <c r="R9" s="317"/>
+      <c r="R9" s="114"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="100" t="s">
         <v>457</v>
       </c>
       <c r="B10" s="59">
@@ -42239,14 +42230,14 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="317"/>
+      <c r="R10" s="114"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="304" t="s">
+      <c r="A11" s="101" t="s">
         <v>458</v>
       </c>
       <c r="B11" s="84">
@@ -42282,17 +42273,17 @@
       <c r="O11" s="47"/>
       <c r="P11" s="47"/>
       <c r="Q11" s="85"/>
-      <c r="R11" s="318"/>
+      <c r="R11" s="115"/>
       <c r="S11" s="47"/>
       <c r="T11" s="47"/>
       <c r="U11" s="47"/>
       <c r="V11" s="48"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="305" t="s">
+      <c r="A12" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="B12" s="314">
+      <c r="B12" s="111">
         <f>PEARSON(processed_data!B:B, processed_data!Z:Z)</f>
         <v>0.4606741573033708</v>
       </c>
@@ -42312,30 +42303,30 @@
         <f>PEARSON(processed_data!R:R, processed_data!Z:Z)</f>
         <v>0.61128918947875499</v>
       </c>
-      <c r="G12" s="315">
+      <c r="G12" s="112">
         <f>PEARSON(processed_data!V:V, processed_data!Z:Z)</f>
         <v>0.27407013752501314</v>
       </c>
-      <c r="H12" s="314">
-        <v>1</v>
-      </c>
-      <c r="I12" s="315"/>
-      <c r="J12" s="314"/>
+      <c r="H12" s="111">
+        <v>1</v>
+      </c>
+      <c r="I12" s="112"/>
+      <c r="J12" s="111"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="315"/>
-      <c r="R12" s="319"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="116"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="306" t="s">
+      <c r="A13" s="103" t="s">
         <v>460</v>
       </c>
       <c r="B13" s="84">
@@ -42377,17 +42368,17 @@
       <c r="O13" s="47"/>
       <c r="P13" s="47"/>
       <c r="Q13" s="85"/>
-      <c r="R13" s="318"/>
+      <c r="R13" s="115"/>
       <c r="S13" s="47"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="307" t="s">
+      <c r="A14" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="B14" s="314">
+      <c r="B14" s="111">
         <f>PEARSON(processed_data!B:B, processed_data!AH:AH)</f>
         <v>-0.69988432619932572</v>
       </c>
@@ -42407,19 +42398,19 @@
         <f>PEARSON(processed_data!R:R, processed_data!AH:AH)</f>
         <v>-0.90750148300096378</v>
       </c>
-      <c r="G14" s="315">
+      <c r="G14" s="112">
         <f>PEARSON(processed_data!V:V, processed_data!AH:AH)</f>
         <v>-0.73514704411470533</v>
       </c>
-      <c r="H14" s="314">
+      <c r="H14" s="111">
         <f>PEARSON(processed_data!Z:Z, processed_data!AH:AH)</f>
         <v>-0.66352669886429594</v>
       </c>
-      <c r="I14" s="315">
+      <c r="I14" s="112">
         <f>PEARSON(processed_data!AD:AD, processed_data!AH:AH)</f>
         <v>0.75755595953207633</v>
       </c>
-      <c r="J14" s="314">
+      <c r="J14" s="111">
         <v>1</v>
       </c>
       <c r="K14" s="13"/>
@@ -42428,15 +42419,15 @@
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="315"/>
-      <c r="R14" s="319"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="116"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="45"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="308" t="s">
+      <c r="A15" s="105" t="s">
         <v>462</v>
       </c>
       <c r="B15" s="59">
@@ -42484,14 +42475,14 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="33"/>
-      <c r="R15" s="317"/>
+      <c r="R15" s="114"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="46"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="308" t="s">
+      <c r="A16" s="105" t="s">
         <v>488</v>
       </c>
       <c r="B16" s="59">
@@ -42542,14 +42533,14 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="33"/>
-      <c r="R16" s="317"/>
+      <c r="R16" s="114"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="46"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="308" t="s">
+      <c r="A17" s="105" t="s">
         <v>611</v>
       </c>
       <c r="B17" s="59">
@@ -42603,14 +42594,14 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="33"/>
-      <c r="R17" s="317"/>
+      <c r="R17" s="114"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="46"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="308" t="s">
+      <c r="A18" s="105" t="s">
         <v>612</v>
       </c>
       <c r="B18" s="59">
@@ -42667,14 +42658,14 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="33"/>
-      <c r="R18" s="317"/>
+      <c r="R18" s="114"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="46"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="308" t="s">
+      <c r="A19" s="105" t="s">
         <v>466</v>
       </c>
       <c r="B19" s="59">
@@ -42734,14 +42725,14 @@
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="33"/>
-      <c r="R19" s="317"/>
+      <c r="R19" s="114"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="46"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="308" t="s">
+      <c r="A20" s="105" t="s">
         <v>497</v>
       </c>
       <c r="B20" s="59">
@@ -42804,14 +42795,14 @@
         <v>1</v>
       </c>
       <c r="Q20" s="33"/>
-      <c r="R20" s="317"/>
+      <c r="R20" s="114"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="46"/>
     </row>
     <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="309" t="s">
+      <c r="A21" s="106" t="s">
         <v>468</v>
       </c>
       <c r="B21" s="84">
@@ -42877,17 +42868,17 @@
       <c r="Q21" s="85">
         <v>1</v>
       </c>
-      <c r="R21" s="318"/>
+      <c r="R21" s="115"/>
       <c r="S21" s="47"/>
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
       <c r="V21" s="48"/>
     </row>
     <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="310" t="s">
+      <c r="A22" s="107" t="s">
         <v>622</v>
       </c>
-      <c r="B22" s="322">
+      <c r="B22" s="119">
         <f>PEARSON(processed_data!B:B, processed_data!BN:BN)</f>
         <v>0.52999894000318004</v>
       </c>
@@ -42911,7 +42902,7 @@
         <f>PEARSON(processed_data!V:V, processed_data!BN:BN)</f>
         <v>-0.40824829046386307</v>
       </c>
-      <c r="H22" s="322">
+      <c r="H22" s="119">
         <f>PEARSON(processed_data!Z:Z, processed_data!BN:BN)</f>
         <v>0.105999788000636</v>
       </c>
@@ -42919,7 +42910,7 @@
         <f>PEARSON(processed_data!AD:AD, processed_data!BN:BN)</f>
         <v>4.2678959977631992E-2</v>
       </c>
-      <c r="J22" s="322">
+      <c r="J22" s="119">
         <f>PEARSON(processed_data!AH:AH, processed_data!BN:BN)</f>
         <v>8.574929257125441E-2</v>
       </c>
@@ -42951,7 +42942,7 @@
         <f>PEARSON(processed_data!BJ:BJ, processed_data!BN:BN)</f>
         <v>0.21821789023599231</v>
       </c>
-      <c r="R22" s="323">
+      <c r="R22" s="120">
         <v>1</v>
       </c>
       <c r="S22" s="39"/>
@@ -42960,7 +42951,7 @@
       <c r="V22" s="49"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="311" t="s">
+      <c r="A23" s="108" t="s">
         <v>613</v>
       </c>
       <c r="B23" s="59">
@@ -43027,7 +43018,7 @@
         <f>PEARSON(processed_data!BJ:BJ, processed_data!BR:BR)</f>
         <v>0.91254754098687729</v>
       </c>
-      <c r="R23" s="317">
+      <c r="R23" s="114">
         <f>PEARSON(processed_data!BN:BN, processed_data!BR:BR)</f>
         <v>0.27272727272727276</v>
       </c>
@@ -43039,7 +43030,7 @@
       <c r="V23" s="46"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="312" t="s">
+      <c r="A24" s="109" t="s">
         <v>614</v>
       </c>
       <c r="B24" s="59">
@@ -43106,7 +43097,7 @@
         <f>PEARSON(processed_data!BJ:BJ, processed_data!BV:BV)</f>
         <v>0.92378900760489213</v>
       </c>
-      <c r="R24" s="317">
+      <c r="R24" s="114">
         <f>PEARSON(processed_data!BN:BN, processed_data!BV:BV)</f>
         <v>0.2271544565302103</v>
       </c>
@@ -43121,7 +43112,7 @@
       <c r="V24" s="46"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="312" t="s">
+      <c r="A25" s="109" t="s">
         <v>471</v>
       </c>
       <c r="B25" s="59">
@@ -43188,7 +43179,7 @@
         <f>PEARSON(processed_data!BJ:BJ, processed_data!BZ:BZ)</f>
         <v>0.58730158730158721</v>
       </c>
-      <c r="R25" s="317">
+      <c r="R25" s="114">
         <f>PEARSON(processed_data!BN:BN, processed_data!BZ:BZ)</f>
         <v>0.21821789023599228</v>
       </c>
@@ -43206,7 +43197,7 @@
       <c r="V25" s="46"/>
     </row>
     <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="313" t="s">
+      <c r="A26" s="110" t="s">
         <v>473</v>
       </c>
       <c r="B26" s="60">
@@ -43273,7 +43264,7 @@
         <f>PEARSON(processed_data!BJ:BJ, processed_data!CD:CD)</f>
         <v>0.51875137593381115</v>
       </c>
-      <c r="R26" s="320">
+      <c r="R26" s="117">
         <f>PEARSON(processed_data!BN:BN, processed_data!CD:CD)</f>
         <v>0.26413527189768699</v>
       </c>
@@ -43294,83 +43285,83 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="332" t="s">
+      <c r="A27" s="324" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="332"/>
+      <c r="A28" s="324"/>
     </row>
     <row r="29" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="B29" s="293" t="s">
+      <c r="B29" s="90" t="s">
         <v>454</v>
       </c>
-      <c r="C29" s="293" t="s">
+      <c r="C29" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="293" t="s">
+      <c r="D29" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="E29" s="293" t="s">
+      <c r="E29" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="F29" s="293" t="s">
+      <c r="F29" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="G29" s="293" t="s">
+      <c r="G29" s="90" t="s">
         <v>458</v>
       </c>
-      <c r="H29" s="294" t="s">
+      <c r="H29" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="I29" s="294" t="s">
+      <c r="I29" s="91" t="s">
         <v>460</v>
       </c>
-      <c r="J29" s="300" t="s">
+      <c r="J29" s="97" t="s">
         <v>498</v>
       </c>
-      <c r="K29" s="300" t="s">
+      <c r="K29" s="97" t="s">
         <v>462</v>
       </c>
-      <c r="L29" s="300" t="s">
+      <c r="L29" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="M29" s="300" t="s">
+      <c r="M29" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="N29" s="300" t="s">
+      <c r="N29" s="97" t="s">
         <v>612</v>
       </c>
-      <c r="O29" s="300" t="s">
+      <c r="O29" s="97" t="s">
         <v>466</v>
       </c>
-      <c r="P29" s="300" t="s">
+      <c r="P29" s="97" t="s">
         <v>497</v>
       </c>
-      <c r="Q29" s="300" t="s">
+      <c r="Q29" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="R29" s="321" t="s">
+      <c r="R29" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="S29" s="297" t="s">
+      <c r="S29" s="94" t="s">
         <v>613</v>
       </c>
-      <c r="T29" s="297" t="s">
+      <c r="T29" s="94" t="s">
         <v>614</v>
       </c>
-      <c r="U29" s="297" t="s">
+      <c r="U29" s="94" t="s">
         <v>471</v>
       </c>
-      <c r="V29" s="298" t="s">
+      <c r="V29" s="95" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="302" t="s">
+      <c r="A30" s="99" t="s">
         <v>454</v>
       </c>
       <c r="B30" s="56">
@@ -43391,14 +43382,14 @@
       <c r="O30" s="57"/>
       <c r="P30" s="57"/>
       <c r="Q30" s="57"/>
-      <c r="R30" s="319"/>
+      <c r="R30" s="116"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="45"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="303" t="s">
+      <c r="A31" s="100" t="s">
         <v>455</v>
       </c>
       <c r="B31" s="59">
@@ -43422,14 +43413,14 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="317"/>
+      <c r="R31" s="114"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="46"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="303" t="s">
+      <c r="A32" s="100" t="s">
         <v>456</v>
       </c>
       <c r="B32" s="59">
@@ -43456,14 +43447,14 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="317"/>
+      <c r="R32" s="114"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="46"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="303" t="s">
+      <c r="A33" s="100" t="s">
         <v>487</v>
       </c>
       <c r="B33" s="59">
@@ -43493,14 +43484,14 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="317"/>
+      <c r="R33" s="114"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="46"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A34" s="303" t="s">
+      <c r="A34" s="100" t="s">
         <v>457</v>
       </c>
       <c r="B34" s="59">
@@ -43533,14 +43524,14 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="317"/>
+      <c r="R34" s="114"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="46"/>
     </row>
     <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="304" t="s">
+      <c r="A35" s="101" t="s">
         <v>458</v>
       </c>
       <c r="B35" s="84">
@@ -43576,17 +43567,17 @@
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
-      <c r="R35" s="318"/>
+      <c r="R35" s="115"/>
       <c r="S35" s="47"/>
       <c r="T35" s="47"/>
       <c r="U35" s="47"/>
       <c r="V35" s="48"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A36" s="305" t="s">
+      <c r="A36" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="B36" s="314">
+      <c r="B36" s="111">
         <f>(B12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B12^2)</f>
         <v>1.4680354917808376</v>
       </c>
@@ -43610,11 +43601,11 @@
         <f>(G12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - G12^2)</f>
         <v>0.80605135391726512</v>
       </c>
-      <c r="H36" s="314">
-        <v>1</v>
-      </c>
-      <c r="I36" s="315"/>
-      <c r="J36" s="314"/>
+      <c r="H36" s="111">
+        <v>1</v>
+      </c>
+      <c r="I36" s="112"/>
+      <c r="J36" s="111"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -43622,14 +43613,14 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
-      <c r="R36" s="319"/>
+      <c r="R36" s="116"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="45"/>
     </row>
     <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="306" t="s">
+      <c r="A37" s="103" t="s">
         <v>460</v>
       </c>
       <c r="B37" s="84">
@@ -43671,17 +43662,17 @@
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
       <c r="Q37" s="47"/>
-      <c r="R37" s="318"/>
+      <c r="R37" s="115"/>
       <c r="S37" s="47"/>
       <c r="T37" s="47"/>
       <c r="U37" s="47"/>
       <c r="V37" s="48"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A38" s="307" t="s">
+      <c r="A38" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="B38" s="314">
+      <c r="B38" s="111">
         <f>(B14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B14^2)</f>
         <v>-2.7715150273016196</v>
       </c>
@@ -43705,15 +43696,15 @@
         <f>(G14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - G14^2)</f>
         <v>-3.0672463220289319</v>
       </c>
-      <c r="H38" s="314">
+      <c r="H38" s="111">
         <f>(H14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H14^2)</f>
         <v>-2.5084947927913372</v>
       </c>
-      <c r="I38" s="315">
+      <c r="I38" s="112">
         <f>(I14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I14^2)</f>
         <v>3.2824594911702976</v>
       </c>
-      <c r="J38" s="314">
+      <c r="J38" s="111">
         <v>1</v>
       </c>
       <c r="K38" s="13"/>
@@ -43723,14 +43714,14 @@
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
-      <c r="R38" s="319"/>
+      <c r="R38" s="116"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="45"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A39" s="308" t="s">
+      <c r="A39" s="105" t="s">
         <v>462</v>
       </c>
       <c r="B39" s="59">
@@ -43778,14 +43769,14 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="317"/>
+      <c r="R39" s="114"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="46"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" s="308" t="s">
+      <c r="A40" s="105" t="s">
         <v>488</v>
       </c>
       <c r="B40" s="59">
@@ -43836,14 +43827,14 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="317"/>
+      <c r="R40" s="114"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="46"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A41" s="308" t="s">
+      <c r="A41" s="105" t="s">
         <v>611</v>
       </c>
       <c r="B41" s="59">
@@ -43897,14 +43888,14 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="317"/>
+      <c r="R41" s="114"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="46"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A42" s="308" t="s">
+      <c r="A42" s="105" t="s">
         <v>612</v>
       </c>
       <c r="B42" s="59">
@@ -43961,14 +43952,14 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="317"/>
+      <c r="R42" s="114"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="46"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43" s="308" t="s">
+      <c r="A43" s="105" t="s">
         <v>466</v>
       </c>
       <c r="B43" s="59">
@@ -44028,14 +44019,14 @@
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="317"/>
+      <c r="R43" s="114"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="46"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A44" s="308" t="s">
+      <c r="A44" s="105" t="s">
         <v>497</v>
       </c>
       <c r="B44" s="59">
@@ -44098,14 +44089,14 @@
         <v>1</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="317"/>
+      <c r="R44" s="114"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="46"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="309" t="s">
+      <c r="A45" s="106" t="s">
         <v>468</v>
       </c>
       <c r="B45" s="84">
@@ -44171,14 +44162,14 @@
       <c r="Q45" s="47">
         <v>1</v>
       </c>
-      <c r="R45" s="318"/>
+      <c r="R45" s="115"/>
       <c r="S45" s="47"/>
       <c r="T45" s="47"/>
       <c r="U45" s="47"/>
       <c r="V45" s="48"/>
     </row>
     <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="310" t="s">
+      <c r="A46" s="107" t="s">
         <v>469</v>
       </c>
       <c r="B46" s="59">
@@ -44245,7 +44236,7 @@
         <f>(Q22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q22^2)</f>
         <v>0.63245553203367566</v>
       </c>
-      <c r="R46" s="317">
+      <c r="R46" s="114">
         <v>1</v>
       </c>
       <c r="S46" s="1"/>
@@ -44254,10 +44245,10 @@
       <c r="V46" s="46"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A47" s="311" t="s">
+      <c r="A47" s="108" t="s">
         <v>613</v>
       </c>
-      <c r="B47" s="314">
+      <c r="B47" s="111">
         <f>(B23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B23^2)</f>
         <v>5.7129445865557482</v>
       </c>
@@ -44281,15 +44272,15 @@
         <f>(G23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - G23^2)</f>
         <v>1.4561682402294236</v>
       </c>
-      <c r="H47" s="314">
+      <c r="H47" s="111">
         <f>(H23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H23^2)</f>
         <v>2.1073020717639528</v>
       </c>
-      <c r="I47" s="315">
+      <c r="I47" s="112">
         <f>(I23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I23^2)</f>
         <v>-2.8518999514943242</v>
       </c>
-      <c r="J47" s="314">
+      <c r="J47" s="111">
         <f>(J23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - J23^2)</f>
         <v>-4.2123539369977197</v>
       </c>
@@ -44321,7 +44312,7 @@
         <f>(Q23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q23^2)</f>
         <v>6.3111479332443281</v>
       </c>
-      <c r="R47" s="319">
+      <c r="R47" s="116">
         <f>(R23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - R23^2)</f>
         <v>0.8017837257372733</v>
       </c>
@@ -44333,7 +44324,7 @@
       <c r="V47" s="45"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A48" s="312" t="s">
+      <c r="A48" s="109" t="s">
         <v>614</v>
       </c>
       <c r="B48" s="59">
@@ -44400,7 +44391,7 @@
         <f>(Q24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q24^2)</f>
         <v>6.8238623193107086</v>
       </c>
-      <c r="R48" s="317">
+      <c r="R48" s="114">
         <f>(R24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - R24^2)</f>
         <v>0.65973615829447407</v>
       </c>
@@ -44415,7 +44406,7 @@
       <c r="V48" s="46"/>
     </row>
     <row r="49" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="312" t="s">
+      <c r="A49" s="109" t="s">
         <v>471</v>
       </c>
       <c r="B49" s="60">
@@ -44482,7 +44473,7 @@
         <f>(Q25 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q25^2)</f>
         <v>2.0523907260333476</v>
       </c>
-      <c r="R49" s="317">
+      <c r="R49" s="114">
         <f>(R25 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - R25^2)</f>
         <v>0.63245553203367566</v>
       </c>
@@ -44500,7 +44491,7 @@
       <c r="V49" s="46"/>
     </row>
     <row r="50" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="301" t="s">
+      <c r="A50" s="98" t="s">
         <v>473</v>
       </c>
       <c r="B50" s="47">
@@ -44567,7 +44558,7 @@
         <f>(Q26 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q26^2)</f>
         <v>1.716232660642065</v>
       </c>
-      <c r="R50" s="320">
+      <c r="R50" s="117">
         <f>(R26 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - R26^2)</f>
         <v>0.77459666924148285</v>
       </c>
@@ -44588,7 +44579,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="332" t="s">
+      <c r="A51" s="324" t="s">
         <v>620</v>
       </c>
       <c r="B51" s="50"/>
@@ -44597,7 +44588,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="332"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="51"/>
       <c r="C52" s="43" t="s">
         <v>624</v>
@@ -44607,72 +44598,72 @@
       <c r="A53" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="B53" s="293" t="s">
+      <c r="B53" s="90" t="s">
         <v>454</v>
       </c>
-      <c r="C53" s="293" t="s">
+      <c r="C53" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="D53" s="293" t="s">
+      <c r="D53" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="E53" s="293" t="s">
+      <c r="E53" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="F53" s="293" t="s">
+      <c r="F53" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="G53" s="293" t="s">
+      <c r="G53" s="90" t="s">
         <v>458</v>
       </c>
-      <c r="H53" s="294" t="s">
+      <c r="H53" s="91" t="s">
         <v>459</v>
       </c>
-      <c r="I53" s="294" t="s">
+      <c r="I53" s="91" t="s">
         <v>460</v>
       </c>
-      <c r="J53" s="300" t="s">
+      <c r="J53" s="97" t="s">
         <v>498</v>
       </c>
-      <c r="K53" s="300" t="s">
+      <c r="K53" s="97" t="s">
         <v>462</v>
       </c>
-      <c r="L53" s="300" t="s">
+      <c r="L53" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="M53" s="300" t="s">
+      <c r="M53" s="97" t="s">
         <v>611</v>
       </c>
-      <c r="N53" s="300" t="s">
+      <c r="N53" s="97" t="s">
         <v>612</v>
       </c>
-      <c r="O53" s="300" t="s">
+      <c r="O53" s="97" t="s">
         <v>466</v>
       </c>
-      <c r="P53" s="300" t="s">
+      <c r="P53" s="97" t="s">
         <v>497</v>
       </c>
-      <c r="Q53" s="300" t="s">
+      <c r="Q53" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="R53" s="299" t="s">
+      <c r="R53" s="96" t="s">
         <v>469</v>
       </c>
-      <c r="S53" s="297" t="s">
+      <c r="S53" s="94" t="s">
         <v>613</v>
       </c>
-      <c r="T53" s="297" t="s">
+      <c r="T53" s="94" t="s">
         <v>614</v>
       </c>
-      <c r="U53" s="297" t="s">
+      <c r="U53" s="94" t="s">
         <v>471</v>
       </c>
-      <c r="V53" s="298" t="s">
+      <c r="V53" s="95" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A54" s="302" t="s">
+      <c r="A54" s="99" t="s">
         <v>454</v>
       </c>
       <c r="B54" s="56">
@@ -44693,14 +44684,14 @@
       <c r="O54" s="57"/>
       <c r="P54" s="57"/>
       <c r="Q54" s="58"/>
-      <c r="R54" s="316"/>
+      <c r="R54" s="113"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
       <c r="V54" s="45"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A55" s="303" t="s">
+      <c r="A55" s="100" t="s">
         <v>455</v>
       </c>
       <c r="B55" s="59">
@@ -44724,14 +44715,14 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="33"/>
-      <c r="R55" s="317"/>
+      <c r="R55" s="114"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="46"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56" s="303" t="s">
+      <c r="A56" s="100" t="s">
         <v>456</v>
       </c>
       <c r="B56" s="59">
@@ -44758,14 +44749,14 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="33"/>
-      <c r="R56" s="317"/>
+      <c r="R56" s="114"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="46"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A57" s="303" t="s">
+      <c r="A57" s="100" t="s">
         <v>487</v>
       </c>
       <c r="B57" s="59">
@@ -44795,14 +44786,14 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="33"/>
-      <c r="R57" s="317"/>
+      <c r="R57" s="114"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="46"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A58" s="303" t="s">
+      <c r="A58" s="100" t="s">
         <v>457</v>
       </c>
       <c r="B58" s="59">
@@ -44835,14 +44826,14 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="33"/>
-      <c r="R58" s="317"/>
+      <c r="R58" s="114"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="46"/>
     </row>
     <row r="59" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="304" t="s">
+      <c r="A59" s="101" t="s">
         <v>458</v>
       </c>
       <c r="B59" s="84">
@@ -44878,17 +44869,17 @@
       <c r="O59" s="47"/>
       <c r="P59" s="47"/>
       <c r="Q59" s="85"/>
-      <c r="R59" s="318"/>
+      <c r="R59" s="115"/>
       <c r="S59" s="47"/>
       <c r="T59" s="47"/>
       <c r="U59" s="47"/>
       <c r="V59" s="48"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60" s="305" t="s">
+      <c r="A60" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="B60" s="314">
+      <c r="B60" s="111">
         <f>_xlfn.T.DIST.2T(B36, COUNT(raw_data!A:A) - 2)</f>
         <v>0.18027995715349834</v>
       </c>
@@ -44908,30 +44899,30 @@
         <f>_xlfn.T.DIST.2T(F36, COUNT(raw_data!A:A) - 2)</f>
         <v>6.0418234972549875E-2</v>
       </c>
-      <c r="G60" s="315">
+      <c r="G60" s="112">
         <f>_xlfn.T.DIST.2T(G36, COUNT(raw_data!A:A) - 2)</f>
         <v>0.44351152618355949</v>
       </c>
-      <c r="H60" s="314">
-        <v>1</v>
-      </c>
-      <c r="I60" s="315"/>
-      <c r="J60" s="314"/>
+      <c r="H60" s="111">
+        <v>1</v>
+      </c>
+      <c r="I60" s="112"/>
+      <c r="J60" s="111"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
-      <c r="Q60" s="315"/>
-      <c r="R60" s="319"/>
+      <c r="Q60" s="112"/>
+      <c r="R60" s="116"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
       <c r="V60" s="45"/>
     </row>
     <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="306" t="s">
+      <c r="A61" s="103" t="s">
         <v>460</v>
       </c>
       <c r="B61" s="84" t="e">
@@ -44973,17 +44964,17 @@
       <c r="O61" s="47"/>
       <c r="P61" s="47"/>
       <c r="Q61" s="85"/>
-      <c r="R61" s="318"/>
+      <c r="R61" s="115"/>
       <c r="S61" s="47"/>
       <c r="T61" s="47"/>
       <c r="U61" s="47"/>
       <c r="V61" s="48"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A62" s="307" t="s">
+      <c r="A62" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="B62" s="314" t="e">
+      <c r="B62" s="111" t="e">
         <f>_xlfn.T.DIST.2T(B38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
@@ -45003,19 +44994,19 @@
         <f>_xlfn.T.DIST.2T(F38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G62" s="315" t="e">
+      <c r="G62" s="112" t="e">
         <f>_xlfn.T.DIST.2T(G38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H62" s="314" t="e">
+      <c r="H62" s="111" t="e">
         <f>_xlfn.T.DIST.2T(H38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I62" s="315">
+      <c r="I62" s="112">
         <f>_xlfn.T.DIST.2T(I38, COUNT(raw_data!A:A) - 2)</f>
         <v>1.1146797121351106E-2</v>
       </c>
-      <c r="J62" s="314">
+      <c r="J62" s="111">
         <v>1</v>
       </c>
       <c r="K62" s="13"/>
@@ -45024,15 +45015,15 @@
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
-      <c r="Q62" s="315"/>
-      <c r="R62" s="319"/>
+      <c r="Q62" s="112"/>
+      <c r="R62" s="116"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="45"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="308" t="s">
+      <c r="A63" s="105" t="s">
         <v>462</v>
       </c>
       <c r="B63" s="59">
@@ -45080,14 +45071,14 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="33"/>
-      <c r="R63" s="317"/>
+      <c r="R63" s="114"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="46"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" s="308" t="s">
+      <c r="A64" s="105" t="s">
         <v>488</v>
       </c>
       <c r="B64" s="59">
@@ -45138,14 +45129,14 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="33"/>
-      <c r="R64" s="317"/>
+      <c r="R64" s="114"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="46"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A65" s="308" t="s">
+      <c r="A65" s="105" t="s">
         <v>611</v>
       </c>
       <c r="B65" s="59">
@@ -45199,14 +45190,14 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="33"/>
-      <c r="R65" s="317"/>
+      <c r="R65" s="114"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="46"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A66" s="308" t="s">
+      <c r="A66" s="105" t="s">
         <v>612</v>
       </c>
       <c r="B66" s="59" t="e">
@@ -45263,14 +45254,14 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="33"/>
-      <c r="R66" s="317"/>
+      <c r="R66" s="114"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="46"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A67" s="308" t="s">
+      <c r="A67" s="105" t="s">
         <v>466</v>
       </c>
       <c r="B67" s="59">
@@ -45330,14 +45321,14 @@
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="33"/>
-      <c r="R67" s="317"/>
+      <c r="R67" s="114"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="46"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A68" s="308" t="s">
+      <c r="A68" s="105" t="s">
         <v>497</v>
       </c>
       <c r="B68" s="59">
@@ -45400,14 +45391,14 @@
         <v>1</v>
       </c>
       <c r="Q68" s="33"/>
-      <c r="R68" s="317"/>
+      <c r="R68" s="114"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="46"/>
     </row>
     <row r="69" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="309" t="s">
+      <c r="A69" s="106" t="s">
         <v>468</v>
       </c>
       <c r="B69" s="84">
@@ -45473,14 +45464,14 @@
       <c r="Q69" s="85">
         <v>1</v>
       </c>
-      <c r="R69" s="318"/>
+      <c r="R69" s="115"/>
       <c r="S69" s="47"/>
       <c r="T69" s="47"/>
       <c r="U69" s="47"/>
       <c r="V69" s="48"/>
     </row>
     <row r="70" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="310" t="s">
+      <c r="A70" s="107" t="s">
         <v>469</v>
       </c>
       <c r="B70" s="59">
@@ -45547,7 +45538,7 @@
         <f>_xlfn.T.DIST.2T(Q46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.54473730080449112</v>
       </c>
-      <c r="R70" s="317">
+      <c r="R70" s="114">
         <v>1</v>
       </c>
       <c r="S70" s="1"/>
@@ -45556,10 +45547,10 @@
       <c r="V70" s="46"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A71" s="311" t="s">
+      <c r="A71" s="108" t="s">
         <v>613</v>
       </c>
-      <c r="B71" s="314">
+      <c r="B71" s="111">
         <f>_xlfn.T.DIST.2T(B47, COUNT(raw_data!A:A) - 2)</f>
         <v>4.4765376532223013E-4</v>
       </c>
@@ -45579,19 +45570,19 @@
         <f>_xlfn.T.DIST.2T(F47, COUNT(raw_data!A:A) - 2)</f>
         <v>2.5433037666820242E-4</v>
       </c>
-      <c r="G71" s="315">
+      <c r="G71" s="112">
         <f>_xlfn.T.DIST.2T(G47, COUNT(raw_data!A:A) - 2)</f>
         <v>0.18344169322415385</v>
       </c>
-      <c r="H71" s="314">
+      <c r="H71" s="111">
         <f>_xlfn.T.DIST.2T(H47, COUNT(raw_data!A:A) - 2)</f>
         <v>6.8158828783734832E-2</v>
       </c>
-      <c r="I71" s="315" t="e">
+      <c r="I71" s="112" t="e">
         <f>_xlfn.T.DIST.2T(I47, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J71" s="314" t="e">
+      <c r="J71" s="111" t="e">
         <f>_xlfn.T.DIST.2T(J47, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
@@ -45619,11 +45610,11 @@
         <f>_xlfn.T.DIST.2T(P47, COUNT(raw_data!A:A) - 2)</f>
         <v>2.3014513460518405E-2</v>
       </c>
-      <c r="Q71" s="315">
+      <c r="Q71" s="112">
         <f>_xlfn.T.DIST.2T(Q47, COUNT(raw_data!A:A) - 2)</f>
         <v>2.3000924132554252E-4</v>
       </c>
-      <c r="R71" s="319">
+      <c r="R71" s="116">
         <f>_xlfn.T.DIST.2T(R47, COUNT(raw_data!A:A) - 2)</f>
         <v>0.44583834154275115</v>
       </c>
@@ -45635,7 +45626,7 @@
       <c r="V71" s="45"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A72" s="312" t="s">
+      <c r="A72" s="109" t="s">
         <v>614</v>
       </c>
       <c r="B72" s="59">
@@ -45702,7 +45693,7 @@
         <f>_xlfn.T.DIST.2T(Q48, COUNT(raw_data!A:A) - 2)</f>
         <v>1.3451376287921851E-4</v>
       </c>
-      <c r="R72" s="317">
+      <c r="R72" s="114">
         <f>_xlfn.T.DIST.2T(R48, COUNT(raw_data!A:A) - 2)</f>
         <v>0.52795522394713656</v>
       </c>
@@ -45717,7 +45708,7 @@
       <c r="V72" s="46"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A73" s="312" t="s">
+      <c r="A73" s="109" t="s">
         <v>471</v>
       </c>
       <c r="B73" s="59">
@@ -45784,7 +45775,7 @@
         <f>_xlfn.T.DIST.2T(Q49, COUNT(raw_data!A:A) - 2)</f>
         <v>7.4232093305194674E-2</v>
       </c>
-      <c r="R73" s="317">
+      <c r="R73" s="114">
         <f>_xlfn.T.DIST.2T(R49, COUNT(raw_data!A:A) - 2)</f>
         <v>0.54473730080449112</v>
       </c>
@@ -45802,7 +45793,7 @@
       <c r="V73" s="46"/>
     </row>
     <row r="74" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="313" t="s">
+      <c r="A74" s="110" t="s">
         <v>473</v>
       </c>
       <c r="B74" s="60">
@@ -45869,7 +45860,7 @@
         <f>_xlfn.T.DIST.2T(Q50, COUNT(raw_data!A:A) - 2)</f>
         <v>0.12445457981879561</v>
       </c>
-      <c r="R74" s="320">
+      <c r="R74" s="117">
         <f>_xlfn.T.DIST.2T(R50, COUNT(raw_data!A:A) - 2)</f>
         <v>0.4608560143074204</v>
       </c>

--- a/AMR KAP+ Farmer 2.0.xlsx
+++ b/AMR KAP+ Farmer 2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C42D1A-EC7A-487B-B970-AE0339777BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7BFE9B-45A4-4350-B83A-5DB5554AF0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="930">
   <si>
     <t>to make</t>
   </si>
@@ -2901,6 +2901,9 @@
   </si>
   <si>
     <t>(enter target sample size)</t>
+  </si>
+  <si>
+    <t>https://github.com/JNAVillacastin/AMU-AMR-KAP-Excel-Tool-</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3140,6 +3143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3970,117 +3979,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4134,6 +4042,140 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4143,12 +4185,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4156,9 +4192,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4197,51 +4230,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4260,225 +4248,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4527,7 +4308,232 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4555,12 +4561,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4593,6 +4593,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4613,6 +4622,219 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5003,219 +5225,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -7031,7 +7040,7 @@
     <tableColumn id="1" xr3:uid="{E6D93489-4442-4348-879A-50760BDEF337}" name="no"/>
     <tableColumn id="2" xr3:uid="{855C031B-C709-4679-8A6A-CA76F4274F27}" name="question"/>
     <tableColumn id="3" xr3:uid="{43FCC125-7E7E-4779-AF95-FCFF5103D6CC}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{664E9235-B01C-4390-83B0-346B9EDCFE95}" name="% of correct answers" dataDxfId="56" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{664E9235-B01C-4390-83B0-346B9EDCFE95}" name="% of correct answers" dataDxfId="17" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{F26483FE-01CB-4F85-B4BE-9B9790861847}" name="Index">
       <calculatedColumnFormula>IF(X4="very low", 1, IF(X4="low", 2, IF(X4="moderate", 3, IF(X4="high", 4, 5))))</calculatedColumnFormula>
     </tableColumn>
@@ -7047,7 +7056,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{769A8450-CC3E-4B4C-8178-F68B6623C421}" name="Table4" displayName="Table4" ref="A29:M30" totalsRowShown="0">
   <autoFilter ref="A29:M30" xr:uid="{DC51DB93-E186-401C-BFDE-86D3770E1402}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{DEDE42EA-9948-4E36-9660-189B00C2A580}" name="Array" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{DEDE42EA-9948-4E36-9660-189B00C2A580}" name="Array" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{583D6C21-D3C6-4C40-A135-3FD0A9C41157}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{051A9C02-D40E-418C-9EC4-9CB2C77527A6}" name="Min">
       <calculatedColumnFormula>MIN(processed_data!BN:BN)</calculatedColumnFormula>
@@ -7067,7 +7076,7 @@
     <tableColumn id="8" xr3:uid="{FC77EA13-4BC1-4D59-8FD0-59210FE28772}" name="Total Score">
       <calculatedColumnFormula>SUM(processed_data!BN:BN)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5D2FEF77-FF7A-42C6-95E8-DDFA8B5560DF}" name="(%) of correct" dataDxfId="43" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{5D2FEF77-FF7A-42C6-95E8-DDFA8B5560DF}" name="(%) of correct" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>H30/COUNT(processed_data!A:A)/3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{7731E94D-8D4D-48A8-BDB8-BC0015A52542}" name="quartile index">
@@ -7091,7 +7100,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEDEEB94-EA6D-47D0-A8C6-3579904F6580}" name="Table5" displayName="Table5" ref="A33:M37" totalsRowShown="0">
   <autoFilter ref="A33:M37" xr:uid="{2C770B99-7B41-4FE2-85F6-330D5B3CEDF5}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AA97BE23-90D2-4E96-AF43-8DA8E313A3A9}" name="Array" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{AA97BE23-90D2-4E96-AF43-8DA8E313A3A9}" name="Array" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E61D341D-05DB-4C89-9F07-BD51C46C8C02}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{236F06B3-3F37-407E-9C43-9B88A9BAE499}" name="Min"/>
     <tableColumn id="4" xr3:uid="{2E45A061-5996-49D2-B154-A4C99BA38ACA}" name="Max"/>
@@ -7099,7 +7108,7 @@
     <tableColumn id="6" xr3:uid="{2C81B938-0AD4-43F9-84FC-9445AAF60A5D}" name="Median"/>
     <tableColumn id="7" xr3:uid="{FA80CAF6-20C7-467D-B2DB-1B950826B01C}" name="Mode"/>
     <tableColumn id="8" xr3:uid="{A4EB740B-DC29-448F-852D-3D2B736C7159}" name="Total Score"/>
-    <tableColumn id="9" xr3:uid="{46D98D35-1B70-44CB-8DC8-D3A3C5A22829}" name="(%) of correct" dataDxfId="41" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{46D98D35-1B70-44CB-8DC8-D3A3C5A22829}" name="(%) of correct" dataDxfId="2" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{74F02060-94EC-400D-A5F6-CBC144B3F410}" name="quartile index">
       <calculatedColumnFormula>IF(I34&lt;=20%, "very low", IF(I34&lt;=40%, "low", IF(I34&lt;=60%, "moderate", IF(I34&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -7127,7 +7136,7 @@
     <tableColumn id="6" xr3:uid="{2F494902-D616-4E40-8584-AA999D77D8F5}" name="4"/>
     <tableColumn id="7" xr3:uid="{B3C5EFCA-05EE-4713-B370-4A2C65D3BE1C}" name="5"/>
     <tableColumn id="8" xr3:uid="{066E8D39-E455-450F-952F-E74B72F25E01}" name="sample score"/>
-    <tableColumn id="9" xr3:uid="{AE6D69DE-67DC-42D2-ACCE-1ADC81B1FCD6}" name="% of agreement" dataDxfId="55" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{AE6D69DE-67DC-42D2-ACCE-1ADC81B1FCD6}" name="% of agreement" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>AG4/COUNT(coded_data!DD:DD)/5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{22910CD3-5A2F-4DCE-886B-9664C031ABF9}" name="index ">
@@ -7153,7 +7162,7 @@
     <tableColumn id="6" xr3:uid="{FC9ED884-5066-4CCA-81AE-0E1C09F04CB7}" name="4"/>
     <tableColumn id="7" xr3:uid="{19DD3578-2187-4F5A-9887-55CE6D37B40B}" name="5"/>
     <tableColumn id="8" xr3:uid="{C704E611-211A-4731-9041-365792178B80}" name="sample score"/>
-    <tableColumn id="9" xr3:uid="{FF298BFD-5B8C-4BEF-A350-748C02525222}" name="% of agreement" dataDxfId="54" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{FF298BFD-5B8C-4BEF-A350-748C02525222}" name="% of agreement" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>AS4/COUNT(coded_data!DP:DP)/5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4C5371AA-1F62-44AD-9343-D17853756528}" name="index ">
@@ -7174,7 +7183,7 @@
     <tableColumn id="1" xr3:uid="{E7492A8A-F2BD-4E88-B6B8-FEFB9695D2D8}" name="no"/>
     <tableColumn id="2" xr3:uid="{7A943FDC-7745-4905-AFCB-08247818A4E0}" name="question"/>
     <tableColumn id="3" xr3:uid="{4630BDDF-9AFF-4210-A4B4-E6AFE4E37866}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{06DACDD2-CCAB-4B27-BF01-CD473D256CCF}" name="% of correct answers" dataDxfId="53" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{06DACDD2-CCAB-4B27-BF01-CD473D256CCF}" name="% of correct answers" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>AZ4/COUNT(coded_data!A:A)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{15893549-531C-4130-9A07-2EF77D5F996F}" name="Index">
@@ -7195,7 +7204,7 @@
     <tableColumn id="1" xr3:uid="{D2685B19-401A-413D-A49F-92A9189A1D07}" name="no"/>
     <tableColumn id="2" xr3:uid="{76F8A2E1-D560-4857-BB4A-528EA4AF4FB3}" name="question"/>
     <tableColumn id="3" xr3:uid="{8D1B853C-1F23-44BC-80FF-C129E902DCB6}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{D79A976A-56C6-4B92-BCAB-182B521CD767}" name="% of correct answers" dataDxfId="52" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{D79A976A-56C6-4B92-BCAB-182B521CD767}" name="% of correct answers" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>AZ31/COUNT(coded_data!A:A)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{28CCB468-6E25-43B5-8E3F-06672B03669A}" name="Index">
@@ -7216,7 +7225,7 @@
     <tableColumn id="1" xr3:uid="{2D88E344-04EB-4C67-A3E3-383030C4A78A}" name="no"/>
     <tableColumn id="2" xr3:uid="{AB7352E1-5370-4F4E-969C-C3FE89066B81}" name="question"/>
     <tableColumn id="3" xr3:uid="{B762410F-F9C3-4A60-BB01-3C1F51E608C7}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{569D930D-A619-461A-82B3-7813BEC1E0FA}" name="% of correct answers" dataDxfId="51" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{569D930D-A619-461A-82B3-7813BEC1E0FA}" name="% of correct answers" dataDxfId="12" dataCellStyle="Percent"/>
     <tableColumn id="5" xr3:uid="{96E34F71-64F4-4D03-BAE4-D422A72053C4}" name="Index">
       <calculatedColumnFormula>IF(BJ4="very low", 1, IF(BJ4="low", 2, IF(BJ4="moderate", 3, IF(BJ4="high", 4, 5))))</calculatedColumnFormula>
     </tableColumn>
@@ -7232,7 +7241,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30EEFC61-E5BD-4A55-A4E8-766F379312DE}" name="Table1" displayName="Table1" ref="A4:M10" totalsRowShown="0">
   <autoFilter ref="A4:M10" xr:uid="{FC6D8DDA-36F2-4909-9061-F95B705A6339}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{95421FD6-5EC1-4DE6-87C7-98A001A7FEAC}" name="Array" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{95421FD6-5EC1-4DE6-87C7-98A001A7FEAC}" name="Array" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B0569132-B2DA-4DED-B96A-4A05BB524ECF}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{83917A1C-B7A6-4C56-B58D-D0396D4F1D15}" name="Min"/>
     <tableColumn id="4" xr3:uid="{41EEC2FE-4922-4909-B747-2E27C1C92F1C}" name="Max"/>
@@ -7240,7 +7249,7 @@
     <tableColumn id="6" xr3:uid="{383B1966-AB99-4D7C-B4A3-3DD3E7111E06}" name="Median"/>
     <tableColumn id="7" xr3:uid="{8F8F0F3C-C71D-4242-8429-6F867CCF0E34}" name="Mode"/>
     <tableColumn id="8" xr3:uid="{44642D5F-D527-439B-8B10-688E5EF76A7D}" name="Total Score"/>
-    <tableColumn id="9" xr3:uid="{9B04DEE8-4A5E-4334-A0D0-86722C97BE2C}" name="(%) of correct" dataDxfId="49" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{9B04DEE8-4A5E-4334-A0D0-86722C97BE2C}" name="(%) of correct" dataDxfId="10" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{EE5D78B4-E066-489E-9149-C51D711DC002}" name="quartile index">
       <calculatedColumnFormula>IF(I5&lt;=20%, "very low", IF(I5&lt;=40%, "low", IF(I5&lt;=60%, "moderate", IF(I5&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -7260,7 +7269,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0935A2B7-9AAD-497D-949C-7FF347C0E912}" name="Table2" displayName="Table2" ref="A13:M15" totalsRowShown="0">
   <autoFilter ref="A13:M15" xr:uid="{04BFEA51-1F22-4F60-A22D-D8727EDAD7CD}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{730E3A46-A887-49D0-9C26-EEC8E0959119}" name="Array" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{730E3A46-A887-49D0-9C26-EEC8E0959119}" name="Array" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{053F4AC0-47ED-4E5B-A940-4A02123F8229}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{1B0CC510-F8F0-4AEE-89BF-60375A3C05E2}" name="Min">
       <calculatedColumnFormula>MIN(processed_data!AD:AD)</calculatedColumnFormula>
@@ -7280,7 +7289,7 @@
     <tableColumn id="8" xr3:uid="{B6226717-AD5C-4882-BD8A-8493BDB2167C}" name="Total Score">
       <calculatedColumnFormula>SUM(processed_data!AD:AD)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C2B96F7A-15F4-4D2A-945D-73739FFF8F0A}" name="(%) of agreement" dataDxfId="47" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{C2B96F7A-15F4-4D2A-945D-73739FFF8F0A}" name="(%) of agreement" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>H14/COUNT(processed_data!A:A)/40</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{110BDF92-BFF1-41AE-88A8-FFE0CF5238F7}" name="quartile index">
@@ -7304,7 +7313,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7543DD5D-3FE7-4A33-BBF7-A08410B9B279}" name="Table3" displayName="Table3" ref="A18:M26" totalsRowShown="0">
   <autoFilter ref="A18:M26" xr:uid="{C5FC9BBE-D7C8-4E24-AF4E-FCE1FCC47FA4}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C7171BCA-EC5A-43DF-A7B0-81379CB6F1DD}" name="Array" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{C7171BCA-EC5A-43DF-A7B0-81379CB6F1DD}" name="Array" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8401A35A-1F80-42D8-8D00-2F3BB11B669B}" name="Variables"/>
     <tableColumn id="3" xr3:uid="{4107C2F0-3BA2-4D7E-A8D9-6258DABFEB97}" name="Min"/>
     <tableColumn id="4" xr3:uid="{C276A446-2660-4E9C-88DD-D0593C7578D1}" name="Max"/>
@@ -7312,7 +7321,7 @@
     <tableColumn id="6" xr3:uid="{489E89DE-E70D-4DEC-8F82-7D94B95678E3}" name="Median"/>
     <tableColumn id="7" xr3:uid="{F1E806DA-2B09-435E-BDB6-5F19C923BDD0}" name="Mode"/>
     <tableColumn id="8" xr3:uid="{95197FD5-7756-41EF-82E3-6F5F93449782}" name="Total Score"/>
-    <tableColumn id="9" xr3:uid="{C8C8F26D-287B-4AC6-A6E2-8E8A89E59A82}" name="(%) of correct" dataDxfId="45" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{C8C8F26D-287B-4AC6-A6E2-8E8A89E59A82}" name="(%) of correct" dataDxfId="6" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{1D49422A-6353-45F4-8FE4-98CE694C5193}" name="quartile index">
       <calculatedColumnFormula>IF(I19&lt;=20%, "very low", IF(I19&lt;=40%, "low", IF(I19&lt;=60%, "moderate", IF(I19&lt;=80%, "high", "very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -7651,7 +7660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7674,14 +7685,14 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="162" t="s">
+      <c r="L1" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="164"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="129"/>
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7717,11 +7728,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="127"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="148"/>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -7737,11 +7748,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="127"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="148"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7756,84 +7767,84 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="125"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="146"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="152" t="s">
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="125"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="146"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="136" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="125"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="146"/>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="143" t="s">
+      <c r="H8" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="144"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -7861,12 +7872,12 @@
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -7879,22 +7890,22 @@
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="165" t="s">
+      <c r="H10" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="167"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -7907,22 +7918,22 @@
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="168" t="s">
+      <c r="H11" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="134"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -7932,23 +7943,23 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="176"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
+      <c r="A12" s="140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="170" t="s">
+      <c r="H12" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="137"/>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -7958,25 +7969,25 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="145" t="s">
+      <c r="H13" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="162"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -7986,25 +7997,25 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
       <c r="G14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="147" t="s">
+      <c r="H14" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="147"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="149"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -8017,16 +8028,16 @@
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
+      <c r="B15" s="329" t="s">
+        <v>929</v>
+      </c>
+      <c r="C15" s="330"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="331"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="26"/>
@@ -8086,10 +8097,10 @@
     </row>
     <row r="22" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G22" s="6"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
     </row>
     <row r="23" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G23" s="7"/>
@@ -8107,15 +8118,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A12:F12"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L5:Q7"/>
     <mergeCell ref="M3:Q3"/>
@@ -8132,6 +8134,15 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" location="raw_data!A1" display="raw_data!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8171,610 +8182,610 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="177" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
-      <c r="AD1" s="199"/>
-      <c r="AE1" s="199"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="199"/>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="199"/>
-      <c r="AJ1" s="199"/>
-      <c r="AK1" s="199"/>
-      <c r="AL1" s="199"/>
-      <c r="AM1" s="199"/>
-      <c r="AN1" s="199"/>
-      <c r="AO1" s="199"/>
-      <c r="AP1" s="199"/>
-      <c r="AQ1" s="199"/>
-      <c r="AR1" s="199"/>
-      <c r="AS1" s="199"/>
-      <c r="AT1" s="199"/>
-      <c r="AU1" s="199"/>
-      <c r="AV1" s="199"/>
-      <c r="AW1" s="199"/>
-      <c r="AX1" s="199"/>
-      <c r="AY1" s="199"/>
-      <c r="AZ1" s="199"/>
-      <c r="BA1" s="199"/>
-      <c r="BB1" s="199"/>
-      <c r="BC1" s="199"/>
-      <c r="BD1" s="199"/>
-      <c r="BE1" s="199"/>
-      <c r="BF1" s="199"/>
-      <c r="BG1" s="199"/>
-      <c r="BH1" s="199"/>
-      <c r="BI1" s="199"/>
-      <c r="BJ1" s="199"/>
-      <c r="BK1" s="199"/>
-      <c r="BL1" s="199"/>
-      <c r="BM1" s="199"/>
-      <c r="BN1" s="199"/>
-      <c r="BO1" s="199"/>
-      <c r="BP1" s="199"/>
-      <c r="BQ1" s="199"/>
-      <c r="BR1" s="199"/>
-      <c r="BS1" s="199"/>
-      <c r="BT1" s="199"/>
-      <c r="BU1" s="199"/>
-      <c r="BV1" s="199"/>
-      <c r="BW1" s="199"/>
-      <c r="BX1" s="199"/>
-      <c r="BY1" s="199"/>
-      <c r="BZ1" s="199"/>
-      <c r="CA1" s="199"/>
-      <c r="CB1" s="199"/>
-      <c r="CC1" s="199"/>
-      <c r="CD1" s="199"/>
-      <c r="CE1" s="199"/>
-      <c r="CF1" s="199"/>
-      <c r="CG1" s="199"/>
-      <c r="CH1" s="199"/>
-      <c r="CI1" s="199"/>
-      <c r="CJ1" s="199"/>
-      <c r="CK1" s="199"/>
-      <c r="CL1" s="199"/>
-      <c r="CM1" s="199"/>
-      <c r="CN1" s="199"/>
-      <c r="CO1" s="199"/>
-      <c r="CP1" s="199"/>
-      <c r="CQ1" s="200"/>
-      <c r="CR1" s="201" t="s">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
+      <c r="AX1" s="178"/>
+      <c r="AY1" s="178"/>
+      <c r="AZ1" s="178"/>
+      <c r="BA1" s="178"/>
+      <c r="BB1" s="178"/>
+      <c r="BC1" s="178"/>
+      <c r="BD1" s="178"/>
+      <c r="BE1" s="178"/>
+      <c r="BF1" s="178"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
+      <c r="BJ1" s="178"/>
+      <c r="BK1" s="178"/>
+      <c r="BL1" s="178"/>
+      <c r="BM1" s="178"/>
+      <c r="BN1" s="178"/>
+      <c r="BO1" s="178"/>
+      <c r="BP1" s="178"/>
+      <c r="BQ1" s="178"/>
+      <c r="BR1" s="178"/>
+      <c r="BS1" s="178"/>
+      <c r="BT1" s="178"/>
+      <c r="BU1" s="178"/>
+      <c r="BV1" s="178"/>
+      <c r="BW1" s="178"/>
+      <c r="BX1" s="178"/>
+      <c r="BY1" s="178"/>
+      <c r="BZ1" s="178"/>
+      <c r="CA1" s="178"/>
+      <c r="CB1" s="178"/>
+      <c r="CC1" s="178"/>
+      <c r="CD1" s="178"/>
+      <c r="CE1" s="178"/>
+      <c r="CF1" s="178"/>
+      <c r="CG1" s="178"/>
+      <c r="CH1" s="178"/>
+      <c r="CI1" s="178"/>
+      <c r="CJ1" s="178"/>
+      <c r="CK1" s="178"/>
+      <c r="CL1" s="178"/>
+      <c r="CM1" s="178"/>
+      <c r="CN1" s="178"/>
+      <c r="CO1" s="178"/>
+      <c r="CP1" s="178"/>
+      <c r="CQ1" s="179"/>
+      <c r="CR1" s="180" t="s">
         <v>480</v>
       </c>
-      <c r="CS1" s="202"/>
-      <c r="CT1" s="202"/>
-      <c r="CU1" s="202"/>
-      <c r="CV1" s="202"/>
-      <c r="CW1" s="202"/>
-      <c r="CX1" s="202"/>
-      <c r="CY1" s="202"/>
-      <c r="CZ1" s="202"/>
-      <c r="DA1" s="202"/>
-      <c r="DB1" s="202"/>
-      <c r="DC1" s="202"/>
-      <c r="DD1" s="202"/>
-      <c r="DE1" s="202"/>
-      <c r="DF1" s="202"/>
-      <c r="DG1" s="202"/>
-      <c r="DH1" s="202"/>
-      <c r="DI1" s="202"/>
-      <c r="DJ1" s="202"/>
-      <c r="DK1" s="202"/>
-      <c r="DL1" s="202"/>
-      <c r="DM1" s="202"/>
-      <c r="DN1" s="202"/>
-      <c r="DO1" s="202"/>
-      <c r="DP1" s="202"/>
-      <c r="DQ1" s="202"/>
-      <c r="DR1" s="202"/>
-      <c r="DS1" s="202"/>
-      <c r="DT1" s="202"/>
-      <c r="DU1" s="202"/>
-      <c r="DV1" s="202"/>
-      <c r="DW1" s="202"/>
-      <c r="DX1" s="202"/>
-      <c r="DY1" s="202"/>
-      <c r="DZ1" s="202"/>
-      <c r="EA1" s="202"/>
-      <c r="EB1" s="202"/>
-      <c r="EC1" s="202"/>
-      <c r="ED1" s="202"/>
-      <c r="EE1" s="203"/>
-      <c r="EF1" s="204" t="s">
+      <c r="CS1" s="181"/>
+      <c r="CT1" s="181"/>
+      <c r="CU1" s="181"/>
+      <c r="CV1" s="181"/>
+      <c r="CW1" s="181"/>
+      <c r="CX1" s="181"/>
+      <c r="CY1" s="181"/>
+      <c r="CZ1" s="181"/>
+      <c r="DA1" s="181"/>
+      <c r="DB1" s="181"/>
+      <c r="DC1" s="181"/>
+      <c r="DD1" s="181"/>
+      <c r="DE1" s="181"/>
+      <c r="DF1" s="181"/>
+      <c r="DG1" s="181"/>
+      <c r="DH1" s="181"/>
+      <c r="DI1" s="181"/>
+      <c r="DJ1" s="181"/>
+      <c r="DK1" s="181"/>
+      <c r="DL1" s="181"/>
+      <c r="DM1" s="181"/>
+      <c r="DN1" s="181"/>
+      <c r="DO1" s="181"/>
+      <c r="DP1" s="181"/>
+      <c r="DQ1" s="181"/>
+      <c r="DR1" s="181"/>
+      <c r="DS1" s="181"/>
+      <c r="DT1" s="181"/>
+      <c r="DU1" s="181"/>
+      <c r="DV1" s="181"/>
+      <c r="DW1" s="181"/>
+      <c r="DX1" s="181"/>
+      <c r="DY1" s="181"/>
+      <c r="DZ1" s="181"/>
+      <c r="EA1" s="181"/>
+      <c r="EB1" s="181"/>
+      <c r="EC1" s="181"/>
+      <c r="ED1" s="181"/>
+      <c r="EE1" s="182"/>
+      <c r="EF1" s="183" t="s">
         <v>481</v>
       </c>
-      <c r="EG1" s="205"/>
-      <c r="EH1" s="205"/>
-      <c r="EI1" s="205"/>
-      <c r="EJ1" s="205"/>
-      <c r="EK1" s="205"/>
-      <c r="EL1" s="205"/>
-      <c r="EM1" s="205"/>
-      <c r="EN1" s="205"/>
-      <c r="EO1" s="206"/>
-      <c r="EP1" s="207" t="s">
+      <c r="EG1" s="184"/>
+      <c r="EH1" s="184"/>
+      <c r="EI1" s="184"/>
+      <c r="EJ1" s="184"/>
+      <c r="EK1" s="184"/>
+      <c r="EL1" s="184"/>
+      <c r="EM1" s="184"/>
+      <c r="EN1" s="184"/>
+      <c r="EO1" s="185"/>
+      <c r="EP1" s="186" t="s">
         <v>482</v>
       </c>
-      <c r="EQ1" s="208"/>
-      <c r="ER1" s="208"/>
-      <c r="ES1" s="208"/>
-      <c r="ET1" s="208"/>
-      <c r="EU1" s="208"/>
-      <c r="EV1" s="208"/>
-      <c r="EW1" s="208"/>
-      <c r="EX1" s="208"/>
-      <c r="EY1" s="208"/>
-      <c r="EZ1" s="208"/>
-      <c r="FA1" s="208"/>
-      <c r="FB1" s="208"/>
-      <c r="FC1" s="208"/>
-      <c r="FD1" s="208"/>
-      <c r="FE1" s="208"/>
-      <c r="FF1" s="208"/>
-      <c r="FG1" s="208"/>
-      <c r="FH1" s="208"/>
-      <c r="FI1" s="208"/>
-      <c r="FJ1" s="208"/>
-      <c r="FK1" s="208"/>
-      <c r="FL1" s="208"/>
-      <c r="FM1" s="208"/>
-      <c r="FN1" s="208"/>
-      <c r="FO1" s="208"/>
-      <c r="FP1" s="208"/>
-      <c r="FQ1" s="208"/>
-      <c r="FR1" s="208"/>
-      <c r="FS1" s="208"/>
-      <c r="FT1" s="208"/>
-      <c r="FU1" s="208"/>
-      <c r="FV1" s="208"/>
-      <c r="FW1" s="208"/>
-      <c r="FX1" s="208"/>
-      <c r="FY1" s="208"/>
-      <c r="FZ1" s="208"/>
-      <c r="GA1" s="208"/>
-      <c r="GB1" s="208"/>
-      <c r="GC1" s="208"/>
-      <c r="GD1" s="208"/>
-      <c r="GE1" s="208"/>
-      <c r="GF1" s="208"/>
-      <c r="GG1" s="208"/>
-      <c r="GH1" s="208"/>
-      <c r="GI1" s="208"/>
-      <c r="GJ1" s="208"/>
-      <c r="GK1" s="208"/>
-      <c r="GL1" s="208"/>
-      <c r="GM1" s="208"/>
-      <c r="GN1" s="208"/>
-      <c r="GO1" s="208"/>
-      <c r="GP1" s="208"/>
-      <c r="GQ1" s="208"/>
-      <c r="GR1" s="208"/>
-      <c r="GS1" s="208"/>
-      <c r="GT1" s="208"/>
-      <c r="GU1" s="208"/>
-      <c r="GV1" s="208"/>
-      <c r="GW1" s="208"/>
-      <c r="GX1" s="208"/>
-      <c r="GY1" s="208"/>
-      <c r="GZ1" s="208"/>
-      <c r="HA1" s="208"/>
-      <c r="HB1" s="208"/>
-      <c r="HC1" s="208"/>
-      <c r="HD1" s="208"/>
-      <c r="HE1" s="186" t="s">
+      <c r="EQ1" s="187"/>
+      <c r="ER1" s="187"/>
+      <c r="ES1" s="187"/>
+      <c r="ET1" s="187"/>
+      <c r="EU1" s="187"/>
+      <c r="EV1" s="187"/>
+      <c r="EW1" s="187"/>
+      <c r="EX1" s="187"/>
+      <c r="EY1" s="187"/>
+      <c r="EZ1" s="187"/>
+      <c r="FA1" s="187"/>
+      <c r="FB1" s="187"/>
+      <c r="FC1" s="187"/>
+      <c r="FD1" s="187"/>
+      <c r="FE1" s="187"/>
+      <c r="FF1" s="187"/>
+      <c r="FG1" s="187"/>
+      <c r="FH1" s="187"/>
+      <c r="FI1" s="187"/>
+      <c r="FJ1" s="187"/>
+      <c r="FK1" s="187"/>
+      <c r="FL1" s="187"/>
+      <c r="FM1" s="187"/>
+      <c r="FN1" s="187"/>
+      <c r="FO1" s="187"/>
+      <c r="FP1" s="187"/>
+      <c r="FQ1" s="187"/>
+      <c r="FR1" s="187"/>
+      <c r="FS1" s="187"/>
+      <c r="FT1" s="187"/>
+      <c r="FU1" s="187"/>
+      <c r="FV1" s="187"/>
+      <c r="FW1" s="187"/>
+      <c r="FX1" s="187"/>
+      <c r="FY1" s="187"/>
+      <c r="FZ1" s="187"/>
+      <c r="GA1" s="187"/>
+      <c r="GB1" s="187"/>
+      <c r="GC1" s="187"/>
+      <c r="GD1" s="187"/>
+      <c r="GE1" s="187"/>
+      <c r="GF1" s="187"/>
+      <c r="GG1" s="187"/>
+      <c r="GH1" s="187"/>
+      <c r="GI1" s="187"/>
+      <c r="GJ1" s="187"/>
+      <c r="GK1" s="187"/>
+      <c r="GL1" s="187"/>
+      <c r="GM1" s="187"/>
+      <c r="GN1" s="187"/>
+      <c r="GO1" s="187"/>
+      <c r="GP1" s="187"/>
+      <c r="GQ1" s="187"/>
+      <c r="GR1" s="187"/>
+      <c r="GS1" s="187"/>
+      <c r="GT1" s="187"/>
+      <c r="GU1" s="187"/>
+      <c r="GV1" s="187"/>
+      <c r="GW1" s="187"/>
+      <c r="GX1" s="187"/>
+      <c r="GY1" s="187"/>
+      <c r="GZ1" s="187"/>
+      <c r="HA1" s="187"/>
+      <c r="HB1" s="187"/>
+      <c r="HC1" s="187"/>
+      <c r="HD1" s="187"/>
+      <c r="HE1" s="194" t="s">
         <v>485</v>
       </c>
-      <c r="HF1" s="187"/>
-      <c r="HG1" s="188"/>
-      <c r="HH1" s="192" t="s">
+      <c r="HF1" s="195"/>
+      <c r="HG1" s="196"/>
+      <c r="HH1" s="200" t="s">
         <v>483</v>
       </c>
-      <c r="HI1" s="193"/>
-      <c r="HJ1" s="193"/>
-      <c r="HK1" s="193"/>
-      <c r="HL1" s="193"/>
-      <c r="HM1" s="193"/>
-      <c r="HN1" s="193"/>
-      <c r="HO1" s="193"/>
-      <c r="HP1" s="193"/>
-      <c r="HQ1" s="193"/>
-      <c r="HR1" s="193"/>
-      <c r="HS1" s="193"/>
-      <c r="HT1" s="193"/>
-      <c r="HU1" s="193"/>
-      <c r="HV1" s="193"/>
-      <c r="HW1" s="193"/>
-      <c r="HX1" s="193"/>
-      <c r="HY1" s="193"/>
-      <c r="HZ1" s="193"/>
-      <c r="IA1" s="193"/>
-      <c r="IB1" s="193"/>
-      <c r="IC1" s="193"/>
-      <c r="ID1" s="193"/>
-      <c r="IE1" s="193"/>
-      <c r="IF1" s="193"/>
-      <c r="IG1" s="193"/>
-      <c r="IH1" s="193"/>
-      <c r="II1" s="193"/>
-      <c r="IJ1" s="194"/>
-      <c r="IK1" s="195" t="s">
+      <c r="HI1" s="201"/>
+      <c r="HJ1" s="201"/>
+      <c r="HK1" s="201"/>
+      <c r="HL1" s="201"/>
+      <c r="HM1" s="201"/>
+      <c r="HN1" s="201"/>
+      <c r="HO1" s="201"/>
+      <c r="HP1" s="201"/>
+      <c r="HQ1" s="201"/>
+      <c r="HR1" s="201"/>
+      <c r="HS1" s="201"/>
+      <c r="HT1" s="201"/>
+      <c r="HU1" s="201"/>
+      <c r="HV1" s="201"/>
+      <c r="HW1" s="201"/>
+      <c r="HX1" s="201"/>
+      <c r="HY1" s="201"/>
+      <c r="HZ1" s="201"/>
+      <c r="IA1" s="201"/>
+      <c r="IB1" s="201"/>
+      <c r="IC1" s="201"/>
+      <c r="ID1" s="201"/>
+      <c r="IE1" s="201"/>
+      <c r="IF1" s="201"/>
+      <c r="IG1" s="201"/>
+      <c r="IH1" s="201"/>
+      <c r="II1" s="201"/>
+      <c r="IJ1" s="202"/>
+      <c r="IK1" s="203" t="s">
         <v>484</v>
       </c>
-      <c r="IL1" s="196"/>
-      <c r="IM1" s="196"/>
-      <c r="IN1" s="196"/>
-      <c r="IO1" s="196"/>
-      <c r="IP1" s="196"/>
-      <c r="IQ1" s="196"/>
-      <c r="IR1" s="196"/>
-      <c r="IS1" s="196"/>
-      <c r="IT1" s="196"/>
-      <c r="IU1" s="196"/>
-      <c r="IV1" s="196"/>
-      <c r="IW1" s="196"/>
-      <c r="IX1" s="196"/>
-      <c r="IY1" s="196"/>
-      <c r="IZ1" s="196"/>
-      <c r="JA1" s="196"/>
-      <c r="JB1" s="196"/>
-      <c r="JC1" s="196"/>
-      <c r="JD1" s="196"/>
-      <c r="JE1" s="196"/>
-      <c r="JF1" s="196"/>
-      <c r="JG1" s="196"/>
-      <c r="JH1" s="196"/>
-      <c r="JI1" s="197"/>
+      <c r="IL1" s="204"/>
+      <c r="IM1" s="204"/>
+      <c r="IN1" s="204"/>
+      <c r="IO1" s="204"/>
+      <c r="IP1" s="204"/>
+      <c r="IQ1" s="204"/>
+      <c r="IR1" s="204"/>
+      <c r="IS1" s="204"/>
+      <c r="IT1" s="204"/>
+      <c r="IU1" s="204"/>
+      <c r="IV1" s="204"/>
+      <c r="IW1" s="204"/>
+      <c r="IX1" s="204"/>
+      <c r="IY1" s="204"/>
+      <c r="IZ1" s="204"/>
+      <c r="JA1" s="204"/>
+      <c r="JB1" s="204"/>
+      <c r="JC1" s="204"/>
+      <c r="JD1" s="204"/>
+      <c r="JE1" s="204"/>
+      <c r="JF1" s="204"/>
+      <c r="JG1" s="204"/>
+      <c r="JH1" s="204"/>
+      <c r="JI1" s="205"/>
     </row>
     <row r="2" spans="1:269" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="174" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="185"/>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="185"/>
-      <c r="AN2" s="185"/>
-      <c r="AO2" s="185"/>
-      <c r="AP2" s="185"/>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="185"/>
-      <c r="AS2" s="185"/>
-      <c r="AT2" s="185"/>
-      <c r="AU2" s="185"/>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="185"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="185"/>
-      <c r="BA2" s="185"/>
-      <c r="BB2" s="185"/>
-      <c r="BC2" s="185"/>
-      <c r="BD2" s="185"/>
-      <c r="BE2" s="181"/>
-      <c r="BF2" s="180" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="175"/>
+      <c r="BA2" s="175"/>
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="176"/>
+      <c r="BF2" s="174" t="s">
         <v>478</v>
       </c>
-      <c r="BG2" s="185"/>
-      <c r="BH2" s="185"/>
-      <c r="BI2" s="185"/>
-      <c r="BJ2" s="185"/>
-      <c r="BK2" s="185"/>
-      <c r="BL2" s="185"/>
-      <c r="BM2" s="185"/>
-      <c r="BN2" s="185"/>
-      <c r="BO2" s="185"/>
-      <c r="BP2" s="185"/>
-      <c r="BQ2" s="185"/>
-      <c r="BR2" s="185"/>
-      <c r="BS2" s="185"/>
-      <c r="BT2" s="185"/>
-      <c r="BU2" s="185"/>
-      <c r="BV2" s="185"/>
-      <c r="BW2" s="185"/>
-      <c r="BX2" s="185"/>
-      <c r="BY2" s="185"/>
-      <c r="BZ2" s="185"/>
-      <c r="CA2" s="185"/>
-      <c r="CB2" s="185"/>
-      <c r="CC2" s="185"/>
-      <c r="CD2" s="185"/>
-      <c r="CE2" s="185"/>
-      <c r="CF2" s="185"/>
-      <c r="CG2" s="185"/>
-      <c r="CH2" s="185"/>
-      <c r="CI2" s="185"/>
-      <c r="CJ2" s="185"/>
-      <c r="CK2" s="185"/>
-      <c r="CL2" s="185"/>
-      <c r="CM2" s="185"/>
-      <c r="CN2" s="185"/>
-      <c r="CO2" s="185"/>
-      <c r="CP2" s="185"/>
-      <c r="CQ2" s="181"/>
-      <c r="CR2" s="180" t="s">
+      <c r="BG2" s="175"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="175"/>
+      <c r="BL2" s="175"/>
+      <c r="BM2" s="175"/>
+      <c r="BN2" s="175"/>
+      <c r="BO2" s="175"/>
+      <c r="BP2" s="175"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="175"/>
+      <c r="BS2" s="175"/>
+      <c r="BT2" s="175"/>
+      <c r="BU2" s="175"/>
+      <c r="BV2" s="175"/>
+      <c r="BW2" s="175"/>
+      <c r="BX2" s="175"/>
+      <c r="BY2" s="175"/>
+      <c r="BZ2" s="175"/>
+      <c r="CA2" s="175"/>
+      <c r="CB2" s="175"/>
+      <c r="CC2" s="175"/>
+      <c r="CD2" s="175"/>
+      <c r="CE2" s="175"/>
+      <c r="CF2" s="175"/>
+      <c r="CG2" s="175"/>
+      <c r="CH2" s="175"/>
+      <c r="CI2" s="175"/>
+      <c r="CJ2" s="175"/>
+      <c r="CK2" s="175"/>
+      <c r="CL2" s="175"/>
+      <c r="CM2" s="175"/>
+      <c r="CN2" s="175"/>
+      <c r="CO2" s="175"/>
+      <c r="CP2" s="175"/>
+      <c r="CQ2" s="176"/>
+      <c r="CR2" s="174" t="s">
         <v>454</v>
       </c>
-      <c r="CS2" s="185"/>
-      <c r="CT2" s="185"/>
-      <c r="CU2" s="185"/>
-      <c r="CV2" s="181"/>
-      <c r="CW2" s="180" t="s">
+      <c r="CS2" s="175"/>
+      <c r="CT2" s="175"/>
+      <c r="CU2" s="175"/>
+      <c r="CV2" s="176"/>
+      <c r="CW2" s="174" t="s">
         <v>455</v>
       </c>
-      <c r="CX2" s="185"/>
-      <c r="CY2" s="185"/>
-      <c r="CZ2" s="185"/>
-      <c r="DA2" s="185"/>
-      <c r="DB2" s="181"/>
-      <c r="DC2" s="180" t="s">
+      <c r="CX2" s="175"/>
+      <c r="CY2" s="175"/>
+      <c r="CZ2" s="175"/>
+      <c r="DA2" s="175"/>
+      <c r="DB2" s="176"/>
+      <c r="DC2" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="DD2" s="185"/>
-      <c r="DE2" s="185"/>
-      <c r="DF2" s="185"/>
-      <c r="DG2" s="185"/>
-      <c r="DH2" s="185"/>
-      <c r="DI2" s="185"/>
-      <c r="DJ2" s="181"/>
-      <c r="DK2" s="180" t="s">
+      <c r="DD2" s="175"/>
+      <c r="DE2" s="175"/>
+      <c r="DF2" s="175"/>
+      <c r="DG2" s="175"/>
+      <c r="DH2" s="175"/>
+      <c r="DI2" s="175"/>
+      <c r="DJ2" s="176"/>
+      <c r="DK2" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="DL2" s="185"/>
-      <c r="DM2" s="185"/>
-      <c r="DN2" s="185"/>
-      <c r="DO2" s="185"/>
-      <c r="DP2" s="185"/>
-      <c r="DQ2" s="185"/>
-      <c r="DR2" s="181"/>
-      <c r="DS2" s="180" t="s">
+      <c r="DL2" s="175"/>
+      <c r="DM2" s="175"/>
+      <c r="DN2" s="175"/>
+      <c r="DO2" s="175"/>
+      <c r="DP2" s="175"/>
+      <c r="DQ2" s="175"/>
+      <c r="DR2" s="176"/>
+      <c r="DS2" s="174" t="s">
         <v>457</v>
       </c>
-      <c r="DT2" s="185"/>
-      <c r="DU2" s="185"/>
-      <c r="DV2" s="185"/>
-      <c r="DW2" s="181"/>
-      <c r="DX2" s="180" t="s">
+      <c r="DT2" s="175"/>
+      <c r="DU2" s="175"/>
+      <c r="DV2" s="175"/>
+      <c r="DW2" s="176"/>
+      <c r="DX2" s="174" t="s">
         <v>458</v>
       </c>
-      <c r="DY2" s="185"/>
-      <c r="DZ2" s="185"/>
-      <c r="EA2" s="185"/>
-      <c r="EB2" s="185"/>
-      <c r="EC2" s="185"/>
-      <c r="ED2" s="185"/>
-      <c r="EE2" s="181"/>
-      <c r="EF2" s="180" t="s">
+      <c r="DY2" s="175"/>
+      <c r="DZ2" s="175"/>
+      <c r="EA2" s="175"/>
+      <c r="EB2" s="175"/>
+      <c r="EC2" s="175"/>
+      <c r="ED2" s="175"/>
+      <c r="EE2" s="176"/>
+      <c r="EF2" s="174" t="s">
         <v>459</v>
       </c>
-      <c r="EG2" s="181"/>
-      <c r="EH2" s="182" t="s">
+      <c r="EG2" s="176"/>
+      <c r="EH2" s="191" t="s">
         <v>460</v>
       </c>
-      <c r="EI2" s="183"/>
-      <c r="EJ2" s="183"/>
-      <c r="EK2" s="183"/>
-      <c r="EL2" s="183"/>
-      <c r="EM2" s="183"/>
-      <c r="EN2" s="183"/>
-      <c r="EO2" s="184"/>
-      <c r="EP2" s="180" t="s">
+      <c r="EI2" s="192"/>
+      <c r="EJ2" s="192"/>
+      <c r="EK2" s="192"/>
+      <c r="EL2" s="192"/>
+      <c r="EM2" s="192"/>
+      <c r="EN2" s="192"/>
+      <c r="EO2" s="193"/>
+      <c r="EP2" s="174" t="s">
         <v>461</v>
       </c>
-      <c r="EQ2" s="185"/>
-      <c r="ER2" s="185"/>
-      <c r="ES2" s="185"/>
-      <c r="ET2" s="185"/>
-      <c r="EU2" s="185"/>
-      <c r="EV2" s="185"/>
-      <c r="EW2" s="185"/>
-      <c r="EX2" s="185"/>
-      <c r="EY2" s="185"/>
-      <c r="EZ2" s="185"/>
-      <c r="FA2" s="181"/>
-      <c r="FB2" s="180" t="s">
+      <c r="EQ2" s="175"/>
+      <c r="ER2" s="175"/>
+      <c r="ES2" s="175"/>
+      <c r="ET2" s="175"/>
+      <c r="EU2" s="175"/>
+      <c r="EV2" s="175"/>
+      <c r="EW2" s="175"/>
+      <c r="EX2" s="175"/>
+      <c r="EY2" s="175"/>
+      <c r="EZ2" s="175"/>
+      <c r="FA2" s="176"/>
+      <c r="FB2" s="174" t="s">
         <v>462</v>
       </c>
-      <c r="FC2" s="185"/>
-      <c r="FD2" s="185"/>
-      <c r="FE2" s="185"/>
-      <c r="FF2" s="185"/>
-      <c r="FG2" s="185"/>
-      <c r="FH2" s="185"/>
-      <c r="FI2" s="181"/>
-      <c r="FJ2" s="180" t="s">
+      <c r="FC2" s="175"/>
+      <c r="FD2" s="175"/>
+      <c r="FE2" s="175"/>
+      <c r="FF2" s="175"/>
+      <c r="FG2" s="175"/>
+      <c r="FH2" s="175"/>
+      <c r="FI2" s="176"/>
+      <c r="FJ2" s="174" t="s">
         <v>463</v>
       </c>
-      <c r="FK2" s="185"/>
-      <c r="FL2" s="185"/>
-      <c r="FM2" s="185"/>
-      <c r="FN2" s="185"/>
-      <c r="FO2" s="185"/>
-      <c r="FP2" s="185"/>
-      <c r="FQ2" s="185"/>
-      <c r="FR2" s="185"/>
-      <c r="FS2" s="185"/>
-      <c r="FT2" s="185"/>
-      <c r="FU2" s="185"/>
-      <c r="FV2" s="181"/>
-      <c r="FW2" s="180" t="s">
+      <c r="FK2" s="175"/>
+      <c r="FL2" s="175"/>
+      <c r="FM2" s="175"/>
+      <c r="FN2" s="175"/>
+      <c r="FO2" s="175"/>
+      <c r="FP2" s="175"/>
+      <c r="FQ2" s="175"/>
+      <c r="FR2" s="175"/>
+      <c r="FS2" s="175"/>
+      <c r="FT2" s="175"/>
+      <c r="FU2" s="175"/>
+      <c r="FV2" s="176"/>
+      <c r="FW2" s="174" t="s">
         <v>464</v>
       </c>
-      <c r="FX2" s="181"/>
-      <c r="FY2" s="180" t="s">
+      <c r="FX2" s="176"/>
+      <c r="FY2" s="174" t="s">
         <v>465</v>
       </c>
-      <c r="FZ2" s="185"/>
-      <c r="GA2" s="185"/>
-      <c r="GB2" s="185"/>
-      <c r="GC2" s="185"/>
-      <c r="GD2" s="185"/>
-      <c r="GE2" s="185"/>
-      <c r="GF2" s="185"/>
-      <c r="GG2" s="185"/>
-      <c r="GH2" s="185"/>
-      <c r="GI2" s="185"/>
-      <c r="GJ2" s="185"/>
-      <c r="GK2" s="181"/>
-      <c r="GL2" s="180" t="s">
+      <c r="FZ2" s="175"/>
+      <c r="GA2" s="175"/>
+      <c r="GB2" s="175"/>
+      <c r="GC2" s="175"/>
+      <c r="GD2" s="175"/>
+      <c r="GE2" s="175"/>
+      <c r="GF2" s="175"/>
+      <c r="GG2" s="175"/>
+      <c r="GH2" s="175"/>
+      <c r="GI2" s="175"/>
+      <c r="GJ2" s="175"/>
+      <c r="GK2" s="176"/>
+      <c r="GL2" s="174" t="s">
         <v>466</v>
       </c>
-      <c r="GM2" s="185"/>
-      <c r="GN2" s="185"/>
-      <c r="GO2" s="185"/>
-      <c r="GP2" s="185"/>
-      <c r="GQ2" s="185"/>
-      <c r="GR2" s="181"/>
-      <c r="GS2" s="180" t="s">
+      <c r="GM2" s="175"/>
+      <c r="GN2" s="175"/>
+      <c r="GO2" s="175"/>
+      <c r="GP2" s="175"/>
+      <c r="GQ2" s="175"/>
+      <c r="GR2" s="176"/>
+      <c r="GS2" s="174" t="s">
         <v>467</v>
       </c>
-      <c r="GT2" s="185"/>
-      <c r="GU2" s="185"/>
-      <c r="GV2" s="185"/>
-      <c r="GW2" s="185"/>
-      <c r="GX2" s="185"/>
-      <c r="GY2" s="185"/>
-      <c r="GZ2" s="185"/>
-      <c r="HA2" s="185"/>
-      <c r="HB2" s="181"/>
-      <c r="HC2" s="180" t="s">
+      <c r="GT2" s="175"/>
+      <c r="GU2" s="175"/>
+      <c r="GV2" s="175"/>
+      <c r="GW2" s="175"/>
+      <c r="GX2" s="175"/>
+      <c r="GY2" s="175"/>
+      <c r="GZ2" s="175"/>
+      <c r="HA2" s="175"/>
+      <c r="HB2" s="176"/>
+      <c r="HC2" s="174" t="s">
         <v>468</v>
       </c>
-      <c r="HD2" s="181"/>
-      <c r="HE2" s="189"/>
-      <c r="HF2" s="190"/>
-      <c r="HG2" s="191"/>
-      <c r="HH2" s="180" t="s">
+      <c r="HD2" s="176"/>
+      <c r="HE2" s="197"/>
+      <c r="HF2" s="198"/>
+      <c r="HG2" s="199"/>
+      <c r="HH2" s="174" t="s">
         <v>470</v>
       </c>
-      <c r="HI2" s="185"/>
-      <c r="HJ2" s="185"/>
-      <c r="HK2" s="185"/>
-      <c r="HL2" s="185"/>
-      <c r="HM2" s="185"/>
-      <c r="HN2" s="181"/>
-      <c r="HO2" s="180" t="s">
+      <c r="HI2" s="175"/>
+      <c r="HJ2" s="175"/>
+      <c r="HK2" s="175"/>
+      <c r="HL2" s="175"/>
+      <c r="HM2" s="175"/>
+      <c r="HN2" s="176"/>
+      <c r="HO2" s="174" t="s">
         <v>614</v>
       </c>
-      <c r="HP2" s="185"/>
-      <c r="HQ2" s="185"/>
-      <c r="HR2" s="185"/>
-      <c r="HS2" s="185"/>
-      <c r="HT2" s="185"/>
-      <c r="HU2" s="185"/>
-      <c r="HV2" s="185"/>
-      <c r="HW2" s="185"/>
-      <c r="HX2" s="185"/>
-      <c r="HY2" s="185"/>
-      <c r="HZ2" s="185"/>
-      <c r="IA2" s="185"/>
-      <c r="IB2" s="181"/>
-      <c r="IC2" s="180" t="s">
+      <c r="HP2" s="175"/>
+      <c r="HQ2" s="175"/>
+      <c r="HR2" s="175"/>
+      <c r="HS2" s="175"/>
+      <c r="HT2" s="175"/>
+      <c r="HU2" s="175"/>
+      <c r="HV2" s="175"/>
+      <c r="HW2" s="175"/>
+      <c r="HX2" s="175"/>
+      <c r="HY2" s="175"/>
+      <c r="HZ2" s="175"/>
+      <c r="IA2" s="175"/>
+      <c r="IB2" s="176"/>
+      <c r="IC2" s="174" t="s">
         <v>472</v>
       </c>
-      <c r="ID2" s="185"/>
-      <c r="IE2" s="185"/>
-      <c r="IF2" s="185"/>
-      <c r="IG2" s="181"/>
-      <c r="IH2" s="180" t="s">
+      <c r="ID2" s="175"/>
+      <c r="IE2" s="175"/>
+      <c r="IF2" s="175"/>
+      <c r="IG2" s="176"/>
+      <c r="IH2" s="174" t="s">
         <v>473</v>
       </c>
-      <c r="II2" s="185"/>
-      <c r="IJ2" s="181"/>
-      <c r="IK2" s="180" t="s">
+      <c r="II2" s="175"/>
+      <c r="IJ2" s="176"/>
+      <c r="IK2" s="174" t="s">
         <v>474</v>
       </c>
-      <c r="IL2" s="185"/>
-      <c r="IM2" s="185"/>
-      <c r="IN2" s="185"/>
-      <c r="IO2" s="185"/>
-      <c r="IP2" s="181"/>
-      <c r="IQ2" s="180" t="s">
+      <c r="IL2" s="175"/>
+      <c r="IM2" s="175"/>
+      <c r="IN2" s="175"/>
+      <c r="IO2" s="175"/>
+      <c r="IP2" s="176"/>
+      <c r="IQ2" s="174" t="s">
         <v>475</v>
       </c>
-      <c r="IR2" s="185"/>
-      <c r="IS2" s="185"/>
-      <c r="IT2" s="185"/>
-      <c r="IU2" s="185"/>
-      <c r="IV2" s="181"/>
-      <c r="IW2" s="177" t="s">
+      <c r="IR2" s="175"/>
+      <c r="IS2" s="175"/>
+      <c r="IT2" s="175"/>
+      <c r="IU2" s="175"/>
+      <c r="IV2" s="176"/>
+      <c r="IW2" s="188" t="s">
         <v>907</v>
       </c>
-      <c r="IX2" s="178"/>
-      <c r="IY2" s="178"/>
-      <c r="IZ2" s="178"/>
-      <c r="JA2" s="178"/>
-      <c r="JB2" s="178"/>
-      <c r="JC2" s="178"/>
-      <c r="JD2" s="178"/>
-      <c r="JE2" s="179"/>
-      <c r="JF2" s="177" t="s">
+      <c r="IX2" s="189"/>
+      <c r="IY2" s="189"/>
+      <c r="IZ2" s="189"/>
+      <c r="JA2" s="189"/>
+      <c r="JB2" s="189"/>
+      <c r="JC2" s="189"/>
+      <c r="JD2" s="189"/>
+      <c r="JE2" s="190"/>
+      <c r="JF2" s="188" t="s">
         <v>476</v>
       </c>
-      <c r="JG2" s="178"/>
-      <c r="JH2" s="178"/>
-      <c r="JI2" s="179"/>
+      <c r="JG2" s="189"/>
+      <c r="JH2" s="189"/>
+      <c r="JI2" s="190"/>
     </row>
     <row r="3" spans="1:269" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
@@ -17656,23 +17667,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="FY2:GK2"/>
-    <mergeCell ref="GL2:GR2"/>
-    <mergeCell ref="GS2:HB2"/>
-    <mergeCell ref="HC2:HD2"/>
-    <mergeCell ref="DX2:EE2"/>
-    <mergeCell ref="B1:CQ1"/>
-    <mergeCell ref="CR1:EE1"/>
-    <mergeCell ref="EF1:EO1"/>
-    <mergeCell ref="EP1:HD1"/>
-    <mergeCell ref="B2:BE2"/>
-    <mergeCell ref="BF2:CQ2"/>
-    <mergeCell ref="CR2:CV2"/>
-    <mergeCell ref="CW2:DB2"/>
-    <mergeCell ref="DC2:DJ2"/>
-    <mergeCell ref="DK2:DR2"/>
-    <mergeCell ref="DS2:DW2"/>
     <mergeCell ref="IW2:JE2"/>
     <mergeCell ref="JF2:JI2"/>
     <mergeCell ref="EF2:EG2"/>
@@ -17689,6 +17683,23 @@
     <mergeCell ref="IC2:IG2"/>
     <mergeCell ref="IK2:IP2"/>
     <mergeCell ref="IQ2:IV2"/>
+    <mergeCell ref="DX2:EE2"/>
+    <mergeCell ref="B1:CQ1"/>
+    <mergeCell ref="CR1:EE1"/>
+    <mergeCell ref="EF1:EO1"/>
+    <mergeCell ref="EP1:HD1"/>
+    <mergeCell ref="B2:BE2"/>
+    <mergeCell ref="BF2:CQ2"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="CW2:DB2"/>
+    <mergeCell ref="DC2:DJ2"/>
+    <mergeCell ref="DK2:DR2"/>
+    <mergeCell ref="DS2:DW2"/>
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="FY2:GK2"/>
+    <mergeCell ref="GL2:GR2"/>
+    <mergeCell ref="GS2:HB2"/>
+    <mergeCell ref="HC2:HD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{5DA8B8B4-2410-40D4-BC5A-D655C782C785}"/>
@@ -17722,611 +17733,611 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="177" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
-      <c r="AD1" s="199"/>
-      <c r="AE1" s="199"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="199"/>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="199"/>
-      <c r="AJ1" s="199"/>
-      <c r="AK1" s="199"/>
-      <c r="AL1" s="199"/>
-      <c r="AM1" s="199"/>
-      <c r="AN1" s="199"/>
-      <c r="AO1" s="199"/>
-      <c r="AP1" s="199"/>
-      <c r="AQ1" s="199"/>
-      <c r="AR1" s="199"/>
-      <c r="AS1" s="199"/>
-      <c r="AT1" s="199"/>
-      <c r="AU1" s="199"/>
-      <c r="AV1" s="199"/>
-      <c r="AW1" s="199"/>
-      <c r="AX1" s="199"/>
-      <c r="AY1" s="199"/>
-      <c r="AZ1" s="199"/>
-      <c r="BA1" s="199"/>
-      <c r="BB1" s="199"/>
-      <c r="BC1" s="199"/>
-      <c r="BD1" s="199"/>
-      <c r="BE1" s="199"/>
-      <c r="BF1" s="199"/>
-      <c r="BG1" s="199"/>
-      <c r="BH1" s="199"/>
-      <c r="BI1" s="199"/>
-      <c r="BJ1" s="199"/>
-      <c r="BK1" s="199"/>
-      <c r="BL1" s="199"/>
-      <c r="BM1" s="199"/>
-      <c r="BN1" s="199"/>
-      <c r="BO1" s="199"/>
-      <c r="BP1" s="199"/>
-      <c r="BQ1" s="199"/>
-      <c r="BR1" s="199"/>
-      <c r="BS1" s="199"/>
-      <c r="BT1" s="199"/>
-      <c r="BU1" s="199"/>
-      <c r="BV1" s="199"/>
-      <c r="BW1" s="199"/>
-      <c r="BX1" s="199"/>
-      <c r="BY1" s="199"/>
-      <c r="BZ1" s="199"/>
-      <c r="CA1" s="199"/>
-      <c r="CB1" s="199"/>
-      <c r="CC1" s="199"/>
-      <c r="CD1" s="199"/>
-      <c r="CE1" s="199"/>
-      <c r="CF1" s="199"/>
-      <c r="CG1" s="199"/>
-      <c r="CH1" s="199"/>
-      <c r="CI1" s="199"/>
-      <c r="CJ1" s="199"/>
-      <c r="CK1" s="199"/>
-      <c r="CL1" s="199"/>
-      <c r="CM1" s="199"/>
-      <c r="CN1" s="199"/>
-      <c r="CO1" s="199"/>
-      <c r="CP1" s="199"/>
-      <c r="CQ1" s="200"/>
-      <c r="CR1" s="201" t="s">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
+      <c r="AX1" s="178"/>
+      <c r="AY1" s="178"/>
+      <c r="AZ1" s="178"/>
+      <c r="BA1" s="178"/>
+      <c r="BB1" s="178"/>
+      <c r="BC1" s="178"/>
+      <c r="BD1" s="178"/>
+      <c r="BE1" s="178"/>
+      <c r="BF1" s="178"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
+      <c r="BJ1" s="178"/>
+      <c r="BK1" s="178"/>
+      <c r="BL1" s="178"/>
+      <c r="BM1" s="178"/>
+      <c r="BN1" s="178"/>
+      <c r="BO1" s="178"/>
+      <c r="BP1" s="178"/>
+      <c r="BQ1" s="178"/>
+      <c r="BR1" s="178"/>
+      <c r="BS1" s="178"/>
+      <c r="BT1" s="178"/>
+      <c r="BU1" s="178"/>
+      <c r="BV1" s="178"/>
+      <c r="BW1" s="178"/>
+      <c r="BX1" s="178"/>
+      <c r="BY1" s="178"/>
+      <c r="BZ1" s="178"/>
+      <c r="CA1" s="178"/>
+      <c r="CB1" s="178"/>
+      <c r="CC1" s="178"/>
+      <c r="CD1" s="178"/>
+      <c r="CE1" s="178"/>
+      <c r="CF1" s="178"/>
+      <c r="CG1" s="178"/>
+      <c r="CH1" s="178"/>
+      <c r="CI1" s="178"/>
+      <c r="CJ1" s="178"/>
+      <c r="CK1" s="178"/>
+      <c r="CL1" s="178"/>
+      <c r="CM1" s="178"/>
+      <c r="CN1" s="178"/>
+      <c r="CO1" s="178"/>
+      <c r="CP1" s="178"/>
+      <c r="CQ1" s="179"/>
+      <c r="CR1" s="180" t="s">
         <v>480</v>
       </c>
-      <c r="CS1" s="202"/>
-      <c r="CT1" s="202"/>
-      <c r="CU1" s="202"/>
-      <c r="CV1" s="202"/>
-      <c r="CW1" s="202"/>
-      <c r="CX1" s="202"/>
-      <c r="CY1" s="202"/>
-      <c r="CZ1" s="202"/>
-      <c r="DA1" s="202"/>
-      <c r="DB1" s="202"/>
-      <c r="DC1" s="202"/>
-      <c r="DD1" s="202"/>
-      <c r="DE1" s="202"/>
-      <c r="DF1" s="202"/>
-      <c r="DG1" s="202"/>
-      <c r="DH1" s="202"/>
-      <c r="DI1" s="202"/>
-      <c r="DJ1" s="202"/>
-      <c r="DK1" s="202"/>
-      <c r="DL1" s="202"/>
-      <c r="DM1" s="202"/>
-      <c r="DN1" s="202"/>
-      <c r="DO1" s="202"/>
-      <c r="DP1" s="202"/>
-      <c r="DQ1" s="202"/>
-      <c r="DR1" s="202"/>
-      <c r="DS1" s="202"/>
-      <c r="DT1" s="202"/>
-      <c r="DU1" s="202"/>
-      <c r="DV1" s="202"/>
-      <c r="DW1" s="202"/>
-      <c r="DX1" s="202"/>
-      <c r="DY1" s="202"/>
-      <c r="DZ1" s="202"/>
-      <c r="EA1" s="202"/>
-      <c r="EB1" s="202"/>
-      <c r="EC1" s="202"/>
-      <c r="ED1" s="202"/>
-      <c r="EE1" s="203"/>
-      <c r="EF1" s="204" t="s">
+      <c r="CS1" s="181"/>
+      <c r="CT1" s="181"/>
+      <c r="CU1" s="181"/>
+      <c r="CV1" s="181"/>
+      <c r="CW1" s="181"/>
+      <c r="CX1" s="181"/>
+      <c r="CY1" s="181"/>
+      <c r="CZ1" s="181"/>
+      <c r="DA1" s="181"/>
+      <c r="DB1" s="181"/>
+      <c r="DC1" s="181"/>
+      <c r="DD1" s="181"/>
+      <c r="DE1" s="181"/>
+      <c r="DF1" s="181"/>
+      <c r="DG1" s="181"/>
+      <c r="DH1" s="181"/>
+      <c r="DI1" s="181"/>
+      <c r="DJ1" s="181"/>
+      <c r="DK1" s="181"/>
+      <c r="DL1" s="181"/>
+      <c r="DM1" s="181"/>
+      <c r="DN1" s="181"/>
+      <c r="DO1" s="181"/>
+      <c r="DP1" s="181"/>
+      <c r="DQ1" s="181"/>
+      <c r="DR1" s="181"/>
+      <c r="DS1" s="181"/>
+      <c r="DT1" s="181"/>
+      <c r="DU1" s="181"/>
+      <c r="DV1" s="181"/>
+      <c r="DW1" s="181"/>
+      <c r="DX1" s="181"/>
+      <c r="DY1" s="181"/>
+      <c r="DZ1" s="181"/>
+      <c r="EA1" s="181"/>
+      <c r="EB1" s="181"/>
+      <c r="EC1" s="181"/>
+      <c r="ED1" s="181"/>
+      <c r="EE1" s="182"/>
+      <c r="EF1" s="183" t="s">
         <v>481</v>
       </c>
-      <c r="EG1" s="205"/>
-      <c r="EH1" s="205"/>
-      <c r="EI1" s="205"/>
-      <c r="EJ1" s="205"/>
-      <c r="EK1" s="205"/>
-      <c r="EL1" s="205"/>
-      <c r="EM1" s="205"/>
-      <c r="EN1" s="205"/>
-      <c r="EO1" s="206"/>
-      <c r="EP1" s="207" t="s">
+      <c r="EG1" s="184"/>
+      <c r="EH1" s="184"/>
+      <c r="EI1" s="184"/>
+      <c r="EJ1" s="184"/>
+      <c r="EK1" s="184"/>
+      <c r="EL1" s="184"/>
+      <c r="EM1" s="184"/>
+      <c r="EN1" s="184"/>
+      <c r="EO1" s="185"/>
+      <c r="EP1" s="186" t="s">
         <v>482</v>
       </c>
-      <c r="EQ1" s="208"/>
-      <c r="ER1" s="208"/>
-      <c r="ES1" s="208"/>
-      <c r="ET1" s="208"/>
-      <c r="EU1" s="208"/>
-      <c r="EV1" s="208"/>
-      <c r="EW1" s="208"/>
-      <c r="EX1" s="208"/>
-      <c r="EY1" s="208"/>
-      <c r="EZ1" s="208"/>
-      <c r="FA1" s="208"/>
-      <c r="FB1" s="208"/>
-      <c r="FC1" s="208"/>
-      <c r="FD1" s="208"/>
-      <c r="FE1" s="208"/>
-      <c r="FF1" s="208"/>
-      <c r="FG1" s="208"/>
-      <c r="FH1" s="208"/>
-      <c r="FI1" s="208"/>
-      <c r="FJ1" s="208"/>
-      <c r="FK1" s="208"/>
-      <c r="FL1" s="208"/>
-      <c r="FM1" s="208"/>
-      <c r="FN1" s="208"/>
-      <c r="FO1" s="208"/>
-      <c r="FP1" s="208"/>
-      <c r="FQ1" s="208"/>
-      <c r="FR1" s="208"/>
-      <c r="FS1" s="208"/>
-      <c r="FT1" s="208"/>
-      <c r="FU1" s="208"/>
-      <c r="FV1" s="208"/>
-      <c r="FW1" s="208"/>
-      <c r="FX1" s="208"/>
-      <c r="FY1" s="208"/>
-      <c r="FZ1" s="208"/>
-      <c r="GA1" s="208"/>
-      <c r="GB1" s="208"/>
-      <c r="GC1" s="208"/>
-      <c r="GD1" s="208"/>
-      <c r="GE1" s="208"/>
-      <c r="GF1" s="208"/>
-      <c r="GG1" s="208"/>
-      <c r="GH1" s="208"/>
-      <c r="GI1" s="208"/>
-      <c r="GJ1" s="208"/>
-      <c r="GK1" s="208"/>
-      <c r="GL1" s="208"/>
-      <c r="GM1" s="208"/>
-      <c r="GN1" s="208"/>
-      <c r="GO1" s="208"/>
-      <c r="GP1" s="208"/>
-      <c r="GQ1" s="208"/>
-      <c r="GR1" s="208"/>
-      <c r="GS1" s="208"/>
-      <c r="GT1" s="208"/>
-      <c r="GU1" s="208"/>
-      <c r="GV1" s="208"/>
-      <c r="GW1" s="208"/>
-      <c r="GX1" s="208"/>
-      <c r="GY1" s="208"/>
-      <c r="GZ1" s="208"/>
-      <c r="HA1" s="208"/>
-      <c r="HB1" s="208"/>
-      <c r="HC1" s="208"/>
-      <c r="HD1" s="208"/>
-      <c r="HE1" s="186" t="s">
+      <c r="EQ1" s="187"/>
+      <c r="ER1" s="187"/>
+      <c r="ES1" s="187"/>
+      <c r="ET1" s="187"/>
+      <c r="EU1" s="187"/>
+      <c r="EV1" s="187"/>
+      <c r="EW1" s="187"/>
+      <c r="EX1" s="187"/>
+      <c r="EY1" s="187"/>
+      <c r="EZ1" s="187"/>
+      <c r="FA1" s="187"/>
+      <c r="FB1" s="187"/>
+      <c r="FC1" s="187"/>
+      <c r="FD1" s="187"/>
+      <c r="FE1" s="187"/>
+      <c r="FF1" s="187"/>
+      <c r="FG1" s="187"/>
+      <c r="FH1" s="187"/>
+      <c r="FI1" s="187"/>
+      <c r="FJ1" s="187"/>
+      <c r="FK1" s="187"/>
+      <c r="FL1" s="187"/>
+      <c r="FM1" s="187"/>
+      <c r="FN1" s="187"/>
+      <c r="FO1" s="187"/>
+      <c r="FP1" s="187"/>
+      <c r="FQ1" s="187"/>
+      <c r="FR1" s="187"/>
+      <c r="FS1" s="187"/>
+      <c r="FT1" s="187"/>
+      <c r="FU1" s="187"/>
+      <c r="FV1" s="187"/>
+      <c r="FW1" s="187"/>
+      <c r="FX1" s="187"/>
+      <c r="FY1" s="187"/>
+      <c r="FZ1" s="187"/>
+      <c r="GA1" s="187"/>
+      <c r="GB1" s="187"/>
+      <c r="GC1" s="187"/>
+      <c r="GD1" s="187"/>
+      <c r="GE1" s="187"/>
+      <c r="GF1" s="187"/>
+      <c r="GG1" s="187"/>
+      <c r="GH1" s="187"/>
+      <c r="GI1" s="187"/>
+      <c r="GJ1" s="187"/>
+      <c r="GK1" s="187"/>
+      <c r="GL1" s="187"/>
+      <c r="GM1" s="187"/>
+      <c r="GN1" s="187"/>
+      <c r="GO1" s="187"/>
+      <c r="GP1" s="187"/>
+      <c r="GQ1" s="187"/>
+      <c r="GR1" s="187"/>
+      <c r="GS1" s="187"/>
+      <c r="GT1" s="187"/>
+      <c r="GU1" s="187"/>
+      <c r="GV1" s="187"/>
+      <c r="GW1" s="187"/>
+      <c r="GX1" s="187"/>
+      <c r="GY1" s="187"/>
+      <c r="GZ1" s="187"/>
+      <c r="HA1" s="187"/>
+      <c r="HB1" s="187"/>
+      <c r="HC1" s="187"/>
+      <c r="HD1" s="187"/>
+      <c r="HE1" s="194" t="s">
         <v>485</v>
       </c>
-      <c r="HF1" s="187"/>
-      <c r="HG1" s="188"/>
-      <c r="HH1" s="192" t="s">
+      <c r="HF1" s="195"/>
+      <c r="HG1" s="196"/>
+      <c r="HH1" s="200" t="s">
         <v>483</v>
       </c>
-      <c r="HI1" s="193"/>
-      <c r="HJ1" s="193"/>
-      <c r="HK1" s="193"/>
-      <c r="HL1" s="193"/>
-      <c r="HM1" s="193"/>
-      <c r="HN1" s="193"/>
-      <c r="HO1" s="193"/>
-      <c r="HP1" s="193"/>
-      <c r="HQ1" s="193"/>
-      <c r="HR1" s="193"/>
-      <c r="HS1" s="193"/>
-      <c r="HT1" s="193"/>
-      <c r="HU1" s="193"/>
-      <c r="HV1" s="193"/>
-      <c r="HW1" s="193"/>
-      <c r="HX1" s="193"/>
-      <c r="HY1" s="193"/>
-      <c r="HZ1" s="193"/>
-      <c r="IA1" s="193"/>
-      <c r="IB1" s="193"/>
-      <c r="IC1" s="193"/>
-      <c r="ID1" s="193"/>
-      <c r="IE1" s="193"/>
-      <c r="IF1" s="193"/>
-      <c r="IG1" s="193"/>
-      <c r="IH1" s="193"/>
-      <c r="II1" s="193"/>
-      <c r="IJ1" s="194"/>
-      <c r="IK1" s="195" t="s">
+      <c r="HI1" s="201"/>
+      <c r="HJ1" s="201"/>
+      <c r="HK1" s="201"/>
+      <c r="HL1" s="201"/>
+      <c r="HM1" s="201"/>
+      <c r="HN1" s="201"/>
+      <c r="HO1" s="201"/>
+      <c r="HP1" s="201"/>
+      <c r="HQ1" s="201"/>
+      <c r="HR1" s="201"/>
+      <c r="HS1" s="201"/>
+      <c r="HT1" s="201"/>
+      <c r="HU1" s="201"/>
+      <c r="HV1" s="201"/>
+      <c r="HW1" s="201"/>
+      <c r="HX1" s="201"/>
+      <c r="HY1" s="201"/>
+      <c r="HZ1" s="201"/>
+      <c r="IA1" s="201"/>
+      <c r="IB1" s="201"/>
+      <c r="IC1" s="201"/>
+      <c r="ID1" s="201"/>
+      <c r="IE1" s="201"/>
+      <c r="IF1" s="201"/>
+      <c r="IG1" s="201"/>
+      <c r="IH1" s="201"/>
+      <c r="II1" s="201"/>
+      <c r="IJ1" s="202"/>
+      <c r="IK1" s="203" t="s">
         <v>484</v>
       </c>
-      <c r="IL1" s="196"/>
-      <c r="IM1" s="196"/>
-      <c r="IN1" s="196"/>
-      <c r="IO1" s="196"/>
-      <c r="IP1" s="196"/>
-      <c r="IQ1" s="196"/>
-      <c r="IR1" s="196"/>
-      <c r="IS1" s="196"/>
-      <c r="IT1" s="196"/>
-      <c r="IU1" s="196"/>
-      <c r="IV1" s="196"/>
-      <c r="IW1" s="196"/>
-      <c r="IX1" s="196"/>
-      <c r="IY1" s="196"/>
-      <c r="IZ1" s="196"/>
-      <c r="JA1" s="196"/>
-      <c r="JB1" s="196"/>
-      <c r="JC1" s="196"/>
-      <c r="JD1" s="196"/>
-      <c r="JE1" s="196"/>
-      <c r="JF1" s="196"/>
-      <c r="JG1" s="196"/>
-      <c r="JH1" s="196"/>
-      <c r="JI1" s="197"/>
+      <c r="IL1" s="204"/>
+      <c r="IM1" s="204"/>
+      <c r="IN1" s="204"/>
+      <c r="IO1" s="204"/>
+      <c r="IP1" s="204"/>
+      <c r="IQ1" s="204"/>
+      <c r="IR1" s="204"/>
+      <c r="IS1" s="204"/>
+      <c r="IT1" s="204"/>
+      <c r="IU1" s="204"/>
+      <c r="IV1" s="204"/>
+      <c r="IW1" s="204"/>
+      <c r="IX1" s="204"/>
+      <c r="IY1" s="204"/>
+      <c r="IZ1" s="204"/>
+      <c r="JA1" s="204"/>
+      <c r="JB1" s="204"/>
+      <c r="JC1" s="204"/>
+      <c r="JD1" s="204"/>
+      <c r="JE1" s="204"/>
+      <c r="JF1" s="204"/>
+      <c r="JG1" s="204"/>
+      <c r="JH1" s="204"/>
+      <c r="JI1" s="205"/>
     </row>
     <row r="2" spans="1:269" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="174" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="185"/>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="185"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="185"/>
-      <c r="AN2" s="185"/>
-      <c r="AO2" s="185"/>
-      <c r="AP2" s="185"/>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="185"/>
-      <c r="AS2" s="185"/>
-      <c r="AT2" s="185"/>
-      <c r="AU2" s="185"/>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="185"/>
-      <c r="AX2" s="185"/>
-      <c r="AY2" s="185"/>
-      <c r="AZ2" s="185"/>
-      <c r="BA2" s="185"/>
-      <c r="BB2" s="185"/>
-      <c r="BC2" s="185"/>
-      <c r="BD2" s="185"/>
-      <c r="BE2" s="181"/>
-      <c r="BF2" s="180" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="175"/>
+      <c r="BA2" s="175"/>
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="176"/>
+      <c r="BF2" s="174" t="s">
         <v>478</v>
       </c>
-      <c r="BG2" s="185"/>
-      <c r="BH2" s="185"/>
-      <c r="BI2" s="185"/>
-      <c r="BJ2" s="185"/>
-      <c r="BK2" s="185"/>
-      <c r="BL2" s="185"/>
-      <c r="BM2" s="185"/>
-      <c r="BN2" s="185"/>
-      <c r="BO2" s="185"/>
-      <c r="BP2" s="185"/>
-      <c r="BQ2" s="185"/>
-      <c r="BR2" s="185"/>
-      <c r="BS2" s="185"/>
-      <c r="BT2" s="185"/>
-      <c r="BU2" s="185"/>
-      <c r="BV2" s="185"/>
-      <c r="BW2" s="185"/>
-      <c r="BX2" s="185"/>
-      <c r="BY2" s="185"/>
-      <c r="BZ2" s="185"/>
-      <c r="CA2" s="185"/>
-      <c r="CB2" s="185"/>
-      <c r="CC2" s="185"/>
-      <c r="CD2" s="185"/>
-      <c r="CE2" s="185"/>
-      <c r="CF2" s="185"/>
-      <c r="CG2" s="185"/>
-      <c r="CH2" s="185"/>
-      <c r="CI2" s="185"/>
-      <c r="CJ2" s="185"/>
-      <c r="CK2" s="185"/>
-      <c r="CL2" s="185"/>
-      <c r="CM2" s="185"/>
-      <c r="CN2" s="185"/>
-      <c r="CO2" s="185"/>
-      <c r="CP2" s="185"/>
-      <c r="CQ2" s="181"/>
-      <c r="CR2" s="180" t="s">
+      <c r="BG2" s="175"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="175"/>
+      <c r="BL2" s="175"/>
+      <c r="BM2" s="175"/>
+      <c r="BN2" s="175"/>
+      <c r="BO2" s="175"/>
+      <c r="BP2" s="175"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="175"/>
+      <c r="BS2" s="175"/>
+      <c r="BT2" s="175"/>
+      <c r="BU2" s="175"/>
+      <c r="BV2" s="175"/>
+      <c r="BW2" s="175"/>
+      <c r="BX2" s="175"/>
+      <c r="BY2" s="175"/>
+      <c r="BZ2" s="175"/>
+      <c r="CA2" s="175"/>
+      <c r="CB2" s="175"/>
+      <c r="CC2" s="175"/>
+      <c r="CD2" s="175"/>
+      <c r="CE2" s="175"/>
+      <c r="CF2" s="175"/>
+      <c r="CG2" s="175"/>
+      <c r="CH2" s="175"/>
+      <c r="CI2" s="175"/>
+      <c r="CJ2" s="175"/>
+      <c r="CK2" s="175"/>
+      <c r="CL2" s="175"/>
+      <c r="CM2" s="175"/>
+      <c r="CN2" s="175"/>
+      <c r="CO2" s="175"/>
+      <c r="CP2" s="175"/>
+      <c r="CQ2" s="176"/>
+      <c r="CR2" s="174" t="s">
         <v>454</v>
       </c>
-      <c r="CS2" s="185"/>
-      <c r="CT2" s="185"/>
-      <c r="CU2" s="185"/>
-      <c r="CV2" s="181"/>
-      <c r="CW2" s="180" t="s">
+      <c r="CS2" s="175"/>
+      <c r="CT2" s="175"/>
+      <c r="CU2" s="175"/>
+      <c r="CV2" s="176"/>
+      <c r="CW2" s="174" t="s">
         <v>455</v>
       </c>
-      <c r="CX2" s="185"/>
-      <c r="CY2" s="185"/>
-      <c r="CZ2" s="185"/>
-      <c r="DA2" s="185"/>
-      <c r="DB2" s="181"/>
-      <c r="DC2" s="180" t="s">
+      <c r="CX2" s="175"/>
+      <c r="CY2" s="175"/>
+      <c r="CZ2" s="175"/>
+      <c r="DA2" s="175"/>
+      <c r="DB2" s="176"/>
+      <c r="DC2" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="DD2" s="185"/>
-      <c r="DE2" s="185"/>
-      <c r="DF2" s="185"/>
-      <c r="DG2" s="185"/>
-      <c r="DH2" s="185"/>
-      <c r="DI2" s="185"/>
-      <c r="DJ2" s="181"/>
-      <c r="DK2" s="180" t="s">
+      <c r="DD2" s="175"/>
+      <c r="DE2" s="175"/>
+      <c r="DF2" s="175"/>
+      <c r="DG2" s="175"/>
+      <c r="DH2" s="175"/>
+      <c r="DI2" s="175"/>
+      <c r="DJ2" s="176"/>
+      <c r="DK2" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="DL2" s="185"/>
-      <c r="DM2" s="185"/>
-      <c r="DN2" s="185"/>
-      <c r="DO2" s="185"/>
-      <c r="DP2" s="185"/>
-      <c r="DQ2" s="185"/>
-      <c r="DR2" s="181"/>
-      <c r="DS2" s="180" t="s">
+      <c r="DL2" s="175"/>
+      <c r="DM2" s="175"/>
+      <c r="DN2" s="175"/>
+      <c r="DO2" s="175"/>
+      <c r="DP2" s="175"/>
+      <c r="DQ2" s="175"/>
+      <c r="DR2" s="176"/>
+      <c r="DS2" s="174" t="s">
         <v>457</v>
       </c>
-      <c r="DT2" s="185"/>
-      <c r="DU2" s="185"/>
-      <c r="DV2" s="185"/>
-      <c r="DW2" s="181"/>
-      <c r="DX2" s="180" t="s">
+      <c r="DT2" s="175"/>
+      <c r="DU2" s="175"/>
+      <c r="DV2" s="175"/>
+      <c r="DW2" s="176"/>
+      <c r="DX2" s="174" t="s">
         <v>458</v>
       </c>
-      <c r="DY2" s="185"/>
-      <c r="DZ2" s="185"/>
-      <c r="EA2" s="185"/>
-      <c r="EB2" s="185"/>
-      <c r="EC2" s="185"/>
-      <c r="ED2" s="185"/>
-      <c r="EE2" s="181"/>
-      <c r="EF2" s="180" t="s">
+      <c r="DY2" s="175"/>
+      <c r="DZ2" s="175"/>
+      <c r="EA2" s="175"/>
+      <c r="EB2" s="175"/>
+      <c r="EC2" s="175"/>
+      <c r="ED2" s="175"/>
+      <c r="EE2" s="176"/>
+      <c r="EF2" s="174" t="s">
         <v>459</v>
       </c>
-      <c r="EG2" s="181"/>
-      <c r="EH2" s="182" t="s">
+      <c r="EG2" s="176"/>
+      <c r="EH2" s="191" t="s">
         <v>460</v>
       </c>
-      <c r="EI2" s="183"/>
-      <c r="EJ2" s="183"/>
-      <c r="EK2" s="183"/>
-      <c r="EL2" s="183"/>
-      <c r="EM2" s="183"/>
-      <c r="EN2" s="183"/>
-      <c r="EO2" s="184"/>
-      <c r="EP2" s="180" t="s">
+      <c r="EI2" s="192"/>
+      <c r="EJ2" s="192"/>
+      <c r="EK2" s="192"/>
+      <c r="EL2" s="192"/>
+      <c r="EM2" s="192"/>
+      <c r="EN2" s="192"/>
+      <c r="EO2" s="193"/>
+      <c r="EP2" s="174" t="s">
         <v>461</v>
       </c>
-      <c r="EQ2" s="185"/>
-      <c r="ER2" s="185"/>
-      <c r="ES2" s="185"/>
-      <c r="ET2" s="185"/>
-      <c r="EU2" s="185"/>
-      <c r="EV2" s="185"/>
-      <c r="EW2" s="185"/>
-      <c r="EX2" s="185"/>
-      <c r="EY2" s="185"/>
-      <c r="EZ2" s="185"/>
-      <c r="FA2" s="181"/>
-      <c r="FB2" s="180" t="s">
+      <c r="EQ2" s="175"/>
+      <c r="ER2" s="175"/>
+      <c r="ES2" s="175"/>
+      <c r="ET2" s="175"/>
+      <c r="EU2" s="175"/>
+      <c r="EV2" s="175"/>
+      <c r="EW2" s="175"/>
+      <c r="EX2" s="175"/>
+      <c r="EY2" s="175"/>
+      <c r="EZ2" s="175"/>
+      <c r="FA2" s="176"/>
+      <c r="FB2" s="174" t="s">
         <v>462</v>
       </c>
-      <c r="FC2" s="185"/>
-      <c r="FD2" s="185"/>
-      <c r="FE2" s="185"/>
-      <c r="FF2" s="185"/>
-      <c r="FG2" s="185"/>
-      <c r="FH2" s="185"/>
-      <c r="FI2" s="181"/>
-      <c r="FJ2" s="180" t="s">
+      <c r="FC2" s="175"/>
+      <c r="FD2" s="175"/>
+      <c r="FE2" s="175"/>
+      <c r="FF2" s="175"/>
+      <c r="FG2" s="175"/>
+      <c r="FH2" s="175"/>
+      <c r="FI2" s="176"/>
+      <c r="FJ2" s="174" t="s">
         <v>463</v>
       </c>
-      <c r="FK2" s="185"/>
-      <c r="FL2" s="185"/>
-      <c r="FM2" s="185"/>
-      <c r="FN2" s="185"/>
-      <c r="FO2" s="185"/>
-      <c r="FP2" s="185"/>
-      <c r="FQ2" s="185"/>
-      <c r="FR2" s="185"/>
-      <c r="FS2" s="185"/>
-      <c r="FT2" s="185"/>
-      <c r="FU2" s="185"/>
-      <c r="FV2" s="181"/>
-      <c r="FW2" s="180" t="s">
+      <c r="FK2" s="175"/>
+      <c r="FL2" s="175"/>
+      <c r="FM2" s="175"/>
+      <c r="FN2" s="175"/>
+      <c r="FO2" s="175"/>
+      <c r="FP2" s="175"/>
+      <c r="FQ2" s="175"/>
+      <c r="FR2" s="175"/>
+      <c r="FS2" s="175"/>
+      <c r="FT2" s="175"/>
+      <c r="FU2" s="175"/>
+      <c r="FV2" s="176"/>
+      <c r="FW2" s="174" t="s">
         <v>464</v>
       </c>
-      <c r="FX2" s="181"/>
-      <c r="FY2" s="180" t="s">
+      <c r="FX2" s="176"/>
+      <c r="FY2" s="174" t="s">
         <v>465</v>
       </c>
-      <c r="FZ2" s="185"/>
-      <c r="GA2" s="185"/>
-      <c r="GB2" s="185"/>
-      <c r="GC2" s="185"/>
-      <c r="GD2" s="185"/>
-      <c r="GE2" s="185"/>
-      <c r="GF2" s="185"/>
-      <c r="GG2" s="185"/>
-      <c r="GH2" s="185"/>
-      <c r="GI2" s="185"/>
-      <c r="GJ2" s="185"/>
-      <c r="GK2" s="181"/>
-      <c r="GL2" s="180" t="s">
+      <c r="FZ2" s="175"/>
+      <c r="GA2" s="175"/>
+      <c r="GB2" s="175"/>
+      <c r="GC2" s="175"/>
+      <c r="GD2" s="175"/>
+      <c r="GE2" s="175"/>
+      <c r="GF2" s="175"/>
+      <c r="GG2" s="175"/>
+      <c r="GH2" s="175"/>
+      <c r="GI2" s="175"/>
+      <c r="GJ2" s="175"/>
+      <c r="GK2" s="176"/>
+      <c r="GL2" s="174" t="s">
         <v>466</v>
       </c>
-      <c r="GM2" s="185"/>
-      <c r="GN2" s="185"/>
-      <c r="GO2" s="185"/>
-      <c r="GP2" s="185"/>
-      <c r="GQ2" s="185"/>
-      <c r="GR2" s="181"/>
-      <c r="GS2" s="180" t="s">
+      <c r="GM2" s="175"/>
+      <c r="GN2" s="175"/>
+      <c r="GO2" s="175"/>
+      <c r="GP2" s="175"/>
+      <c r="GQ2" s="175"/>
+      <c r="GR2" s="176"/>
+      <c r="GS2" s="174" t="s">
         <v>496</v>
       </c>
-      <c r="GT2" s="185"/>
-      <c r="GU2" s="185"/>
-      <c r="GV2" s="185"/>
-      <c r="GW2" s="185"/>
-      <c r="GX2" s="185"/>
-      <c r="GY2" s="185"/>
-      <c r="GZ2" s="185"/>
-      <c r="HA2" s="185"/>
-      <c r="HB2" s="181"/>
-      <c r="HC2" s="180" t="s">
+      <c r="GT2" s="175"/>
+      <c r="GU2" s="175"/>
+      <c r="GV2" s="175"/>
+      <c r="GW2" s="175"/>
+      <c r="GX2" s="175"/>
+      <c r="GY2" s="175"/>
+      <c r="GZ2" s="175"/>
+      <c r="HA2" s="175"/>
+      <c r="HB2" s="176"/>
+      <c r="HC2" s="174" t="s">
         <v>468</v>
       </c>
-      <c r="HD2" s="181"/>
-      <c r="HE2" s="189"/>
-      <c r="HF2" s="190"/>
-      <c r="HG2" s="191"/>
-      <c r="HH2" s="180" t="s">
+      <c r="HD2" s="176"/>
+      <c r="HE2" s="197"/>
+      <c r="HF2" s="198"/>
+      <c r="HG2" s="199"/>
+      <c r="HH2" s="174" t="s">
         <v>470</v>
       </c>
-      <c r="HI2" s="185"/>
-      <c r="HJ2" s="185"/>
-      <c r="HK2" s="185"/>
-      <c r="HL2" s="185"/>
-      <c r="HM2" s="185"/>
-      <c r="HN2" s="181"/>
-      <c r="HO2" s="180" t="s">
+      <c r="HI2" s="175"/>
+      <c r="HJ2" s="175"/>
+      <c r="HK2" s="175"/>
+      <c r="HL2" s="175"/>
+      <c r="HM2" s="175"/>
+      <c r="HN2" s="176"/>
+      <c r="HO2" s="174" t="s">
         <v>614</v>
       </c>
-      <c r="HP2" s="185"/>
-      <c r="HQ2" s="185"/>
-      <c r="HR2" s="185"/>
-      <c r="HS2" s="185"/>
-      <c r="HT2" s="185"/>
-      <c r="HU2" s="185"/>
-      <c r="HV2" s="185"/>
-      <c r="HW2" s="185"/>
-      <c r="HX2" s="185"/>
-      <c r="HY2" s="185"/>
-      <c r="HZ2" s="185"/>
-      <c r="IA2" s="185"/>
-      <c r="IB2" s="181"/>
-      <c r="IC2" s="180" t="s">
+      <c r="HP2" s="175"/>
+      <c r="HQ2" s="175"/>
+      <c r="HR2" s="175"/>
+      <c r="HS2" s="175"/>
+      <c r="HT2" s="175"/>
+      <c r="HU2" s="175"/>
+      <c r="HV2" s="175"/>
+      <c r="HW2" s="175"/>
+      <c r="HX2" s="175"/>
+      <c r="HY2" s="175"/>
+      <c r="HZ2" s="175"/>
+      <c r="IA2" s="175"/>
+      <c r="IB2" s="176"/>
+      <c r="IC2" s="174" t="s">
         <v>472</v>
       </c>
-      <c r="ID2" s="185"/>
-      <c r="IE2" s="185"/>
-      <c r="IF2" s="185"/>
-      <c r="IG2" s="181"/>
-      <c r="IH2" s="180" t="s">
+      <c r="ID2" s="175"/>
+      <c r="IE2" s="175"/>
+      <c r="IF2" s="175"/>
+      <c r="IG2" s="176"/>
+      <c r="IH2" s="174" t="s">
         <v>473</v>
       </c>
-      <c r="II2" s="185"/>
-      <c r="IJ2" s="181"/>
-      <c r="IK2" s="180" t="s">
+      <c r="II2" s="175"/>
+      <c r="IJ2" s="176"/>
+      <c r="IK2" s="174" t="s">
         <v>474</v>
       </c>
-      <c r="IL2" s="185"/>
-      <c r="IM2" s="185"/>
-      <c r="IN2" s="185"/>
-      <c r="IO2" s="185"/>
-      <c r="IP2" s="181"/>
-      <c r="IQ2" s="180" t="s">
+      <c r="IL2" s="175"/>
+      <c r="IM2" s="175"/>
+      <c r="IN2" s="175"/>
+      <c r="IO2" s="175"/>
+      <c r="IP2" s="176"/>
+      <c r="IQ2" s="174" t="s">
         <v>475</v>
       </c>
-      <c r="IR2" s="185"/>
-      <c r="IS2" s="185"/>
-      <c r="IT2" s="185"/>
-      <c r="IU2" s="185"/>
-      <c r="IV2" s="181"/>
-      <c r="IW2" s="177" t="s">
+      <c r="IR2" s="175"/>
+      <c r="IS2" s="175"/>
+      <c r="IT2" s="175"/>
+      <c r="IU2" s="175"/>
+      <c r="IV2" s="176"/>
+      <c r="IW2" s="188" t="s">
         <v>907</v>
       </c>
-      <c r="IX2" s="178"/>
-      <c r="IY2" s="178"/>
-      <c r="IZ2" s="178"/>
-      <c r="JA2" s="178"/>
-      <c r="JB2" s="178"/>
-      <c r="JC2" s="178"/>
-      <c r="JD2" s="178"/>
-      <c r="JE2" s="179"/>
-      <c r="JF2" s="177" t="s">
+      <c r="IX2" s="189"/>
+      <c r="IY2" s="189"/>
+      <c r="IZ2" s="189"/>
+      <c r="JA2" s="189"/>
+      <c r="JB2" s="189"/>
+      <c r="JC2" s="189"/>
+      <c r="JD2" s="189"/>
+      <c r="JE2" s="190"/>
+      <c r="JF2" s="188" t="s">
         <v>476</v>
       </c>
-      <c r="JG2" s="178"/>
-      <c r="JH2" s="178"/>
-      <c r="JI2" s="179"/>
+      <c r="JG2" s="189"/>
+      <c r="JH2" s="189"/>
+      <c r="JI2" s="190"/>
     </row>
     <row r="3" spans="1:269" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
@@ -29929,23 +29940,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JF2:JI2"/>
-    <mergeCell ref="HO2:IB2"/>
-    <mergeCell ref="IC2:IG2"/>
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="IW2:JE2"/>
-    <mergeCell ref="IK2:IP2"/>
-    <mergeCell ref="IQ2:IV2"/>
-    <mergeCell ref="DX2:EE2"/>
-    <mergeCell ref="B2:BE2"/>
-    <mergeCell ref="BF2:CQ2"/>
-    <mergeCell ref="B1:CQ1"/>
-    <mergeCell ref="CR1:EE1"/>
-    <mergeCell ref="CR2:CV2"/>
-    <mergeCell ref="CW2:DB2"/>
-    <mergeCell ref="DC2:DJ2"/>
-    <mergeCell ref="DK2:DR2"/>
-    <mergeCell ref="DS2:DW2"/>
     <mergeCell ref="EF1:EO1"/>
     <mergeCell ref="EP1:HD1"/>
     <mergeCell ref="HE1:HG2"/>
@@ -29962,6 +29956,23 @@
     <mergeCell ref="GL2:GR2"/>
     <mergeCell ref="GS2:HB2"/>
     <mergeCell ref="HC2:HD2"/>
+    <mergeCell ref="DX2:EE2"/>
+    <mergeCell ref="B2:BE2"/>
+    <mergeCell ref="BF2:CQ2"/>
+    <mergeCell ref="B1:CQ1"/>
+    <mergeCell ref="CR1:EE1"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="CW2:DB2"/>
+    <mergeCell ref="DC2:DJ2"/>
+    <mergeCell ref="DK2:DR2"/>
+    <mergeCell ref="DS2:DW2"/>
+    <mergeCell ref="JF2:JI2"/>
+    <mergeCell ref="HO2:IB2"/>
+    <mergeCell ref="IC2:IG2"/>
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="IW2:JE2"/>
+    <mergeCell ref="IK2:IP2"/>
+    <mergeCell ref="IQ2:IV2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{F5CC5134-40F6-4F65-86FB-EC3FE1D744DF}"/>
@@ -29989,100 +30000,100 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="209" t="s">
         <v>480</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="204" t="s">
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="183" t="s">
         <v>481</v>
       </c>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="205"/>
-      <c r="AD1" s="205"/>
-      <c r="AE1" s="205"/>
-      <c r="AF1" s="205"/>
-      <c r="AG1" s="206"/>
-      <c r="AH1" s="207" t="s">
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="184"/>
+      <c r="AG1" s="185"/>
+      <c r="AH1" s="186" t="s">
         <v>482</v>
       </c>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
-      <c r="AP1" s="208"/>
-      <c r="AQ1" s="208"/>
-      <c r="AR1" s="208"/>
-      <c r="AS1" s="208"/>
-      <c r="AT1" s="208"/>
-      <c r="AU1" s="208"/>
-      <c r="AV1" s="208"/>
-      <c r="AW1" s="208"/>
-      <c r="AX1" s="208"/>
-      <c r="AY1" s="208"/>
-      <c r="AZ1" s="208"/>
-      <c r="BA1" s="208"/>
-      <c r="BB1" s="208"/>
-      <c r="BC1" s="208"/>
-      <c r="BD1" s="208"/>
-      <c r="BE1" s="208"/>
-      <c r="BF1" s="208"/>
-      <c r="BG1" s="208"/>
-      <c r="BH1" s="208"/>
-      <c r="BI1" s="208"/>
-      <c r="BJ1" s="208"/>
-      <c r="BK1" s="208"/>
-      <c r="BL1" s="208"/>
-      <c r="BM1" s="217"/>
-      <c r="BN1" s="186" t="s">
+      <c r="AI1" s="187"/>
+      <c r="AJ1" s="187"/>
+      <c r="AK1" s="187"/>
+      <c r="AL1" s="187"/>
+      <c r="AM1" s="187"/>
+      <c r="AN1" s="187"/>
+      <c r="AO1" s="187"/>
+      <c r="AP1" s="187"/>
+      <c r="AQ1" s="187"/>
+      <c r="AR1" s="187"/>
+      <c r="AS1" s="187"/>
+      <c r="AT1" s="187"/>
+      <c r="AU1" s="187"/>
+      <c r="AV1" s="187"/>
+      <c r="AW1" s="187"/>
+      <c r="AX1" s="187"/>
+      <c r="AY1" s="187"/>
+      <c r="AZ1" s="187"/>
+      <c r="BA1" s="187"/>
+      <c r="BB1" s="187"/>
+      <c r="BC1" s="187"/>
+      <c r="BD1" s="187"/>
+      <c r="BE1" s="187"/>
+      <c r="BF1" s="187"/>
+      <c r="BG1" s="187"/>
+      <c r="BH1" s="187"/>
+      <c r="BI1" s="187"/>
+      <c r="BJ1" s="187"/>
+      <c r="BK1" s="187"/>
+      <c r="BL1" s="187"/>
+      <c r="BM1" s="208"/>
+      <c r="BN1" s="194" t="s">
         <v>485</v>
       </c>
-      <c r="BO1" s="187"/>
-      <c r="BP1" s="187"/>
-      <c r="BQ1" s="188"/>
-      <c r="BR1" s="192" t="s">
+      <c r="BO1" s="195"/>
+      <c r="BP1" s="195"/>
+      <c r="BQ1" s="196"/>
+      <c r="BR1" s="200" t="s">
         <v>483</v>
       </c>
-      <c r="BS1" s="215"/>
-      <c r="BT1" s="215"/>
-      <c r="BU1" s="215"/>
-      <c r="BV1" s="215"/>
-      <c r="BW1" s="215"/>
-      <c r="BX1" s="215"/>
-      <c r="BY1" s="215"/>
-      <c r="BZ1" s="215"/>
-      <c r="CA1" s="215"/>
-      <c r="CB1" s="215"/>
-      <c r="CC1" s="215"/>
-      <c r="CD1" s="215"/>
-      <c r="CE1" s="215"/>
-      <c r="CF1" s="215"/>
-      <c r="CG1" s="216"/>
+      <c r="BS1" s="206"/>
+      <c r="BT1" s="206"/>
+      <c r="BU1" s="206"/>
+      <c r="BV1" s="206"/>
+      <c r="BW1" s="206"/>
+      <c r="BX1" s="206"/>
+      <c r="BY1" s="206"/>
+      <c r="BZ1" s="206"/>
+      <c r="CA1" s="206"/>
+      <c r="CB1" s="206"/>
+      <c r="CC1" s="206"/>
+      <c r="CD1" s="206"/>
+      <c r="CE1" s="206"/>
+      <c r="CF1" s="206"/>
+      <c r="CG1" s="207"/>
     </row>
     <row r="2" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="212" t="s">
@@ -30145,12 +30156,12 @@
       <c r="AM2" s="213"/>
       <c r="AN2" s="213"/>
       <c r="AO2" s="214"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AP2" s="215" t="s">
         <v>488</v>
       </c>
-      <c r="AQ2" s="210"/>
-      <c r="AR2" s="210"/>
-      <c r="AS2" s="211"/>
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="216"/>
+      <c r="AS2" s="217"/>
       <c r="AT2" s="212" t="s">
         <v>464</v>
       </c>
@@ -30181,10 +30192,10 @@
       <c r="BK2" s="213"/>
       <c r="BL2" s="213"/>
       <c r="BM2" s="214"/>
-      <c r="BN2" s="189"/>
-      <c r="BO2" s="190"/>
-      <c r="BP2" s="190"/>
-      <c r="BQ2" s="191"/>
+      <c r="BN2" s="197"/>
+      <c r="BO2" s="198"/>
+      <c r="BP2" s="198"/>
+      <c r="BQ2" s="199"/>
       <c r="BR2" s="212" t="s">
         <v>470</v>
       </c>
@@ -33879,6 +33890,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="BV2:BY2"/>
+    <mergeCell ref="BZ2:CC2"/>
+    <mergeCell ref="CD2:CG2"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="BR2:BU2"/>
     <mergeCell ref="BR1:CG1"/>
     <mergeCell ref="BN1:BQ2"/>
     <mergeCell ref="AH1:BM1"/>
@@ -33895,15 +33915,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="BV2:BY2"/>
-    <mergeCell ref="BZ2:CC2"/>
-    <mergeCell ref="CD2:CG2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BF2:BI2"/>
-    <mergeCell ref="BJ2:BM2"/>
-    <mergeCell ref="BR2:BU2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{52F76497-CDC2-4AEA-BDCC-8BD0E7867D1B}"/>
@@ -33993,176 +34004,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="306" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="273" t="s">
+      <c r="B1" s="248" t="s">
         <v>781</v>
       </c>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="275"/>
-      <c r="S1" s="267" t="s">
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="250"/>
+      <c r="S1" s="242" t="s">
         <v>822</v>
       </c>
-      <c r="T1" s="268"/>
-      <c r="U1" s="268"/>
-      <c r="V1" s="268"/>
-      <c r="W1" s="268"/>
-      <c r="X1" s="268"/>
-      <c r="Y1" s="268"/>
-      <c r="Z1" s="268"/>
-      <c r="AA1" s="268"/>
-      <c r="AB1" s="268"/>
-      <c r="AC1" s="268"/>
-      <c r="AD1" s="268"/>
-      <c r="AE1" s="268"/>
-      <c r="AF1" s="268"/>
-      <c r="AG1" s="268"/>
-      <c r="AH1" s="268"/>
-      <c r="AI1" s="268"/>
-      <c r="AJ1" s="269"/>
-      <c r="AL1" s="282" t="s">
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="243"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="243"/>
+      <c r="AJ1" s="244"/>
+      <c r="AL1" s="261" t="s">
         <v>481</v>
       </c>
-      <c r="AM1" s="283"/>
-      <c r="AN1" s="283"/>
-      <c r="AO1" s="283"/>
-      <c r="AP1" s="283"/>
-      <c r="AQ1" s="283"/>
-      <c r="AR1" s="283"/>
-      <c r="AS1" s="283"/>
-      <c r="AT1" s="283"/>
-      <c r="AU1" s="283"/>
-      <c r="AV1" s="284"/>
-      <c r="AX1" s="288" t="s">
+      <c r="AM1" s="262"/>
+      <c r="AN1" s="262"/>
+      <c r="AO1" s="262"/>
+      <c r="AP1" s="262"/>
+      <c r="AQ1" s="262"/>
+      <c r="AR1" s="262"/>
+      <c r="AS1" s="262"/>
+      <c r="AT1" s="262"/>
+      <c r="AU1" s="262"/>
+      <c r="AV1" s="263"/>
+      <c r="AX1" s="267" t="s">
         <v>482</v>
       </c>
-      <c r="AY1" s="289"/>
-      <c r="AZ1" s="289"/>
-      <c r="BA1" s="289"/>
-      <c r="BB1" s="289"/>
-      <c r="BC1" s="290"/>
-      <c r="BE1" s="252" t="s">
+      <c r="AY1" s="268"/>
+      <c r="AZ1" s="268"/>
+      <c r="BA1" s="268"/>
+      <c r="BB1" s="268"/>
+      <c r="BC1" s="269"/>
+      <c r="BE1" s="277" t="s">
         <v>483</v>
       </c>
-      <c r="BF1" s="253"/>
-      <c r="BG1" s="253"/>
-      <c r="BH1" s="253"/>
-      <c r="BI1" s="253"/>
-      <c r="BJ1" s="254"/>
-      <c r="BL1" s="299" t="s">
+      <c r="BF1" s="278"/>
+      <c r="BG1" s="278"/>
+      <c r="BH1" s="278"/>
+      <c r="BI1" s="278"/>
+      <c r="BJ1" s="279"/>
+      <c r="BL1" s="223" t="s">
         <v>896</v>
       </c>
-      <c r="BM1" s="300"/>
-      <c r="BN1" s="300"/>
-      <c r="BO1" s="300"/>
-      <c r="BP1" s="300"/>
-      <c r="BQ1" s="300"/>
-      <c r="BR1" s="300"/>
-      <c r="BS1" s="300"/>
-      <c r="BT1" s="300"/>
-      <c r="BU1" s="300"/>
-      <c r="BV1" s="300"/>
-      <c r="BW1" s="300"/>
-      <c r="BX1" s="300"/>
-      <c r="BY1" s="300"/>
-      <c r="BZ1" s="300"/>
-      <c r="CA1" s="300"/>
-      <c r="CB1" s="300"/>
-      <c r="CC1" s="300"/>
-      <c r="CD1" s="301"/>
+      <c r="BM1" s="224"/>
+      <c r="BN1" s="224"/>
+      <c r="BO1" s="224"/>
+      <c r="BP1" s="224"/>
+      <c r="BQ1" s="224"/>
+      <c r="BR1" s="224"/>
+      <c r="BS1" s="224"/>
+      <c r="BT1" s="224"/>
+      <c r="BU1" s="224"/>
+      <c r="BV1" s="224"/>
+      <c r="BW1" s="224"/>
+      <c r="BX1" s="224"/>
+      <c r="BY1" s="224"/>
+      <c r="BZ1" s="224"/>
+      <c r="CA1" s="224"/>
+      <c r="CB1" s="224"/>
+      <c r="CC1" s="224"/>
+      <c r="CD1" s="225"/>
     </row>
     <row r="2" spans="1:82" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="226"/>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="278"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="271"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="271"/>
-      <c r="W2" s="271"/>
-      <c r="X2" s="271"/>
-      <c r="Y2" s="271"/>
-      <c r="Z2" s="271"/>
-      <c r="AA2" s="271"/>
-      <c r="AB2" s="271"/>
-      <c r="AC2" s="271"/>
-      <c r="AD2" s="271"/>
-      <c r="AE2" s="271"/>
-      <c r="AF2" s="271"/>
-      <c r="AG2" s="271"/>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="271"/>
-      <c r="AJ2" s="272"/>
-      <c r="AL2" s="285"/>
-      <c r="AM2" s="286"/>
-      <c r="AN2" s="286"/>
-      <c r="AO2" s="286"/>
-      <c r="AP2" s="286"/>
-      <c r="AQ2" s="286"/>
-      <c r="AR2" s="286"/>
-      <c r="AS2" s="286"/>
-      <c r="AT2" s="286"/>
-      <c r="AU2" s="286"/>
-      <c r="AV2" s="287"/>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="292"/>
-      <c r="AZ2" s="292"/>
-      <c r="BA2" s="292"/>
-      <c r="BB2" s="292"/>
-      <c r="BC2" s="293"/>
-      <c r="BE2" s="255"/>
-      <c r="BF2" s="256"/>
-      <c r="BG2" s="256"/>
-      <c r="BH2" s="256"/>
-      <c r="BI2" s="256"/>
-      <c r="BJ2" s="257"/>
-      <c r="BL2" s="302"/>
-      <c r="BM2" s="303"/>
-      <c r="BN2" s="303"/>
-      <c r="BO2" s="303"/>
-      <c r="BP2" s="303"/>
-      <c r="BQ2" s="303"/>
-      <c r="BR2" s="303"/>
-      <c r="BS2" s="303"/>
-      <c r="BT2" s="303"/>
-      <c r="BU2" s="303"/>
-      <c r="BV2" s="303"/>
-      <c r="BW2" s="303"/>
-      <c r="BX2" s="303"/>
-      <c r="BY2" s="303"/>
-      <c r="BZ2" s="303"/>
-      <c r="CA2" s="303"/>
-      <c r="CB2" s="303"/>
-      <c r="CC2" s="303"/>
-      <c r="CD2" s="304"/>
+      <c r="A2" s="306"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="253"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="247"/>
+      <c r="AL2" s="264"/>
+      <c r="AM2" s="265"/>
+      <c r="AN2" s="265"/>
+      <c r="AO2" s="265"/>
+      <c r="AP2" s="265"/>
+      <c r="AQ2" s="265"/>
+      <c r="AR2" s="265"/>
+      <c r="AS2" s="265"/>
+      <c r="AT2" s="265"/>
+      <c r="AU2" s="265"/>
+      <c r="AV2" s="266"/>
+      <c r="AX2" s="270"/>
+      <c r="AY2" s="271"/>
+      <c r="AZ2" s="271"/>
+      <c r="BA2" s="271"/>
+      <c r="BB2" s="271"/>
+      <c r="BC2" s="272"/>
+      <c r="BE2" s="280"/>
+      <c r="BF2" s="281"/>
+      <c r="BG2" s="281"/>
+      <c r="BH2" s="281"/>
+      <c r="BI2" s="281"/>
+      <c r="BJ2" s="282"/>
+      <c r="BL2" s="226"/>
+      <c r="BM2" s="227"/>
+      <c r="BN2" s="227"/>
+      <c r="BO2" s="227"/>
+      <c r="BP2" s="227"/>
+      <c r="BQ2" s="227"/>
+      <c r="BR2" s="227"/>
+      <c r="BS2" s="227"/>
+      <c r="BT2" s="227"/>
+      <c r="BU2" s="227"/>
+      <c r="BV2" s="227"/>
+      <c r="BW2" s="227"/>
+      <c r="BX2" s="227"/>
+      <c r="BY2" s="227"/>
+      <c r="BZ2" s="227"/>
+      <c r="CA2" s="227"/>
+      <c r="CB2" s="227"/>
+      <c r="CC2" s="227"/>
+      <c r="CD2" s="228"/>
     </row>
     <row r="3" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53" t="s">
@@ -34330,53 +34341,53 @@
       <c r="BJ3" t="s">
         <v>786</v>
       </c>
-      <c r="BL3" s="307" t="s">
+      <c r="BL3" s="231" t="s">
         <v>897</v>
       </c>
-      <c r="BM3" s="308"/>
-      <c r="BN3" s="308"/>
-      <c r="BO3" s="308"/>
-      <c r="BP3" s="308"/>
-      <c r="BQ3" s="308"/>
-      <c r="BR3" s="309"/>
-      <c r="BT3" s="307" t="s">
+      <c r="BM3" s="232"/>
+      <c r="BN3" s="232"/>
+      <c r="BO3" s="232"/>
+      <c r="BP3" s="232"/>
+      <c r="BQ3" s="232"/>
+      <c r="BR3" s="233"/>
+      <c r="BT3" s="231" t="s">
         <v>908</v>
       </c>
-      <c r="BU3" s="309"/>
-      <c r="BW3" s="307" t="s">
+      <c r="BU3" s="233"/>
+      <c r="BW3" s="231" t="s">
         <v>909</v>
       </c>
-      <c r="BX3" s="308"/>
-      <c r="BY3" s="308"/>
-      <c r="BZ3" s="309"/>
-      <c r="CB3" s="296" t="s">
+      <c r="BX3" s="232"/>
+      <c r="BY3" s="232"/>
+      <c r="BZ3" s="233"/>
+      <c r="CB3" s="220" t="s">
         <v>476</v>
       </c>
-      <c r="CC3" s="297"/>
-      <c r="CD3" s="298"/>
+      <c r="CC3" s="221"/>
+      <c r="CD3" s="222"/>
     </row>
     <row r="4" spans="1:82" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="297" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="233"/>
-      <c r="G4" s="279" t="s">
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="299"/>
+      <c r="G4" s="254" t="s">
         <v>680</v>
       </c>
-      <c r="H4" s="280"/>
-      <c r="I4" s="280"/>
-      <c r="J4" s="280"/>
-      <c r="K4" s="281"/>
-      <c r="M4" s="258" t="s">
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="256"/>
+      <c r="M4" s="283" t="s">
         <v>478</v>
       </c>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="260"/>
+      <c r="N4" s="284"/>
+      <c r="O4" s="284"/>
+      <c r="P4" s="284"/>
+      <c r="Q4" s="285"/>
       <c r="S4">
         <v>1</v>
       </c>
@@ -34527,19 +34538,19 @@
         <f t="shared" ref="BJ4" si="5">IF(BH4&lt;=20%, "very low", IF(BH4&lt;=40%, "low", IF(BH4&lt;=60%, "moderate", IF(BH4&lt;=80%, "high", "very high"))))</f>
         <v>low</v>
       </c>
-      <c r="BL4" s="305" t="s">
+      <c r="BL4" s="229" t="s">
         <v>898</v>
       </c>
-      <c r="BM4" s="180" t="s">
+      <c r="BM4" s="174" t="s">
         <v>899</v>
       </c>
-      <c r="BN4" s="185"/>
-      <c r="BO4" s="181"/>
-      <c r="BP4" s="180" t="s">
+      <c r="BN4" s="175"/>
+      <c r="BO4" s="176"/>
+      <c r="BP4" s="174" t="s">
         <v>900</v>
       </c>
-      <c r="BQ4" s="185"/>
-      <c r="BR4" s="181"/>
+      <c r="BQ4" s="175"/>
+      <c r="BR4" s="176"/>
       <c r="BT4" s="12" t="s">
         <v>419</v>
       </c>
@@ -34571,10 +34582,10 @@
       </c>
     </row>
     <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="230">
-        <v>1</v>
-      </c>
-      <c r="B5" s="234" t="s">
+      <c r="A5" s="257">
+        <v>1</v>
+      </c>
+      <c r="B5" s="293" t="s">
         <v>630</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -34587,10 +34598,10 @@
         <f>COUNTIF(coded_data!B:B, D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="230">
+      <c r="G5" s="257">
         <v>14</v>
       </c>
-      <c r="H5" s="222" t="s">
+      <c r="H5" s="273" t="s">
         <v>731</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -34601,10 +34612,10 @@
         <f>COUNT(raw_data!A:A) - COUNTIF(raw_data!AA:AA, J5)</f>
         <v>10</v>
       </c>
-      <c r="M5" s="227">
+      <c r="M5" s="260">
         <v>21</v>
       </c>
-      <c r="N5" s="221" t="s">
+      <c r="N5" s="240" t="s">
         <v>733</v>
       </c>
       <c r="O5" s="57" t="s">
@@ -34767,7 +34778,7 @@
         <f t="shared" ref="BJ5:BJ24" si="11">IF(BH5&lt;=20%, "very low", IF(BH5&lt;=40%, "low", IF(BH5&lt;=60%, "moderate", IF(BH5&lt;=80%, "high", "very high"))))</f>
         <v>very low</v>
       </c>
-      <c r="BL5" s="306"/>
+      <c r="BL5" s="230"/>
       <c r="BM5" s="1" t="s">
         <v>901</v>
       </c>
@@ -34820,8 +34831,8 @@
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A6" s="228"/>
-      <c r="B6" s="234"/>
+      <c r="A6" s="258"/>
+      <c r="B6" s="293"/>
       <c r="C6" s="1" t="s">
         <v>632</v>
       </c>
@@ -34832,8 +34843,8 @@
         <f>COUNTIF(coded_data!B:B, D6)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="222"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="273"/>
       <c r="I6" s="1" t="s">
         <v>682</v>
       </c>
@@ -34842,8 +34853,8 @@
         <f>COUNT(raw_data!A:A) - COUNTIF(raw_data!AB:AB, J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="229"/>
-      <c r="N6" s="223"/>
+      <c r="M6" s="259"/>
+      <c r="N6" s="241"/>
       <c r="O6" s="61" t="s">
         <v>735</v>
       </c>
@@ -35065,8 +35076,8 @@
       </c>
     </row>
     <row r="7" spans="1:82" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="228"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="258"/>
+      <c r="B7" s="293"/>
       <c r="C7" s="1" t="s">
         <v>633</v>
       </c>
@@ -35077,8 +35088,8 @@
         <f>COUNTIF(coded_data!B:B, D7)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="228"/>
-      <c r="H7" s="222"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="273"/>
       <c r="I7" s="1" t="s">
         <v>683</v>
       </c>
@@ -35093,11 +35104,11 @@
       <c r="N7" s="77" t="s">
         <v>745</v>
       </c>
-      <c r="O7" s="249" t="s">
+      <c r="O7" s="274" t="s">
         <v>693</v>
       </c>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="251"/>
+      <c r="P7" s="275"/>
+      <c r="Q7" s="276"/>
       <c r="S7">
         <v>4</v>
       </c>
@@ -35309,8 +35320,8 @@
       </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A8" s="228"/>
-      <c r="B8" s="234"/>
+      <c r="A8" s="258"/>
+      <c r="B8" s="293"/>
       <c r="C8" s="1" t="s">
         <v>634</v>
       </c>
@@ -35321,8 +35332,8 @@
         <f>COUNTIF(coded_data!B:B, D8)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="228"/>
-      <c r="H8" s="222"/>
+      <c r="G8" s="258"/>
+      <c r="H8" s="273"/>
       <c r="I8" s="1" t="s">
         <v>684</v>
       </c>
@@ -35554,8 +35565,8 @@
       </c>
     </row>
     <row r="9" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="228"/>
-      <c r="B9" s="234"/>
+      <c r="A9" s="258"/>
+      <c r="B9" s="293"/>
       <c r="C9" s="1" t="s">
         <v>635</v>
       </c>
@@ -35566,8 +35577,8 @@
         <f>COUNTIF(coded_data!B:B, D9)</f>
         <v>3</v>
       </c>
-      <c r="G9" s="228"/>
-      <c r="H9" s="222"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="273"/>
       <c r="I9" s="1" t="s">
         <v>685</v>
       </c>
@@ -35799,8 +35810,8 @@
       </c>
     </row>
     <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="228"/>
-      <c r="B10" s="234"/>
+      <c r="A10" s="258"/>
+      <c r="B10" s="293"/>
       <c r="C10" s="1" t="s">
         <v>636</v>
       </c>
@@ -35811,8 +35822,8 @@
         <f>COUNTIF(coded_data!B:B, D10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="228"/>
-      <c r="H10" s="222"/>
+      <c r="G10" s="258"/>
+      <c r="H10" s="273"/>
       <c r="I10" s="1" t="s">
         <v>686</v>
       </c>
@@ -36029,8 +36040,8 @@
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A11" s="228"/>
-      <c r="B11" s="234"/>
+      <c r="A11" s="258"/>
+      <c r="B11" s="293"/>
       <c r="C11" s="1" t="s">
         <v>637</v>
       </c>
@@ -36041,8 +36052,8 @@
         <f>COUNTIF(coded_data!B:B, D11)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="228"/>
-      <c r="H11" s="222"/>
+      <c r="G11" s="258"/>
+      <c r="H11" s="273"/>
       <c r="I11" s="1" t="s">
         <v>687</v>
       </c>
@@ -36246,8 +36257,8 @@
       <c r="BZ11" s="1"/>
     </row>
     <row r="12" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="229"/>
-      <c r="B12" s="235"/>
+      <c r="A12" s="259"/>
+      <c r="B12" s="294"/>
       <c r="C12" s="61" t="s">
         <v>638</v>
       </c>
@@ -36258,8 +36269,8 @@
         <f>COUNTIF(coded_data!B:B, D12)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="229"/>
-      <c r="H12" s="223"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="241"/>
       <c r="I12" s="61" t="s">
         <v>643</v>
       </c>
@@ -36421,10 +36432,10 @@
       <c r="BZ12" s="1"/>
     </row>
     <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="227">
+      <c r="A13" s="260">
         <v>2</v>
       </c>
-      <c r="B13" s="236" t="s">
+      <c r="B13" s="292" t="s">
         <v>639</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -36435,10 +36446,10 @@
         <f>AVERAGE(coded_data!C:C)</f>
         <v>42.3</v>
       </c>
-      <c r="G13" s="227">
+      <c r="G13" s="260">
         <v>15</v>
       </c>
-      <c r="H13" s="221" t="s">
+      <c r="H13" s="240" t="s">
         <v>688</v>
       </c>
       <c r="I13" s="57" t="s">
@@ -36571,23 +36582,23 @@
         <f t="shared" si="11"/>
         <v>very low</v>
       </c>
-      <c r="BL13" s="307" t="s">
+      <c r="BL13" s="231" t="s">
         <v>904</v>
       </c>
-      <c r="BM13" s="308"/>
-      <c r="BN13" s="308"/>
-      <c r="BO13" s="308"/>
-      <c r="BP13" s="308"/>
-      <c r="BQ13" s="308"/>
-      <c r="BR13" s="309"/>
+      <c r="BM13" s="232"/>
+      <c r="BN13" s="232"/>
+      <c r="BO13" s="232"/>
+      <c r="BP13" s="232"/>
+      <c r="BQ13" s="232"/>
+      <c r="BR13" s="233"/>
       <c r="BW13" s="1"/>
       <c r="BX13" s="1"/>
       <c r="BY13" s="1"/>
       <c r="BZ13" s="1"/>
     </row>
     <row r="14" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="228"/>
-      <c r="B14" s="234"/>
+      <c r="A14" s="258"/>
+      <c r="B14" s="293"/>
       <c r="C14" s="1" t="s">
         <v>719</v>
       </c>
@@ -36596,8 +36607,8 @@
         <f>MEDIAN(coded_data!C:C)</f>
         <v>39</v>
       </c>
-      <c r="G14" s="228"/>
-      <c r="H14" s="222"/>
+      <c r="G14" s="258"/>
+      <c r="H14" s="273"/>
       <c r="I14" s="1" t="s">
         <v>690</v>
       </c>
@@ -36610,11 +36621,11 @@
       </c>
       <c r="M14" s="79"/>
       <c r="N14" s="76"/>
-      <c r="O14" s="249" t="s">
+      <c r="O14" s="274" t="s">
         <v>695</v>
       </c>
-      <c r="P14" s="250"/>
-      <c r="Q14" s="251"/>
+      <c r="P14" s="275"/>
+      <c r="Q14" s="276"/>
       <c r="S14">
         <v>11</v>
       </c>
@@ -36681,19 +36692,19 @@
         <f t="shared" si="11"/>
         <v>very low</v>
       </c>
-      <c r="BL14" s="294" t="s">
+      <c r="BL14" s="218" t="s">
         <v>905</v>
       </c>
-      <c r="BM14" s="185" t="s">
+      <c r="BM14" s="175" t="s">
         <v>899</v>
       </c>
-      <c r="BN14" s="185"/>
-      <c r="BO14" s="181"/>
-      <c r="BP14" s="180" t="s">
+      <c r="BN14" s="175"/>
+      <c r="BO14" s="176"/>
+      <c r="BP14" s="174" t="s">
         <v>900</v>
       </c>
-      <c r="BQ14" s="185"/>
-      <c r="BR14" s="181"/>
+      <c r="BQ14" s="175"/>
+      <c r="BR14" s="176"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
       <c r="BW14" s="1"/>
@@ -36702,8 +36713,8 @@
       <c r="BZ14" s="1"/>
     </row>
     <row r="15" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="228"/>
-      <c r="B15" s="234"/>
+      <c r="A15" s="258"/>
+      <c r="B15" s="293"/>
       <c r="C15" s="1" t="s">
         <v>720</v>
       </c>
@@ -36712,8 +36723,8 @@
         <f>MODE(coded_data!C:C)</f>
         <v>49</v>
       </c>
-      <c r="G15" s="228"/>
-      <c r="H15" s="222"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="273"/>
       <c r="I15" s="1" t="s">
         <v>691</v>
       </c>
@@ -36802,7 +36813,7 @@
         <f t="shared" si="11"/>
         <v>low</v>
       </c>
-      <c r="BL15" s="295"/>
+      <c r="BL15" s="219"/>
       <c r="BM15" s="1" t="s">
         <v>901</v>
       </c>
@@ -36825,8 +36836,8 @@
       <c r="BU15" s="1"/>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A16" s="228"/>
-      <c r="B16" s="234"/>
+      <c r="A16" s="258"/>
+      <c r="B16" s="293"/>
       <c r="C16" s="1" t="s">
         <v>509</v>
       </c>
@@ -36835,8 +36846,8 @@
         <f>_xlfn.STDEV.S(coded_data!C:C)</f>
         <v>14.719978864719121</v>
       </c>
-      <c r="G16" s="228"/>
-      <c r="H16" s="222"/>
+      <c r="G16" s="258"/>
+      <c r="H16" s="273"/>
       <c r="I16" s="1" t="s">
         <v>692</v>
       </c>
@@ -36954,8 +36965,8 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A17" s="229"/>
-      <c r="B17" s="235"/>
+      <c r="A17" s="259"/>
+      <c r="B17" s="294"/>
       <c r="C17" s="61" t="s">
         <v>508</v>
       </c>
@@ -36964,8 +36975,8 @@
         <f>MAX(coded_data!C:C) - MIN(coded_data!C:C)</f>
         <v>45</v>
       </c>
-      <c r="G17" s="229"/>
-      <c r="H17" s="223"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="241"/>
       <c r="I17" s="1" t="s">
         <v>643</v>
       </c>
@@ -37083,10 +37094,10 @@
       </c>
     </row>
     <row r="18" spans="1:70" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="227">
+      <c r="A18" s="260">
         <v>3</v>
       </c>
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="301" t="s">
         <v>640</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -37099,17 +37110,17 @@
         <f>COUNTIF(coded_data!D:D, D18)</f>
         <v>6</v>
       </c>
-      <c r="G18" s="227">
+      <c r="G18" s="260">
         <v>16</v>
       </c>
-      <c r="H18" s="247" t="s">
+      <c r="H18" s="290" t="s">
         <v>730</v>
       </c>
-      <c r="I18" s="249" t="s">
+      <c r="I18" s="274" t="s">
         <v>693</v>
       </c>
-      <c r="J18" s="250"/>
-      <c r="K18" s="251"/>
+      <c r="J18" s="275"/>
+      <c r="K18" s="276"/>
       <c r="M18" s="79"/>
       <c r="N18" s="76"/>
       <c r="O18" s="1" t="s">
@@ -37217,8 +37228,8 @@
       </c>
     </row>
     <row r="19" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="228"/>
-      <c r="B19" s="238"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="302"/>
       <c r="C19" s="1" t="s">
         <v>642</v>
       </c>
@@ -37229,8 +37240,8 @@
         <f>COUNTIF(coded_data!D:D, D19)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="228"/>
-      <c r="H19" s="222"/>
+      <c r="G19" s="258"/>
+      <c r="H19" s="273"/>
       <c r="I19" s="63" t="s">
         <v>689</v>
       </c>
@@ -37348,8 +37359,8 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A20" s="229"/>
-      <c r="B20" s="239"/>
+      <c r="A20" s="259"/>
+      <c r="B20" s="303"/>
       <c r="C20" s="61" t="s">
         <v>643</v>
       </c>
@@ -37360,8 +37371,8 @@
         <f>COUNTIF(coded_data!D:D, D20)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="228"/>
-      <c r="H20" s="222"/>
+      <c r="G20" s="258"/>
+      <c r="H20" s="273"/>
       <c r="I20" s="63" t="s">
         <v>694</v>
       </c>
@@ -37430,10 +37441,10 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A21" s="227">
+      <c r="A21" s="260">
         <v>4</v>
       </c>
-      <c r="B21" s="236" t="s">
+      <c r="B21" s="292" t="s">
         <v>714</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -37446,8 +37457,8 @@
         <f>COUNTIF(coded_data!E:E, D21)</f>
         <v>1</v>
       </c>
-      <c r="G21" s="228"/>
-      <c r="H21" s="222"/>
+      <c r="G21" s="258"/>
+      <c r="H21" s="273"/>
       <c r="I21" s="63" t="s">
         <v>643</v>
       </c>
@@ -37460,11 +37471,11 @@
       </c>
       <c r="M21" s="79"/>
       <c r="N21" s="76"/>
-      <c r="O21" s="249" t="s">
+      <c r="O21" s="274" t="s">
         <v>699</v>
       </c>
-      <c r="P21" s="250"/>
-      <c r="Q21" s="251"/>
+      <c r="P21" s="275"/>
+      <c r="Q21" s="276"/>
       <c r="AX21">
         <v>18</v>
       </c>
@@ -37511,8 +37522,8 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A22" s="228"/>
-      <c r="B22" s="234"/>
+      <c r="A22" s="258"/>
+      <c r="B22" s="293"/>
       <c r="C22" s="1" t="s">
         <v>645</v>
       </c>
@@ -37523,13 +37534,13 @@
         <f>COUNTIF(coded_data!E:E, D22)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="228"/>
-      <c r="H22" s="248"/>
-      <c r="I22" s="249" t="s">
+      <c r="G22" s="258"/>
+      <c r="H22" s="291"/>
+      <c r="I22" s="274" t="s">
         <v>695</v>
       </c>
-      <c r="J22" s="250"/>
-      <c r="K22" s="251"/>
+      <c r="J22" s="275"/>
+      <c r="K22" s="276"/>
       <c r="M22" s="79"/>
       <c r="N22" s="76"/>
       <c r="O22" s="1" t="s">
@@ -37588,8 +37599,8 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A23" s="228"/>
-      <c r="B23" s="234"/>
+      <c r="A23" s="258"/>
+      <c r="B23" s="293"/>
       <c r="C23" s="1" t="s">
         <v>646</v>
       </c>
@@ -37600,8 +37611,8 @@
         <f>COUNTIF(coded_data!E:E, D23)</f>
         <v>3</v>
       </c>
-      <c r="G23" s="228"/>
-      <c r="H23" s="222"/>
+      <c r="G23" s="258"/>
+      <c r="H23" s="273"/>
       <c r="I23" s="63" t="s">
         <v>689</v>
       </c>
@@ -37670,8 +37681,8 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A24" s="229"/>
-      <c r="B24" s="235"/>
+      <c r="A24" s="259"/>
+      <c r="B24" s="294"/>
       <c r="C24" s="61" t="s">
         <v>647</v>
       </c>
@@ -37682,8 +37693,8 @@
         <f>COUNTIF(coded_data!E:E, D24)</f>
         <v>4</v>
       </c>
-      <c r="G24" s="228"/>
-      <c r="H24" s="222"/>
+      <c r="G24" s="258"/>
+      <c r="H24" s="273"/>
       <c r="I24" s="63" t="s">
         <v>696</v>
       </c>
@@ -37752,10 +37763,10 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A25" s="227">
+      <c r="A25" s="260">
         <v>5</v>
       </c>
-      <c r="B25" s="240" t="s">
+      <c r="B25" s="295" t="s">
         <v>715</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -37768,8 +37779,8 @@
         <f>COUNTIF(coded_data!F:F, D25)</f>
         <v>8</v>
       </c>
-      <c r="G25" s="228"/>
-      <c r="H25" s="222"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="273"/>
       <c r="I25" s="63" t="s">
         <v>697</v>
       </c>
@@ -37816,8 +37827,8 @@
       </c>
     </row>
     <row r="26" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="244"/>
-      <c r="B26" s="241"/>
+      <c r="A26" s="300"/>
+      <c r="B26" s="296"/>
       <c r="C26" s="1" t="s">
         <v>650</v>
       </c>
@@ -37828,8 +37839,8 @@
         <f>COUNTIF(coded_data!F:F, D26)</f>
         <v>2</v>
       </c>
-      <c r="G26" s="228"/>
-      <c r="H26" s="222"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="273"/>
       <c r="I26" s="63" t="s">
         <v>698</v>
       </c>
@@ -37876,15 +37887,15 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="231" t="s">
+      <c r="A27" s="297" t="s">
         <v>651</v>
       </c>
-      <c r="B27" s="232"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="233"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="222"/>
+      <c r="B27" s="298"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="299"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="273"/>
       <c r="I27" s="63" t="s">
         <v>643</v>
       </c>
@@ -37913,10 +37924,10 @@
       </c>
     </row>
     <row r="28" spans="1:70" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="230">
+      <c r="A28" s="257">
         <v>6</v>
       </c>
-      <c r="B28" s="224" t="s">
+      <c r="B28" s="304" t="s">
         <v>652</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -37929,13 +37940,13 @@
         <f>COUNTIF(coded_data!G:G, D28)</f>
         <v>4</v>
       </c>
-      <c r="G28" s="228"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="249" t="s">
+      <c r="G28" s="258"/>
+      <c r="H28" s="291"/>
+      <c r="I28" s="274" t="s">
         <v>699</v>
       </c>
-      <c r="J28" s="250"/>
-      <c r="K28" s="251"/>
+      <c r="J28" s="275"/>
+      <c r="K28" s="276"/>
       <c r="M28" s="71"/>
       <c r="N28" s="74"/>
       <c r="O28" s="1" t="s">
@@ -37948,18 +37959,18 @@
         <f>COUNTIF(coded_data!BY:BY, P28)</f>
         <v>9</v>
       </c>
-      <c r="AX28" s="261" t="s">
+      <c r="AX28" s="234" t="s">
         <v>872</v>
       </c>
-      <c r="AY28" s="262"/>
-      <c r="AZ28" s="262"/>
-      <c r="BA28" s="262"/>
-      <c r="BB28" s="262"/>
-      <c r="BC28" s="263"/>
+      <c r="AY28" s="235"/>
+      <c r="AZ28" s="235"/>
+      <c r="BA28" s="235"/>
+      <c r="BB28" s="235"/>
+      <c r="BC28" s="236"/>
     </row>
     <row r="29" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="229"/>
-      <c r="B29" s="225"/>
+      <c r="A29" s="259"/>
+      <c r="B29" s="305"/>
       <c r="C29" s="61" t="s">
         <v>649</v>
       </c>
@@ -37970,8 +37981,8 @@
         <f>COUNTIF(coded_data!G:G, D29)</f>
         <v>6</v>
       </c>
-      <c r="G29" s="228"/>
-      <c r="H29" s="222"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="273"/>
       <c r="I29" s="63" t="s">
         <v>700</v>
       </c>
@@ -37994,18 +38005,18 @@
         <f>COUNTIF(coded_data!BZ:BZ, P29)</f>
         <v>3</v>
       </c>
-      <c r="AX29" s="264"/>
-      <c r="AY29" s="265"/>
-      <c r="AZ29" s="265"/>
-      <c r="BA29" s="265"/>
-      <c r="BB29" s="265"/>
-      <c r="BC29" s="266"/>
+      <c r="AX29" s="237"/>
+      <c r="AY29" s="238"/>
+      <c r="AZ29" s="238"/>
+      <c r="BA29" s="238"/>
+      <c r="BB29" s="238"/>
+      <c r="BC29" s="239"/>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A30" s="227">
+      <c r="A30" s="260">
         <v>7</v>
       </c>
-      <c r="B30" s="221" t="s">
+      <c r="B30" s="240" t="s">
         <v>728</v>
       </c>
       <c r="C30" s="57" t="s">
@@ -38018,8 +38029,8 @@
         <f>COUNTIF(coded_data!H:H, D30)</f>
         <v>8</v>
       </c>
-      <c r="G30" s="228"/>
-      <c r="H30" s="222"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="63" t="s">
         <v>701</v>
       </c>
@@ -38062,8 +38073,8 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A31" s="228"/>
-      <c r="B31" s="222"/>
+      <c r="A31" s="258"/>
+      <c r="B31" s="273"/>
       <c r="C31" s="1" t="s">
         <v>654</v>
       </c>
@@ -38074,8 +38085,8 @@
         <f>COUNTIF(coded_data!H:H, D31)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="228"/>
-      <c r="H31" s="222"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="63" t="s">
         <v>702</v>
       </c>
@@ -38122,8 +38133,8 @@
       </c>
     </row>
     <row r="32" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="244"/>
-      <c r="B32" s="222"/>
+      <c r="A32" s="300"/>
+      <c r="B32" s="273"/>
       <c r="C32" s="1" t="s">
         <v>643</v>
       </c>
@@ -38134,8 +38145,8 @@
         <f>COUNTIF(coded_data!H:H, D32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="228"/>
-      <c r="H32" s="222"/>
+      <c r="G32" s="258"/>
+      <c r="H32" s="273"/>
       <c r="I32" s="63" t="s">
         <v>703</v>
       </c>
@@ -38186,15 +38197,15 @@
       </c>
     </row>
     <row r="33" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="231" t="s">
+      <c r="A33" s="297" t="s">
         <v>655</v>
       </c>
-      <c r="B33" s="232"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="233"/>
-      <c r="G33" s="229"/>
-      <c r="H33" s="223"/>
+      <c r="B33" s="298"/>
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="299"/>
+      <c r="G33" s="259"/>
+      <c r="H33" s="241"/>
       <c r="I33" s="64" t="s">
         <v>643</v>
       </c>
@@ -38241,10 +38252,10 @@
       </c>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A34" s="230">
+      <c r="A34" s="257">
         <v>8</v>
       </c>
-      <c r="B34" s="222" t="s">
+      <c r="B34" s="273" t="s">
         <v>716</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -38257,10 +38268,10 @@
         <f>COUNTIF(coded_data!I:I, D34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="227">
+      <c r="G34" s="260">
         <v>17</v>
       </c>
-      <c r="H34" s="221" t="s">
+      <c r="H34" s="240" t="s">
         <v>704</v>
       </c>
       <c r="I34" s="66" t="s">
@@ -38287,8 +38298,8 @@
       </c>
     </row>
     <row r="35" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="228"/>
-      <c r="B35" s="222"/>
+      <c r="A35" s="258"/>
+      <c r="B35" s="273"/>
       <c r="C35" s="1" t="s">
         <v>657</v>
       </c>
@@ -38299,8 +38310,8 @@
         <f>COUNTIF(coded_data!I:I, D35)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="228"/>
-      <c r="H35" s="222"/>
+      <c r="G35" s="258"/>
+      <c r="H35" s="273"/>
       <c r="I35" s="63" t="s">
         <v>723</v>
       </c>
@@ -38325,8 +38336,8 @@
       </c>
     </row>
     <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="228"/>
-      <c r="B36" s="222"/>
+      <c r="A36" s="258"/>
+      <c r="B36" s="273"/>
       <c r="C36" s="1" t="s">
         <v>658</v>
       </c>
@@ -38337,8 +38348,8 @@
         <f>COUNTIF(coded_data!I:I, D36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="229"/>
-      <c r="H36" s="223"/>
+      <c r="G36" s="259"/>
+      <c r="H36" s="241"/>
       <c r="I36" s="63" t="s">
         <v>724</v>
       </c>
@@ -38363,8 +38374,8 @@
       </c>
     </row>
     <row r="37" spans="1:55" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="228"/>
-      <c r="B37" s="222"/>
+      <c r="A37" s="258"/>
+      <c r="B37" s="273"/>
       <c r="C37" s="1" t="s">
         <v>659</v>
       </c>
@@ -38375,17 +38386,17 @@
         <f>COUNTIF(coded_data!I:I, D37)</f>
         <v>5</v>
       </c>
-      <c r="G37" s="227">
+      <c r="G37" s="260">
         <v>18</v>
       </c>
-      <c r="H37" s="221" t="s">
+      <c r="H37" s="240" t="s">
         <v>729</v>
       </c>
-      <c r="I37" s="245" t="s">
+      <c r="I37" s="286" t="s">
         <v>725</v>
       </c>
-      <c r="J37" s="245"/>
-      <c r="K37" s="246"/>
+      <c r="J37" s="286"/>
+      <c r="K37" s="287"/>
       <c r="L37" s="54"/>
       <c r="M37" s="72"/>
       <c r="N37" s="75"/>
@@ -38401,8 +38412,8 @@
       </c>
     </row>
     <row r="38" spans="1:55" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="228"/>
-      <c r="B38" s="222"/>
+      <c r="A38" s="258"/>
+      <c r="B38" s="273"/>
       <c r="C38" s="1" t="s">
         <v>660</v>
       </c>
@@ -38413,8 +38424,8 @@
         <f>COUNTIF(coded_data!I:I, D38)</f>
         <v>2</v>
       </c>
-      <c r="G38" s="228"/>
-      <c r="H38" s="222"/>
+      <c r="G38" s="258"/>
+      <c r="H38" s="273"/>
       <c r="I38" s="69" t="s">
         <v>732</v>
       </c>
@@ -38441,8 +38452,8 @@
       </c>
     </row>
     <row r="39" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="228"/>
-      <c r="B39" s="222"/>
+      <c r="A39" s="258"/>
+      <c r="B39" s="273"/>
       <c r="C39" s="1" t="s">
         <v>661</v>
       </c>
@@ -38453,8 +38464,8 @@
         <f>COUNTIF(coded_data!I:I, D39)</f>
         <v>2</v>
       </c>
-      <c r="G39" s="228"/>
-      <c r="H39" s="222"/>
+      <c r="G39" s="258"/>
+      <c r="H39" s="273"/>
       <c r="I39" s="59" t="s">
         <v>718</v>
       </c>
@@ -38477,8 +38488,8 @@
       </c>
     </row>
     <row r="40" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="229"/>
-      <c r="B40" s="223"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="241"/>
       <c r="C40" s="61" t="s">
         <v>643</v>
       </c>
@@ -38489,8 +38500,8 @@
         <f>COUNTIF(coded_data!I:I, D40)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="228"/>
-      <c r="H40" s="222"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="273"/>
       <c r="I40" s="60" t="s">
         <v>508</v>
       </c>
@@ -38513,10 +38524,10 @@
       </c>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A41" s="227">
+      <c r="A41" s="260">
         <v>9</v>
       </c>
-      <c r="B41" s="221" t="s">
+      <c r="B41" s="240" t="s">
         <v>662</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -38529,13 +38540,13 @@
         <f>COUNTIF(coded_data!J:J, D41)</f>
         <v>2</v>
       </c>
-      <c r="G41" s="228"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="242" t="s">
+      <c r="G41" s="258"/>
+      <c r="H41" s="273"/>
+      <c r="I41" s="288" t="s">
         <v>726</v>
       </c>
-      <c r="J41" s="242"/>
-      <c r="K41" s="243"/>
+      <c r="J41" s="288"/>
+      <c r="K41" s="289"/>
       <c r="M41" s="71"/>
       <c r="N41" s="74"/>
       <c r="O41" s="59" t="s">
@@ -38550,8 +38561,8 @@
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A42" s="229"/>
-      <c r="B42" s="223"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="241"/>
       <c r="C42" s="61" t="s">
         <v>649</v>
       </c>
@@ -38562,8 +38573,8 @@
         <f>COUNTIF(coded_data!J:J, D42)</f>
         <v>8</v>
       </c>
-      <c r="G42" s="228"/>
-      <c r="H42" s="222"/>
+      <c r="G42" s="258"/>
+      <c r="H42" s="273"/>
       <c r="I42" s="69" t="s">
         <v>732</v>
       </c>
@@ -38596,8 +38607,8 @@
         <f>CONCATENATE(SUM(coded_data!K:K)/(COUNT(coded_data!A:A) - COUNTIF(coded_data!K:K, D43)), " per month")</f>
         <v>45 per month</v>
       </c>
-      <c r="G43" s="228"/>
-      <c r="H43" s="222"/>
+      <c r="G43" s="258"/>
+      <c r="H43" s="273"/>
       <c r="I43" s="59" t="s">
         <v>718</v>
       </c>
@@ -38625,10 +38636,10 @@
       </c>
     </row>
     <row r="44" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="227">
+      <c r="A44" s="260">
         <v>11</v>
       </c>
-      <c r="B44" s="221" t="s">
+      <c r="B44" s="240" t="s">
         <v>717</v>
       </c>
       <c r="C44" s="57" t="s">
@@ -38641,8 +38652,8 @@
         <f>COUNTIF(coded_data!L:L, D44)</f>
         <v>6</v>
       </c>
-      <c r="G44" s="228"/>
-      <c r="H44" s="222"/>
+      <c r="G44" s="258"/>
+      <c r="H44" s="273"/>
       <c r="I44" s="60" t="s">
         <v>508</v>
       </c>
@@ -38665,8 +38676,8 @@
       </c>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A45" s="228"/>
-      <c r="B45" s="222"/>
+      <c r="A45" s="258"/>
+      <c r="B45" s="273"/>
       <c r="C45" s="1" t="s">
         <v>665</v>
       </c>
@@ -38677,13 +38688,13 @@
         <f>COUNTIF(coded_data!L:L, D45)</f>
         <v>4</v>
       </c>
-      <c r="G45" s="228"/>
-      <c r="H45" s="222"/>
-      <c r="I45" s="242" t="s">
+      <c r="G45" s="258"/>
+      <c r="H45" s="273"/>
+      <c r="I45" s="288" t="s">
         <v>727</v>
       </c>
-      <c r="J45" s="242"/>
-      <c r="K45" s="243"/>
+      <c r="J45" s="288"/>
+      <c r="K45" s="289"/>
       <c r="M45" s="71"/>
       <c r="N45" s="74"/>
       <c r="O45" s="59" t="s">
@@ -38698,8 +38709,8 @@
       </c>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A46" s="229"/>
-      <c r="B46" s="223"/>
+      <c r="A46" s="259"/>
+      <c r="B46" s="241"/>
       <c r="C46" s="61" t="s">
         <v>643</v>
       </c>
@@ -38710,8 +38721,8 @@
         <f>COUNTIF(coded_data!L:L, D46)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="228"/>
-      <c r="H46" s="222"/>
+      <c r="G46" s="258"/>
+      <c r="H46" s="273"/>
       <c r="I46" s="69" t="s">
         <v>732</v>
       </c>
@@ -38734,10 +38745,10 @@
       </c>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A47" s="227">
+      <c r="A47" s="260">
         <v>12</v>
       </c>
-      <c r="B47" s="221" t="s">
+      <c r="B47" s="240" t="s">
         <v>666</v>
       </c>
       <c r="C47" s="57" t="s">
@@ -38750,8 +38761,8 @@
         <f>COUNTIF(coded_data!M:M, D47)</f>
         <v>4</v>
       </c>
-      <c r="G47" s="228"/>
-      <c r="H47" s="222"/>
+      <c r="G47" s="258"/>
+      <c r="H47" s="273"/>
       <c r="I47" s="59" t="s">
         <v>718</v>
       </c>
@@ -38774,8 +38785,8 @@
       </c>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A48" s="228"/>
-      <c r="B48" s="222"/>
+      <c r="A48" s="258"/>
+      <c r="B48" s="273"/>
       <c r="C48" s="1" t="s">
         <v>668</v>
       </c>
@@ -38786,8 +38797,8 @@
         <f>COUNTIF(coded_data!N:N, D48)</f>
         <v>6</v>
       </c>
-      <c r="G48" s="229"/>
-      <c r="H48" s="223"/>
+      <c r="G48" s="259"/>
+      <c r="H48" s="241"/>
       <c r="I48" s="60" t="s">
         <v>508</v>
       </c>
@@ -38810,8 +38821,8 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="228"/>
-      <c r="B49" s="222"/>
+      <c r="A49" s="258"/>
+      <c r="B49" s="273"/>
       <c r="C49" s="1" t="s">
         <v>669</v>
       </c>
@@ -38822,10 +38833,10 @@
         <f>COUNTIF(coded_data!O:O, D49)</f>
         <v>6</v>
       </c>
-      <c r="G49" s="227">
+      <c r="G49" s="260">
         <v>19</v>
       </c>
-      <c r="H49" s="221" t="s">
+      <c r="H49" s="240" t="s">
         <v>705</v>
       </c>
       <c r="I49" s="57" t="s">
@@ -38857,8 +38868,8 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="228"/>
-      <c r="B50" s="222"/>
+      <c r="A50" s="258"/>
+      <c r="B50" s="273"/>
       <c r="C50" s="1" t="s">
         <v>670</v>
       </c>
@@ -38869,8 +38880,8 @@
         <f>COUNTIF(coded_data!P:P, D50)</f>
         <v>6</v>
       </c>
-      <c r="G50" s="228"/>
-      <c r="H50" s="222"/>
+      <c r="G50" s="258"/>
+      <c r="H50" s="273"/>
       <c r="I50" s="1" t="s">
         <v>707</v>
       </c>
@@ -38895,8 +38906,8 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="228"/>
-      <c r="B51" s="222"/>
+      <c r="A51" s="258"/>
+      <c r="B51" s="273"/>
       <c r="C51" s="1" t="s">
         <v>671</v>
       </c>
@@ -38907,8 +38918,8 @@
         <f>COUNTIF(coded_data!Q:Q, D51)</f>
         <v>5</v>
       </c>
-      <c r="G51" s="228"/>
-      <c r="H51" s="222"/>
+      <c r="G51" s="258"/>
+      <c r="H51" s="273"/>
       <c r="I51" s="1" t="s">
         <v>708</v>
       </c>
@@ -38933,8 +38944,8 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="229"/>
-      <c r="B52" s="223"/>
+      <c r="A52" s="259"/>
+      <c r="B52" s="241"/>
       <c r="C52" s="61" t="s">
         <v>643</v>
       </c>
@@ -38945,8 +38956,8 @@
         <f>COUNTIF(coded_data!R:R, D52)</f>
         <v>1</v>
       </c>
-      <c r="G52" s="229"/>
-      <c r="H52" s="223"/>
+      <c r="G52" s="259"/>
+      <c r="H52" s="241"/>
       <c r="I52" s="61" t="s">
         <v>709</v>
       </c>
@@ -38975,10 +38986,10 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="227">
+      <c r="A53" s="260">
         <v>13</v>
       </c>
-      <c r="B53" s="221" t="s">
+      <c r="B53" s="240" t="s">
         <v>672</v>
       </c>
       <c r="C53" s="57" t="s">
@@ -38991,10 +39002,10 @@
         <f>COUNTIF(coded_data!S:S, D53)</f>
         <v>10</v>
       </c>
-      <c r="G53" s="227">
+      <c r="G53" s="260">
         <v>20</v>
       </c>
-      <c r="H53" s="221" t="s">
+      <c r="H53" s="240" t="s">
         <v>710</v>
       </c>
       <c r="I53" s="57" t="s">
@@ -39021,8 +39032,8 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="228"/>
-      <c r="B54" s="222"/>
+      <c r="A54" s="258"/>
+      <c r="B54" s="273"/>
       <c r="C54" s="1" t="s">
         <v>674</v>
       </c>
@@ -39033,8 +39044,8 @@
         <f>COUNTIF(coded_data!T:T, D54)</f>
         <v>2</v>
       </c>
-      <c r="G54" s="228"/>
-      <c r="H54" s="222"/>
+      <c r="G54" s="258"/>
+      <c r="H54" s="273"/>
       <c r="I54" s="1" t="s">
         <v>712</v>
       </c>
@@ -39059,8 +39070,8 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="228"/>
-      <c r="B55" s="222"/>
+      <c r="A55" s="258"/>
+      <c r="B55" s="273"/>
       <c r="C55" s="1" t="s">
         <v>675</v>
       </c>
@@ -39071,8 +39082,8 @@
         <f>COUNTIF(coded_data!U:U, D55)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="228"/>
-      <c r="H55" s="222"/>
+      <c r="G55" s="258"/>
+      <c r="H55" s="273"/>
       <c r="I55" s="1" t="s">
         <v>713</v>
       </c>
@@ -39097,8 +39108,8 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="228"/>
-      <c r="B56" s="222"/>
+      <c r="A56" s="258"/>
+      <c r="B56" s="273"/>
       <c r="C56" s="1" t="s">
         <v>676</v>
       </c>
@@ -39109,8 +39120,8 @@
         <f>COUNTIF(coded_data!V:V, D56)</f>
         <v>3</v>
       </c>
-      <c r="G56" s="229"/>
-      <c r="H56" s="223"/>
+      <c r="G56" s="259"/>
+      <c r="H56" s="241"/>
       <c r="I56" s="61" t="s">
         <v>643</v>
       </c>
@@ -39135,8 +39146,8 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="228"/>
-      <c r="B57" s="222"/>
+      <c r="A57" s="258"/>
+      <c r="B57" s="273"/>
       <c r="C57" s="1" t="s">
         <v>677</v>
       </c>
@@ -39161,8 +39172,8 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="228"/>
-      <c r="B58" s="222"/>
+      <c r="A58" s="258"/>
+      <c r="B58" s="273"/>
       <c r="C58" s="1" t="s">
         <v>678</v>
       </c>
@@ -39191,8 +39202,8 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="228"/>
-      <c r="B59" s="222"/>
+      <c r="A59" s="258"/>
+      <c r="B59" s="273"/>
       <c r="C59" s="1" t="s">
         <v>679</v>
       </c>
@@ -39217,8 +39228,8 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="229"/>
-      <c r="B60" s="223"/>
+      <c r="A60" s="259"/>
+      <c r="B60" s="241"/>
       <c r="C60" s="61" t="s">
         <v>643</v>
       </c>
@@ -39258,63 +39269,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BM14:BO14"/>
-    <mergeCell ref="BP14:BR14"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BL1:CD2"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BL13:BR13"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="BW3:BZ3"/>
-    <mergeCell ref="AX28:BC29"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="S1:AJ2"/>
-    <mergeCell ref="B1:Q2"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="AL1:AV2"/>
-    <mergeCell ref="AX1:BC2"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="BE1:BJ2"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="H37:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H18:H33"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B20"/>
     <mergeCell ref="H53:H56"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A1:A2"/>
@@ -39331,6 +39285,63 @@
     <mergeCell ref="H5:H12"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="H37:H48"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="H18:H33"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="BE1:BJ2"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="AX28:BC29"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="S1:AJ2"/>
+    <mergeCell ref="B1:Q2"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="AL1:AV2"/>
+    <mergeCell ref="AX1:BC2"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BM14:BO14"/>
+    <mergeCell ref="BP14:BR14"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BL1:CD2"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BL13:BR13"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="BW3:BZ3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E12">
     <cfRule type="dataBar" priority="88">
@@ -39641,7 +39652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM6:BM12 BN11:BR11">
-    <cfRule type="top10" dxfId="40" priority="64" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="56" priority="64" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU4:BU9">
     <cfRule type="dataBar" priority="53">
@@ -39672,13 +39683,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BX14 BY5:BZ10">
-    <cfRule type="top10" dxfId="39" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="51" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:BY14">
-    <cfRule type="top10" dxfId="38" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:BZ14">
-    <cfRule type="top10" dxfId="37" priority="49" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="53" priority="49" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU4:BU9">
     <cfRule type="dataBar" priority="48">
@@ -39695,63 +39706,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN6:BO10 BN12:BO12">
-    <cfRule type="top10" dxfId="36" priority="47" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="47" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO6:BO10 BO12">
-    <cfRule type="top10" dxfId="35" priority="45" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="34" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="50" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM16:BO19">
-    <cfRule type="top10" dxfId="33" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="49" priority="44" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM16:BO19">
-    <cfRule type="top10" dxfId="32" priority="42" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="31" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="48" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="43" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN16:BN19">
-    <cfRule type="top10" dxfId="30" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="46" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP6:BP10 BP12">
-    <cfRule type="top10" dxfId="29" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="40" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP6:BP10 BP12">
-    <cfRule type="top10" dxfId="28" priority="38" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="27" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="44" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="39" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ6:BR10 BQ12:BR12">
-    <cfRule type="top10" dxfId="26" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ6:BR10 BQ12:BR12">
-    <cfRule type="top10" dxfId="25" priority="35" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="24" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="35" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="36" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR6:BR10 BR12">
-    <cfRule type="top10" dxfId="23" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BR19">
-    <cfRule type="top10" dxfId="22" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BR19">
-    <cfRule type="top10" dxfId="21" priority="31" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="20" priority="32" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="31" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="32" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BR19">
-    <cfRule type="top10" dxfId="19" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP16:BP19">
-    <cfRule type="top10" dxfId="18" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR16:BR19">
-    <cfRule type="top10" dxfId="17" priority="28" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM16:BM19">
-    <cfRule type="top10" dxfId="16" priority="27" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="27" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BX10 BY10:BZ10">
-    <cfRule type="top10" dxfId="15" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:BY10">
-    <cfRule type="top10" dxfId="14" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V19">
     <cfRule type="dataBar" priority="24">
@@ -39780,19 +39791,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB11">
-    <cfRule type="top10" dxfId="13" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC11">
-    <cfRule type="top10" dxfId="12" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AD11">
-    <cfRule type="top10" dxfId="11" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE11">
-    <cfRule type="top10" dxfId="10" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AF11">
-    <cfRule type="top10" dxfId="9" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH11">
     <cfRule type="dataBar" priority="17">
@@ -39821,19 +39832,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AN13">
-    <cfRule type="top10" dxfId="8" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO4:AO13">
-    <cfRule type="top10" dxfId="7" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP4:AP13">
-    <cfRule type="top10" dxfId="6" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ13">
-    <cfRule type="top10" dxfId="5" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AR13">
-    <cfRule type="top10" dxfId="4" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT13">
     <cfRule type="dataBar" priority="10">
@@ -39940,10 +39951,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD4:CD9">
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD4:CD9">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{A35CC3EA-D0D8-4293-99BE-F65CD0BE0C43}"/>
@@ -40332,56 +40343,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="306" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="273" t="str">
+      <c r="B1" s="248" t="str">
         <f>CONCATENATE("SUMMARY OF VARIABLE SCORES AT (n = ", COUNT(processed_data!A:A), ")")</f>
         <v>SUMMARY OF VARIABLE SCORES AT (n = 10)</v>
       </c>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="312"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="310"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="311"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="226"/>
-      <c r="B2" s="313"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="315"/>
+      <c r="A2" s="306"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="314"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="315" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="317"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="316"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
@@ -40737,21 +40748,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="318" t="s">
+      <c r="A12" s="317" t="s">
         <v>481</v>
       </c>
-      <c r="B12" s="319"/>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319"/>
-      <c r="H12" s="319"/>
-      <c r="I12" s="319"/>
-      <c r="J12" s="319"/>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
-      <c r="M12" s="319"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="318"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="318"/>
+      <c r="I12" s="318"/>
+      <c r="J12" s="318"/>
+      <c r="K12" s="318"/>
+      <c r="L12" s="318"/>
+      <c r="M12" s="318"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="53" t="s">
@@ -40899,21 +40910,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="320" t="s">
+      <c r="A17" s="308" t="s">
         <v>482</v>
       </c>
-      <c r="B17" s="320"/>
-      <c r="C17" s="320"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="320"/>
-      <c r="F17" s="320"/>
-      <c r="G17" s="320"/>
-      <c r="H17" s="320"/>
-      <c r="I17" s="320"/>
-      <c r="J17" s="320"/>
-      <c r="K17" s="320"/>
-      <c r="L17" s="320"/>
-      <c r="M17" s="320"/>
+      <c r="B17" s="308"/>
+      <c r="C17" s="308"/>
+      <c r="D17" s="308"/>
+      <c r="E17" s="308"/>
+      <c r="F17" s="308"/>
+      <c r="G17" s="308"/>
+      <c r="H17" s="308"/>
+      <c r="I17" s="308"/>
+      <c r="J17" s="308"/>
+      <c r="K17" s="308"/>
+      <c r="L17" s="308"/>
+      <c r="M17" s="308"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
@@ -41373,21 +41384,21 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="321" t="s">
+      <c r="A28" s="309" t="s">
         <v>616</v>
       </c>
-      <c r="B28" s="321"/>
-      <c r="C28" s="321"/>
-      <c r="D28" s="321"/>
-      <c r="E28" s="321"/>
-      <c r="F28" s="321"/>
-      <c r="G28" s="321"/>
-      <c r="H28" s="321"/>
-      <c r="I28" s="321"/>
-      <c r="J28" s="321"/>
-      <c r="K28" s="321"/>
-      <c r="L28" s="321"/>
-      <c r="M28" s="321"/>
+      <c r="B28" s="309"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="309"/>
+      <c r="H28" s="309"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="309"/>
+      <c r="L28" s="309"/>
+      <c r="M28" s="309"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
@@ -41483,21 +41494,21 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="310" t="s">
+      <c r="A32" s="307" t="s">
         <v>617</v>
       </c>
-      <c r="B32" s="310"/>
-      <c r="C32" s="310"/>
-      <c r="D32" s="310"/>
-      <c r="E32" s="310"/>
-      <c r="F32" s="310"/>
-      <c r="G32" s="310"/>
-      <c r="H32" s="310"/>
-      <c r="I32" s="310"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="310"/>
-      <c r="M32" s="310"/>
+      <c r="B32" s="307"/>
+      <c r="C32" s="307"/>
+      <c r="D32" s="307"/>
+      <c r="E32" s="307"/>
+      <c r="F32" s="307"/>
+      <c r="G32" s="307"/>
+      <c r="H32" s="307"/>
+      <c r="I32" s="307"/>
+      <c r="J32" s="307"/>
+      <c r="K32" s="307"/>
+      <c r="L32" s="307"/>
+      <c r="M32" s="307"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
@@ -41939,64 +41950,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="306" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="325" t="s">
+      <c r="B1" s="322" t="s">
         <v>926</v>
       </c>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="327"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
+      <c r="S1" s="323"/>
+      <c r="T1" s="323"/>
+      <c r="U1" s="323"/>
+      <c r="V1" s="324"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="331"/>
-      <c r="B2" s="328"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
-      <c r="R2" s="329"/>
-      <c r="S2" s="329"/>
-      <c r="T2" s="329"/>
-      <c r="U2" s="329"/>
-      <c r="V2" s="330"/>
+      <c r="A2" s="328"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326"/>
+      <c r="S2" s="326"/>
+      <c r="T2" s="326"/>
+      <c r="U2" s="326"/>
+      <c r="V2" s="327"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="319" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="323"/>
+      <c r="A4" s="320"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
@@ -43285,12 +43296,12 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="324" t="s">
+      <c r="A27" s="321" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="324"/>
+      <c r="A28" s="321"/>
     </row>
     <row r="29" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="s">
@@ -44579,7 +44590,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="324" t="s">
+      <c r="A51" s="321" t="s">
         <v>620</v>
       </c>
       <c r="B51" s="50"/>
@@ -44588,7 +44599,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="324"/>
+      <c r="A52" s="321"/>
       <c r="B52" s="51"/>
       <c r="C52" s="43" t="s">
         <v>624</v>

--- a/AMR KAP+ Farmer 2.0.xlsx
+++ b/AMR KAP+ Farmer 2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7BFE9B-45A4-4350-B83A-5DB5554AF0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB3787-D9CC-4664-864B-84113F53FCC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3979,16 +3979,117 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4042,140 +4143,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4185,6 +4152,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4192,6 +4165,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4230,6 +4206,51 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4248,18 +4269,225 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4307,225 +4535,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4592,15 +4601,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7660,9 +7660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7685,14 +7683,14 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="129"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="164"/>
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7728,11 +7726,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="29"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="127"/>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -7748,11 +7746,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="148"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="127"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7767,84 +7765,84 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="146"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="125"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="146"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="125"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="154" t="s">
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="146"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
       <c r="G8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="144"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -7872,12 +7870,12 @@
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="157" t="s">
+      <c r="H9" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -7890,22 +7888,22 @@
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="167"/>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -7918,22 +7916,22 @@
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="134"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -7943,23 +7941,23 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
+      <c r="A12" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
       <c r="G12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="137"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -7969,25 +7967,25 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="161" t="s">
+      <c r="H13" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="162"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="146"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -7997,25 +7995,25 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="163" t="s">
+      <c r="H14" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -8028,16 +8026,16 @@
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="329" t="s">
+      <c r="B15" s="128" t="s">
         <v>929</v>
       </c>
-      <c r="C15" s="330"/>
-      <c r="D15" s="330"/>
-      <c r="E15" s="330"/>
-      <c r="F15" s="330"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="330"/>
-      <c r="I15" s="331"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="26"/>
@@ -8097,10 +8095,10 @@
     </row>
     <row r="22" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G22" s="6"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
     </row>
     <row r="23" spans="7:18" x14ac:dyDescent="0.35">
       <c r="G23" s="7"/>
@@ -8118,6 +8116,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L5:Q7"/>
     <mergeCell ref="M3:Q3"/>
@@ -8134,15 +8141,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" location="raw_data!A1" display="raw_data!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8151,10 +8149,11 @@
     <hyperlink ref="H10:K10" location="survey_answers!A1" display="survey_answers!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="H12:K12" location="summary!A1" display="summary!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="H14:K14" location="correlation!A1" display="correlation!A1" xr:uid="{AE4211FD-F4BD-492D-AB30-B0B526EE63D2}"/>
+    <hyperlink ref="B15:I15" r:id="rId1" display="https://github.com/JNAVillacastin/AMU-AMR-KAP-Excel-Tool-" xr:uid="{FB2C180D-AEB1-434A-B510-7BAEAA5DA250}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8182,610 +8181,610 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="198" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
-      <c r="AY1" s="178"/>
-      <c r="AZ1" s="178"/>
-      <c r="BA1" s="178"/>
-      <c r="BB1" s="178"/>
-      <c r="BC1" s="178"/>
-      <c r="BD1" s="178"/>
-      <c r="BE1" s="178"/>
-      <c r="BF1" s="178"/>
-      <c r="BG1" s="178"/>
-      <c r="BH1" s="178"/>
-      <c r="BI1" s="178"/>
-      <c r="BJ1" s="178"/>
-      <c r="BK1" s="178"/>
-      <c r="BL1" s="178"/>
-      <c r="BM1" s="178"/>
-      <c r="BN1" s="178"/>
-      <c r="BO1" s="178"/>
-      <c r="BP1" s="178"/>
-      <c r="BQ1" s="178"/>
-      <c r="BR1" s="178"/>
-      <c r="BS1" s="178"/>
-      <c r="BT1" s="178"/>
-      <c r="BU1" s="178"/>
-      <c r="BV1" s="178"/>
-      <c r="BW1" s="178"/>
-      <c r="BX1" s="178"/>
-      <c r="BY1" s="178"/>
-      <c r="BZ1" s="178"/>
-      <c r="CA1" s="178"/>
-      <c r="CB1" s="178"/>
-      <c r="CC1" s="178"/>
-      <c r="CD1" s="178"/>
-      <c r="CE1" s="178"/>
-      <c r="CF1" s="178"/>
-      <c r="CG1" s="178"/>
-      <c r="CH1" s="178"/>
-      <c r="CI1" s="178"/>
-      <c r="CJ1" s="178"/>
-      <c r="CK1" s="178"/>
-      <c r="CL1" s="178"/>
-      <c r="CM1" s="178"/>
-      <c r="CN1" s="178"/>
-      <c r="CO1" s="178"/>
-      <c r="CP1" s="178"/>
-      <c r="CQ1" s="179"/>
-      <c r="CR1" s="180" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
+      <c r="AJ1" s="199"/>
+      <c r="AK1" s="199"/>
+      <c r="AL1" s="199"/>
+      <c r="AM1" s="199"/>
+      <c r="AN1" s="199"/>
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="199"/>
+      <c r="AQ1" s="199"/>
+      <c r="AR1" s="199"/>
+      <c r="AS1" s="199"/>
+      <c r="AT1" s="199"/>
+      <c r="AU1" s="199"/>
+      <c r="AV1" s="199"/>
+      <c r="AW1" s="199"/>
+      <c r="AX1" s="199"/>
+      <c r="AY1" s="199"/>
+      <c r="AZ1" s="199"/>
+      <c r="BA1" s="199"/>
+      <c r="BB1" s="199"/>
+      <c r="BC1" s="199"/>
+      <c r="BD1" s="199"/>
+      <c r="BE1" s="199"/>
+      <c r="BF1" s="199"/>
+      <c r="BG1" s="199"/>
+      <c r="BH1" s="199"/>
+      <c r="BI1" s="199"/>
+      <c r="BJ1" s="199"/>
+      <c r="BK1" s="199"/>
+      <c r="BL1" s="199"/>
+      <c r="BM1" s="199"/>
+      <c r="BN1" s="199"/>
+      <c r="BO1" s="199"/>
+      <c r="BP1" s="199"/>
+      <c r="BQ1" s="199"/>
+      <c r="BR1" s="199"/>
+      <c r="BS1" s="199"/>
+      <c r="BT1" s="199"/>
+      <c r="BU1" s="199"/>
+      <c r="BV1" s="199"/>
+      <c r="BW1" s="199"/>
+      <c r="BX1" s="199"/>
+      <c r="BY1" s="199"/>
+      <c r="BZ1" s="199"/>
+      <c r="CA1" s="199"/>
+      <c r="CB1" s="199"/>
+      <c r="CC1" s="199"/>
+      <c r="CD1" s="199"/>
+      <c r="CE1" s="199"/>
+      <c r="CF1" s="199"/>
+      <c r="CG1" s="199"/>
+      <c r="CH1" s="199"/>
+      <c r="CI1" s="199"/>
+      <c r="CJ1" s="199"/>
+      <c r="CK1" s="199"/>
+      <c r="CL1" s="199"/>
+      <c r="CM1" s="199"/>
+      <c r="CN1" s="199"/>
+      <c r="CO1" s="199"/>
+      <c r="CP1" s="199"/>
+      <c r="CQ1" s="200"/>
+      <c r="CR1" s="201" t="s">
         <v>480</v>
       </c>
-      <c r="CS1" s="181"/>
-      <c r="CT1" s="181"/>
-      <c r="CU1" s="181"/>
-      <c r="CV1" s="181"/>
-      <c r="CW1" s="181"/>
-      <c r="CX1" s="181"/>
-      <c r="CY1" s="181"/>
-      <c r="CZ1" s="181"/>
-      <c r="DA1" s="181"/>
-      <c r="DB1" s="181"/>
-      <c r="DC1" s="181"/>
-      <c r="DD1" s="181"/>
-      <c r="DE1" s="181"/>
-      <c r="DF1" s="181"/>
-      <c r="DG1" s="181"/>
-      <c r="DH1" s="181"/>
-      <c r="DI1" s="181"/>
-      <c r="DJ1" s="181"/>
-      <c r="DK1" s="181"/>
-      <c r="DL1" s="181"/>
-      <c r="DM1" s="181"/>
-      <c r="DN1" s="181"/>
-      <c r="DO1" s="181"/>
-      <c r="DP1" s="181"/>
-      <c r="DQ1" s="181"/>
-      <c r="DR1" s="181"/>
-      <c r="DS1" s="181"/>
-      <c r="DT1" s="181"/>
-      <c r="DU1" s="181"/>
-      <c r="DV1" s="181"/>
-      <c r="DW1" s="181"/>
-      <c r="DX1" s="181"/>
-      <c r="DY1" s="181"/>
-      <c r="DZ1" s="181"/>
-      <c r="EA1" s="181"/>
-      <c r="EB1" s="181"/>
-      <c r="EC1" s="181"/>
-      <c r="ED1" s="181"/>
-      <c r="EE1" s="182"/>
-      <c r="EF1" s="183" t="s">
+      <c r="CS1" s="202"/>
+      <c r="CT1" s="202"/>
+      <c r="CU1" s="202"/>
+      <c r="CV1" s="202"/>
+      <c r="CW1" s="202"/>
+      <c r="CX1" s="202"/>
+      <c r="CY1" s="202"/>
+      <c r="CZ1" s="202"/>
+      <c r="DA1" s="202"/>
+      <c r="DB1" s="202"/>
+      <c r="DC1" s="202"/>
+      <c r="DD1" s="202"/>
+      <c r="DE1" s="202"/>
+      <c r="DF1" s="202"/>
+      <c r="DG1" s="202"/>
+      <c r="DH1" s="202"/>
+      <c r="DI1" s="202"/>
+      <c r="DJ1" s="202"/>
+      <c r="DK1" s="202"/>
+      <c r="DL1" s="202"/>
+      <c r="DM1" s="202"/>
+      <c r="DN1" s="202"/>
+      <c r="DO1" s="202"/>
+      <c r="DP1" s="202"/>
+      <c r="DQ1" s="202"/>
+      <c r="DR1" s="202"/>
+      <c r="DS1" s="202"/>
+      <c r="DT1" s="202"/>
+      <c r="DU1" s="202"/>
+      <c r="DV1" s="202"/>
+      <c r="DW1" s="202"/>
+      <c r="DX1" s="202"/>
+      <c r="DY1" s="202"/>
+      <c r="DZ1" s="202"/>
+      <c r="EA1" s="202"/>
+      <c r="EB1" s="202"/>
+      <c r="EC1" s="202"/>
+      <c r="ED1" s="202"/>
+      <c r="EE1" s="203"/>
+      <c r="EF1" s="204" t="s">
         <v>481</v>
       </c>
-      <c r="EG1" s="184"/>
-      <c r="EH1" s="184"/>
-      <c r="EI1" s="184"/>
-      <c r="EJ1" s="184"/>
-      <c r="EK1" s="184"/>
-      <c r="EL1" s="184"/>
-      <c r="EM1" s="184"/>
-      <c r="EN1" s="184"/>
-      <c r="EO1" s="185"/>
-      <c r="EP1" s="186" t="s">
+      <c r="EG1" s="205"/>
+      <c r="EH1" s="205"/>
+      <c r="EI1" s="205"/>
+      <c r="EJ1" s="205"/>
+      <c r="EK1" s="205"/>
+      <c r="EL1" s="205"/>
+      <c r="EM1" s="205"/>
+      <c r="EN1" s="205"/>
+      <c r="EO1" s="206"/>
+      <c r="EP1" s="207" t="s">
         <v>482</v>
       </c>
-      <c r="EQ1" s="187"/>
-      <c r="ER1" s="187"/>
-      <c r="ES1" s="187"/>
-      <c r="ET1" s="187"/>
-      <c r="EU1" s="187"/>
-      <c r="EV1" s="187"/>
-      <c r="EW1" s="187"/>
-      <c r="EX1" s="187"/>
-      <c r="EY1" s="187"/>
-      <c r="EZ1" s="187"/>
-      <c r="FA1" s="187"/>
-      <c r="FB1" s="187"/>
-      <c r="FC1" s="187"/>
-      <c r="FD1" s="187"/>
-      <c r="FE1" s="187"/>
-      <c r="FF1" s="187"/>
-      <c r="FG1" s="187"/>
-      <c r="FH1" s="187"/>
-      <c r="FI1" s="187"/>
-      <c r="FJ1" s="187"/>
-      <c r="FK1" s="187"/>
-      <c r="FL1" s="187"/>
-      <c r="FM1" s="187"/>
-      <c r="FN1" s="187"/>
-      <c r="FO1" s="187"/>
-      <c r="FP1" s="187"/>
-      <c r="FQ1" s="187"/>
-      <c r="FR1" s="187"/>
-      <c r="FS1" s="187"/>
-      <c r="FT1" s="187"/>
-      <c r="FU1" s="187"/>
-      <c r="FV1" s="187"/>
-      <c r="FW1" s="187"/>
-      <c r="FX1" s="187"/>
-      <c r="FY1" s="187"/>
-      <c r="FZ1" s="187"/>
-      <c r="GA1" s="187"/>
-      <c r="GB1" s="187"/>
-      <c r="GC1" s="187"/>
-      <c r="GD1" s="187"/>
-      <c r="GE1" s="187"/>
-      <c r="GF1" s="187"/>
-      <c r="GG1" s="187"/>
-      <c r="GH1" s="187"/>
-      <c r="GI1" s="187"/>
-      <c r="GJ1" s="187"/>
-      <c r="GK1" s="187"/>
-      <c r="GL1" s="187"/>
-      <c r="GM1" s="187"/>
-      <c r="GN1" s="187"/>
-      <c r="GO1" s="187"/>
-      <c r="GP1" s="187"/>
-      <c r="GQ1" s="187"/>
-      <c r="GR1" s="187"/>
-      <c r="GS1" s="187"/>
-      <c r="GT1" s="187"/>
-      <c r="GU1" s="187"/>
-      <c r="GV1" s="187"/>
-      <c r="GW1" s="187"/>
-      <c r="GX1" s="187"/>
-      <c r="GY1" s="187"/>
-      <c r="GZ1" s="187"/>
-      <c r="HA1" s="187"/>
-      <c r="HB1" s="187"/>
-      <c r="HC1" s="187"/>
-      <c r="HD1" s="187"/>
-      <c r="HE1" s="194" t="s">
+      <c r="EQ1" s="208"/>
+      <c r="ER1" s="208"/>
+      <c r="ES1" s="208"/>
+      <c r="ET1" s="208"/>
+      <c r="EU1" s="208"/>
+      <c r="EV1" s="208"/>
+      <c r="EW1" s="208"/>
+      <c r="EX1" s="208"/>
+      <c r="EY1" s="208"/>
+      <c r="EZ1" s="208"/>
+      <c r="FA1" s="208"/>
+      <c r="FB1" s="208"/>
+      <c r="FC1" s="208"/>
+      <c r="FD1" s="208"/>
+      <c r="FE1" s="208"/>
+      <c r="FF1" s="208"/>
+      <c r="FG1" s="208"/>
+      <c r="FH1" s="208"/>
+      <c r="FI1" s="208"/>
+      <c r="FJ1" s="208"/>
+      <c r="FK1" s="208"/>
+      <c r="FL1" s="208"/>
+      <c r="FM1" s="208"/>
+      <c r="FN1" s="208"/>
+      <c r="FO1" s="208"/>
+      <c r="FP1" s="208"/>
+      <c r="FQ1" s="208"/>
+      <c r="FR1" s="208"/>
+      <c r="FS1" s="208"/>
+      <c r="FT1" s="208"/>
+      <c r="FU1" s="208"/>
+      <c r="FV1" s="208"/>
+      <c r="FW1" s="208"/>
+      <c r="FX1" s="208"/>
+      <c r="FY1" s="208"/>
+      <c r="FZ1" s="208"/>
+      <c r="GA1" s="208"/>
+      <c r="GB1" s="208"/>
+      <c r="GC1" s="208"/>
+      <c r="GD1" s="208"/>
+      <c r="GE1" s="208"/>
+      <c r="GF1" s="208"/>
+      <c r="GG1" s="208"/>
+      <c r="GH1" s="208"/>
+      <c r="GI1" s="208"/>
+      <c r="GJ1" s="208"/>
+      <c r="GK1" s="208"/>
+      <c r="GL1" s="208"/>
+      <c r="GM1" s="208"/>
+      <c r="GN1" s="208"/>
+      <c r="GO1" s="208"/>
+      <c r="GP1" s="208"/>
+      <c r="GQ1" s="208"/>
+      <c r="GR1" s="208"/>
+      <c r="GS1" s="208"/>
+      <c r="GT1" s="208"/>
+      <c r="GU1" s="208"/>
+      <c r="GV1" s="208"/>
+      <c r="GW1" s="208"/>
+      <c r="GX1" s="208"/>
+      <c r="GY1" s="208"/>
+      <c r="GZ1" s="208"/>
+      <c r="HA1" s="208"/>
+      <c r="HB1" s="208"/>
+      <c r="HC1" s="208"/>
+      <c r="HD1" s="208"/>
+      <c r="HE1" s="186" t="s">
         <v>485</v>
       </c>
-      <c r="HF1" s="195"/>
-      <c r="HG1" s="196"/>
-      <c r="HH1" s="200" t="s">
+      <c r="HF1" s="187"/>
+      <c r="HG1" s="188"/>
+      <c r="HH1" s="192" t="s">
         <v>483</v>
       </c>
-      <c r="HI1" s="201"/>
-      <c r="HJ1" s="201"/>
-      <c r="HK1" s="201"/>
-      <c r="HL1" s="201"/>
-      <c r="HM1" s="201"/>
-      <c r="HN1" s="201"/>
-      <c r="HO1" s="201"/>
-      <c r="HP1" s="201"/>
-      <c r="HQ1" s="201"/>
-      <c r="HR1" s="201"/>
-      <c r="HS1" s="201"/>
-      <c r="HT1" s="201"/>
-      <c r="HU1" s="201"/>
-      <c r="HV1" s="201"/>
-      <c r="HW1" s="201"/>
-      <c r="HX1" s="201"/>
-      <c r="HY1" s="201"/>
-      <c r="HZ1" s="201"/>
-      <c r="IA1" s="201"/>
-      <c r="IB1" s="201"/>
-      <c r="IC1" s="201"/>
-      <c r="ID1" s="201"/>
-      <c r="IE1" s="201"/>
-      <c r="IF1" s="201"/>
-      <c r="IG1" s="201"/>
-      <c r="IH1" s="201"/>
-      <c r="II1" s="201"/>
-      <c r="IJ1" s="202"/>
-      <c r="IK1" s="203" t="s">
+      <c r="HI1" s="193"/>
+      <c r="HJ1" s="193"/>
+      <c r="HK1" s="193"/>
+      <c r="HL1" s="193"/>
+      <c r="HM1" s="193"/>
+      <c r="HN1" s="193"/>
+      <c r="HO1" s="193"/>
+      <c r="HP1" s="193"/>
+      <c r="HQ1" s="193"/>
+      <c r="HR1" s="193"/>
+      <c r="HS1" s="193"/>
+      <c r="HT1" s="193"/>
+      <c r="HU1" s="193"/>
+      <c r="HV1" s="193"/>
+      <c r="HW1" s="193"/>
+      <c r="HX1" s="193"/>
+      <c r="HY1" s="193"/>
+      <c r="HZ1" s="193"/>
+      <c r="IA1" s="193"/>
+      <c r="IB1" s="193"/>
+      <c r="IC1" s="193"/>
+      <c r="ID1" s="193"/>
+      <c r="IE1" s="193"/>
+      <c r="IF1" s="193"/>
+      <c r="IG1" s="193"/>
+      <c r="IH1" s="193"/>
+      <c r="II1" s="193"/>
+      <c r="IJ1" s="194"/>
+      <c r="IK1" s="195" t="s">
         <v>484</v>
       </c>
-      <c r="IL1" s="204"/>
-      <c r="IM1" s="204"/>
-      <c r="IN1" s="204"/>
-      <c r="IO1" s="204"/>
-      <c r="IP1" s="204"/>
-      <c r="IQ1" s="204"/>
-      <c r="IR1" s="204"/>
-      <c r="IS1" s="204"/>
-      <c r="IT1" s="204"/>
-      <c r="IU1" s="204"/>
-      <c r="IV1" s="204"/>
-      <c r="IW1" s="204"/>
-      <c r="IX1" s="204"/>
-      <c r="IY1" s="204"/>
-      <c r="IZ1" s="204"/>
-      <c r="JA1" s="204"/>
-      <c r="JB1" s="204"/>
-      <c r="JC1" s="204"/>
-      <c r="JD1" s="204"/>
-      <c r="JE1" s="204"/>
-      <c r="JF1" s="204"/>
-      <c r="JG1" s="204"/>
-      <c r="JH1" s="204"/>
-      <c r="JI1" s="205"/>
+      <c r="IL1" s="196"/>
+      <c r="IM1" s="196"/>
+      <c r="IN1" s="196"/>
+      <c r="IO1" s="196"/>
+      <c r="IP1" s="196"/>
+      <c r="IQ1" s="196"/>
+      <c r="IR1" s="196"/>
+      <c r="IS1" s="196"/>
+      <c r="IT1" s="196"/>
+      <c r="IU1" s="196"/>
+      <c r="IV1" s="196"/>
+      <c r="IW1" s="196"/>
+      <c r="IX1" s="196"/>
+      <c r="IY1" s="196"/>
+      <c r="IZ1" s="196"/>
+      <c r="JA1" s="196"/>
+      <c r="JB1" s="196"/>
+      <c r="JC1" s="196"/>
+      <c r="JD1" s="196"/>
+      <c r="JE1" s="196"/>
+      <c r="JF1" s="196"/>
+      <c r="JG1" s="196"/>
+      <c r="JH1" s="196"/>
+      <c r="JI1" s="197"/>
     </row>
     <row r="2" spans="1:269" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="180" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="175"/>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="176"/>
-      <c r="BF2" s="174" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="185"/>
+      <c r="AN2" s="185"/>
+      <c r="AO2" s="185"/>
+      <c r="AP2" s="185"/>
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="185"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="185"/>
+      <c r="AX2" s="185"/>
+      <c r="AY2" s="185"/>
+      <c r="AZ2" s="185"/>
+      <c r="BA2" s="185"/>
+      <c r="BB2" s="185"/>
+      <c r="BC2" s="185"/>
+      <c r="BD2" s="185"/>
+      <c r="BE2" s="181"/>
+      <c r="BF2" s="180" t="s">
         <v>478</v>
       </c>
-      <c r="BG2" s="175"/>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="175"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="175"/>
-      <c r="BL2" s="175"/>
-      <c r="BM2" s="175"/>
-      <c r="BN2" s="175"/>
-      <c r="BO2" s="175"/>
-      <c r="BP2" s="175"/>
-      <c r="BQ2" s="175"/>
-      <c r="BR2" s="175"/>
-      <c r="BS2" s="175"/>
-      <c r="BT2" s="175"/>
-      <c r="BU2" s="175"/>
-      <c r="BV2" s="175"/>
-      <c r="BW2" s="175"/>
-      <c r="BX2" s="175"/>
-      <c r="BY2" s="175"/>
-      <c r="BZ2" s="175"/>
-      <c r="CA2" s="175"/>
-      <c r="CB2" s="175"/>
-      <c r="CC2" s="175"/>
-      <c r="CD2" s="175"/>
-      <c r="CE2" s="175"/>
-      <c r="CF2" s="175"/>
-      <c r="CG2" s="175"/>
-      <c r="CH2" s="175"/>
-      <c r="CI2" s="175"/>
-      <c r="CJ2" s="175"/>
-      <c r="CK2" s="175"/>
-      <c r="CL2" s="175"/>
-      <c r="CM2" s="175"/>
-      <c r="CN2" s="175"/>
-      <c r="CO2" s="175"/>
-      <c r="CP2" s="175"/>
-      <c r="CQ2" s="176"/>
-      <c r="CR2" s="174" t="s">
+      <c r="BG2" s="185"/>
+      <c r="BH2" s="185"/>
+      <c r="BI2" s="185"/>
+      <c r="BJ2" s="185"/>
+      <c r="BK2" s="185"/>
+      <c r="BL2" s="185"/>
+      <c r="BM2" s="185"/>
+      <c r="BN2" s="185"/>
+      <c r="BO2" s="185"/>
+      <c r="BP2" s="185"/>
+      <c r="BQ2" s="185"/>
+      <c r="BR2" s="185"/>
+      <c r="BS2" s="185"/>
+      <c r="BT2" s="185"/>
+      <c r="BU2" s="185"/>
+      <c r="BV2" s="185"/>
+      <c r="BW2" s="185"/>
+      <c r="BX2" s="185"/>
+      <c r="BY2" s="185"/>
+      <c r="BZ2" s="185"/>
+      <c r="CA2" s="185"/>
+      <c r="CB2" s="185"/>
+      <c r="CC2" s="185"/>
+      <c r="CD2" s="185"/>
+      <c r="CE2" s="185"/>
+      <c r="CF2" s="185"/>
+      <c r="CG2" s="185"/>
+      <c r="CH2" s="185"/>
+      <c r="CI2" s="185"/>
+      <c r="CJ2" s="185"/>
+      <c r="CK2" s="185"/>
+      <c r="CL2" s="185"/>
+      <c r="CM2" s="185"/>
+      <c r="CN2" s="185"/>
+      <c r="CO2" s="185"/>
+      <c r="CP2" s="185"/>
+      <c r="CQ2" s="181"/>
+      <c r="CR2" s="180" t="s">
         <v>454</v>
       </c>
-      <c r="CS2" s="175"/>
-      <c r="CT2" s="175"/>
-      <c r="CU2" s="175"/>
-      <c r="CV2" s="176"/>
-      <c r="CW2" s="174" t="s">
+      <c r="CS2" s="185"/>
+      <c r="CT2" s="185"/>
+      <c r="CU2" s="185"/>
+      <c r="CV2" s="181"/>
+      <c r="CW2" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="CX2" s="175"/>
-      <c r="CY2" s="175"/>
-      <c r="CZ2" s="175"/>
-      <c r="DA2" s="175"/>
-      <c r="DB2" s="176"/>
-      <c r="DC2" s="174" t="s">
+      <c r="CX2" s="185"/>
+      <c r="CY2" s="185"/>
+      <c r="CZ2" s="185"/>
+      <c r="DA2" s="185"/>
+      <c r="DB2" s="181"/>
+      <c r="DC2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DD2" s="175"/>
-      <c r="DE2" s="175"/>
-      <c r="DF2" s="175"/>
-      <c r="DG2" s="175"/>
-      <c r="DH2" s="175"/>
-      <c r="DI2" s="175"/>
-      <c r="DJ2" s="176"/>
-      <c r="DK2" s="174" t="s">
+      <c r="DD2" s="185"/>
+      <c r="DE2" s="185"/>
+      <c r="DF2" s="185"/>
+      <c r="DG2" s="185"/>
+      <c r="DH2" s="185"/>
+      <c r="DI2" s="185"/>
+      <c r="DJ2" s="181"/>
+      <c r="DK2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DL2" s="175"/>
-      <c r="DM2" s="175"/>
-      <c r="DN2" s="175"/>
-      <c r="DO2" s="175"/>
-      <c r="DP2" s="175"/>
-      <c r="DQ2" s="175"/>
-      <c r="DR2" s="176"/>
-      <c r="DS2" s="174" t="s">
+      <c r="DL2" s="185"/>
+      <c r="DM2" s="185"/>
+      <c r="DN2" s="185"/>
+      <c r="DO2" s="185"/>
+      <c r="DP2" s="185"/>
+      <c r="DQ2" s="185"/>
+      <c r="DR2" s="181"/>
+      <c r="DS2" s="180" t="s">
         <v>457</v>
       </c>
-      <c r="DT2" s="175"/>
-      <c r="DU2" s="175"/>
-      <c r="DV2" s="175"/>
-      <c r="DW2" s="176"/>
-      <c r="DX2" s="174" t="s">
+      <c r="DT2" s="185"/>
+      <c r="DU2" s="185"/>
+      <c r="DV2" s="185"/>
+      <c r="DW2" s="181"/>
+      <c r="DX2" s="180" t="s">
         <v>458</v>
       </c>
-      <c r="DY2" s="175"/>
-      <c r="DZ2" s="175"/>
-      <c r="EA2" s="175"/>
-      <c r="EB2" s="175"/>
-      <c r="EC2" s="175"/>
-      <c r="ED2" s="175"/>
-      <c r="EE2" s="176"/>
-      <c r="EF2" s="174" t="s">
+      <c r="DY2" s="185"/>
+      <c r="DZ2" s="185"/>
+      <c r="EA2" s="185"/>
+      <c r="EB2" s="185"/>
+      <c r="EC2" s="185"/>
+      <c r="ED2" s="185"/>
+      <c r="EE2" s="181"/>
+      <c r="EF2" s="180" t="s">
         <v>459</v>
       </c>
-      <c r="EG2" s="176"/>
-      <c r="EH2" s="191" t="s">
+      <c r="EG2" s="181"/>
+      <c r="EH2" s="182" t="s">
         <v>460</v>
       </c>
-      <c r="EI2" s="192"/>
-      <c r="EJ2" s="192"/>
-      <c r="EK2" s="192"/>
-      <c r="EL2" s="192"/>
-      <c r="EM2" s="192"/>
-      <c r="EN2" s="192"/>
-      <c r="EO2" s="193"/>
-      <c r="EP2" s="174" t="s">
+      <c r="EI2" s="183"/>
+      <c r="EJ2" s="183"/>
+      <c r="EK2" s="183"/>
+      <c r="EL2" s="183"/>
+      <c r="EM2" s="183"/>
+      <c r="EN2" s="183"/>
+      <c r="EO2" s="184"/>
+      <c r="EP2" s="180" t="s">
         <v>461</v>
       </c>
-      <c r="EQ2" s="175"/>
-      <c r="ER2" s="175"/>
-      <c r="ES2" s="175"/>
-      <c r="ET2" s="175"/>
-      <c r="EU2" s="175"/>
-      <c r="EV2" s="175"/>
-      <c r="EW2" s="175"/>
-      <c r="EX2" s="175"/>
-      <c r="EY2" s="175"/>
-      <c r="EZ2" s="175"/>
-      <c r="FA2" s="176"/>
-      <c r="FB2" s="174" t="s">
+      <c r="EQ2" s="185"/>
+      <c r="ER2" s="185"/>
+      <c r="ES2" s="185"/>
+      <c r="ET2" s="185"/>
+      <c r="EU2" s="185"/>
+      <c r="EV2" s="185"/>
+      <c r="EW2" s="185"/>
+      <c r="EX2" s="185"/>
+      <c r="EY2" s="185"/>
+      <c r="EZ2" s="185"/>
+      <c r="FA2" s="181"/>
+      <c r="FB2" s="180" t="s">
         <v>462</v>
       </c>
-      <c r="FC2" s="175"/>
-      <c r="FD2" s="175"/>
-      <c r="FE2" s="175"/>
-      <c r="FF2" s="175"/>
-      <c r="FG2" s="175"/>
-      <c r="FH2" s="175"/>
-      <c r="FI2" s="176"/>
-      <c r="FJ2" s="174" t="s">
+      <c r="FC2" s="185"/>
+      <c r="FD2" s="185"/>
+      <c r="FE2" s="185"/>
+      <c r="FF2" s="185"/>
+      <c r="FG2" s="185"/>
+      <c r="FH2" s="185"/>
+      <c r="FI2" s="181"/>
+      <c r="FJ2" s="180" t="s">
         <v>463</v>
       </c>
-      <c r="FK2" s="175"/>
-      <c r="FL2" s="175"/>
-      <c r="FM2" s="175"/>
-      <c r="FN2" s="175"/>
-      <c r="FO2" s="175"/>
-      <c r="FP2" s="175"/>
-      <c r="FQ2" s="175"/>
-      <c r="FR2" s="175"/>
-      <c r="FS2" s="175"/>
-      <c r="FT2" s="175"/>
-      <c r="FU2" s="175"/>
-      <c r="FV2" s="176"/>
-      <c r="FW2" s="174" t="s">
+      <c r="FK2" s="185"/>
+      <c r="FL2" s="185"/>
+      <c r="FM2" s="185"/>
+      <c r="FN2" s="185"/>
+      <c r="FO2" s="185"/>
+      <c r="FP2" s="185"/>
+      <c r="FQ2" s="185"/>
+      <c r="FR2" s="185"/>
+      <c r="FS2" s="185"/>
+      <c r="FT2" s="185"/>
+      <c r="FU2" s="185"/>
+      <c r="FV2" s="181"/>
+      <c r="FW2" s="180" t="s">
         <v>464</v>
       </c>
-      <c r="FX2" s="176"/>
-      <c r="FY2" s="174" t="s">
+      <c r="FX2" s="181"/>
+      <c r="FY2" s="180" t="s">
         <v>465</v>
       </c>
-      <c r="FZ2" s="175"/>
-      <c r="GA2" s="175"/>
-      <c r="GB2" s="175"/>
-      <c r="GC2" s="175"/>
-      <c r="GD2" s="175"/>
-      <c r="GE2" s="175"/>
-      <c r="GF2" s="175"/>
-      <c r="GG2" s="175"/>
-      <c r="GH2" s="175"/>
-      <c r="GI2" s="175"/>
-      <c r="GJ2" s="175"/>
-      <c r="GK2" s="176"/>
-      <c r="GL2" s="174" t="s">
+      <c r="FZ2" s="185"/>
+      <c r="GA2" s="185"/>
+      <c r="GB2" s="185"/>
+      <c r="GC2" s="185"/>
+      <c r="GD2" s="185"/>
+      <c r="GE2" s="185"/>
+      <c r="GF2" s="185"/>
+      <c r="GG2" s="185"/>
+      <c r="GH2" s="185"/>
+      <c r="GI2" s="185"/>
+      <c r="GJ2" s="185"/>
+      <c r="GK2" s="181"/>
+      <c r="GL2" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="GM2" s="175"/>
-      <c r="GN2" s="175"/>
-      <c r="GO2" s="175"/>
-      <c r="GP2" s="175"/>
-      <c r="GQ2" s="175"/>
-      <c r="GR2" s="176"/>
-      <c r="GS2" s="174" t="s">
+      <c r="GM2" s="185"/>
+      <c r="GN2" s="185"/>
+      <c r="GO2" s="185"/>
+      <c r="GP2" s="185"/>
+      <c r="GQ2" s="185"/>
+      <c r="GR2" s="181"/>
+      <c r="GS2" s="180" t="s">
         <v>467</v>
       </c>
-      <c r="GT2" s="175"/>
-      <c r="GU2" s="175"/>
-      <c r="GV2" s="175"/>
-      <c r="GW2" s="175"/>
-      <c r="GX2" s="175"/>
-      <c r="GY2" s="175"/>
-      <c r="GZ2" s="175"/>
-      <c r="HA2" s="175"/>
-      <c r="HB2" s="176"/>
-      <c r="HC2" s="174" t="s">
+      <c r="GT2" s="185"/>
+      <c r="GU2" s="185"/>
+      <c r="GV2" s="185"/>
+      <c r="GW2" s="185"/>
+      <c r="GX2" s="185"/>
+      <c r="GY2" s="185"/>
+      <c r="GZ2" s="185"/>
+      <c r="HA2" s="185"/>
+      <c r="HB2" s="181"/>
+      <c r="HC2" s="180" t="s">
         <v>468</v>
       </c>
-      <c r="HD2" s="176"/>
-      <c r="HE2" s="197"/>
-      <c r="HF2" s="198"/>
-      <c r="HG2" s="199"/>
-      <c r="HH2" s="174" t="s">
+      <c r="HD2" s="181"/>
+      <c r="HE2" s="189"/>
+      <c r="HF2" s="190"/>
+      <c r="HG2" s="191"/>
+      <c r="HH2" s="180" t="s">
         <v>470</v>
       </c>
-      <c r="HI2" s="175"/>
-      <c r="HJ2" s="175"/>
-      <c r="HK2" s="175"/>
-      <c r="HL2" s="175"/>
-      <c r="HM2" s="175"/>
-      <c r="HN2" s="176"/>
-      <c r="HO2" s="174" t="s">
+      <c r="HI2" s="185"/>
+      <c r="HJ2" s="185"/>
+      <c r="HK2" s="185"/>
+      <c r="HL2" s="185"/>
+      <c r="HM2" s="185"/>
+      <c r="HN2" s="181"/>
+      <c r="HO2" s="180" t="s">
         <v>614</v>
       </c>
-      <c r="HP2" s="175"/>
-      <c r="HQ2" s="175"/>
-      <c r="HR2" s="175"/>
-      <c r="HS2" s="175"/>
-      <c r="HT2" s="175"/>
-      <c r="HU2" s="175"/>
-      <c r="HV2" s="175"/>
-      <c r="HW2" s="175"/>
-      <c r="HX2" s="175"/>
-      <c r="HY2" s="175"/>
-      <c r="HZ2" s="175"/>
-      <c r="IA2" s="175"/>
-      <c r="IB2" s="176"/>
-      <c r="IC2" s="174" t="s">
+      <c r="HP2" s="185"/>
+      <c r="HQ2" s="185"/>
+      <c r="HR2" s="185"/>
+      <c r="HS2" s="185"/>
+      <c r="HT2" s="185"/>
+      <c r="HU2" s="185"/>
+      <c r="HV2" s="185"/>
+      <c r="HW2" s="185"/>
+      <c r="HX2" s="185"/>
+      <c r="HY2" s="185"/>
+      <c r="HZ2" s="185"/>
+      <c r="IA2" s="185"/>
+      <c r="IB2" s="181"/>
+      <c r="IC2" s="180" t="s">
         <v>472</v>
       </c>
-      <c r="ID2" s="175"/>
-      <c r="IE2" s="175"/>
-      <c r="IF2" s="175"/>
-      <c r="IG2" s="176"/>
-      <c r="IH2" s="174" t="s">
+      <c r="ID2" s="185"/>
+      <c r="IE2" s="185"/>
+      <c r="IF2" s="185"/>
+      <c r="IG2" s="181"/>
+      <c r="IH2" s="180" t="s">
         <v>473</v>
       </c>
-      <c r="II2" s="175"/>
-      <c r="IJ2" s="176"/>
-      <c r="IK2" s="174" t="s">
+      <c r="II2" s="185"/>
+      <c r="IJ2" s="181"/>
+      <c r="IK2" s="180" t="s">
         <v>474</v>
       </c>
-      <c r="IL2" s="175"/>
-      <c r="IM2" s="175"/>
-      <c r="IN2" s="175"/>
-      <c r="IO2" s="175"/>
-      <c r="IP2" s="176"/>
-      <c r="IQ2" s="174" t="s">
+      <c r="IL2" s="185"/>
+      <c r="IM2" s="185"/>
+      <c r="IN2" s="185"/>
+      <c r="IO2" s="185"/>
+      <c r="IP2" s="181"/>
+      <c r="IQ2" s="180" t="s">
         <v>475</v>
       </c>
-      <c r="IR2" s="175"/>
-      <c r="IS2" s="175"/>
-      <c r="IT2" s="175"/>
-      <c r="IU2" s="175"/>
-      <c r="IV2" s="176"/>
-      <c r="IW2" s="188" t="s">
+      <c r="IR2" s="185"/>
+      <c r="IS2" s="185"/>
+      <c r="IT2" s="185"/>
+      <c r="IU2" s="185"/>
+      <c r="IV2" s="181"/>
+      <c r="IW2" s="177" t="s">
         <v>907</v>
       </c>
-      <c r="IX2" s="189"/>
-      <c r="IY2" s="189"/>
-      <c r="IZ2" s="189"/>
-      <c r="JA2" s="189"/>
-      <c r="JB2" s="189"/>
-      <c r="JC2" s="189"/>
-      <c r="JD2" s="189"/>
-      <c r="JE2" s="190"/>
-      <c r="JF2" s="188" t="s">
+      <c r="IX2" s="178"/>
+      <c r="IY2" s="178"/>
+      <c r="IZ2" s="178"/>
+      <c r="JA2" s="178"/>
+      <c r="JB2" s="178"/>
+      <c r="JC2" s="178"/>
+      <c r="JD2" s="178"/>
+      <c r="JE2" s="179"/>
+      <c r="JF2" s="177" t="s">
         <v>476</v>
       </c>
-      <c r="JG2" s="189"/>
-      <c r="JH2" s="189"/>
-      <c r="JI2" s="190"/>
+      <c r="JG2" s="178"/>
+      <c r="JH2" s="178"/>
+      <c r="JI2" s="179"/>
     </row>
     <row r="3" spans="1:269" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
@@ -17667,6 +17666,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="FY2:GK2"/>
+    <mergeCell ref="GL2:GR2"/>
+    <mergeCell ref="GS2:HB2"/>
+    <mergeCell ref="HC2:HD2"/>
+    <mergeCell ref="DX2:EE2"/>
+    <mergeCell ref="B1:CQ1"/>
+    <mergeCell ref="CR1:EE1"/>
+    <mergeCell ref="EF1:EO1"/>
+    <mergeCell ref="EP1:HD1"/>
+    <mergeCell ref="B2:BE2"/>
+    <mergeCell ref="BF2:CQ2"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="CW2:DB2"/>
+    <mergeCell ref="DC2:DJ2"/>
+    <mergeCell ref="DK2:DR2"/>
+    <mergeCell ref="DS2:DW2"/>
     <mergeCell ref="IW2:JE2"/>
     <mergeCell ref="JF2:JI2"/>
     <mergeCell ref="EF2:EG2"/>
@@ -17683,23 +17699,6 @@
     <mergeCell ref="IC2:IG2"/>
     <mergeCell ref="IK2:IP2"/>
     <mergeCell ref="IQ2:IV2"/>
-    <mergeCell ref="DX2:EE2"/>
-    <mergeCell ref="B1:CQ1"/>
-    <mergeCell ref="CR1:EE1"/>
-    <mergeCell ref="EF1:EO1"/>
-    <mergeCell ref="EP1:HD1"/>
-    <mergeCell ref="B2:BE2"/>
-    <mergeCell ref="BF2:CQ2"/>
-    <mergeCell ref="CR2:CV2"/>
-    <mergeCell ref="CW2:DB2"/>
-    <mergeCell ref="DC2:DJ2"/>
-    <mergeCell ref="DK2:DR2"/>
-    <mergeCell ref="DS2:DW2"/>
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="FY2:GK2"/>
-    <mergeCell ref="GL2:GR2"/>
-    <mergeCell ref="GS2:HB2"/>
-    <mergeCell ref="HC2:HD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{5DA8B8B4-2410-40D4-BC5A-D655C782C785}"/>
@@ -17733,611 +17732,611 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="198" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
-      <c r="AX1" s="178"/>
-      <c r="AY1" s="178"/>
-      <c r="AZ1" s="178"/>
-      <c r="BA1" s="178"/>
-      <c r="BB1" s="178"/>
-      <c r="BC1" s="178"/>
-      <c r="BD1" s="178"/>
-      <c r="BE1" s="178"/>
-      <c r="BF1" s="178"/>
-      <c r="BG1" s="178"/>
-      <c r="BH1" s="178"/>
-      <c r="BI1" s="178"/>
-      <c r="BJ1" s="178"/>
-      <c r="BK1" s="178"/>
-      <c r="BL1" s="178"/>
-      <c r="BM1" s="178"/>
-      <c r="BN1" s="178"/>
-      <c r="BO1" s="178"/>
-      <c r="BP1" s="178"/>
-      <c r="BQ1" s="178"/>
-      <c r="BR1" s="178"/>
-      <c r="BS1" s="178"/>
-      <c r="BT1" s="178"/>
-      <c r="BU1" s="178"/>
-      <c r="BV1" s="178"/>
-      <c r="BW1" s="178"/>
-      <c r="BX1" s="178"/>
-      <c r="BY1" s="178"/>
-      <c r="BZ1" s="178"/>
-      <c r="CA1" s="178"/>
-      <c r="CB1" s="178"/>
-      <c r="CC1" s="178"/>
-      <c r="CD1" s="178"/>
-      <c r="CE1" s="178"/>
-      <c r="CF1" s="178"/>
-      <c r="CG1" s="178"/>
-      <c r="CH1" s="178"/>
-      <c r="CI1" s="178"/>
-      <c r="CJ1" s="178"/>
-      <c r="CK1" s="178"/>
-      <c r="CL1" s="178"/>
-      <c r="CM1" s="178"/>
-      <c r="CN1" s="178"/>
-      <c r="CO1" s="178"/>
-      <c r="CP1" s="178"/>
-      <c r="CQ1" s="179"/>
-      <c r="CR1" s="180" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
+      <c r="AJ1" s="199"/>
+      <c r="AK1" s="199"/>
+      <c r="AL1" s="199"/>
+      <c r="AM1" s="199"/>
+      <c r="AN1" s="199"/>
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="199"/>
+      <c r="AQ1" s="199"/>
+      <c r="AR1" s="199"/>
+      <c r="AS1" s="199"/>
+      <c r="AT1" s="199"/>
+      <c r="AU1" s="199"/>
+      <c r="AV1" s="199"/>
+      <c r="AW1" s="199"/>
+      <c r="AX1" s="199"/>
+      <c r="AY1" s="199"/>
+      <c r="AZ1" s="199"/>
+      <c r="BA1" s="199"/>
+      <c r="BB1" s="199"/>
+      <c r="BC1" s="199"/>
+      <c r="BD1" s="199"/>
+      <c r="BE1" s="199"/>
+      <c r="BF1" s="199"/>
+      <c r="BG1" s="199"/>
+      <c r="BH1" s="199"/>
+      <c r="BI1" s="199"/>
+      <c r="BJ1" s="199"/>
+      <c r="BK1" s="199"/>
+      <c r="BL1" s="199"/>
+      <c r="BM1" s="199"/>
+      <c r="BN1" s="199"/>
+      <c r="BO1" s="199"/>
+      <c r="BP1" s="199"/>
+      <c r="BQ1" s="199"/>
+      <c r="BR1" s="199"/>
+      <c r="BS1" s="199"/>
+      <c r="BT1" s="199"/>
+      <c r="BU1" s="199"/>
+      <c r="BV1" s="199"/>
+      <c r="BW1" s="199"/>
+      <c r="BX1" s="199"/>
+      <c r="BY1" s="199"/>
+      <c r="BZ1" s="199"/>
+      <c r="CA1" s="199"/>
+      <c r="CB1" s="199"/>
+      <c r="CC1" s="199"/>
+      <c r="CD1" s="199"/>
+      <c r="CE1" s="199"/>
+      <c r="CF1" s="199"/>
+      <c r="CG1" s="199"/>
+      <c r="CH1" s="199"/>
+      <c r="CI1" s="199"/>
+      <c r="CJ1" s="199"/>
+      <c r="CK1" s="199"/>
+      <c r="CL1" s="199"/>
+      <c r="CM1" s="199"/>
+      <c r="CN1" s="199"/>
+      <c r="CO1" s="199"/>
+      <c r="CP1" s="199"/>
+      <c r="CQ1" s="200"/>
+      <c r="CR1" s="201" t="s">
         <v>480</v>
       </c>
-      <c r="CS1" s="181"/>
-      <c r="CT1" s="181"/>
-      <c r="CU1" s="181"/>
-      <c r="CV1" s="181"/>
-      <c r="CW1" s="181"/>
-      <c r="CX1" s="181"/>
-      <c r="CY1" s="181"/>
-      <c r="CZ1" s="181"/>
-      <c r="DA1" s="181"/>
-      <c r="DB1" s="181"/>
-      <c r="DC1" s="181"/>
-      <c r="DD1" s="181"/>
-      <c r="DE1" s="181"/>
-      <c r="DF1" s="181"/>
-      <c r="DG1" s="181"/>
-      <c r="DH1" s="181"/>
-      <c r="DI1" s="181"/>
-      <c r="DJ1" s="181"/>
-      <c r="DK1" s="181"/>
-      <c r="DL1" s="181"/>
-      <c r="DM1" s="181"/>
-      <c r="DN1" s="181"/>
-      <c r="DO1" s="181"/>
-      <c r="DP1" s="181"/>
-      <c r="DQ1" s="181"/>
-      <c r="DR1" s="181"/>
-      <c r="DS1" s="181"/>
-      <c r="DT1" s="181"/>
-      <c r="DU1" s="181"/>
-      <c r="DV1" s="181"/>
-      <c r="DW1" s="181"/>
-      <c r="DX1" s="181"/>
-      <c r="DY1" s="181"/>
-      <c r="DZ1" s="181"/>
-      <c r="EA1" s="181"/>
-      <c r="EB1" s="181"/>
-      <c r="EC1" s="181"/>
-      <c r="ED1" s="181"/>
-      <c r="EE1" s="182"/>
-      <c r="EF1" s="183" t="s">
+      <c r="CS1" s="202"/>
+      <c r="CT1" s="202"/>
+      <c r="CU1" s="202"/>
+      <c r="CV1" s="202"/>
+      <c r="CW1" s="202"/>
+      <c r="CX1" s="202"/>
+      <c r="CY1" s="202"/>
+      <c r="CZ1" s="202"/>
+      <c r="DA1" s="202"/>
+      <c r="DB1" s="202"/>
+      <c r="DC1" s="202"/>
+      <c r="DD1" s="202"/>
+      <c r="DE1" s="202"/>
+      <c r="DF1" s="202"/>
+      <c r="DG1" s="202"/>
+      <c r="DH1" s="202"/>
+      <c r="DI1" s="202"/>
+      <c r="DJ1" s="202"/>
+      <c r="DK1" s="202"/>
+      <c r="DL1" s="202"/>
+      <c r="DM1" s="202"/>
+      <c r="DN1" s="202"/>
+      <c r="DO1" s="202"/>
+      <c r="DP1" s="202"/>
+      <c r="DQ1" s="202"/>
+      <c r="DR1" s="202"/>
+      <c r="DS1" s="202"/>
+      <c r="DT1" s="202"/>
+      <c r="DU1" s="202"/>
+      <c r="DV1" s="202"/>
+      <c r="DW1" s="202"/>
+      <c r="DX1" s="202"/>
+      <c r="DY1" s="202"/>
+      <c r="DZ1" s="202"/>
+      <c r="EA1" s="202"/>
+      <c r="EB1" s="202"/>
+      <c r="EC1" s="202"/>
+      <c r="ED1" s="202"/>
+      <c r="EE1" s="203"/>
+      <c r="EF1" s="204" t="s">
         <v>481</v>
       </c>
-      <c r="EG1" s="184"/>
-      <c r="EH1" s="184"/>
-      <c r="EI1" s="184"/>
-      <c r="EJ1" s="184"/>
-      <c r="EK1" s="184"/>
-      <c r="EL1" s="184"/>
-      <c r="EM1" s="184"/>
-      <c r="EN1" s="184"/>
-      <c r="EO1" s="185"/>
-      <c r="EP1" s="186" t="s">
+      <c r="EG1" s="205"/>
+      <c r="EH1" s="205"/>
+      <c r="EI1" s="205"/>
+      <c r="EJ1" s="205"/>
+      <c r="EK1" s="205"/>
+      <c r="EL1" s="205"/>
+      <c r="EM1" s="205"/>
+      <c r="EN1" s="205"/>
+      <c r="EO1" s="206"/>
+      <c r="EP1" s="207" t="s">
         <v>482</v>
       </c>
-      <c r="EQ1" s="187"/>
-      <c r="ER1" s="187"/>
-      <c r="ES1" s="187"/>
-      <c r="ET1" s="187"/>
-      <c r="EU1" s="187"/>
-      <c r="EV1" s="187"/>
-      <c r="EW1" s="187"/>
-      <c r="EX1" s="187"/>
-      <c r="EY1" s="187"/>
-      <c r="EZ1" s="187"/>
-      <c r="FA1" s="187"/>
-      <c r="FB1" s="187"/>
-      <c r="FC1" s="187"/>
-      <c r="FD1" s="187"/>
-      <c r="FE1" s="187"/>
-      <c r="FF1" s="187"/>
-      <c r="FG1" s="187"/>
-      <c r="FH1" s="187"/>
-      <c r="FI1" s="187"/>
-      <c r="FJ1" s="187"/>
-      <c r="FK1" s="187"/>
-      <c r="FL1" s="187"/>
-      <c r="FM1" s="187"/>
-      <c r="FN1" s="187"/>
-      <c r="FO1" s="187"/>
-      <c r="FP1" s="187"/>
-      <c r="FQ1" s="187"/>
-      <c r="FR1" s="187"/>
-      <c r="FS1" s="187"/>
-      <c r="FT1" s="187"/>
-      <c r="FU1" s="187"/>
-      <c r="FV1" s="187"/>
-      <c r="FW1" s="187"/>
-      <c r="FX1" s="187"/>
-      <c r="FY1" s="187"/>
-      <c r="FZ1" s="187"/>
-      <c r="GA1" s="187"/>
-      <c r="GB1" s="187"/>
-      <c r="GC1" s="187"/>
-      <c r="GD1" s="187"/>
-      <c r="GE1" s="187"/>
-      <c r="GF1" s="187"/>
-      <c r="GG1" s="187"/>
-      <c r="GH1" s="187"/>
-      <c r="GI1" s="187"/>
-      <c r="GJ1" s="187"/>
-      <c r="GK1" s="187"/>
-      <c r="GL1" s="187"/>
-      <c r="GM1" s="187"/>
-      <c r="GN1" s="187"/>
-      <c r="GO1" s="187"/>
-      <c r="GP1" s="187"/>
-      <c r="GQ1" s="187"/>
-      <c r="GR1" s="187"/>
-      <c r="GS1" s="187"/>
-      <c r="GT1" s="187"/>
-      <c r="GU1" s="187"/>
-      <c r="GV1" s="187"/>
-      <c r="GW1" s="187"/>
-      <c r="GX1" s="187"/>
-      <c r="GY1" s="187"/>
-      <c r="GZ1" s="187"/>
-      <c r="HA1" s="187"/>
-      <c r="HB1" s="187"/>
-      <c r="HC1" s="187"/>
-      <c r="HD1" s="187"/>
-      <c r="HE1" s="194" t="s">
+      <c r="EQ1" s="208"/>
+      <c r="ER1" s="208"/>
+      <c r="ES1" s="208"/>
+      <c r="ET1" s="208"/>
+      <c r="EU1" s="208"/>
+      <c r="EV1" s="208"/>
+      <c r="EW1" s="208"/>
+      <c r="EX1" s="208"/>
+      <c r="EY1" s="208"/>
+      <c r="EZ1" s="208"/>
+      <c r="FA1" s="208"/>
+      <c r="FB1" s="208"/>
+      <c r="FC1" s="208"/>
+      <c r="FD1" s="208"/>
+      <c r="FE1" s="208"/>
+      <c r="FF1" s="208"/>
+      <c r="FG1" s="208"/>
+      <c r="FH1" s="208"/>
+      <c r="FI1" s="208"/>
+      <c r="FJ1" s="208"/>
+      <c r="FK1" s="208"/>
+      <c r="FL1" s="208"/>
+      <c r="FM1" s="208"/>
+      <c r="FN1" s="208"/>
+      <c r="FO1" s="208"/>
+      <c r="FP1" s="208"/>
+      <c r="FQ1" s="208"/>
+      <c r="FR1" s="208"/>
+      <c r="FS1" s="208"/>
+      <c r="FT1" s="208"/>
+      <c r="FU1" s="208"/>
+      <c r="FV1" s="208"/>
+      <c r="FW1" s="208"/>
+      <c r="FX1" s="208"/>
+      <c r="FY1" s="208"/>
+      <c r="FZ1" s="208"/>
+      <c r="GA1" s="208"/>
+      <c r="GB1" s="208"/>
+      <c r="GC1" s="208"/>
+      <c r="GD1" s="208"/>
+      <c r="GE1" s="208"/>
+      <c r="GF1" s="208"/>
+      <c r="GG1" s="208"/>
+      <c r="GH1" s="208"/>
+      <c r="GI1" s="208"/>
+      <c r="GJ1" s="208"/>
+      <c r="GK1" s="208"/>
+      <c r="GL1" s="208"/>
+      <c r="GM1" s="208"/>
+      <c r="GN1" s="208"/>
+      <c r="GO1" s="208"/>
+      <c r="GP1" s="208"/>
+      <c r="GQ1" s="208"/>
+      <c r="GR1" s="208"/>
+      <c r="GS1" s="208"/>
+      <c r="GT1" s="208"/>
+      <c r="GU1" s="208"/>
+      <c r="GV1" s="208"/>
+      <c r="GW1" s="208"/>
+      <c r="GX1" s="208"/>
+      <c r="GY1" s="208"/>
+      <c r="GZ1" s="208"/>
+      <c r="HA1" s="208"/>
+      <c r="HB1" s="208"/>
+      <c r="HC1" s="208"/>
+      <c r="HD1" s="208"/>
+      <c r="HE1" s="186" t="s">
         <v>485</v>
       </c>
-      <c r="HF1" s="195"/>
-      <c r="HG1" s="196"/>
-      <c r="HH1" s="200" t="s">
+      <c r="HF1" s="187"/>
+      <c r="HG1" s="188"/>
+      <c r="HH1" s="192" t="s">
         <v>483</v>
       </c>
-      <c r="HI1" s="201"/>
-      <c r="HJ1" s="201"/>
-      <c r="HK1" s="201"/>
-      <c r="HL1" s="201"/>
-      <c r="HM1" s="201"/>
-      <c r="HN1" s="201"/>
-      <c r="HO1" s="201"/>
-      <c r="HP1" s="201"/>
-      <c r="HQ1" s="201"/>
-      <c r="HR1" s="201"/>
-      <c r="HS1" s="201"/>
-      <c r="HT1" s="201"/>
-      <c r="HU1" s="201"/>
-      <c r="HV1" s="201"/>
-      <c r="HW1" s="201"/>
-      <c r="HX1" s="201"/>
-      <c r="HY1" s="201"/>
-      <c r="HZ1" s="201"/>
-      <c r="IA1" s="201"/>
-      <c r="IB1" s="201"/>
-      <c r="IC1" s="201"/>
-      <c r="ID1" s="201"/>
-      <c r="IE1" s="201"/>
-      <c r="IF1" s="201"/>
-      <c r="IG1" s="201"/>
-      <c r="IH1" s="201"/>
-      <c r="II1" s="201"/>
-      <c r="IJ1" s="202"/>
-      <c r="IK1" s="203" t="s">
+      <c r="HI1" s="193"/>
+      <c r="HJ1" s="193"/>
+      <c r="HK1" s="193"/>
+      <c r="HL1" s="193"/>
+      <c r="HM1" s="193"/>
+      <c r="HN1" s="193"/>
+      <c r="HO1" s="193"/>
+      <c r="HP1" s="193"/>
+      <c r="HQ1" s="193"/>
+      <c r="HR1" s="193"/>
+      <c r="HS1" s="193"/>
+      <c r="HT1" s="193"/>
+      <c r="HU1" s="193"/>
+      <c r="HV1" s="193"/>
+      <c r="HW1" s="193"/>
+      <c r="HX1" s="193"/>
+      <c r="HY1" s="193"/>
+      <c r="HZ1" s="193"/>
+      <c r="IA1" s="193"/>
+      <c r="IB1" s="193"/>
+      <c r="IC1" s="193"/>
+      <c r="ID1" s="193"/>
+      <c r="IE1" s="193"/>
+      <c r="IF1" s="193"/>
+      <c r="IG1" s="193"/>
+      <c r="IH1" s="193"/>
+      <c r="II1" s="193"/>
+      <c r="IJ1" s="194"/>
+      <c r="IK1" s="195" t="s">
         <v>484</v>
       </c>
-      <c r="IL1" s="204"/>
-      <c r="IM1" s="204"/>
-      <c r="IN1" s="204"/>
-      <c r="IO1" s="204"/>
-      <c r="IP1" s="204"/>
-      <c r="IQ1" s="204"/>
-      <c r="IR1" s="204"/>
-      <c r="IS1" s="204"/>
-      <c r="IT1" s="204"/>
-      <c r="IU1" s="204"/>
-      <c r="IV1" s="204"/>
-      <c r="IW1" s="204"/>
-      <c r="IX1" s="204"/>
-      <c r="IY1" s="204"/>
-      <c r="IZ1" s="204"/>
-      <c r="JA1" s="204"/>
-      <c r="JB1" s="204"/>
-      <c r="JC1" s="204"/>
-      <c r="JD1" s="204"/>
-      <c r="JE1" s="204"/>
-      <c r="JF1" s="204"/>
-      <c r="JG1" s="204"/>
-      <c r="JH1" s="204"/>
-      <c r="JI1" s="205"/>
+      <c r="IL1" s="196"/>
+      <c r="IM1" s="196"/>
+      <c r="IN1" s="196"/>
+      <c r="IO1" s="196"/>
+      <c r="IP1" s="196"/>
+      <c r="IQ1" s="196"/>
+      <c r="IR1" s="196"/>
+      <c r="IS1" s="196"/>
+      <c r="IT1" s="196"/>
+      <c r="IU1" s="196"/>
+      <c r="IV1" s="196"/>
+      <c r="IW1" s="196"/>
+      <c r="IX1" s="196"/>
+      <c r="IY1" s="196"/>
+      <c r="IZ1" s="196"/>
+      <c r="JA1" s="196"/>
+      <c r="JB1" s="196"/>
+      <c r="JC1" s="196"/>
+      <c r="JD1" s="196"/>
+      <c r="JE1" s="196"/>
+      <c r="JF1" s="196"/>
+      <c r="JG1" s="196"/>
+      <c r="JH1" s="196"/>
+      <c r="JI1" s="197"/>
     </row>
     <row r="2" spans="1:269" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="180" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="175"/>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="176"/>
-      <c r="BF2" s="174" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="185"/>
+      <c r="AN2" s="185"/>
+      <c r="AO2" s="185"/>
+      <c r="AP2" s="185"/>
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="185"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="185"/>
+      <c r="AX2" s="185"/>
+      <c r="AY2" s="185"/>
+      <c r="AZ2" s="185"/>
+      <c r="BA2" s="185"/>
+      <c r="BB2" s="185"/>
+      <c r="BC2" s="185"/>
+      <c r="BD2" s="185"/>
+      <c r="BE2" s="181"/>
+      <c r="BF2" s="180" t="s">
         <v>478</v>
       </c>
-      <c r="BG2" s="175"/>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="175"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="175"/>
-      <c r="BL2" s="175"/>
-      <c r="BM2" s="175"/>
-      <c r="BN2" s="175"/>
-      <c r="BO2" s="175"/>
-      <c r="BP2" s="175"/>
-      <c r="BQ2" s="175"/>
-      <c r="BR2" s="175"/>
-      <c r="BS2" s="175"/>
-      <c r="BT2" s="175"/>
-      <c r="BU2" s="175"/>
-      <c r="BV2" s="175"/>
-      <c r="BW2" s="175"/>
-      <c r="BX2" s="175"/>
-      <c r="BY2" s="175"/>
-      <c r="BZ2" s="175"/>
-      <c r="CA2" s="175"/>
-      <c r="CB2" s="175"/>
-      <c r="CC2" s="175"/>
-      <c r="CD2" s="175"/>
-      <c r="CE2" s="175"/>
-      <c r="CF2" s="175"/>
-      <c r="CG2" s="175"/>
-      <c r="CH2" s="175"/>
-      <c r="CI2" s="175"/>
-      <c r="CJ2" s="175"/>
-      <c r="CK2" s="175"/>
-      <c r="CL2" s="175"/>
-      <c r="CM2" s="175"/>
-      <c r="CN2" s="175"/>
-      <c r="CO2" s="175"/>
-      <c r="CP2" s="175"/>
-      <c r="CQ2" s="176"/>
-      <c r="CR2" s="174" t="s">
+      <c r="BG2" s="185"/>
+      <c r="BH2" s="185"/>
+      <c r="BI2" s="185"/>
+      <c r="BJ2" s="185"/>
+      <c r="BK2" s="185"/>
+      <c r="BL2" s="185"/>
+      <c r="BM2" s="185"/>
+      <c r="BN2" s="185"/>
+      <c r="BO2" s="185"/>
+      <c r="BP2" s="185"/>
+      <c r="BQ2" s="185"/>
+      <c r="BR2" s="185"/>
+      <c r="BS2" s="185"/>
+      <c r="BT2" s="185"/>
+      <c r="BU2" s="185"/>
+      <c r="BV2" s="185"/>
+      <c r="BW2" s="185"/>
+      <c r="BX2" s="185"/>
+      <c r="BY2" s="185"/>
+      <c r="BZ2" s="185"/>
+      <c r="CA2" s="185"/>
+      <c r="CB2" s="185"/>
+      <c r="CC2" s="185"/>
+      <c r="CD2" s="185"/>
+      <c r="CE2" s="185"/>
+      <c r="CF2" s="185"/>
+      <c r="CG2" s="185"/>
+      <c r="CH2" s="185"/>
+      <c r="CI2" s="185"/>
+      <c r="CJ2" s="185"/>
+      <c r="CK2" s="185"/>
+      <c r="CL2" s="185"/>
+      <c r="CM2" s="185"/>
+      <c r="CN2" s="185"/>
+      <c r="CO2" s="185"/>
+      <c r="CP2" s="185"/>
+      <c r="CQ2" s="181"/>
+      <c r="CR2" s="180" t="s">
         <v>454</v>
       </c>
-      <c r="CS2" s="175"/>
-      <c r="CT2" s="175"/>
-      <c r="CU2" s="175"/>
-      <c r="CV2" s="176"/>
-      <c r="CW2" s="174" t="s">
+      <c r="CS2" s="185"/>
+      <c r="CT2" s="185"/>
+      <c r="CU2" s="185"/>
+      <c r="CV2" s="181"/>
+      <c r="CW2" s="180" t="s">
         <v>455</v>
       </c>
-      <c r="CX2" s="175"/>
-      <c r="CY2" s="175"/>
-      <c r="CZ2" s="175"/>
-      <c r="DA2" s="175"/>
-      <c r="DB2" s="176"/>
-      <c r="DC2" s="174" t="s">
+      <c r="CX2" s="185"/>
+      <c r="CY2" s="185"/>
+      <c r="CZ2" s="185"/>
+      <c r="DA2" s="185"/>
+      <c r="DB2" s="181"/>
+      <c r="DC2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DD2" s="175"/>
-      <c r="DE2" s="175"/>
-      <c r="DF2" s="175"/>
-      <c r="DG2" s="175"/>
-      <c r="DH2" s="175"/>
-      <c r="DI2" s="175"/>
-      <c r="DJ2" s="176"/>
-      <c r="DK2" s="174" t="s">
+      <c r="DD2" s="185"/>
+      <c r="DE2" s="185"/>
+      <c r="DF2" s="185"/>
+      <c r="DG2" s="185"/>
+      <c r="DH2" s="185"/>
+      <c r="DI2" s="185"/>
+      <c r="DJ2" s="181"/>
+      <c r="DK2" s="180" t="s">
         <v>456</v>
       </c>
-      <c r="DL2" s="175"/>
-      <c r="DM2" s="175"/>
-      <c r="DN2" s="175"/>
-      <c r="DO2" s="175"/>
-      <c r="DP2" s="175"/>
-      <c r="DQ2" s="175"/>
-      <c r="DR2" s="176"/>
-      <c r="DS2" s="174" t="s">
+      <c r="DL2" s="185"/>
+      <c r="DM2" s="185"/>
+      <c r="DN2" s="185"/>
+      <c r="DO2" s="185"/>
+      <c r="DP2" s="185"/>
+      <c r="DQ2" s="185"/>
+      <c r="DR2" s="181"/>
+      <c r="DS2" s="180" t="s">
         <v>457</v>
       </c>
-      <c r="DT2" s="175"/>
-      <c r="DU2" s="175"/>
-      <c r="DV2" s="175"/>
-      <c r="DW2" s="176"/>
-      <c r="DX2" s="174" t="s">
+      <c r="DT2" s="185"/>
+      <c r="DU2" s="185"/>
+      <c r="DV2" s="185"/>
+      <c r="DW2" s="181"/>
+      <c r="DX2" s="180" t="s">
         <v>458</v>
       </c>
-      <c r="DY2" s="175"/>
-      <c r="DZ2" s="175"/>
-      <c r="EA2" s="175"/>
-      <c r="EB2" s="175"/>
-      <c r="EC2" s="175"/>
-      <c r="ED2" s="175"/>
-      <c r="EE2" s="176"/>
-      <c r="EF2" s="174" t="s">
+      <c r="DY2" s="185"/>
+      <c r="DZ2" s="185"/>
+      <c r="EA2" s="185"/>
+      <c r="EB2" s="185"/>
+      <c r="EC2" s="185"/>
+      <c r="ED2" s="185"/>
+      <c r="EE2" s="181"/>
+      <c r="EF2" s="180" t="s">
         <v>459</v>
       </c>
-      <c r="EG2" s="176"/>
-      <c r="EH2" s="191" t="s">
+      <c r="EG2" s="181"/>
+      <c r="EH2" s="182" t="s">
         <v>460</v>
       </c>
-      <c r="EI2" s="192"/>
-      <c r="EJ2" s="192"/>
-      <c r="EK2" s="192"/>
-      <c r="EL2" s="192"/>
-      <c r="EM2" s="192"/>
-      <c r="EN2" s="192"/>
-      <c r="EO2" s="193"/>
-      <c r="EP2" s="174" t="s">
+      <c r="EI2" s="183"/>
+      <c r="EJ2" s="183"/>
+      <c r="EK2" s="183"/>
+      <c r="EL2" s="183"/>
+      <c r="EM2" s="183"/>
+      <c r="EN2" s="183"/>
+      <c r="EO2" s="184"/>
+      <c r="EP2" s="180" t="s">
         <v>461</v>
       </c>
-      <c r="EQ2" s="175"/>
-      <c r="ER2" s="175"/>
-      <c r="ES2" s="175"/>
-      <c r="ET2" s="175"/>
-      <c r="EU2" s="175"/>
-      <c r="EV2" s="175"/>
-      <c r="EW2" s="175"/>
-      <c r="EX2" s="175"/>
-      <c r="EY2" s="175"/>
-      <c r="EZ2" s="175"/>
-      <c r="FA2" s="176"/>
-      <c r="FB2" s="174" t="s">
+      <c r="EQ2" s="185"/>
+      <c r="ER2" s="185"/>
+      <c r="ES2" s="185"/>
+      <c r="ET2" s="185"/>
+      <c r="EU2" s="185"/>
+      <c r="EV2" s="185"/>
+      <c r="EW2" s="185"/>
+      <c r="EX2" s="185"/>
+      <c r="EY2" s="185"/>
+      <c r="EZ2" s="185"/>
+      <c r="FA2" s="181"/>
+      <c r="FB2" s="180" t="s">
         <v>462</v>
       </c>
-      <c r="FC2" s="175"/>
-      <c r="FD2" s="175"/>
-      <c r="FE2" s="175"/>
-      <c r="FF2" s="175"/>
-      <c r="FG2" s="175"/>
-      <c r="FH2" s="175"/>
-      <c r="FI2" s="176"/>
-      <c r="FJ2" s="174" t="s">
+      <c r="FC2" s="185"/>
+      <c r="FD2" s="185"/>
+      <c r="FE2" s="185"/>
+      <c r="FF2" s="185"/>
+      <c r="FG2" s="185"/>
+      <c r="FH2" s="185"/>
+      <c r="FI2" s="181"/>
+      <c r="FJ2" s="180" t="s">
         <v>463</v>
       </c>
-      <c r="FK2" s="175"/>
-      <c r="FL2" s="175"/>
-      <c r="FM2" s="175"/>
-      <c r="FN2" s="175"/>
-      <c r="FO2" s="175"/>
-      <c r="FP2" s="175"/>
-      <c r="FQ2" s="175"/>
-      <c r="FR2" s="175"/>
-      <c r="FS2" s="175"/>
-      <c r="FT2" s="175"/>
-      <c r="FU2" s="175"/>
-      <c r="FV2" s="176"/>
-      <c r="FW2" s="174" t="s">
+      <c r="FK2" s="185"/>
+      <c r="FL2" s="185"/>
+      <c r="FM2" s="185"/>
+      <c r="FN2" s="185"/>
+      <c r="FO2" s="185"/>
+      <c r="FP2" s="185"/>
+      <c r="FQ2" s="185"/>
+      <c r="FR2" s="185"/>
+      <c r="FS2" s="185"/>
+      <c r="FT2" s="185"/>
+      <c r="FU2" s="185"/>
+      <c r="FV2" s="181"/>
+      <c r="FW2" s="180" t="s">
         <v>464</v>
       </c>
-      <c r="FX2" s="176"/>
-      <c r="FY2" s="174" t="s">
+      <c r="FX2" s="181"/>
+      <c r="FY2" s="180" t="s">
         <v>465</v>
       </c>
-      <c r="FZ2" s="175"/>
-      <c r="GA2" s="175"/>
-      <c r="GB2" s="175"/>
-      <c r="GC2" s="175"/>
-      <c r="GD2" s="175"/>
-      <c r="GE2" s="175"/>
-      <c r="GF2" s="175"/>
-      <c r="GG2" s="175"/>
-      <c r="GH2" s="175"/>
-      <c r="GI2" s="175"/>
-      <c r="GJ2" s="175"/>
-      <c r="GK2" s="176"/>
-      <c r="GL2" s="174" t="s">
+      <c r="FZ2" s="185"/>
+      <c r="GA2" s="185"/>
+      <c r="GB2" s="185"/>
+      <c r="GC2" s="185"/>
+      <c r="GD2" s="185"/>
+      <c r="GE2" s="185"/>
+      <c r="GF2" s="185"/>
+      <c r="GG2" s="185"/>
+      <c r="GH2" s="185"/>
+      <c r="GI2" s="185"/>
+      <c r="GJ2" s="185"/>
+      <c r="GK2" s="181"/>
+      <c r="GL2" s="180" t="s">
         <v>466</v>
       </c>
-      <c r="GM2" s="175"/>
-      <c r="GN2" s="175"/>
-      <c r="GO2" s="175"/>
-      <c r="GP2" s="175"/>
-      <c r="GQ2" s="175"/>
-      <c r="GR2" s="176"/>
-      <c r="GS2" s="174" t="s">
+      <c r="GM2" s="185"/>
+      <c r="GN2" s="185"/>
+      <c r="GO2" s="185"/>
+      <c r="GP2" s="185"/>
+      <c r="GQ2" s="185"/>
+      <c r="GR2" s="181"/>
+      <c r="GS2" s="180" t="s">
         <v>496</v>
       </c>
-      <c r="GT2" s="175"/>
-      <c r="GU2" s="175"/>
-      <c r="GV2" s="175"/>
-      <c r="GW2" s="175"/>
-      <c r="GX2" s="175"/>
-      <c r="GY2" s="175"/>
-      <c r="GZ2" s="175"/>
-      <c r="HA2" s="175"/>
-      <c r="HB2" s="176"/>
-      <c r="HC2" s="174" t="s">
+      <c r="GT2" s="185"/>
+      <c r="GU2" s="185"/>
+      <c r="GV2" s="185"/>
+      <c r="GW2" s="185"/>
+      <c r="GX2" s="185"/>
+      <c r="GY2" s="185"/>
+      <c r="GZ2" s="185"/>
+      <c r="HA2" s="185"/>
+      <c r="HB2" s="181"/>
+      <c r="HC2" s="180" t="s">
         <v>468</v>
       </c>
-      <c r="HD2" s="176"/>
-      <c r="HE2" s="197"/>
-      <c r="HF2" s="198"/>
-      <c r="HG2" s="199"/>
-      <c r="HH2" s="174" t="s">
+      <c r="HD2" s="181"/>
+      <c r="HE2" s="189"/>
+      <c r="HF2" s="190"/>
+      <c r="HG2" s="191"/>
+      <c r="HH2" s="180" t="s">
         <v>470</v>
       </c>
-      <c r="HI2" s="175"/>
-      <c r="HJ2" s="175"/>
-      <c r="HK2" s="175"/>
-      <c r="HL2" s="175"/>
-      <c r="HM2" s="175"/>
-      <c r="HN2" s="176"/>
-      <c r="HO2" s="174" t="s">
+      <c r="HI2" s="185"/>
+      <c r="HJ2" s="185"/>
+      <c r="HK2" s="185"/>
+      <c r="HL2" s="185"/>
+      <c r="HM2" s="185"/>
+      <c r="HN2" s="181"/>
+      <c r="HO2" s="180" t="s">
         <v>614</v>
       </c>
-      <c r="HP2" s="175"/>
-      <c r="HQ2" s="175"/>
-      <c r="HR2" s="175"/>
-      <c r="HS2" s="175"/>
-      <c r="HT2" s="175"/>
-      <c r="HU2" s="175"/>
-      <c r="HV2" s="175"/>
-      <c r="HW2" s="175"/>
-      <c r="HX2" s="175"/>
-      <c r="HY2" s="175"/>
-      <c r="HZ2" s="175"/>
-      <c r="IA2" s="175"/>
-      <c r="IB2" s="176"/>
-      <c r="IC2" s="174" t="s">
+      <c r="HP2" s="185"/>
+      <c r="HQ2" s="185"/>
+      <c r="HR2" s="185"/>
+      <c r="HS2" s="185"/>
+      <c r="HT2" s="185"/>
+      <c r="HU2" s="185"/>
+      <c r="HV2" s="185"/>
+      <c r="HW2" s="185"/>
+      <c r="HX2" s="185"/>
+      <c r="HY2" s="185"/>
+      <c r="HZ2" s="185"/>
+      <c r="IA2" s="185"/>
+      <c r="IB2" s="181"/>
+      <c r="IC2" s="180" t="s">
         <v>472</v>
       </c>
-      <c r="ID2" s="175"/>
-      <c r="IE2" s="175"/>
-      <c r="IF2" s="175"/>
-      <c r="IG2" s="176"/>
-      <c r="IH2" s="174" t="s">
+      <c r="ID2" s="185"/>
+      <c r="IE2" s="185"/>
+      <c r="IF2" s="185"/>
+      <c r="IG2" s="181"/>
+      <c r="IH2" s="180" t="s">
         <v>473</v>
       </c>
-      <c r="II2" s="175"/>
-      <c r="IJ2" s="176"/>
-      <c r="IK2" s="174" t="s">
+      <c r="II2" s="185"/>
+      <c r="IJ2" s="181"/>
+      <c r="IK2" s="180" t="s">
         <v>474</v>
       </c>
-      <c r="IL2" s="175"/>
-      <c r="IM2" s="175"/>
-      <c r="IN2" s="175"/>
-      <c r="IO2" s="175"/>
-      <c r="IP2" s="176"/>
-      <c r="IQ2" s="174" t="s">
+      <c r="IL2" s="185"/>
+      <c r="IM2" s="185"/>
+      <c r="IN2" s="185"/>
+      <c r="IO2" s="185"/>
+      <c r="IP2" s="181"/>
+      <c r="IQ2" s="180" t="s">
         <v>475</v>
       </c>
-      <c r="IR2" s="175"/>
-      <c r="IS2" s="175"/>
-      <c r="IT2" s="175"/>
-      <c r="IU2" s="175"/>
-      <c r="IV2" s="176"/>
-      <c r="IW2" s="188" t="s">
+      <c r="IR2" s="185"/>
+      <c r="IS2" s="185"/>
+      <c r="IT2" s="185"/>
+      <c r="IU2" s="185"/>
+      <c r="IV2" s="181"/>
+      <c r="IW2" s="177" t="s">
         <v>907</v>
       </c>
-      <c r="IX2" s="189"/>
-      <c r="IY2" s="189"/>
-      <c r="IZ2" s="189"/>
-      <c r="JA2" s="189"/>
-      <c r="JB2" s="189"/>
-      <c r="JC2" s="189"/>
-      <c r="JD2" s="189"/>
-      <c r="JE2" s="190"/>
-      <c r="JF2" s="188" t="s">
+      <c r="IX2" s="178"/>
+      <c r="IY2" s="178"/>
+      <c r="IZ2" s="178"/>
+      <c r="JA2" s="178"/>
+      <c r="JB2" s="178"/>
+      <c r="JC2" s="178"/>
+      <c r="JD2" s="178"/>
+      <c r="JE2" s="179"/>
+      <c r="JF2" s="177" t="s">
         <v>476</v>
       </c>
-      <c r="JG2" s="189"/>
-      <c r="JH2" s="189"/>
-      <c r="JI2" s="190"/>
+      <c r="JG2" s="178"/>
+      <c r="JH2" s="178"/>
+      <c r="JI2" s="179"/>
     </row>
     <row r="3" spans="1:269" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
@@ -29940,6 +29939,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="JF2:JI2"/>
+    <mergeCell ref="HO2:IB2"/>
+    <mergeCell ref="IC2:IG2"/>
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="IW2:JE2"/>
+    <mergeCell ref="IK2:IP2"/>
+    <mergeCell ref="IQ2:IV2"/>
+    <mergeCell ref="DX2:EE2"/>
+    <mergeCell ref="B2:BE2"/>
+    <mergeCell ref="BF2:CQ2"/>
+    <mergeCell ref="B1:CQ1"/>
+    <mergeCell ref="CR1:EE1"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="CW2:DB2"/>
+    <mergeCell ref="DC2:DJ2"/>
+    <mergeCell ref="DK2:DR2"/>
+    <mergeCell ref="DS2:DW2"/>
     <mergeCell ref="EF1:EO1"/>
     <mergeCell ref="EP1:HD1"/>
     <mergeCell ref="HE1:HG2"/>
@@ -29956,23 +29972,6 @@
     <mergeCell ref="GL2:GR2"/>
     <mergeCell ref="GS2:HB2"/>
     <mergeCell ref="HC2:HD2"/>
-    <mergeCell ref="DX2:EE2"/>
-    <mergeCell ref="B2:BE2"/>
-    <mergeCell ref="BF2:CQ2"/>
-    <mergeCell ref="B1:CQ1"/>
-    <mergeCell ref="CR1:EE1"/>
-    <mergeCell ref="CR2:CV2"/>
-    <mergeCell ref="CW2:DB2"/>
-    <mergeCell ref="DC2:DJ2"/>
-    <mergeCell ref="DK2:DR2"/>
-    <mergeCell ref="DS2:DW2"/>
-    <mergeCell ref="JF2:JI2"/>
-    <mergeCell ref="HO2:IB2"/>
-    <mergeCell ref="IC2:IG2"/>
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="IW2:JE2"/>
-    <mergeCell ref="IK2:IP2"/>
-    <mergeCell ref="IQ2:IV2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{F5CC5134-40F6-4F65-86FB-EC3FE1D744DF}"/>
@@ -30000,100 +29999,100 @@
       <c r="A1" s="86" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="218" t="s">
         <v>480</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="183" t="s">
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="204" t="s">
         <v>481</v>
       </c>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="184"/>
-      <c r="AG1" s="185"/>
-      <c r="AH1" s="186" t="s">
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="207" t="s">
         <v>482</v>
       </c>
-      <c r="AI1" s="187"/>
-      <c r="AJ1" s="187"/>
-      <c r="AK1" s="187"/>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="187"/>
-      <c r="AN1" s="187"/>
-      <c r="AO1" s="187"/>
-      <c r="AP1" s="187"/>
-      <c r="AQ1" s="187"/>
-      <c r="AR1" s="187"/>
-      <c r="AS1" s="187"/>
-      <c r="AT1" s="187"/>
-      <c r="AU1" s="187"/>
-      <c r="AV1" s="187"/>
-      <c r="AW1" s="187"/>
-      <c r="AX1" s="187"/>
-      <c r="AY1" s="187"/>
-      <c r="AZ1" s="187"/>
-      <c r="BA1" s="187"/>
-      <c r="BB1" s="187"/>
-      <c r="BC1" s="187"/>
-      <c r="BD1" s="187"/>
-      <c r="BE1" s="187"/>
-      <c r="BF1" s="187"/>
-      <c r="BG1" s="187"/>
-      <c r="BH1" s="187"/>
-      <c r="BI1" s="187"/>
-      <c r="BJ1" s="187"/>
-      <c r="BK1" s="187"/>
-      <c r="BL1" s="187"/>
-      <c r="BM1" s="208"/>
-      <c r="BN1" s="194" t="s">
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="208"/>
+      <c r="AR1" s="208"/>
+      <c r="AS1" s="208"/>
+      <c r="AT1" s="208"/>
+      <c r="AU1" s="208"/>
+      <c r="AV1" s="208"/>
+      <c r="AW1" s="208"/>
+      <c r="AX1" s="208"/>
+      <c r="AY1" s="208"/>
+      <c r="AZ1" s="208"/>
+      <c r="BA1" s="208"/>
+      <c r="BB1" s="208"/>
+      <c r="BC1" s="208"/>
+      <c r="BD1" s="208"/>
+      <c r="BE1" s="208"/>
+      <c r="BF1" s="208"/>
+      <c r="BG1" s="208"/>
+      <c r="BH1" s="208"/>
+      <c r="BI1" s="208"/>
+      <c r="BJ1" s="208"/>
+      <c r="BK1" s="208"/>
+      <c r="BL1" s="208"/>
+      <c r="BM1" s="217"/>
+      <c r="BN1" s="186" t="s">
         <v>485</v>
       </c>
-      <c r="BO1" s="195"/>
-      <c r="BP1" s="195"/>
-      <c r="BQ1" s="196"/>
-      <c r="BR1" s="200" t="s">
+      <c r="BO1" s="187"/>
+      <c r="BP1" s="187"/>
+      <c r="BQ1" s="188"/>
+      <c r="BR1" s="192" t="s">
         <v>483</v>
       </c>
-      <c r="BS1" s="206"/>
-      <c r="BT1" s="206"/>
-      <c r="BU1" s="206"/>
-      <c r="BV1" s="206"/>
-      <c r="BW1" s="206"/>
-      <c r="BX1" s="206"/>
-      <c r="BY1" s="206"/>
-      <c r="BZ1" s="206"/>
-      <c r="CA1" s="206"/>
-      <c r="CB1" s="206"/>
-      <c r="CC1" s="206"/>
-      <c r="CD1" s="206"/>
-      <c r="CE1" s="206"/>
-      <c r="CF1" s="206"/>
-      <c r="CG1" s="207"/>
+      <c r="BS1" s="215"/>
+      <c r="BT1" s="215"/>
+      <c r="BU1" s="215"/>
+      <c r="BV1" s="215"/>
+      <c r="BW1" s="215"/>
+      <c r="BX1" s="215"/>
+      <c r="BY1" s="215"/>
+      <c r="BZ1" s="215"/>
+      <c r="CA1" s="215"/>
+      <c r="CB1" s="215"/>
+      <c r="CC1" s="215"/>
+      <c r="CD1" s="215"/>
+      <c r="CE1" s="215"/>
+      <c r="CF1" s="215"/>
+      <c r="CG1" s="216"/>
     </row>
     <row r="2" spans="1:85" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="212" t="s">
@@ -30156,12 +30155,12 @@
       <c r="AM2" s="213"/>
       <c r="AN2" s="213"/>
       <c r="AO2" s="214"/>
-      <c r="AP2" s="215" t="s">
+      <c r="AP2" s="209" t="s">
         <v>488</v>
       </c>
-      <c r="AQ2" s="216"/>
-      <c r="AR2" s="216"/>
-      <c r="AS2" s="217"/>
+      <c r="AQ2" s="210"/>
+      <c r="AR2" s="210"/>
+      <c r="AS2" s="211"/>
       <c r="AT2" s="212" t="s">
         <v>464</v>
       </c>
@@ -30192,10 +30191,10 @@
       <c r="BK2" s="213"/>
       <c r="BL2" s="213"/>
       <c r="BM2" s="214"/>
-      <c r="BN2" s="197"/>
-      <c r="BO2" s="198"/>
-      <c r="BP2" s="198"/>
-      <c r="BQ2" s="199"/>
+      <c r="BN2" s="189"/>
+      <c r="BO2" s="190"/>
+      <c r="BP2" s="190"/>
+      <c r="BQ2" s="191"/>
       <c r="BR2" s="212" t="s">
         <v>470</v>
       </c>
@@ -33890,15 +33889,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="BV2:BY2"/>
-    <mergeCell ref="BZ2:CC2"/>
-    <mergeCell ref="CD2:CG2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BF2:BI2"/>
-    <mergeCell ref="BJ2:BM2"/>
-    <mergeCell ref="BR2:BU2"/>
     <mergeCell ref="BR1:CG1"/>
     <mergeCell ref="BN1:BQ2"/>
     <mergeCell ref="AH1:BM1"/>
@@ -33915,6 +33905,15 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="BV2:BY2"/>
+    <mergeCell ref="BZ2:CC2"/>
+    <mergeCell ref="CD2:CG2"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="BR2:BU2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{52F76497-CDC2-4AEA-BDCC-8BD0E7867D1B}"/>
@@ -34004,176 +34003,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="271" t="s">
         <v>781</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="250"/>
-      <c r="S1" s="242" t="s">
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="273"/>
+      <c r="S1" s="265" t="s">
         <v>822</v>
       </c>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="244"/>
-      <c r="AL1" s="261" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="266"/>
+      <c r="AA1" s="266"/>
+      <c r="AB1" s="266"/>
+      <c r="AC1" s="266"/>
+      <c r="AD1" s="266"/>
+      <c r="AE1" s="266"/>
+      <c r="AF1" s="266"/>
+      <c r="AG1" s="266"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="266"/>
+      <c r="AJ1" s="267"/>
+      <c r="AL1" s="280" t="s">
         <v>481</v>
       </c>
-      <c r="AM1" s="262"/>
-      <c r="AN1" s="262"/>
-      <c r="AO1" s="262"/>
-      <c r="AP1" s="262"/>
-      <c r="AQ1" s="262"/>
-      <c r="AR1" s="262"/>
-      <c r="AS1" s="262"/>
-      <c r="AT1" s="262"/>
-      <c r="AU1" s="262"/>
-      <c r="AV1" s="263"/>
-      <c r="AX1" s="267" t="s">
+      <c r="AM1" s="281"/>
+      <c r="AN1" s="281"/>
+      <c r="AO1" s="281"/>
+      <c r="AP1" s="281"/>
+      <c r="AQ1" s="281"/>
+      <c r="AR1" s="281"/>
+      <c r="AS1" s="281"/>
+      <c r="AT1" s="281"/>
+      <c r="AU1" s="281"/>
+      <c r="AV1" s="282"/>
+      <c r="AX1" s="286" t="s">
         <v>482</v>
       </c>
-      <c r="AY1" s="268"/>
-      <c r="AZ1" s="268"/>
-      <c r="BA1" s="268"/>
-      <c r="BB1" s="268"/>
-      <c r="BC1" s="269"/>
-      <c r="BE1" s="277" t="s">
+      <c r="AY1" s="287"/>
+      <c r="AZ1" s="287"/>
+      <c r="BA1" s="287"/>
+      <c r="BB1" s="287"/>
+      <c r="BC1" s="288"/>
+      <c r="BE1" s="250" t="s">
         <v>483</v>
       </c>
-      <c r="BF1" s="278"/>
-      <c r="BG1" s="278"/>
-      <c r="BH1" s="278"/>
-      <c r="BI1" s="278"/>
-      <c r="BJ1" s="279"/>
-      <c r="BL1" s="223" t="s">
+      <c r="BF1" s="251"/>
+      <c r="BG1" s="251"/>
+      <c r="BH1" s="251"/>
+      <c r="BI1" s="251"/>
+      <c r="BJ1" s="252"/>
+      <c r="BL1" s="299" t="s">
         <v>896</v>
       </c>
-      <c r="BM1" s="224"/>
-      <c r="BN1" s="224"/>
-      <c r="BO1" s="224"/>
-      <c r="BP1" s="224"/>
-      <c r="BQ1" s="224"/>
-      <c r="BR1" s="224"/>
-      <c r="BS1" s="224"/>
-      <c r="BT1" s="224"/>
-      <c r="BU1" s="224"/>
-      <c r="BV1" s="224"/>
-      <c r="BW1" s="224"/>
-      <c r="BX1" s="224"/>
-      <c r="BY1" s="224"/>
-      <c r="BZ1" s="224"/>
-      <c r="CA1" s="224"/>
-      <c r="CB1" s="224"/>
-      <c r="CC1" s="224"/>
-      <c r="CD1" s="225"/>
+      <c r="BM1" s="300"/>
+      <c r="BN1" s="300"/>
+      <c r="BO1" s="300"/>
+      <c r="BP1" s="300"/>
+      <c r="BQ1" s="300"/>
+      <c r="BR1" s="300"/>
+      <c r="BS1" s="300"/>
+      <c r="BT1" s="300"/>
+      <c r="BU1" s="300"/>
+      <c r="BV1" s="300"/>
+      <c r="BW1" s="300"/>
+      <c r="BX1" s="300"/>
+      <c r="BY1" s="300"/>
+      <c r="BZ1" s="300"/>
+      <c r="CA1" s="300"/>
+      <c r="CB1" s="300"/>
+      <c r="CC1" s="300"/>
+      <c r="CD1" s="301"/>
     </row>
     <row r="2" spans="1:82" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="306"/>
-      <c r="B2" s="251"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="253"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="246"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="246"/>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="246"/>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="247"/>
-      <c r="AL2" s="264"/>
-      <c r="AM2" s="265"/>
-      <c r="AN2" s="265"/>
-      <c r="AO2" s="265"/>
-      <c r="AP2" s="265"/>
-      <c r="AQ2" s="265"/>
-      <c r="AR2" s="265"/>
-      <c r="AS2" s="265"/>
-      <c r="AT2" s="265"/>
-      <c r="AU2" s="265"/>
-      <c r="AV2" s="266"/>
-      <c r="AX2" s="270"/>
-      <c r="AY2" s="271"/>
-      <c r="AZ2" s="271"/>
-      <c r="BA2" s="271"/>
-      <c r="BB2" s="271"/>
-      <c r="BC2" s="272"/>
-      <c r="BE2" s="280"/>
-      <c r="BF2" s="281"/>
-      <c r="BG2" s="281"/>
-      <c r="BH2" s="281"/>
-      <c r="BI2" s="281"/>
-      <c r="BJ2" s="282"/>
-      <c r="BL2" s="226"/>
-      <c r="BM2" s="227"/>
-      <c r="BN2" s="227"/>
-      <c r="BO2" s="227"/>
-      <c r="BP2" s="227"/>
-      <c r="BQ2" s="227"/>
-      <c r="BR2" s="227"/>
-      <c r="BS2" s="227"/>
-      <c r="BT2" s="227"/>
-      <c r="BU2" s="227"/>
-      <c r="BV2" s="227"/>
-      <c r="BW2" s="227"/>
-      <c r="BX2" s="227"/>
-      <c r="BY2" s="227"/>
-      <c r="BZ2" s="227"/>
-      <c r="CA2" s="227"/>
-      <c r="CB2" s="227"/>
-      <c r="CC2" s="227"/>
-      <c r="CD2" s="228"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="276"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="269"/>
+      <c r="AG2" s="269"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="269"/>
+      <c r="AJ2" s="270"/>
+      <c r="AL2" s="283"/>
+      <c r="AM2" s="284"/>
+      <c r="AN2" s="284"/>
+      <c r="AO2" s="284"/>
+      <c r="AP2" s="284"/>
+      <c r="AQ2" s="284"/>
+      <c r="AR2" s="284"/>
+      <c r="AS2" s="284"/>
+      <c r="AT2" s="284"/>
+      <c r="AU2" s="284"/>
+      <c r="AV2" s="285"/>
+      <c r="AX2" s="289"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="290"/>
+      <c r="BA2" s="290"/>
+      <c r="BB2" s="290"/>
+      <c r="BC2" s="291"/>
+      <c r="BE2" s="253"/>
+      <c r="BF2" s="254"/>
+      <c r="BG2" s="254"/>
+      <c r="BH2" s="254"/>
+      <c r="BI2" s="254"/>
+      <c r="BJ2" s="255"/>
+      <c r="BL2" s="302"/>
+      <c r="BM2" s="303"/>
+      <c r="BN2" s="303"/>
+      <c r="BO2" s="303"/>
+      <c r="BP2" s="303"/>
+      <c r="BQ2" s="303"/>
+      <c r="BR2" s="303"/>
+      <c r="BS2" s="303"/>
+      <c r="BT2" s="303"/>
+      <c r="BU2" s="303"/>
+      <c r="BV2" s="303"/>
+      <c r="BW2" s="303"/>
+      <c r="BX2" s="303"/>
+      <c r="BY2" s="303"/>
+      <c r="BZ2" s="303"/>
+      <c r="CA2" s="303"/>
+      <c r="CB2" s="303"/>
+      <c r="CC2" s="303"/>
+      <c r="CD2" s="304"/>
     </row>
     <row r="3" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="53" t="s">
@@ -34341,53 +34340,53 @@
       <c r="BJ3" t="s">
         <v>786</v>
       </c>
-      <c r="BL3" s="231" t="s">
+      <c r="BL3" s="307" t="s">
         <v>897</v>
       </c>
-      <c r="BM3" s="232"/>
-      <c r="BN3" s="232"/>
-      <c r="BO3" s="232"/>
-      <c r="BP3" s="232"/>
-      <c r="BQ3" s="232"/>
-      <c r="BR3" s="233"/>
-      <c r="BT3" s="231" t="s">
+      <c r="BM3" s="308"/>
+      <c r="BN3" s="308"/>
+      <c r="BO3" s="308"/>
+      <c r="BP3" s="308"/>
+      <c r="BQ3" s="308"/>
+      <c r="BR3" s="309"/>
+      <c r="BT3" s="307" t="s">
         <v>908</v>
       </c>
-      <c r="BU3" s="233"/>
-      <c r="BW3" s="231" t="s">
+      <c r="BU3" s="309"/>
+      <c r="BW3" s="307" t="s">
         <v>909</v>
       </c>
-      <c r="BX3" s="232"/>
-      <c r="BY3" s="232"/>
-      <c r="BZ3" s="233"/>
-      <c r="CB3" s="220" t="s">
+      <c r="BX3" s="308"/>
+      <c r="BY3" s="308"/>
+      <c r="BZ3" s="309"/>
+      <c r="CB3" s="296" t="s">
         <v>476</v>
       </c>
-      <c r="CC3" s="221"/>
-      <c r="CD3" s="222"/>
+      <c r="CC3" s="297"/>
+      <c r="CD3" s="298"/>
     </row>
     <row r="4" spans="1:82" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="297" t="s">
+      <c r="A4" s="232" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="298"/>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="299"/>
-      <c r="G4" s="254" t="s">
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
+      <c r="G4" s="277" t="s">
         <v>680</v>
       </c>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="256"/>
-      <c r="M4" s="283" t="s">
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="279"/>
+      <c r="M4" s="256" t="s">
         <v>478</v>
       </c>
-      <c r="N4" s="284"/>
-      <c r="O4" s="284"/>
-      <c r="P4" s="284"/>
-      <c r="Q4" s="285"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="258"/>
       <c r="S4">
         <v>1</v>
       </c>
@@ -34538,19 +34537,19 @@
         <f t="shared" ref="BJ4" si="5">IF(BH4&lt;=20%, "very low", IF(BH4&lt;=40%, "low", IF(BH4&lt;=60%, "moderate", IF(BH4&lt;=80%, "high", "very high"))))</f>
         <v>low</v>
       </c>
-      <c r="BL4" s="229" t="s">
+      <c r="BL4" s="305" t="s">
         <v>898</v>
       </c>
-      <c r="BM4" s="174" t="s">
+      <c r="BM4" s="180" t="s">
         <v>899</v>
       </c>
-      <c r="BN4" s="175"/>
-      <c r="BO4" s="176"/>
-      <c r="BP4" s="174" t="s">
+      <c r="BN4" s="185"/>
+      <c r="BO4" s="181"/>
+      <c r="BP4" s="180" t="s">
         <v>900</v>
       </c>
-      <c r="BQ4" s="175"/>
-      <c r="BR4" s="176"/>
+      <c r="BQ4" s="185"/>
+      <c r="BR4" s="181"/>
       <c r="BT4" s="12" t="s">
         <v>419</v>
       </c>
@@ -34582,10 +34581,10 @@
       </c>
     </row>
     <row r="5" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="257">
-        <v>1</v>
-      </c>
-      <c r="B5" s="293" t="s">
+      <c r="A5" s="230">
+        <v>1</v>
+      </c>
+      <c r="B5" s="235" t="s">
         <v>630</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -34598,10 +34597,10 @@
         <f>COUNTIF(coded_data!B:B, D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="257">
+      <c r="G5" s="230">
         <v>14</v>
       </c>
-      <c r="H5" s="273" t="s">
+      <c r="H5" s="222" t="s">
         <v>731</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -34612,10 +34611,10 @@
         <f>COUNT(raw_data!A:A) - COUNTIF(raw_data!AA:AA, J5)</f>
         <v>10</v>
       </c>
-      <c r="M5" s="260">
+      <c r="M5" s="227">
         <v>21</v>
       </c>
-      <c r="N5" s="240" t="s">
+      <c r="N5" s="221" t="s">
         <v>733</v>
       </c>
       <c r="O5" s="57" t="s">
@@ -34778,7 +34777,7 @@
         <f t="shared" ref="BJ5:BJ24" si="11">IF(BH5&lt;=20%, "very low", IF(BH5&lt;=40%, "low", IF(BH5&lt;=60%, "moderate", IF(BH5&lt;=80%, "high", "very high"))))</f>
         <v>very low</v>
       </c>
-      <c r="BL5" s="230"/>
+      <c r="BL5" s="306"/>
       <c r="BM5" s="1" t="s">
         <v>901</v>
       </c>
@@ -34831,8 +34830,8 @@
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A6" s="258"/>
-      <c r="B6" s="293"/>
+      <c r="A6" s="228"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="1" t="s">
         <v>632</v>
       </c>
@@ -34843,8 +34842,8 @@
         <f>COUNTIF(coded_data!B:B, D6)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="258"/>
-      <c r="H6" s="273"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="222"/>
       <c r="I6" s="1" t="s">
         <v>682</v>
       </c>
@@ -34853,8 +34852,8 @@
         <f>COUNT(raw_data!A:A) - COUNTIF(raw_data!AB:AB, J6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="259"/>
-      <c r="N6" s="241"/>
+      <c r="M6" s="229"/>
+      <c r="N6" s="223"/>
       <c r="O6" s="61" t="s">
         <v>735</v>
       </c>
@@ -35076,8 +35075,8 @@
       </c>
     </row>
     <row r="7" spans="1:82" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="258"/>
-      <c r="B7" s="293"/>
+      <c r="A7" s="228"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="1" t="s">
         <v>633</v>
       </c>
@@ -35088,8 +35087,8 @@
         <f>COUNTIF(coded_data!B:B, D7)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="258"/>
-      <c r="H7" s="273"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="222"/>
       <c r="I7" s="1" t="s">
         <v>683</v>
       </c>
@@ -35104,11 +35103,11 @@
       <c r="N7" s="77" t="s">
         <v>745</v>
       </c>
-      <c r="O7" s="274" t="s">
+      <c r="O7" s="247" t="s">
         <v>693</v>
       </c>
-      <c r="P7" s="275"/>
-      <c r="Q7" s="276"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="249"/>
       <c r="S7">
         <v>4</v>
       </c>
@@ -35320,8 +35319,8 @@
       </c>
     </row>
     <row r="8" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A8" s="258"/>
-      <c r="B8" s="293"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="235"/>
       <c r="C8" s="1" t="s">
         <v>634</v>
       </c>
@@ -35332,8 +35331,8 @@
         <f>COUNTIF(coded_data!B:B, D8)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="258"/>
-      <c r="H8" s="273"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="222"/>
       <c r="I8" s="1" t="s">
         <v>684</v>
       </c>
@@ -35565,8 +35564,8 @@
       </c>
     </row>
     <row r="9" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="258"/>
-      <c r="B9" s="293"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="1" t="s">
         <v>635</v>
       </c>
@@ -35577,8 +35576,8 @@
         <f>COUNTIF(coded_data!B:B, D9)</f>
         <v>3</v>
       </c>
-      <c r="G9" s="258"/>
-      <c r="H9" s="273"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="222"/>
       <c r="I9" s="1" t="s">
         <v>685</v>
       </c>
@@ -35810,8 +35809,8 @@
       </c>
     </row>
     <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="258"/>
-      <c r="B10" s="293"/>
+      <c r="A10" s="228"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="1" t="s">
         <v>636</v>
       </c>
@@ -35822,8 +35821,8 @@
         <f>COUNTIF(coded_data!B:B, D10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="258"/>
-      <c r="H10" s="273"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="222"/>
       <c r="I10" s="1" t="s">
         <v>686</v>
       </c>
@@ -36040,8 +36039,8 @@
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A11" s="258"/>
-      <c r="B11" s="293"/>
+      <c r="A11" s="228"/>
+      <c r="B11" s="235"/>
       <c r="C11" s="1" t="s">
         <v>637</v>
       </c>
@@ -36052,8 +36051,8 @@
         <f>COUNTIF(coded_data!B:B, D11)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="258"/>
-      <c r="H11" s="273"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="222"/>
       <c r="I11" s="1" t="s">
         <v>687</v>
       </c>
@@ -36257,8 +36256,8 @@
       <c r="BZ11" s="1"/>
     </row>
     <row r="12" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="259"/>
-      <c r="B12" s="294"/>
+      <c r="A12" s="229"/>
+      <c r="B12" s="236"/>
       <c r="C12" s="61" t="s">
         <v>638</v>
       </c>
@@ -36269,8 +36268,8 @@
         <f>COUNTIF(coded_data!B:B, D12)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="259"/>
-      <c r="H12" s="241"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="223"/>
       <c r="I12" s="61" t="s">
         <v>643</v>
       </c>
@@ -36432,10 +36431,10 @@
       <c r="BZ12" s="1"/>
     </row>
     <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="260">
+      <c r="A13" s="227">
         <v>2</v>
       </c>
-      <c r="B13" s="292" t="s">
+      <c r="B13" s="237" t="s">
         <v>639</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -36446,10 +36445,10 @@
         <f>AVERAGE(coded_data!C:C)</f>
         <v>42.3</v>
       </c>
-      <c r="G13" s="260">
+      <c r="G13" s="227">
         <v>15</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="221" t="s">
         <v>688</v>
       </c>
       <c r="I13" s="57" t="s">
@@ -36582,23 +36581,23 @@
         <f t="shared" si="11"/>
         <v>very low</v>
       </c>
-      <c r="BL13" s="231" t="s">
+      <c r="BL13" s="307" t="s">
         <v>904</v>
       </c>
-      <c r="BM13" s="232"/>
-      <c r="BN13" s="232"/>
-      <c r="BO13" s="232"/>
-      <c r="BP13" s="232"/>
-      <c r="BQ13" s="232"/>
-      <c r="BR13" s="233"/>
+      <c r="BM13" s="308"/>
+      <c r="BN13" s="308"/>
+      <c r="BO13" s="308"/>
+      <c r="BP13" s="308"/>
+      <c r="BQ13" s="308"/>
+      <c r="BR13" s="309"/>
       <c r="BW13" s="1"/>
       <c r="BX13" s="1"/>
       <c r="BY13" s="1"/>
       <c r="BZ13" s="1"/>
     </row>
     <row r="14" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="258"/>
-      <c r="B14" s="293"/>
+      <c r="A14" s="228"/>
+      <c r="B14" s="235"/>
       <c r="C14" s="1" t="s">
         <v>719</v>
       </c>
@@ -36607,8 +36606,8 @@
         <f>MEDIAN(coded_data!C:C)</f>
         <v>39</v>
       </c>
-      <c r="G14" s="258"/>
-      <c r="H14" s="273"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="222"/>
       <c r="I14" s="1" t="s">
         <v>690</v>
       </c>
@@ -36621,11 +36620,11 @@
       </c>
       <c r="M14" s="79"/>
       <c r="N14" s="76"/>
-      <c r="O14" s="274" t="s">
+      <c r="O14" s="247" t="s">
         <v>695</v>
       </c>
-      <c r="P14" s="275"/>
-      <c r="Q14" s="276"/>
+      <c r="P14" s="248"/>
+      <c r="Q14" s="249"/>
       <c r="S14">
         <v>11</v>
       </c>
@@ -36692,19 +36691,19 @@
         <f t="shared" si="11"/>
         <v>very low</v>
       </c>
-      <c r="BL14" s="218" t="s">
+      <c r="BL14" s="294" t="s">
         <v>905</v>
       </c>
-      <c r="BM14" s="175" t="s">
+      <c r="BM14" s="185" t="s">
         <v>899</v>
       </c>
-      <c r="BN14" s="175"/>
-      <c r="BO14" s="176"/>
-      <c r="BP14" s="174" t="s">
+      <c r="BN14" s="185"/>
+      <c r="BO14" s="181"/>
+      <c r="BP14" s="180" t="s">
         <v>900</v>
       </c>
-      <c r="BQ14" s="175"/>
-      <c r="BR14" s="176"/>
+      <c r="BQ14" s="185"/>
+      <c r="BR14" s="181"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
       <c r="BW14" s="1"/>
@@ -36713,8 +36712,8 @@
       <c r="BZ14" s="1"/>
     </row>
     <row r="15" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="258"/>
-      <c r="B15" s="293"/>
+      <c r="A15" s="228"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="1" t="s">
         <v>720</v>
       </c>
@@ -36723,8 +36722,8 @@
         <f>MODE(coded_data!C:C)</f>
         <v>49</v>
       </c>
-      <c r="G15" s="258"/>
-      <c r="H15" s="273"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="222"/>
       <c r="I15" s="1" t="s">
         <v>691</v>
       </c>
@@ -36813,7 +36812,7 @@
         <f t="shared" si="11"/>
         <v>low</v>
       </c>
-      <c r="BL15" s="219"/>
+      <c r="BL15" s="295"/>
       <c r="BM15" s="1" t="s">
         <v>901</v>
       </c>
@@ -36836,8 +36835,8 @@
       <c r="BU15" s="1"/>
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A16" s="258"/>
-      <c r="B16" s="293"/>
+      <c r="A16" s="228"/>
+      <c r="B16" s="235"/>
       <c r="C16" s="1" t="s">
         <v>509</v>
       </c>
@@ -36846,8 +36845,8 @@
         <f>_xlfn.STDEV.S(coded_data!C:C)</f>
         <v>14.719978864719121</v>
       </c>
-      <c r="G16" s="258"/>
-      <c r="H16" s="273"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="222"/>
       <c r="I16" s="1" t="s">
         <v>692</v>
       </c>
@@ -36965,8 +36964,8 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A17" s="259"/>
-      <c r="B17" s="294"/>
+      <c r="A17" s="229"/>
+      <c r="B17" s="236"/>
       <c r="C17" s="61" t="s">
         <v>508</v>
       </c>
@@ -36975,8 +36974,8 @@
         <f>MAX(coded_data!C:C) - MIN(coded_data!C:C)</f>
         <v>45</v>
       </c>
-      <c r="G17" s="259"/>
-      <c r="H17" s="241"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="223"/>
       <c r="I17" s="1" t="s">
         <v>643</v>
       </c>
@@ -37094,10 +37093,10 @@
       </c>
     </row>
     <row r="18" spans="1:70" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="260">
+      <c r="A18" s="227">
         <v>3</v>
       </c>
-      <c r="B18" s="301" t="s">
+      <c r="B18" s="238" t="s">
         <v>640</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -37110,17 +37109,17 @@
         <f>COUNTIF(coded_data!D:D, D18)</f>
         <v>6</v>
       </c>
-      <c r="G18" s="260">
+      <c r="G18" s="227">
         <v>16</v>
       </c>
-      <c r="H18" s="290" t="s">
+      <c r="H18" s="245" t="s">
         <v>730</v>
       </c>
-      <c r="I18" s="274" t="s">
+      <c r="I18" s="247" t="s">
         <v>693</v>
       </c>
-      <c r="J18" s="275"/>
-      <c r="K18" s="276"/>
+      <c r="J18" s="248"/>
+      <c r="K18" s="249"/>
       <c r="M18" s="79"/>
       <c r="N18" s="76"/>
       <c r="O18" s="1" t="s">
@@ -37228,8 +37227,8 @@
       </c>
     </row>
     <row r="19" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="258"/>
-      <c r="B19" s="302"/>
+      <c r="A19" s="228"/>
+      <c r="B19" s="239"/>
       <c r="C19" s="1" t="s">
         <v>642</v>
       </c>
@@ -37240,8 +37239,8 @@
         <f>COUNTIF(coded_data!D:D, D19)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="273"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="222"/>
       <c r="I19" s="63" t="s">
         <v>689</v>
       </c>
@@ -37359,8 +37358,8 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A20" s="259"/>
-      <c r="B20" s="303"/>
+      <c r="A20" s="229"/>
+      <c r="B20" s="240"/>
       <c r="C20" s="61" t="s">
         <v>643</v>
       </c>
@@ -37371,8 +37370,8 @@
         <f>COUNTIF(coded_data!D:D, D20)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="258"/>
-      <c r="H20" s="273"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="222"/>
       <c r="I20" s="63" t="s">
         <v>694</v>
       </c>
@@ -37441,10 +37440,10 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A21" s="260">
+      <c r="A21" s="227">
         <v>4</v>
       </c>
-      <c r="B21" s="292" t="s">
+      <c r="B21" s="237" t="s">
         <v>714</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -37457,8 +37456,8 @@
         <f>COUNTIF(coded_data!E:E, D21)</f>
         <v>1</v>
       </c>
-      <c r="G21" s="258"/>
-      <c r="H21" s="273"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="222"/>
       <c r="I21" s="63" t="s">
         <v>643</v>
       </c>
@@ -37471,11 +37470,11 @@
       </c>
       <c r="M21" s="79"/>
       <c r="N21" s="76"/>
-      <c r="O21" s="274" t="s">
+      <c r="O21" s="247" t="s">
         <v>699</v>
       </c>
-      <c r="P21" s="275"/>
-      <c r="Q21" s="276"/>
+      <c r="P21" s="248"/>
+      <c r="Q21" s="249"/>
       <c r="AX21">
         <v>18</v>
       </c>
@@ -37522,8 +37521,8 @@
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A22" s="258"/>
-      <c r="B22" s="293"/>
+      <c r="A22" s="228"/>
+      <c r="B22" s="235"/>
       <c r="C22" s="1" t="s">
         <v>645</v>
       </c>
@@ -37534,13 +37533,13 @@
         <f>COUNTIF(coded_data!E:E, D22)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="258"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="274" t="s">
+      <c r="G22" s="228"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="247" t="s">
         <v>695</v>
       </c>
-      <c r="J22" s="275"/>
-      <c r="K22" s="276"/>
+      <c r="J22" s="248"/>
+      <c r="K22" s="249"/>
       <c r="M22" s="79"/>
       <c r="N22" s="76"/>
       <c r="O22" s="1" t="s">
@@ -37599,8 +37598,8 @@
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A23" s="258"/>
-      <c r="B23" s="293"/>
+      <c r="A23" s="228"/>
+      <c r="B23" s="235"/>
       <c r="C23" s="1" t="s">
         <v>646</v>
       </c>
@@ -37611,8 +37610,8 @@
         <f>COUNTIF(coded_data!E:E, D23)</f>
         <v>3</v>
       </c>
-      <c r="G23" s="258"/>
-      <c r="H23" s="273"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="222"/>
       <c r="I23" s="63" t="s">
         <v>689</v>
       </c>
@@ -37681,8 +37680,8 @@
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A24" s="259"/>
-      <c r="B24" s="294"/>
+      <c r="A24" s="229"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="61" t="s">
         <v>647</v>
       </c>
@@ -37693,8 +37692,8 @@
         <f>COUNTIF(coded_data!E:E, D24)</f>
         <v>4</v>
       </c>
-      <c r="G24" s="258"/>
-      <c r="H24" s="273"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="222"/>
       <c r="I24" s="63" t="s">
         <v>696</v>
       </c>
@@ -37763,10 +37762,10 @@
       </c>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A25" s="260">
+      <c r="A25" s="227">
         <v>5</v>
       </c>
-      <c r="B25" s="295" t="s">
+      <c r="B25" s="292" t="s">
         <v>715</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -37779,8 +37778,8 @@
         <f>COUNTIF(coded_data!F:F, D25)</f>
         <v>8</v>
       </c>
-      <c r="G25" s="258"/>
-      <c r="H25" s="273"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="222"/>
       <c r="I25" s="63" t="s">
         <v>697</v>
       </c>
@@ -37827,8 +37826,8 @@
       </c>
     </row>
     <row r="26" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="300"/>
-      <c r="B26" s="296"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="293"/>
       <c r="C26" s="1" t="s">
         <v>650</v>
       </c>
@@ -37839,8 +37838,8 @@
         <f>COUNTIF(coded_data!F:F, D26)</f>
         <v>2</v>
       </c>
-      <c r="G26" s="258"/>
-      <c r="H26" s="273"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="222"/>
       <c r="I26" s="63" t="s">
         <v>698</v>
       </c>
@@ -37887,15 +37886,15 @@
       </c>
     </row>
     <row r="27" spans="1:70" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="297" t="s">
+      <c r="A27" s="232" t="s">
         <v>651</v>
       </c>
-      <c r="B27" s="298"/>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
-      <c r="E27" s="299"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="273"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="222"/>
       <c r="I27" s="63" t="s">
         <v>643</v>
       </c>
@@ -37924,10 +37923,10 @@
       </c>
     </row>
     <row r="28" spans="1:70" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="257">
+      <c r="A28" s="230">
         <v>6</v>
       </c>
-      <c r="B28" s="304" t="s">
+      <c r="B28" s="224" t="s">
         <v>652</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -37940,13 +37939,13 @@
         <f>COUNTIF(coded_data!G:G, D28)</f>
         <v>4</v>
       </c>
-      <c r="G28" s="258"/>
-      <c r="H28" s="291"/>
-      <c r="I28" s="274" t="s">
+      <c r="G28" s="228"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="247" t="s">
         <v>699</v>
       </c>
-      <c r="J28" s="275"/>
-      <c r="K28" s="276"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="249"/>
       <c r="M28" s="71"/>
       <c r="N28" s="74"/>
       <c r="O28" s="1" t="s">
@@ -37959,18 +37958,18 @@
         <f>COUNTIF(coded_data!BY:BY, P28)</f>
         <v>9</v>
       </c>
-      <c r="AX28" s="234" t="s">
+      <c r="AX28" s="259" t="s">
         <v>872</v>
       </c>
-      <c r="AY28" s="235"/>
-      <c r="AZ28" s="235"/>
-      <c r="BA28" s="235"/>
-      <c r="BB28" s="235"/>
-      <c r="BC28" s="236"/>
+      <c r="AY28" s="260"/>
+      <c r="AZ28" s="260"/>
+      <c r="BA28" s="260"/>
+      <c r="BB28" s="260"/>
+      <c r="BC28" s="261"/>
     </row>
     <row r="29" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="259"/>
-      <c r="B29" s="305"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="61" t="s">
         <v>649</v>
       </c>
@@ -37981,8 +37980,8 @@
         <f>COUNTIF(coded_data!G:G, D29)</f>
         <v>6</v>
       </c>
-      <c r="G29" s="258"/>
-      <c r="H29" s="273"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="222"/>
       <c r="I29" s="63" t="s">
         <v>700</v>
       </c>
@@ -38005,18 +38004,18 @@
         <f>COUNTIF(coded_data!BZ:BZ, P29)</f>
         <v>3</v>
       </c>
-      <c r="AX29" s="237"/>
-      <c r="AY29" s="238"/>
-      <c r="AZ29" s="238"/>
-      <c r="BA29" s="238"/>
-      <c r="BB29" s="238"/>
-      <c r="BC29" s="239"/>
+      <c r="AX29" s="262"/>
+      <c r="AY29" s="263"/>
+      <c r="AZ29" s="263"/>
+      <c r="BA29" s="263"/>
+      <c r="BB29" s="263"/>
+      <c r="BC29" s="264"/>
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A30" s="260">
+      <c r="A30" s="227">
         <v>7</v>
       </c>
-      <c r="B30" s="240" t="s">
+      <c r="B30" s="221" t="s">
         <v>728</v>
       </c>
       <c r="C30" s="57" t="s">
@@ -38029,8 +38028,8 @@
         <f>COUNTIF(coded_data!H:H, D30)</f>
         <v>8</v>
       </c>
-      <c r="G30" s="258"/>
-      <c r="H30" s="273"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="222"/>
       <c r="I30" s="63" t="s">
         <v>701</v>
       </c>
@@ -38073,8 +38072,8 @@
       </c>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A31" s="258"/>
-      <c r="B31" s="273"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="222"/>
       <c r="C31" s="1" t="s">
         <v>654</v>
       </c>
@@ -38085,8 +38084,8 @@
         <f>COUNTIF(coded_data!H:H, D31)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="258"/>
-      <c r="H31" s="273"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="222"/>
       <c r="I31" s="63" t="s">
         <v>702</v>
       </c>
@@ -38133,8 +38132,8 @@
       </c>
     </row>
     <row r="32" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="300"/>
-      <c r="B32" s="273"/>
+      <c r="A32" s="231"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="1" t="s">
         <v>643</v>
       </c>
@@ -38145,8 +38144,8 @@
         <f>COUNTIF(coded_data!H:H, D32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="258"/>
-      <c r="H32" s="273"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="222"/>
       <c r="I32" s="63" t="s">
         <v>703</v>
       </c>
@@ -38197,15 +38196,15 @@
       </c>
     </row>
     <row r="33" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="297" t="s">
+      <c r="A33" s="232" t="s">
         <v>655</v>
       </c>
-      <c r="B33" s="298"/>
-      <c r="C33" s="298"/>
-      <c r="D33" s="298"/>
-      <c r="E33" s="299"/>
-      <c r="G33" s="259"/>
-      <c r="H33" s="241"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="223"/>
       <c r="I33" s="64" t="s">
         <v>643</v>
       </c>
@@ -38252,10 +38251,10 @@
       </c>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A34" s="257">
+      <c r="A34" s="230">
         <v>8</v>
       </c>
-      <c r="B34" s="273" t="s">
+      <c r="B34" s="222" t="s">
         <v>716</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -38268,10 +38267,10 @@
         <f>COUNTIF(coded_data!I:I, D34)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="260">
+      <c r="G34" s="227">
         <v>17</v>
       </c>
-      <c r="H34" s="240" t="s">
+      <c r="H34" s="221" t="s">
         <v>704</v>
       </c>
       <c r="I34" s="66" t="s">
@@ -38298,8 +38297,8 @@
       </c>
     </row>
     <row r="35" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="258"/>
-      <c r="B35" s="273"/>
+      <c r="A35" s="228"/>
+      <c r="B35" s="222"/>
       <c r="C35" s="1" t="s">
         <v>657</v>
       </c>
@@ -38310,8 +38309,8 @@
         <f>COUNTIF(coded_data!I:I, D35)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="258"/>
-      <c r="H35" s="273"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="222"/>
       <c r="I35" s="63" t="s">
         <v>723</v>
       </c>
@@ -38336,8 +38335,8 @@
       </c>
     </row>
     <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="258"/>
-      <c r="B36" s="273"/>
+      <c r="A36" s="228"/>
+      <c r="B36" s="222"/>
       <c r="C36" s="1" t="s">
         <v>658</v>
       </c>
@@ -38348,8 +38347,8 @@
         <f>COUNTIF(coded_data!I:I, D36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="259"/>
-      <c r="H36" s="241"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="223"/>
       <c r="I36" s="63" t="s">
         <v>724</v>
       </c>
@@ -38374,8 +38373,8 @@
       </c>
     </row>
     <row r="37" spans="1:55" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="258"/>
-      <c r="B37" s="273"/>
+      <c r="A37" s="228"/>
+      <c r="B37" s="222"/>
       <c r="C37" s="1" t="s">
         <v>659</v>
       </c>
@@ -38386,17 +38385,17 @@
         <f>COUNTIF(coded_data!I:I, D37)</f>
         <v>5</v>
       </c>
-      <c r="G37" s="260">
+      <c r="G37" s="227">
         <v>18</v>
       </c>
-      <c r="H37" s="240" t="s">
+      <c r="H37" s="221" t="s">
         <v>729</v>
       </c>
-      <c r="I37" s="286" t="s">
+      <c r="I37" s="241" t="s">
         <v>725</v>
       </c>
-      <c r="J37" s="286"/>
-      <c r="K37" s="287"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="242"/>
       <c r="L37" s="54"/>
       <c r="M37" s="72"/>
       <c r="N37" s="75"/>
@@ -38412,8 +38411,8 @@
       </c>
     </row>
     <row r="38" spans="1:55" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="258"/>
-      <c r="B38" s="273"/>
+      <c r="A38" s="228"/>
+      <c r="B38" s="222"/>
       <c r="C38" s="1" t="s">
         <v>660</v>
       </c>
@@ -38424,8 +38423,8 @@
         <f>COUNTIF(coded_data!I:I, D38)</f>
         <v>2</v>
       </c>
-      <c r="G38" s="258"/>
-      <c r="H38" s="273"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="222"/>
       <c r="I38" s="69" t="s">
         <v>732</v>
       </c>
@@ -38452,8 +38451,8 @@
       </c>
     </row>
     <row r="39" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="258"/>
-      <c r="B39" s="273"/>
+      <c r="A39" s="228"/>
+      <c r="B39" s="222"/>
       <c r="C39" s="1" t="s">
         <v>661</v>
       </c>
@@ -38464,8 +38463,8 @@
         <f>COUNTIF(coded_data!I:I, D39)</f>
         <v>2</v>
       </c>
-      <c r="G39" s="258"/>
-      <c r="H39" s="273"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="222"/>
       <c r="I39" s="59" t="s">
         <v>718</v>
       </c>
@@ -38488,8 +38487,8 @@
       </c>
     </row>
     <row r="40" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="259"/>
-      <c r="B40" s="241"/>
+      <c r="A40" s="229"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="61" t="s">
         <v>643</v>
       </c>
@@ -38500,8 +38499,8 @@
         <f>COUNTIF(coded_data!I:I, D40)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="258"/>
-      <c r="H40" s="273"/>
+      <c r="G40" s="228"/>
+      <c r="H40" s="222"/>
       <c r="I40" s="60" t="s">
         <v>508</v>
       </c>
@@ -38524,10 +38523,10 @@
       </c>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A41" s="260">
+      <c r="A41" s="227">
         <v>9</v>
       </c>
-      <c r="B41" s="240" t="s">
+      <c r="B41" s="221" t="s">
         <v>662</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -38540,13 +38539,13 @@
         <f>COUNTIF(coded_data!J:J, D41)</f>
         <v>2</v>
       </c>
-      <c r="G41" s="258"/>
-      <c r="H41" s="273"/>
-      <c r="I41" s="288" t="s">
+      <c r="G41" s="228"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="243" t="s">
         <v>726</v>
       </c>
-      <c r="J41" s="288"/>
-      <c r="K41" s="289"/>
+      <c r="J41" s="243"/>
+      <c r="K41" s="244"/>
       <c r="M41" s="71"/>
       <c r="N41" s="74"/>
       <c r="O41" s="59" t="s">
@@ -38561,8 +38560,8 @@
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A42" s="259"/>
-      <c r="B42" s="241"/>
+      <c r="A42" s="229"/>
+      <c r="B42" s="223"/>
       <c r="C42" s="61" t="s">
         <v>649</v>
       </c>
@@ -38573,8 +38572,8 @@
         <f>COUNTIF(coded_data!J:J, D42)</f>
         <v>8</v>
       </c>
-      <c r="G42" s="258"/>
-      <c r="H42" s="273"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="222"/>
       <c r="I42" s="69" t="s">
         <v>732</v>
       </c>
@@ -38607,8 +38606,8 @@
         <f>CONCATENATE(SUM(coded_data!K:K)/(COUNT(coded_data!A:A) - COUNTIF(coded_data!K:K, D43)), " per month")</f>
         <v>45 per month</v>
       </c>
-      <c r="G43" s="258"/>
-      <c r="H43" s="273"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="222"/>
       <c r="I43" s="59" t="s">
         <v>718</v>
       </c>
@@ -38636,10 +38635,10 @@
       </c>
     </row>
     <row r="44" spans="1:55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="260">
+      <c r="A44" s="227">
         <v>11</v>
       </c>
-      <c r="B44" s="240" t="s">
+      <c r="B44" s="221" t="s">
         <v>717</v>
       </c>
       <c r="C44" s="57" t="s">
@@ -38652,8 +38651,8 @@
         <f>COUNTIF(coded_data!L:L, D44)</f>
         <v>6</v>
       </c>
-      <c r="G44" s="258"/>
-      <c r="H44" s="273"/>
+      <c r="G44" s="228"/>
+      <c r="H44" s="222"/>
       <c r="I44" s="60" t="s">
         <v>508</v>
       </c>
@@ -38676,8 +38675,8 @@
       </c>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A45" s="258"/>
-      <c r="B45" s="273"/>
+      <c r="A45" s="228"/>
+      <c r="B45" s="222"/>
       <c r="C45" s="1" t="s">
         <v>665</v>
       </c>
@@ -38688,13 +38687,13 @@
         <f>COUNTIF(coded_data!L:L, D45)</f>
         <v>4</v>
       </c>
-      <c r="G45" s="258"/>
-      <c r="H45" s="273"/>
-      <c r="I45" s="288" t="s">
+      <c r="G45" s="228"/>
+      <c r="H45" s="222"/>
+      <c r="I45" s="243" t="s">
         <v>727</v>
       </c>
-      <c r="J45" s="288"/>
-      <c r="K45" s="289"/>
+      <c r="J45" s="243"/>
+      <c r="K45" s="244"/>
       <c r="M45" s="71"/>
       <c r="N45" s="74"/>
       <c r="O45" s="59" t="s">
@@ -38709,8 +38708,8 @@
       </c>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A46" s="259"/>
-      <c r="B46" s="241"/>
+      <c r="A46" s="229"/>
+      <c r="B46" s="223"/>
       <c r="C46" s="61" t="s">
         <v>643</v>
       </c>
@@ -38721,8 +38720,8 @@
         <f>COUNTIF(coded_data!L:L, D46)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="258"/>
-      <c r="H46" s="273"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="222"/>
       <c r="I46" s="69" t="s">
         <v>732</v>
       </c>
@@ -38745,10 +38744,10 @@
       </c>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A47" s="260">
+      <c r="A47" s="227">
         <v>12</v>
       </c>
-      <c r="B47" s="240" t="s">
+      <c r="B47" s="221" t="s">
         <v>666</v>
       </c>
       <c r="C47" s="57" t="s">
@@ -38761,8 +38760,8 @@
         <f>COUNTIF(coded_data!M:M, D47)</f>
         <v>4</v>
       </c>
-      <c r="G47" s="258"/>
-      <c r="H47" s="273"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="222"/>
       <c r="I47" s="59" t="s">
         <v>718</v>
       </c>
@@ -38785,8 +38784,8 @@
       </c>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A48" s="258"/>
-      <c r="B48" s="273"/>
+      <c r="A48" s="228"/>
+      <c r="B48" s="222"/>
       <c r="C48" s="1" t="s">
         <v>668</v>
       </c>
@@ -38797,8 +38796,8 @@
         <f>COUNTIF(coded_data!N:N, D48)</f>
         <v>6</v>
       </c>
-      <c r="G48" s="259"/>
-      <c r="H48" s="241"/>
+      <c r="G48" s="229"/>
+      <c r="H48" s="223"/>
       <c r="I48" s="60" t="s">
         <v>508</v>
       </c>
@@ -38821,8 +38820,8 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="258"/>
-      <c r="B49" s="273"/>
+      <c r="A49" s="228"/>
+      <c r="B49" s="222"/>
       <c r="C49" s="1" t="s">
         <v>669</v>
       </c>
@@ -38833,10 +38832,10 @@
         <f>COUNTIF(coded_data!O:O, D49)</f>
         <v>6</v>
       </c>
-      <c r="G49" s="260">
+      <c r="G49" s="227">
         <v>19</v>
       </c>
-      <c r="H49" s="240" t="s">
+      <c r="H49" s="221" t="s">
         <v>705</v>
       </c>
       <c r="I49" s="57" t="s">
@@ -38868,8 +38867,8 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="258"/>
-      <c r="B50" s="273"/>
+      <c r="A50" s="228"/>
+      <c r="B50" s="222"/>
       <c r="C50" s="1" t="s">
         <v>670</v>
       </c>
@@ -38880,8 +38879,8 @@
         <f>COUNTIF(coded_data!P:P, D50)</f>
         <v>6</v>
       </c>
-      <c r="G50" s="258"/>
-      <c r="H50" s="273"/>
+      <c r="G50" s="228"/>
+      <c r="H50" s="222"/>
       <c r="I50" s="1" t="s">
         <v>707</v>
       </c>
@@ -38906,8 +38905,8 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="258"/>
-      <c r="B51" s="273"/>
+      <c r="A51" s="228"/>
+      <c r="B51" s="222"/>
       <c r="C51" s="1" t="s">
         <v>671</v>
       </c>
@@ -38918,8 +38917,8 @@
         <f>COUNTIF(coded_data!Q:Q, D51)</f>
         <v>5</v>
       </c>
-      <c r="G51" s="258"/>
-      <c r="H51" s="273"/>
+      <c r="G51" s="228"/>
+      <c r="H51" s="222"/>
       <c r="I51" s="1" t="s">
         <v>708</v>
       </c>
@@ -38944,8 +38943,8 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="259"/>
-      <c r="B52" s="241"/>
+      <c r="A52" s="229"/>
+      <c r="B52" s="223"/>
       <c r="C52" s="61" t="s">
         <v>643</v>
       </c>
@@ -38956,8 +38955,8 @@
         <f>COUNTIF(coded_data!R:R, D52)</f>
         <v>1</v>
       </c>
-      <c r="G52" s="259"/>
-      <c r="H52" s="241"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="223"/>
       <c r="I52" s="61" t="s">
         <v>709</v>
       </c>
@@ -38986,10 +38985,10 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="260">
+      <c r="A53" s="227">
         <v>13</v>
       </c>
-      <c r="B53" s="240" t="s">
+      <c r="B53" s="221" t="s">
         <v>672</v>
       </c>
       <c r="C53" s="57" t="s">
@@ -39002,10 +39001,10 @@
         <f>COUNTIF(coded_data!S:S, D53)</f>
         <v>10</v>
       </c>
-      <c r="G53" s="260">
+      <c r="G53" s="227">
         <v>20</v>
       </c>
-      <c r="H53" s="240" t="s">
+      <c r="H53" s="221" t="s">
         <v>710</v>
       </c>
       <c r="I53" s="57" t="s">
@@ -39032,8 +39031,8 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="258"/>
-      <c r="B54" s="273"/>
+      <c r="A54" s="228"/>
+      <c r="B54" s="222"/>
       <c r="C54" s="1" t="s">
         <v>674</v>
       </c>
@@ -39044,8 +39043,8 @@
         <f>COUNTIF(coded_data!T:T, D54)</f>
         <v>2</v>
       </c>
-      <c r="G54" s="258"/>
-      <c r="H54" s="273"/>
+      <c r="G54" s="228"/>
+      <c r="H54" s="222"/>
       <c r="I54" s="1" t="s">
         <v>712</v>
       </c>
@@ -39070,8 +39069,8 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="258"/>
-      <c r="B55" s="273"/>
+      <c r="A55" s="228"/>
+      <c r="B55" s="222"/>
       <c r="C55" s="1" t="s">
         <v>675</v>
       </c>
@@ -39082,8 +39081,8 @@
         <f>COUNTIF(coded_data!U:U, D55)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="258"/>
-      <c r="H55" s="273"/>
+      <c r="G55" s="228"/>
+      <c r="H55" s="222"/>
       <c r="I55" s="1" t="s">
         <v>713</v>
       </c>
@@ -39108,8 +39107,8 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="258"/>
-      <c r="B56" s="273"/>
+      <c r="A56" s="228"/>
+      <c r="B56" s="222"/>
       <c r="C56" s="1" t="s">
         <v>676</v>
       </c>
@@ -39120,8 +39119,8 @@
         <f>COUNTIF(coded_data!V:V, D56)</f>
         <v>3</v>
       </c>
-      <c r="G56" s="259"/>
-      <c r="H56" s="241"/>
+      <c r="G56" s="229"/>
+      <c r="H56" s="223"/>
       <c r="I56" s="61" t="s">
         <v>643</v>
       </c>
@@ -39146,8 +39145,8 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="258"/>
-      <c r="B57" s="273"/>
+      <c r="A57" s="228"/>
+      <c r="B57" s="222"/>
       <c r="C57" s="1" t="s">
         <v>677</v>
       </c>
@@ -39172,8 +39171,8 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="258"/>
-      <c r="B58" s="273"/>
+      <c r="A58" s="228"/>
+      <c r="B58" s="222"/>
       <c r="C58" s="1" t="s">
         <v>678</v>
       </c>
@@ -39202,8 +39201,8 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="258"/>
-      <c r="B59" s="273"/>
+      <c r="A59" s="228"/>
+      <c r="B59" s="222"/>
       <c r="C59" s="1" t="s">
         <v>679</v>
       </c>
@@ -39228,8 +39227,8 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="259"/>
-      <c r="B60" s="241"/>
+      <c r="A60" s="229"/>
+      <c r="B60" s="223"/>
       <c r="C60" s="61" t="s">
         <v>643</v>
       </c>
@@ -39269,6 +39268,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BM14:BO14"/>
+    <mergeCell ref="BP14:BR14"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="BL1:CD2"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BL13:BR13"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="BW3:BZ3"/>
+    <mergeCell ref="AX28:BC29"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="S1:AJ2"/>
+    <mergeCell ref="B1:Q2"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="AL1:AV2"/>
+    <mergeCell ref="AX1:BC2"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="BE1:BJ2"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="H37:H48"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="H18:H33"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="H53:H56"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A1:A2"/>
@@ -39285,63 +39341,6 @@
     <mergeCell ref="H5:H12"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="H37:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H18:H33"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="BE1:BJ2"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="AX28:BC29"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="S1:AJ2"/>
-    <mergeCell ref="B1:Q2"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="AL1:AV2"/>
-    <mergeCell ref="AX1:BC2"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BM14:BO14"/>
-    <mergeCell ref="BP14:BR14"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="BL1:CD2"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BL13:BR13"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="BW3:BZ3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E12">
     <cfRule type="dataBar" priority="88">
@@ -40343,56 +40342,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="248" t="str">
+      <c r="B1" s="271" t="str">
         <f>CONCATENATE("SUMMARY OF VARIABLE SCORES AT (n = ", COUNT(processed_data!A:A), ")")</f>
         <v>SUMMARY OF VARIABLE SCORES AT (n = 10)</v>
       </c>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="310"/>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="311"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="314"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="306"/>
-      <c r="B2" s="312"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="314"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="317"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="318" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="319"/>
+      <c r="M3" s="319"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
@@ -40748,21 +40747,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="317" t="s">
+      <c r="A12" s="320" t="s">
         <v>481</v>
       </c>
-      <c r="B12" s="318"/>
-      <c r="C12" s="318"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="318"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="318"/>
-      <c r="I12" s="318"/>
-      <c r="J12" s="318"/>
-      <c r="K12" s="318"/>
-      <c r="L12" s="318"/>
-      <c r="M12" s="318"/>
+      <c r="B12" s="321"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="321"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
+      <c r="M12" s="321"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="53" t="s">
@@ -40910,21 +40909,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="308" t="s">
+      <c r="A17" s="311" t="s">
         <v>482</v>
       </c>
-      <c r="B17" s="308"/>
-      <c r="C17" s="308"/>
-      <c r="D17" s="308"/>
-      <c r="E17" s="308"/>
-      <c r="F17" s="308"/>
-      <c r="G17" s="308"/>
-      <c r="H17" s="308"/>
-      <c r="I17" s="308"/>
-      <c r="J17" s="308"/>
-      <c r="K17" s="308"/>
-      <c r="L17" s="308"/>
-      <c r="M17" s="308"/>
+      <c r="B17" s="311"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="311"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="311"/>
+      <c r="H17" s="311"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="311"/>
+      <c r="K17" s="311"/>
+      <c r="L17" s="311"/>
+      <c r="M17" s="311"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
@@ -41384,21 +41383,21 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="309" t="s">
+      <c r="A28" s="312" t="s">
         <v>616</v>
       </c>
-      <c r="B28" s="309"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="309"/>
-      <c r="G28" s="309"/>
-      <c r="H28" s="309"/>
-      <c r="I28" s="309"/>
-      <c r="J28" s="309"/>
-      <c r="K28" s="309"/>
-      <c r="L28" s="309"/>
-      <c r="M28" s="309"/>
+      <c r="B28" s="312"/>
+      <c r="C28" s="312"/>
+      <c r="D28" s="312"/>
+      <c r="E28" s="312"/>
+      <c r="F28" s="312"/>
+      <c r="G28" s="312"/>
+      <c r="H28" s="312"/>
+      <c r="I28" s="312"/>
+      <c r="J28" s="312"/>
+      <c r="K28" s="312"/>
+      <c r="L28" s="312"/>
+      <c r="M28" s="312"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="53" t="s">
@@ -41494,21 +41493,21 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="307" t="s">
+      <c r="A32" s="310" t="s">
         <v>617</v>
       </c>
-      <c r="B32" s="307"/>
-      <c r="C32" s="307"/>
-      <c r="D32" s="307"/>
-      <c r="E32" s="307"/>
-      <c r="F32" s="307"/>
-      <c r="G32" s="307"/>
-      <c r="H32" s="307"/>
-      <c r="I32" s="307"/>
-      <c r="J32" s="307"/>
-      <c r="K32" s="307"/>
-      <c r="L32" s="307"/>
-      <c r="M32" s="307"/>
+      <c r="B32" s="310"/>
+      <c r="C32" s="310"/>
+      <c r="D32" s="310"/>
+      <c r="E32" s="310"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="310"/>
+      <c r="H32" s="310"/>
+      <c r="I32" s="310"/>
+      <c r="J32" s="310"/>
+      <c r="K32" s="310"/>
+      <c r="L32" s="310"/>
+      <c r="M32" s="310"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
@@ -41950,64 +41949,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="325" t="s">
         <v>926</v>
       </c>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
-      <c r="P1" s="323"/>
-      <c r="Q1" s="323"/>
-      <c r="R1" s="323"/>
-      <c r="S1" s="323"/>
-      <c r="T1" s="323"/>
-      <c r="U1" s="323"/>
-      <c r="V1" s="324"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="327"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="328"/>
-      <c r="B2" s="325"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326"/>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="326"/>
-      <c r="V2" s="327"/>
+      <c r="A2" s="331"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="329"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
+      <c r="Q2" s="329"/>
+      <c r="R2" s="329"/>
+      <c r="S2" s="329"/>
+      <c r="T2" s="329"/>
+      <c r="U2" s="329"/>
+      <c r="V2" s="330"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="322" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="320"/>
+      <c r="A4" s="323"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
@@ -43296,12 +43295,12 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="321" t="s">
+      <c r="A27" s="324" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="321"/>
+      <c r="A28" s="324"/>
     </row>
     <row r="29" spans="1:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="s">
@@ -44590,7 +44589,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="321" t="s">
+      <c r="A51" s="324" t="s">
         <v>620</v>
       </c>
       <c r="B51" s="50"/>
@@ -44599,7 +44598,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="321"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="51"/>
       <c r="C52" s="43" t="s">
         <v>624</v>
